--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="277">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -577,6 +577,12 @@
     <t>['72', '82']</t>
   </si>
   <si>
+    <t>['24', '27']</t>
+  </si>
+  <si>
+    <t>['31', '42', '51']</t>
+  </si>
+  <si>
     <t>['23']</t>
   </si>
   <si>
@@ -833,6 +839,12 @@
   </si>
   <si>
     <t>['1', '34']</t>
+  </si>
+  <si>
+    <t>['40', '77']</t>
+  </si>
+  <si>
+    <t>['18']</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP175"/>
+  <dimension ref="A1:BP178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1453,7 +1465,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1659,7 +1671,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1865,7 +1877,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -2071,7 +2083,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2277,7 +2289,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2355,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
         <v>2</v>
@@ -2483,7 +2495,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q7">
         <v>3.75</v>
@@ -3101,7 +3113,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3179,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10">
         <v>1.36</v>
@@ -3388,7 +3400,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ11">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3513,7 +3525,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q12">
         <v>4.5</v>
@@ -3591,10 +3603,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ12">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3719,7 +3731,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3800,7 +3812,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ13">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4131,7 +4143,7 @@
         <v>82</v>
       </c>
       <c r="P15" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q15">
         <v>2.55</v>
@@ -4624,7 +4636,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ17">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR17">
         <v>2.14</v>
@@ -4749,7 +4761,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -5033,10 +5045,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR19">
         <v>1.02</v>
@@ -5367,7 +5379,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5445,7 +5457,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ21">
         <v>2.13</v>
@@ -5573,7 +5585,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5779,7 +5791,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q23">
         <v>4.75</v>
@@ -5985,7 +5997,7 @@
         <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q24">
         <v>4.33</v>
@@ -6063,7 +6075,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ24">
         <v>1.53</v>
@@ -6272,7 +6284,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ25">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR25">
         <v>0.86</v>
@@ -6397,7 +6409,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q26">
         <v>1.68</v>
@@ -6603,7 +6615,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6809,7 +6821,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6887,7 +6899,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ28">
         <v>0.8</v>
@@ -7096,7 +7108,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR29">
         <v>1.36</v>
@@ -7221,7 +7233,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7302,7 +7314,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ30">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR30">
         <v>2.03</v>
@@ -7427,7 +7439,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7633,7 +7645,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7839,7 +7851,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q33">
         <v>3</v>
@@ -8045,7 +8057,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8123,7 +8135,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ34">
         <v>2.13</v>
@@ -8251,7 +8263,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8869,7 +8881,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -9075,7 +9087,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9153,7 +9165,7 @@
         <v>1.33</v>
       </c>
       <c r="AP39">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ39">
         <v>0.8</v>
@@ -9281,7 +9293,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9487,7 +9499,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9565,10 +9577,10 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ41">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR41">
         <v>1</v>
@@ -9693,7 +9705,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9774,7 +9786,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ42">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR42">
         <v>1.12</v>
@@ -9899,7 +9911,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q43">
         <v>2.2</v>
@@ -9980,7 +9992,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ43">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR43">
         <v>2.21</v>
@@ -10105,7 +10117,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q44">
         <v>3.25</v>
@@ -10186,7 +10198,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR44">
         <v>1.29</v>
@@ -10311,7 +10323,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q45">
         <v>1.57</v>
@@ -10801,10 +10813,10 @@
         <v>0.75</v>
       </c>
       <c r="AP47">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR47">
         <v>1.46</v>
@@ -11135,7 +11147,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11341,7 +11353,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11625,7 +11637,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ51">
         <v>1.33</v>
@@ -11753,7 +11765,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q52">
         <v>9.5</v>
@@ -11831,7 +11843,7 @@
         <v>2.5</v>
       </c>
       <c r="AP52">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ52">
         <v>2</v>
@@ -12040,7 +12052,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ53">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR53">
         <v>1.32</v>
@@ -12577,7 +12589,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12655,7 +12667,7 @@
         <v>1.25</v>
       </c>
       <c r="AP56">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ56">
         <v>1.53</v>
@@ -12864,7 +12876,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ57">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR57">
         <v>1.14</v>
@@ -13195,7 +13207,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13607,7 +13619,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q61">
         <v>7.5</v>
@@ -13813,7 +13825,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -14019,7 +14031,7 @@
         <v>123</v>
       </c>
       <c r="P63" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q63">
         <v>2.05</v>
@@ -14303,7 +14315,7 @@
         <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ64">
         <v>0.73</v>
@@ -14509,10 +14521,10 @@
         <v>1.5</v>
       </c>
       <c r="AP65">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ65">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR65">
         <v>1.3</v>
@@ -14637,7 +14649,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q66">
         <v>4.33</v>
@@ -14718,7 +14730,7 @@
         <v>1</v>
       </c>
       <c r="AQ66">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR66">
         <v>1.22</v>
@@ -14843,7 +14855,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -15130,7 +15142,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ68">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR68">
         <v>1.43</v>
@@ -15333,10 +15345,10 @@
         <v>1.4</v>
       </c>
       <c r="AP69">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ69">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR69">
         <v>1.17</v>
@@ -15667,7 +15679,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q71">
         <v>4.33</v>
@@ -15745,7 +15757,7 @@
         <v>1.6</v>
       </c>
       <c r="AP71">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ71">
         <v>1.36</v>
@@ -15954,7 +15966,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ72">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR72">
         <v>1.45</v>
@@ -16079,7 +16091,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q73">
         <v>2.75</v>
@@ -16697,7 +16709,7 @@
         <v>86</v>
       </c>
       <c r="P76" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q76">
         <v>7.5</v>
@@ -16903,7 +16915,7 @@
         <v>86</v>
       </c>
       <c r="P77" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q77">
         <v>4.33</v>
@@ -16981,7 +16993,7 @@
         <v>1.6</v>
       </c>
       <c r="AP77">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ77">
         <v>1.53</v>
@@ -17109,7 +17121,7 @@
         <v>131</v>
       </c>
       <c r="P78" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q78">
         <v>2.5</v>
@@ -17521,7 +17533,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q80">
         <v>3.5</v>
@@ -17933,7 +17945,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q82">
         <v>4.5</v>
@@ -18011,10 +18023,10 @@
         <v>1.17</v>
       </c>
       <c r="AP82">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ82">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR82">
         <v>0.95</v>
@@ -18217,7 +18229,7 @@
         <v>1.33</v>
       </c>
       <c r="AP83">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ83">
         <v>1.29</v>
@@ -18345,7 +18357,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q84">
         <v>4.75</v>
@@ -18757,7 +18769,7 @@
         <v>137</v>
       </c>
       <c r="P86" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -19044,7 +19056,7 @@
         <v>2</v>
       </c>
       <c r="AQ87">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR87">
         <v>1.53</v>
@@ -19456,7 +19468,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ89">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR89">
         <v>1.34</v>
@@ -19581,7 +19593,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19659,7 +19671,7 @@
         <v>1.71</v>
       </c>
       <c r="AP90">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ90">
         <v>1.33</v>
@@ -19993,7 +20005,7 @@
         <v>141</v>
       </c>
       <c r="P92" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20071,7 +20083,7 @@
         <v>2.29</v>
       </c>
       <c r="AP92">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ92">
         <v>2.13</v>
@@ -20280,7 +20292,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ93">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR93">
         <v>1.59</v>
@@ -20817,7 +20829,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q96">
         <v>5.5</v>
@@ -21101,7 +21113,7 @@
         <v>0.43</v>
       </c>
       <c r="AP97">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ97">
         <v>0.73</v>
@@ -21435,7 +21447,7 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q99">
         <v>3.6</v>
@@ -21516,7 +21528,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ99">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR99">
         <v>1.3</v>
@@ -21641,7 +21653,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21719,7 +21731,7 @@
         <v>1.13</v>
       </c>
       <c r="AP100">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ100">
         <v>1.29</v>
@@ -21847,7 +21859,7 @@
         <v>148</v>
       </c>
       <c r="P101" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -21925,10 +21937,10 @@
         <v>0.5</v>
       </c>
       <c r="AP101">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ101">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR101">
         <v>1.23</v>
@@ -22134,7 +22146,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ102">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR102">
         <v>1.23</v>
@@ -22465,7 +22477,7 @@
         <v>151</v>
       </c>
       <c r="P104" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22877,7 +22889,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -22955,7 +22967,7 @@
         <v>0.75</v>
       </c>
       <c r="AP106">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ106">
         <v>0.8</v>
@@ -23083,7 +23095,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q107">
         <v>2.4</v>
@@ -23289,7 +23301,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q108">
         <v>3.75</v>
@@ -23495,7 +23507,7 @@
         <v>154</v>
       </c>
       <c r="P109" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -23701,7 +23713,7 @@
         <v>155</v>
       </c>
       <c r="P110" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q110">
         <v>2.2</v>
@@ -23782,7 +23794,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ110">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR110">
         <v>1.29</v>
@@ -24191,7 +24203,7 @@
         <v>2.33</v>
       </c>
       <c r="AP112">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ112">
         <v>2</v>
@@ -24319,7 +24331,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q113">
         <v>4.33</v>
@@ -24397,7 +24409,7 @@
         <v>1.78</v>
       </c>
       <c r="AP113">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ113">
         <v>1.33</v>
@@ -25224,7 +25236,7 @@
         <v>2</v>
       </c>
       <c r="AQ117">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR117">
         <v>1.56</v>
@@ -25349,7 +25361,7 @@
         <v>120</v>
       </c>
       <c r="P118" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q118">
         <v>3.16</v>
@@ -25427,7 +25439,7 @@
         <v>1.33</v>
       </c>
       <c r="AP118">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ118">
         <v>1.36</v>
@@ -25555,7 +25567,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q119">
         <v>5.5</v>
@@ -26048,7 +26060,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ121">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR121">
         <v>1.79</v>
@@ -26460,7 +26472,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ123">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR123">
         <v>1.65</v>
@@ -26585,7 +26597,7 @@
         <v>103</v>
       </c>
       <c r="P124" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q124">
         <v>1.57</v>
@@ -26791,7 +26803,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q125">
         <v>4.33</v>
@@ -26869,10 +26881,10 @@
         <v>1</v>
       </c>
       <c r="AP125">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ125">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR125">
         <v>1.22</v>
@@ -27075,7 +27087,7 @@
         <v>1.3</v>
       </c>
       <c r="AP126">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ126">
         <v>1.29</v>
@@ -27615,7 +27627,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q129">
         <v>3.9</v>
@@ -27821,7 +27833,7 @@
         <v>161</v>
       </c>
       <c r="P130" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q130">
         <v>3.7</v>
@@ -28105,7 +28117,7 @@
         <v>0.7</v>
       </c>
       <c r="AP131">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ131">
         <v>0.8</v>
@@ -28520,7 +28532,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ133">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR133">
         <v>1.4</v>
@@ -28929,7 +28941,7 @@
         <v>0.64</v>
       </c>
       <c r="AP135">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ135">
         <v>0.73</v>
@@ -29135,10 +29147,10 @@
         <v>1.18</v>
       </c>
       <c r="AP136">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ136">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR136">
         <v>1.46</v>
@@ -29344,7 +29356,7 @@
         <v>1</v>
       </c>
       <c r="AQ137">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR137">
         <v>1.32</v>
@@ -29469,7 +29481,7 @@
         <v>86</v>
       </c>
       <c r="P138" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q138">
         <v>4.5</v>
@@ -29675,7 +29687,7 @@
         <v>168</v>
       </c>
       <c r="P139" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q139">
         <v>1.8</v>
@@ -30087,7 +30099,7 @@
         <v>169</v>
       </c>
       <c r="P141" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30165,10 +30177,10 @@
         <v>0.64</v>
       </c>
       <c r="AP141">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ141">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR141">
         <v>1.03</v>
@@ -30705,7 +30717,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -30911,7 +30923,7 @@
         <v>86</v>
       </c>
       <c r="P145" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -31195,10 +31207,10 @@
         <v>0.83</v>
       </c>
       <c r="AP146">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ146">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR146">
         <v>1.44</v>
@@ -31607,10 +31619,10 @@
         <v>1.17</v>
       </c>
       <c r="AP148">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ148">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR148">
         <v>1.24</v>
@@ -31941,7 +31953,7 @@
         <v>172</v>
       </c>
       <c r="P150" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q150">
         <v>3.25</v>
@@ -32147,7 +32159,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -32353,7 +32365,7 @@
         <v>174</v>
       </c>
       <c r="P152" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q152">
         <v>4.75</v>
@@ -32559,7 +32571,7 @@
         <v>86</v>
       </c>
       <c r="P153" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q153">
         <v>4.75</v>
@@ -32637,7 +32649,7 @@
         <v>0.67</v>
       </c>
       <c r="AP153">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ153">
         <v>0.8</v>
@@ -32846,7 +32858,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ154">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR154">
         <v>1.28</v>
@@ -32971,7 +32983,7 @@
         <v>175</v>
       </c>
       <c r="P155" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q155">
         <v>3.25</v>
@@ -33177,7 +33189,7 @@
         <v>161</v>
       </c>
       <c r="P156" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q156">
         <v>4.75</v>
@@ -33383,7 +33395,7 @@
         <v>176</v>
       </c>
       <c r="P157" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q157">
         <v>2.1</v>
@@ -34082,7 +34094,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ160">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR160">
         <v>1.36</v>
@@ -34207,7 +34219,7 @@
         <v>178</v>
       </c>
       <c r="P161" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q161">
         <v>2.75</v>
@@ -34285,7 +34297,7 @@
         <v>0.62</v>
       </c>
       <c r="AP161">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ161">
         <v>0.8</v>
@@ -34413,7 +34425,7 @@
         <v>179</v>
       </c>
       <c r="P162" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34619,7 +34631,7 @@
         <v>180</v>
       </c>
       <c r="P163" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q163">
         <v>1.73</v>
@@ -34825,7 +34837,7 @@
         <v>85</v>
       </c>
       <c r="P164" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q164">
         <v>4.9</v>
@@ -34903,10 +34915,10 @@
         <v>1.15</v>
       </c>
       <c r="AP164">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ164">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR164">
         <v>1.02</v>
@@ -35112,7 +35124,7 @@
         <v>1</v>
       </c>
       <c r="AQ165">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR165">
         <v>1.31</v>
@@ -35237,7 +35249,7 @@
         <v>181</v>
       </c>
       <c r="P166" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q166">
         <v>3.56</v>
@@ -35315,7 +35327,7 @@
         <v>0.85</v>
       </c>
       <c r="AP166">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ166">
         <v>0.8</v>
@@ -35443,7 +35455,7 @@
         <v>171</v>
       </c>
       <c r="P167" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35649,7 +35661,7 @@
         <v>182</v>
       </c>
       <c r="P168" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -35855,7 +35867,7 @@
         <v>141</v>
       </c>
       <c r="P169" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q169">
         <v>3.45</v>
@@ -36061,7 +36073,7 @@
         <v>183</v>
       </c>
       <c r="P170" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q170">
         <v>2.4</v>
@@ -36267,7 +36279,7 @@
         <v>86</v>
       </c>
       <c r="P171" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q171">
         <v>2.75</v>
@@ -36885,7 +36897,7 @@
         <v>185</v>
       </c>
       <c r="P174" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37091,7 +37103,7 @@
         <v>186</v>
       </c>
       <c r="P175" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q175">
         <v>2.4</v>
@@ -37248,6 +37260,624 @@
       </c>
       <c r="BP175">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7383403</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45415.60416666666</v>
+      </c>
+      <c r="F176">
+        <v>8</v>
+      </c>
+      <c r="G176" t="s">
+        <v>80</v>
+      </c>
+      <c r="H176" t="s">
+        <v>75</v>
+      </c>
+      <c r="I176">
+        <v>2</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>2</v>
+      </c>
+      <c r="L176">
+        <v>2</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>2</v>
+      </c>
+      <c r="O176" t="s">
+        <v>187</v>
+      </c>
+      <c r="P176" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q176">
+        <v>5.73</v>
+      </c>
+      <c r="R176">
+        <v>2.34</v>
+      </c>
+      <c r="S176">
+        <v>2.25</v>
+      </c>
+      <c r="T176">
+        <v>1.4</v>
+      </c>
+      <c r="U176">
+        <v>3.06</v>
+      </c>
+      <c r="V176">
+        <v>2.94</v>
+      </c>
+      <c r="W176">
+        <v>1.42</v>
+      </c>
+      <c r="X176">
+        <v>6.25</v>
+      </c>
+      <c r="Y176">
+        <v>1.09</v>
+      </c>
+      <c r="Z176">
+        <v>4.8</v>
+      </c>
+      <c r="AA176">
+        <v>3.6</v>
+      </c>
+      <c r="AB176">
+        <v>1.62</v>
+      </c>
+      <c r="AC176">
+        <v>1.05</v>
+      </c>
+      <c r="AD176">
+        <v>11.75</v>
+      </c>
+      <c r="AE176">
+        <v>1.3</v>
+      </c>
+      <c r="AF176">
+        <v>3.6</v>
+      </c>
+      <c r="AG176">
+        <v>2</v>
+      </c>
+      <c r="AH176">
+        <v>1.88</v>
+      </c>
+      <c r="AI176">
+        <v>1.88</v>
+      </c>
+      <c r="AJ176">
+        <v>1.82</v>
+      </c>
+      <c r="AK176">
+        <v>2.15</v>
+      </c>
+      <c r="AL176">
+        <v>1.27</v>
+      </c>
+      <c r="AM176">
+        <v>1.18</v>
+      </c>
+      <c r="AN176">
+        <v>0.21</v>
+      </c>
+      <c r="AO176">
+        <v>1.21</v>
+      </c>
+      <c r="AP176">
+        <v>0.4</v>
+      </c>
+      <c r="AQ176">
+        <v>1.13</v>
+      </c>
+      <c r="AR176">
+        <v>1.08</v>
+      </c>
+      <c r="AS176">
+        <v>1.36</v>
+      </c>
+      <c r="AT176">
+        <v>2.44</v>
+      </c>
+      <c r="AU176">
+        <v>7</v>
+      </c>
+      <c r="AV176">
+        <v>4</v>
+      </c>
+      <c r="AW176">
+        <v>7</v>
+      </c>
+      <c r="AX176">
+        <v>8</v>
+      </c>
+      <c r="AY176">
+        <v>14</v>
+      </c>
+      <c r="AZ176">
+        <v>12</v>
+      </c>
+      <c r="BA176">
+        <v>3</v>
+      </c>
+      <c r="BB176">
+        <v>5</v>
+      </c>
+      <c r="BC176">
+        <v>8</v>
+      </c>
+      <c r="BD176">
+        <v>4.13</v>
+      </c>
+      <c r="BE176">
+        <v>9.5</v>
+      </c>
+      <c r="BF176">
+        <v>1.31</v>
+      </c>
+      <c r="BG176">
+        <v>1.23</v>
+      </c>
+      <c r="BH176">
+        <v>4</v>
+      </c>
+      <c r="BI176">
+        <v>1.5</v>
+      </c>
+      <c r="BJ176">
+        <v>2.4</v>
+      </c>
+      <c r="BK176">
+        <v>1.8</v>
+      </c>
+      <c r="BL176">
+        <v>2</v>
+      </c>
+      <c r="BM176">
+        <v>2.2</v>
+      </c>
+      <c r="BN176">
+        <v>1.6</v>
+      </c>
+      <c r="BO176">
+        <v>2.7</v>
+      </c>
+      <c r="BP176">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7383404</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45416.5</v>
+      </c>
+      <c r="F177">
+        <v>8</v>
+      </c>
+      <c r="G177" t="s">
+        <v>78</v>
+      </c>
+      <c r="H177" t="s">
+        <v>73</v>
+      </c>
+      <c r="I177">
+        <v>2</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>3</v>
+      </c>
+      <c r="L177">
+        <v>3</v>
+      </c>
+      <c r="M177">
+        <v>2</v>
+      </c>
+      <c r="N177">
+        <v>5</v>
+      </c>
+      <c r="O177" t="s">
+        <v>188</v>
+      </c>
+      <c r="P177" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q177">
+        <v>2.8</v>
+      </c>
+      <c r="R177">
+        <v>1.95</v>
+      </c>
+      <c r="S177">
+        <v>4</v>
+      </c>
+      <c r="T177">
+        <v>1.48</v>
+      </c>
+      <c r="U177">
+        <v>2.5</v>
+      </c>
+      <c r="V177">
+        <v>3</v>
+      </c>
+      <c r="W177">
+        <v>1.33</v>
+      </c>
+      <c r="X177">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y177">
+        <v>1.06</v>
+      </c>
+      <c r="Z177">
+        <v>2.1</v>
+      </c>
+      <c r="AA177">
+        <v>3.2</v>
+      </c>
+      <c r="AB177">
+        <v>3.5</v>
+      </c>
+      <c r="AC177">
+        <v>1.08</v>
+      </c>
+      <c r="AD177">
+        <v>7.5</v>
+      </c>
+      <c r="AE177">
+        <v>1.4</v>
+      </c>
+      <c r="AF177">
+        <v>2.9</v>
+      </c>
+      <c r="AG177">
+        <v>2.1</v>
+      </c>
+      <c r="AH177">
+        <v>1.64</v>
+      </c>
+      <c r="AI177">
+        <v>1.83</v>
+      </c>
+      <c r="AJ177">
+        <v>1.83</v>
+      </c>
+      <c r="AK177">
+        <v>1.3</v>
+      </c>
+      <c r="AL177">
+        <v>1.3</v>
+      </c>
+      <c r="AM177">
+        <v>1.65</v>
+      </c>
+      <c r="AN177">
+        <v>1.21</v>
+      </c>
+      <c r="AO177">
+        <v>0.79</v>
+      </c>
+      <c r="AP177">
+        <v>1.33</v>
+      </c>
+      <c r="AQ177">
+        <v>0.73</v>
+      </c>
+      <c r="AR177">
+        <v>1.22</v>
+      </c>
+      <c r="AS177">
+        <v>1.1</v>
+      </c>
+      <c r="AT177">
+        <v>2.32</v>
+      </c>
+      <c r="AU177">
+        <v>3</v>
+      </c>
+      <c r="AV177">
+        <v>2</v>
+      </c>
+      <c r="AW177">
+        <v>1</v>
+      </c>
+      <c r="AX177">
+        <v>3</v>
+      </c>
+      <c r="AY177">
+        <v>4</v>
+      </c>
+      <c r="AZ177">
+        <v>5</v>
+      </c>
+      <c r="BA177">
+        <v>5</v>
+      </c>
+      <c r="BB177">
+        <v>2</v>
+      </c>
+      <c r="BC177">
+        <v>7</v>
+      </c>
+      <c r="BD177">
+        <v>1.82</v>
+      </c>
+      <c r="BE177">
+        <v>8</v>
+      </c>
+      <c r="BF177">
+        <v>2.33</v>
+      </c>
+      <c r="BG177">
+        <v>1.28</v>
+      </c>
+      <c r="BH177">
+        <v>3.18</v>
+      </c>
+      <c r="BI177">
+        <v>1.6</v>
+      </c>
+      <c r="BJ177">
+        <v>2.2</v>
+      </c>
+      <c r="BK177">
+        <v>1.95</v>
+      </c>
+      <c r="BL177">
+        <v>1.85</v>
+      </c>
+      <c r="BM177">
+        <v>2.5</v>
+      </c>
+      <c r="BN177">
+        <v>1.47</v>
+      </c>
+      <c r="BO177">
+        <v>3.48</v>
+      </c>
+      <c r="BP177">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7383405</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45416.5</v>
+      </c>
+      <c r="F178">
+        <v>8</v>
+      </c>
+      <c r="G178" t="s">
+        <v>74</v>
+      </c>
+      <c r="H178" t="s">
+        <v>71</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>1</v>
+      </c>
+      <c r="O178" t="s">
+        <v>86</v>
+      </c>
+      <c r="P178" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q178">
+        <v>2.85</v>
+      </c>
+      <c r="R178">
+        <v>1.93</v>
+      </c>
+      <c r="S178">
+        <v>4</v>
+      </c>
+      <c r="T178">
+        <v>1.5</v>
+      </c>
+      <c r="U178">
+        <v>2.4</v>
+      </c>
+      <c r="V178">
+        <v>3.3</v>
+      </c>
+      <c r="W178">
+        <v>1.28</v>
+      </c>
+      <c r="X178">
+        <v>9.1</v>
+      </c>
+      <c r="Y178">
+        <v>1.04</v>
+      </c>
+      <c r="Z178">
+        <v>2.1</v>
+      </c>
+      <c r="AA178">
+        <v>3.15</v>
+      </c>
+      <c r="AB178">
+        <v>3.55</v>
+      </c>
+      <c r="AC178">
+        <v>1.09</v>
+      </c>
+      <c r="AD178">
+        <v>7</v>
+      </c>
+      <c r="AE178">
+        <v>1.44</v>
+      </c>
+      <c r="AF178">
+        <v>2.7</v>
+      </c>
+      <c r="AG178">
+        <v>2.28</v>
+      </c>
+      <c r="AH178">
+        <v>1.54</v>
+      </c>
+      <c r="AI178">
+        <v>1.93</v>
+      </c>
+      <c r="AJ178">
+        <v>1.75</v>
+      </c>
+      <c r="AK178">
+        <v>1.3</v>
+      </c>
+      <c r="AL178">
+        <v>1.3</v>
+      </c>
+      <c r="AM178">
+        <v>1.65</v>
+      </c>
+      <c r="AN178">
+        <v>1.07</v>
+      </c>
+      <c r="AO178">
+        <v>1.29</v>
+      </c>
+      <c r="AP178">
+        <v>1</v>
+      </c>
+      <c r="AQ178">
+        <v>1.4</v>
+      </c>
+      <c r="AR178">
+        <v>1.38</v>
+      </c>
+      <c r="AS178">
+        <v>1.23</v>
+      </c>
+      <c r="AT178">
+        <v>2.61</v>
+      </c>
+      <c r="AU178">
+        <v>4</v>
+      </c>
+      <c r="AV178">
+        <v>2</v>
+      </c>
+      <c r="AW178">
+        <v>8</v>
+      </c>
+      <c r="AX178">
+        <v>3</v>
+      </c>
+      <c r="AY178">
+        <v>12</v>
+      </c>
+      <c r="AZ178">
+        <v>5</v>
+      </c>
+      <c r="BA178">
+        <v>3</v>
+      </c>
+      <c r="BB178">
+        <v>4</v>
+      </c>
+      <c r="BC178">
+        <v>7</v>
+      </c>
+      <c r="BD178">
+        <v>1.55</v>
+      </c>
+      <c r="BE178">
+        <v>8.5</v>
+      </c>
+      <c r="BF178">
+        <v>2.91</v>
+      </c>
+      <c r="BG178">
+        <v>1.23</v>
+      </c>
+      <c r="BH178">
+        <v>3.56</v>
+      </c>
+      <c r="BI178">
+        <v>1.47</v>
+      </c>
+      <c r="BJ178">
+        <v>2.5</v>
+      </c>
+      <c r="BK178">
+        <v>1.82</v>
+      </c>
+      <c r="BL178">
+        <v>1.98</v>
+      </c>
+      <c r="BM178">
+        <v>2.2</v>
+      </c>
+      <c r="BN178">
+        <v>1.6</v>
+      </c>
+      <c r="BO178">
+        <v>3.04</v>
+      </c>
+      <c r="BP178">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="279">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -846,6 +846,12 @@
   <si>
     <t>['18']</t>
   </si>
+  <si>
+    <t>['21', '47']</t>
+  </si>
+  <si>
+    <t>['17']</t>
+  </si>
 </sst>
 </file>
 
@@ -1206,7 +1212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP178"/>
+  <dimension ref="A1:BP180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2985,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ9">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3194,7 +3200,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ10">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3809,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ13">
         <v>1.4</v>
@@ -4015,7 +4021,7 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ14">
         <v>1.33</v>
@@ -4842,7 +4848,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ18">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR18">
         <v>2.76</v>
@@ -5254,7 +5260,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR20">
         <v>1.19</v>
@@ -5663,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ22">
         <v>0.8</v>
@@ -6487,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ26">
         <v>0.8</v>
@@ -7726,7 +7732,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ32">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR32">
         <v>1.27</v>
@@ -8959,10 +8965,10 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ38">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR38">
         <v>1.59</v>
@@ -9371,7 +9377,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ40">
         <v>2</v>
@@ -10607,7 +10613,7 @@
         <v>0.67</v>
       </c>
       <c r="AP46">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ46">
         <v>0.73</v>
@@ -11022,7 +11028,7 @@
         <v>2</v>
       </c>
       <c r="AQ48">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR48">
         <v>1.43</v>
@@ -11434,7 +11440,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ50">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR50">
         <v>1.29</v>
@@ -12049,7 +12055,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ53">
         <v>0.73</v>
@@ -13697,7 +13703,7 @@
         <v>2.6</v>
       </c>
       <c r="AP61">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ61">
         <v>2</v>
@@ -13906,7 +13912,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ62">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR62">
         <v>1.82</v>
@@ -14109,10 +14115,10 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ63">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR63">
         <v>1.37</v>
@@ -15139,7 +15145,7 @@
         <v>0.67</v>
       </c>
       <c r="AP68">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ68">
         <v>0.73</v>
@@ -15760,7 +15766,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ71">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR71">
         <v>1.01</v>
@@ -15963,7 +15969,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ72">
         <v>1.13</v>
@@ -16172,7 +16178,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ73">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR73">
         <v>1.79</v>
@@ -18232,7 +18238,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ83">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR83">
         <v>1.21</v>
@@ -18435,7 +18441,7 @@
         <v>2.17</v>
       </c>
       <c r="AP84">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ84">
         <v>2.13</v>
@@ -18850,7 +18856,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ86">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR86">
         <v>1.63</v>
@@ -19259,7 +19265,7 @@
         <v>0.5</v>
       </c>
       <c r="AP88">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ88">
         <v>0.73</v>
@@ -20498,7 +20504,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ94">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR94">
         <v>1.47</v>
@@ -20701,10 +20707,10 @@
         <v>1.57</v>
       </c>
       <c r="AP95">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ95">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR95">
         <v>1.21</v>
@@ -21525,7 +21531,7 @@
         <v>1.13</v>
       </c>
       <c r="AP99">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ99">
         <v>1.13</v>
@@ -21734,7 +21740,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ100">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR100">
         <v>0.98</v>
@@ -22349,7 +22355,7 @@
         <v>0.75</v>
       </c>
       <c r="AP103">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ103">
         <v>0.8</v>
@@ -22764,7 +22770,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ105">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR105">
         <v>1.45</v>
@@ -24618,7 +24624,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ114">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR114">
         <v>1.2</v>
@@ -24821,7 +24827,7 @@
         <v>1.89</v>
       </c>
       <c r="AP115">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ115">
         <v>1.53</v>
@@ -25442,7 +25448,7 @@
         <v>1</v>
       </c>
       <c r="AQ118">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR118">
         <v>1.55</v>
@@ -25851,7 +25857,7 @@
         <v>0.78</v>
       </c>
       <c r="AP120">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ120">
         <v>0.8</v>
@@ -26469,7 +26475,7 @@
         <v>1.3</v>
       </c>
       <c r="AP123">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ123">
         <v>1.4</v>
@@ -27090,7 +27096,7 @@
         <v>1</v>
       </c>
       <c r="AQ126">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR126">
         <v>1.51</v>
@@ -27296,7 +27302,7 @@
         <v>1</v>
       </c>
       <c r="AQ127">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR127">
         <v>1.29</v>
@@ -27911,7 +27917,7 @@
         <v>1.8</v>
       </c>
       <c r="AP130">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ130">
         <v>1.53</v>
@@ -28738,7 +28744,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ134">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR134">
         <v>1.72</v>
@@ -29559,7 +29565,7 @@
         <v>2</v>
       </c>
       <c r="AP138">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ138">
         <v>2.13</v>
@@ -29768,7 +29774,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ139">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR139">
         <v>1.7</v>
@@ -31001,7 +31007,7 @@
         <v>2.27</v>
       </c>
       <c r="AP145">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ145">
         <v>2</v>
@@ -31825,10 +31831,10 @@
         <v>1.25</v>
       </c>
       <c r="AP149">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ149">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR149">
         <v>1.62</v>
@@ -32031,10 +32037,10 @@
         <v>1.25</v>
       </c>
       <c r="AP150">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ150">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR150">
         <v>1.25</v>
@@ -33679,7 +33685,7 @@
         <v>1.77</v>
       </c>
       <c r="AP158">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ158">
         <v>1.53</v>
@@ -34506,7 +34512,7 @@
         <v>2</v>
       </c>
       <c r="AQ162">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR162">
         <v>1.48</v>
@@ -35536,7 +35542,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ167">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR167">
         <v>1.07</v>
@@ -35739,7 +35745,7 @@
         <v>2.15</v>
       </c>
       <c r="AP168">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ168">
         <v>2</v>
@@ -37402,22 +37408,22 @@
         <v>2.44</v>
       </c>
       <c r="AU176">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV176">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW176">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX176">
         <v>8</v>
       </c>
       <c r="AY176">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ176">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA176">
         <v>3</v>
@@ -37608,31 +37614,31 @@
         <v>2.32</v>
       </c>
       <c r="AU177">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV177">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW177">
         <v>1</v>
       </c>
       <c r="AX177">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY177">
+        <v>8</v>
+      </c>
+      <c r="AZ177">
+        <v>8</v>
+      </c>
+      <c r="BA177">
+        <v>7</v>
+      </c>
+      <c r="BB177">
         <v>4</v>
       </c>
-      <c r="AZ177">
-        <v>5</v>
-      </c>
-      <c r="BA177">
-        <v>5</v>
-      </c>
-      <c r="BB177">
-        <v>2</v>
-      </c>
       <c r="BC177">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BD177">
         <v>1.82</v>
@@ -37814,31 +37820,31 @@
         <v>2.61</v>
       </c>
       <c r="AU178">
+        <v>5</v>
+      </c>
+      <c r="AV178">
+        <v>5</v>
+      </c>
+      <c r="AW178">
+        <v>13</v>
+      </c>
+      <c r="AX178">
         <v>4</v>
       </c>
-      <c r="AV178">
-        <v>2</v>
-      </c>
-      <c r="AW178">
-        <v>8</v>
-      </c>
-      <c r="AX178">
-        <v>3</v>
-      </c>
       <c r="AY178">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ178">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA178">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BB178">
         <v>4</v>
       </c>
       <c r="BC178">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD178">
         <v>1.55</v>
@@ -37878,6 +37884,418 @@
       </c>
       <c r="BP178">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7383407</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45417.39583333334</v>
+      </c>
+      <c r="F179">
+        <v>8</v>
+      </c>
+      <c r="G179" t="s">
+        <v>81</v>
+      </c>
+      <c r="H179" t="s">
+        <v>70</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>2</v>
+      </c>
+      <c r="N179">
+        <v>2</v>
+      </c>
+      <c r="O179" t="s">
+        <v>86</v>
+      </c>
+      <c r="P179" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q179">
+        <v>4.33</v>
+      </c>
+      <c r="R179">
+        <v>2.2</v>
+      </c>
+      <c r="S179">
+        <v>2.6</v>
+      </c>
+      <c r="T179">
+        <v>1.36</v>
+      </c>
+      <c r="U179">
+        <v>3</v>
+      </c>
+      <c r="V179">
+        <v>2.75</v>
+      </c>
+      <c r="W179">
+        <v>1.4</v>
+      </c>
+      <c r="X179">
+        <v>7</v>
+      </c>
+      <c r="Y179">
+        <v>1.1</v>
+      </c>
+      <c r="Z179">
+        <v>3.9</v>
+      </c>
+      <c r="AA179">
+        <v>3.35</v>
+      </c>
+      <c r="AB179">
+        <v>2</v>
+      </c>
+      <c r="AC179">
+        <v>1.02</v>
+      </c>
+      <c r="AD179">
+        <v>10</v>
+      </c>
+      <c r="AE179">
+        <v>1.25</v>
+      </c>
+      <c r="AF179">
+        <v>3.6</v>
+      </c>
+      <c r="AG179">
+        <v>1.83</v>
+      </c>
+      <c r="AH179">
+        <v>1.91</v>
+      </c>
+      <c r="AI179">
+        <v>1.7</v>
+      </c>
+      <c r="AJ179">
+        <v>2.05</v>
+      </c>
+      <c r="AK179">
+        <v>1.8</v>
+      </c>
+      <c r="AL179">
+        <v>1.25</v>
+      </c>
+      <c r="AM179">
+        <v>1.25</v>
+      </c>
+      <c r="AN179">
+        <v>1.36</v>
+      </c>
+      <c r="AO179">
+        <v>1.29</v>
+      </c>
+      <c r="AP179">
+        <v>1.27</v>
+      </c>
+      <c r="AQ179">
+        <v>1.4</v>
+      </c>
+      <c r="AR179">
+        <v>1.28</v>
+      </c>
+      <c r="AS179">
+        <v>1.33</v>
+      </c>
+      <c r="AT179">
+        <v>2.61</v>
+      </c>
+      <c r="AU179">
+        <v>2</v>
+      </c>
+      <c r="AV179">
+        <v>4</v>
+      </c>
+      <c r="AW179">
+        <v>7</v>
+      </c>
+      <c r="AX179">
+        <v>3</v>
+      </c>
+      <c r="AY179">
+        <v>9</v>
+      </c>
+      <c r="AZ179">
+        <v>7</v>
+      </c>
+      <c r="BA179">
+        <v>4</v>
+      </c>
+      <c r="BB179">
+        <v>3</v>
+      </c>
+      <c r="BC179">
+        <v>7</v>
+      </c>
+      <c r="BD179">
+        <v>2.44</v>
+      </c>
+      <c r="BE179">
+        <v>8</v>
+      </c>
+      <c r="BF179">
+        <v>1.75</v>
+      </c>
+      <c r="BG179">
+        <v>1.25</v>
+      </c>
+      <c r="BH179">
+        <v>3.42</v>
+      </c>
+      <c r="BI179">
+        <v>1.53</v>
+      </c>
+      <c r="BJ179">
+        <v>2.44</v>
+      </c>
+      <c r="BK179">
+        <v>2</v>
+      </c>
+      <c r="BL179">
+        <v>1.8</v>
+      </c>
+      <c r="BM179">
+        <v>2.35</v>
+      </c>
+      <c r="BN179">
+        <v>1.57</v>
+      </c>
+      <c r="BO179">
+        <v>3.18</v>
+      </c>
+      <c r="BP179">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7383406</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45417.39583333334</v>
+      </c>
+      <c r="F180">
+        <v>8</v>
+      </c>
+      <c r="G180" t="s">
+        <v>77</v>
+      </c>
+      <c r="H180" t="s">
+        <v>72</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180">
+        <v>2</v>
+      </c>
+      <c r="O180" t="s">
+        <v>170</v>
+      </c>
+      <c r="P180" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q180">
+        <v>1.91</v>
+      </c>
+      <c r="R180">
+        <v>2.5</v>
+      </c>
+      <c r="S180">
+        <v>6.5</v>
+      </c>
+      <c r="T180">
+        <v>1.3</v>
+      </c>
+      <c r="U180">
+        <v>3.4</v>
+      </c>
+      <c r="V180">
+        <v>2.5</v>
+      </c>
+      <c r="W180">
+        <v>1.5</v>
+      </c>
+      <c r="X180">
+        <v>6</v>
+      </c>
+      <c r="Y180">
+        <v>1.13</v>
+      </c>
+      <c r="Z180">
+        <v>1.4</v>
+      </c>
+      <c r="AA180">
+        <v>4.5</v>
+      </c>
+      <c r="AB180">
+        <v>8.44</v>
+      </c>
+      <c r="AC180">
+        <v>1.04</v>
+      </c>
+      <c r="AD180">
+        <v>10</v>
+      </c>
+      <c r="AE180">
+        <v>1.22</v>
+      </c>
+      <c r="AF180">
+        <v>4.2</v>
+      </c>
+      <c r="AG180">
+        <v>1.62</v>
+      </c>
+      <c r="AH180">
+        <v>2.21</v>
+      </c>
+      <c r="AI180">
+        <v>1.8</v>
+      </c>
+      <c r="AJ180">
+        <v>1.95</v>
+      </c>
+      <c r="AK180">
+        <v>1.07</v>
+      </c>
+      <c r="AL180">
+        <v>1.14</v>
+      </c>
+      <c r="AM180">
+        <v>3</v>
+      </c>
+      <c r="AN180">
+        <v>2.14</v>
+      </c>
+      <c r="AO180">
+        <v>1.36</v>
+      </c>
+      <c r="AP180">
+        <v>2.07</v>
+      </c>
+      <c r="AQ180">
+        <v>1.33</v>
+      </c>
+      <c r="AR180">
+        <v>1.57</v>
+      </c>
+      <c r="AS180">
+        <v>1.28</v>
+      </c>
+      <c r="AT180">
+        <v>2.85</v>
+      </c>
+      <c r="AU180">
+        <v>5</v>
+      </c>
+      <c r="AV180">
+        <v>3</v>
+      </c>
+      <c r="AW180">
+        <v>2</v>
+      </c>
+      <c r="AX180">
+        <v>4</v>
+      </c>
+      <c r="AY180">
+        <v>7</v>
+      </c>
+      <c r="AZ180">
+        <v>7</v>
+      </c>
+      <c r="BA180">
+        <v>2</v>
+      </c>
+      <c r="BB180">
+        <v>5</v>
+      </c>
+      <c r="BC180">
+        <v>7</v>
+      </c>
+      <c r="BD180">
+        <v>1.31</v>
+      </c>
+      <c r="BE180">
+        <v>9.5</v>
+      </c>
+      <c r="BF180">
+        <v>4.13</v>
+      </c>
+      <c r="BG180">
+        <v>1.22</v>
+      </c>
+      <c r="BH180">
+        <v>3.65</v>
+      </c>
+      <c r="BI180">
+        <v>1.44</v>
+      </c>
+      <c r="BJ180">
+        <v>2.58</v>
+      </c>
+      <c r="BK180">
+        <v>1.92</v>
+      </c>
+      <c r="BL180">
+        <v>1.88</v>
+      </c>
+      <c r="BM180">
+        <v>2.21</v>
+      </c>
+      <c r="BN180">
+        <v>1.64</v>
+      </c>
+      <c r="BO180">
+        <v>2.93</v>
+      </c>
+      <c r="BP180">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="280">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -581,6 +581,9 @@
   </si>
   <si>
     <t>['31', '42', '51']</t>
+  </si>
+  <si>
+    <t>['51', '73']</t>
   </si>
   <si>
     <t>['23']</t>
@@ -1212,7 +1215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP180"/>
+  <dimension ref="A1:BP181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1471,7 +1474,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1677,7 +1680,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1883,7 +1886,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -2089,7 +2092,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2295,7 +2298,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2376,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2501,7 +2504,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q7">
         <v>3.75</v>
@@ -2785,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ8">
         <v>0.8</v>
@@ -3119,7 +3122,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3531,7 +3534,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q12">
         <v>4.5</v>
@@ -3737,7 +3740,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -4149,7 +4152,7 @@
         <v>82</v>
       </c>
       <c r="P15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q15">
         <v>2.55</v>
@@ -4767,7 +4770,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -4845,7 +4848,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ18">
         <v>1.33</v>
@@ -5385,7 +5388,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5591,7 +5594,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5797,7 +5800,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q23">
         <v>4.75</v>
@@ -5878,7 +5881,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR23">
         <v>1.57</v>
@@ -6003,7 +6006,7 @@
         <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q24">
         <v>4.33</v>
@@ -6415,7 +6418,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q26">
         <v>1.68</v>
@@ -6621,7 +6624,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6702,7 +6705,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ27">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR27">
         <v>1.48</v>
@@ -6827,7 +6830,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7239,7 +7242,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7317,7 +7320,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ30">
         <v>0.73</v>
@@ -7445,7 +7448,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7651,7 +7654,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7857,7 +7860,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q33">
         <v>3</v>
@@ -8063,7 +8066,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8269,7 +8272,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8887,7 +8890,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -9093,7 +9096,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9299,7 +9302,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9380,7 +9383,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR40">
         <v>1.36</v>
@@ -9505,7 +9508,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9711,7 +9714,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9917,7 +9920,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q43">
         <v>2.2</v>
@@ -9995,7 +9998,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ43">
         <v>1.4</v>
@@ -10123,7 +10126,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q44">
         <v>3.25</v>
@@ -10329,7 +10332,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q45">
         <v>1.57</v>
@@ -11153,7 +11156,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11231,7 +11234,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ49">
         <v>2.13</v>
@@ -11359,7 +11362,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11771,7 +11774,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q52">
         <v>9.5</v>
@@ -11852,7 +11855,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ52">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR52">
         <v>1.15</v>
@@ -12595,7 +12598,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -13213,7 +13216,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13625,7 +13628,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q61">
         <v>7.5</v>
@@ -13706,7 +13709,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ61">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR61">
         <v>1.33</v>
@@ -13831,7 +13834,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -14037,7 +14040,7 @@
         <v>123</v>
       </c>
       <c r="P63" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q63">
         <v>2.05</v>
@@ -14655,7 +14658,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q66">
         <v>4.33</v>
@@ -14861,7 +14864,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -14939,7 +14942,7 @@
         <v>1.8</v>
       </c>
       <c r="AP67">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ67">
         <v>1.33</v>
@@ -15685,7 +15688,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q71">
         <v>4.33</v>
@@ -16097,7 +16100,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q73">
         <v>2.75</v>
@@ -16175,7 +16178,7 @@
         <v>1.4</v>
       </c>
       <c r="AP73">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ73">
         <v>1.4</v>
@@ -16715,7 +16718,7 @@
         <v>86</v>
       </c>
       <c r="P76" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q76">
         <v>7.5</v>
@@ -16796,7 +16799,7 @@
         <v>1</v>
       </c>
       <c r="AQ76">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR76">
         <v>1.23</v>
@@ -16921,7 +16924,7 @@
         <v>86</v>
       </c>
       <c r="P77" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q77">
         <v>4.33</v>
@@ -17127,7 +17130,7 @@
         <v>131</v>
       </c>
       <c r="P78" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q78">
         <v>2.5</v>
@@ -17539,7 +17542,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q80">
         <v>3.5</v>
@@ -17951,7 +17954,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q82">
         <v>4.5</v>
@@ -18363,7 +18366,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q84">
         <v>4.75</v>
@@ -18650,7 +18653,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ85">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR85">
         <v>1.41</v>
@@ -18775,7 +18778,7 @@
         <v>137</v>
       </c>
       <c r="P86" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -19599,7 +19602,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19883,7 +19886,7 @@
         <v>0.86</v>
       </c>
       <c r="AP91">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ91">
         <v>0.8</v>
@@ -20011,7 +20014,7 @@
         <v>141</v>
       </c>
       <c r="P92" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20835,7 +20838,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q96">
         <v>5.5</v>
@@ -21325,10 +21328,10 @@
         <v>2.25</v>
       </c>
       <c r="AP98">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ98">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR98">
         <v>1.83</v>
@@ -21453,7 +21456,7 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q99">
         <v>3.6</v>
@@ -21659,7 +21662,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21865,7 +21868,7 @@
         <v>148</v>
       </c>
       <c r="P101" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -22483,7 +22486,7 @@
         <v>151</v>
       </c>
       <c r="P104" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22895,7 +22898,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23101,7 +23104,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q107">
         <v>2.4</v>
@@ -23307,7 +23310,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q108">
         <v>3.75</v>
@@ -23513,7 +23516,7 @@
         <v>154</v>
       </c>
       <c r="P109" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -23719,7 +23722,7 @@
         <v>155</v>
       </c>
       <c r="P110" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q110">
         <v>2.2</v>
@@ -24212,7 +24215,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ112">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR112">
         <v>1.27</v>
@@ -24337,7 +24340,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q113">
         <v>4.33</v>
@@ -25367,7 +25370,7 @@
         <v>120</v>
       </c>
       <c r="P118" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q118">
         <v>3.16</v>
@@ -25573,7 +25576,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q119">
         <v>5.5</v>
@@ -26063,7 +26066,7 @@
         <v>1.11</v>
       </c>
       <c r="AP121">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ121">
         <v>1.13</v>
@@ -26603,7 +26606,7 @@
         <v>103</v>
       </c>
       <c r="P124" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q124">
         <v>1.57</v>
@@ -26681,7 +26684,7 @@
         <v>0.6</v>
       </c>
       <c r="AP124">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ124">
         <v>0.73</v>
@@ -26809,7 +26812,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q125">
         <v>4.33</v>
@@ -27508,7 +27511,7 @@
         <v>2</v>
       </c>
       <c r="AQ128">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR128">
         <v>1.51</v>
@@ -27633,7 +27636,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q129">
         <v>3.9</v>
@@ -27839,7 +27842,7 @@
         <v>161</v>
       </c>
       <c r="P130" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q130">
         <v>3.7</v>
@@ -28741,7 +28744,7 @@
         <v>1.27</v>
       </c>
       <c r="AP134">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ134">
         <v>1.4</v>
@@ -29487,7 +29490,7 @@
         <v>86</v>
       </c>
       <c r="P138" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q138">
         <v>4.5</v>
@@ -29693,7 +29696,7 @@
         <v>168</v>
       </c>
       <c r="P139" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q139">
         <v>1.8</v>
@@ -30105,7 +30108,7 @@
         <v>169</v>
       </c>
       <c r="P141" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30723,7 +30726,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -30929,7 +30932,7 @@
         <v>86</v>
       </c>
       <c r="P145" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -31010,7 +31013,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ145">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR145">
         <v>1.68</v>
@@ -31959,7 +31962,7 @@
         <v>172</v>
       </c>
       <c r="P150" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q150">
         <v>3.25</v>
@@ -32165,7 +32168,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -32371,7 +32374,7 @@
         <v>174</v>
       </c>
       <c r="P152" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q152">
         <v>4.75</v>
@@ -32452,7 +32455,7 @@
         <v>2</v>
       </c>
       <c r="AQ152">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR152">
         <v>1.51</v>
@@ -32577,7 +32580,7 @@
         <v>86</v>
       </c>
       <c r="P153" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q153">
         <v>4.75</v>
@@ -32989,7 +32992,7 @@
         <v>175</v>
       </c>
       <c r="P155" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q155">
         <v>3.25</v>
@@ -33195,7 +33198,7 @@
         <v>161</v>
       </c>
       <c r="P156" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q156">
         <v>4.75</v>
@@ -33401,7 +33404,7 @@
         <v>176</v>
       </c>
       <c r="P157" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q157">
         <v>2.1</v>
@@ -33479,7 +33482,7 @@
         <v>1.58</v>
       </c>
       <c r="AP157">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ157">
         <v>1.33</v>
@@ -34225,7 +34228,7 @@
         <v>178</v>
       </c>
       <c r="P161" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q161">
         <v>2.75</v>
@@ -34431,7 +34434,7 @@
         <v>179</v>
       </c>
       <c r="P162" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34637,7 +34640,7 @@
         <v>180</v>
       </c>
       <c r="P163" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q163">
         <v>1.73</v>
@@ -34843,7 +34846,7 @@
         <v>85</v>
       </c>
       <c r="P164" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q164">
         <v>4.9</v>
@@ -35255,7 +35258,7 @@
         <v>181</v>
       </c>
       <c r="P166" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q166">
         <v>3.56</v>
@@ -35461,7 +35464,7 @@
         <v>171</v>
       </c>
       <c r="P167" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35667,7 +35670,7 @@
         <v>182</v>
       </c>
       <c r="P168" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -35748,7 +35751,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ168">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR168">
         <v>1.26</v>
@@ -35873,7 +35876,7 @@
         <v>141</v>
       </c>
       <c r="P169" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q169">
         <v>3.45</v>
@@ -35951,7 +35954,7 @@
         <v>2.15</v>
       </c>
       <c r="AP169">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ169">
         <v>2.13</v>
@@ -36079,7 +36082,7 @@
         <v>183</v>
       </c>
       <c r="P170" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q170">
         <v>2.4</v>
@@ -36285,7 +36288,7 @@
         <v>86</v>
       </c>
       <c r="P171" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q171">
         <v>2.75</v>
@@ -36903,7 +36906,7 @@
         <v>185</v>
       </c>
       <c r="P174" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37109,7 +37112,7 @@
         <v>186</v>
       </c>
       <c r="P175" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q175">
         <v>2.4</v>
@@ -37521,7 +37524,7 @@
         <v>188</v>
       </c>
       <c r="P177" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q177">
         <v>2.8</v>
@@ -37727,7 +37730,7 @@
         <v>86</v>
       </c>
       <c r="P178" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q178">
         <v>2.85</v>
@@ -37933,7 +37936,7 @@
         <v>86</v>
       </c>
       <c r="P179" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q179">
         <v>4.33</v>
@@ -38139,7 +38142,7 @@
         <v>170</v>
       </c>
       <c r="P180" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q180">
         <v>1.91</v>
@@ -38241,13 +38244,13 @@
         <v>2</v>
       </c>
       <c r="AX180">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY180">
         <v>7</v>
       </c>
       <c r="AZ180">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA180">
         <v>2</v>
@@ -38296,6 +38299,212 @@
       </c>
       <c r="BP180">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7383408</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45417.5</v>
+      </c>
+      <c r="F181">
+        <v>8</v>
+      </c>
+      <c r="G181" t="s">
+        <v>76</v>
+      </c>
+      <c r="H181" t="s">
+        <v>79</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>2</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>2</v>
+      </c>
+      <c r="O181" t="s">
+        <v>189</v>
+      </c>
+      <c r="P181" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q181">
+        <v>4.33</v>
+      </c>
+      <c r="R181">
+        <v>2.3</v>
+      </c>
+      <c r="S181">
+        <v>2.4</v>
+      </c>
+      <c r="T181">
+        <v>1.33</v>
+      </c>
+      <c r="U181">
+        <v>3.25</v>
+      </c>
+      <c r="V181">
+        <v>2.5</v>
+      </c>
+      <c r="W181">
+        <v>1.5</v>
+      </c>
+      <c r="X181">
+        <v>6.5</v>
+      </c>
+      <c r="Y181">
+        <v>1.11</v>
+      </c>
+      <c r="Z181">
+        <v>4</v>
+      </c>
+      <c r="AA181">
+        <v>3.6</v>
+      </c>
+      <c r="AB181">
+        <v>1.81</v>
+      </c>
+      <c r="AC181">
+        <v>1.02</v>
+      </c>
+      <c r="AD181">
+        <v>10</v>
+      </c>
+      <c r="AE181">
+        <v>1.22</v>
+      </c>
+      <c r="AF181">
+        <v>3.8</v>
+      </c>
+      <c r="AG181">
+        <v>1.63</v>
+      </c>
+      <c r="AH181">
+        <v>2.27</v>
+      </c>
+      <c r="AI181">
+        <v>1.67</v>
+      </c>
+      <c r="AJ181">
+        <v>2.1</v>
+      </c>
+      <c r="AK181">
+        <v>1.95</v>
+      </c>
+      <c r="AL181">
+        <v>1.25</v>
+      </c>
+      <c r="AM181">
+        <v>1.25</v>
+      </c>
+      <c r="AN181">
+        <v>1.14</v>
+      </c>
+      <c r="AO181">
+        <v>2</v>
+      </c>
+      <c r="AP181">
+        <v>1.27</v>
+      </c>
+      <c r="AQ181">
+        <v>1.87</v>
+      </c>
+      <c r="AR181">
+        <v>1.67</v>
+      </c>
+      <c r="AS181">
+        <v>1.51</v>
+      </c>
+      <c r="AT181">
+        <v>3.18</v>
+      </c>
+      <c r="AU181">
+        <v>3</v>
+      </c>
+      <c r="AV181">
+        <v>3</v>
+      </c>
+      <c r="AW181">
+        <v>2</v>
+      </c>
+      <c r="AX181">
+        <v>7</v>
+      </c>
+      <c r="AY181">
+        <v>5</v>
+      </c>
+      <c r="AZ181">
+        <v>10</v>
+      </c>
+      <c r="BA181">
+        <v>4</v>
+      </c>
+      <c r="BB181">
+        <v>3</v>
+      </c>
+      <c r="BC181">
+        <v>7</v>
+      </c>
+      <c r="BD181">
+        <v>2.28</v>
+      </c>
+      <c r="BE181">
+        <v>8</v>
+      </c>
+      <c r="BF181">
+        <v>1.85</v>
+      </c>
+      <c r="BG181">
+        <v>1.31</v>
+      </c>
+      <c r="BH181">
+        <v>3.04</v>
+      </c>
+      <c r="BI181">
+        <v>1.63</v>
+      </c>
+      <c r="BJ181">
+        <v>2.23</v>
+      </c>
+      <c r="BK181">
+        <v>2</v>
+      </c>
+      <c r="BL181">
+        <v>1.8</v>
+      </c>
+      <c r="BM181">
+        <v>2.65</v>
+      </c>
+      <c r="BN181">
+        <v>1.42</v>
+      </c>
+      <c r="BO181">
+        <v>3.65</v>
+      </c>
+      <c r="BP181">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="282">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -586,6 +586,9 @@
     <t>['51', '73']</t>
   </si>
   <si>
+    <t>['37']</t>
+  </si>
+  <si>
     <t>['23']</t>
   </si>
   <si>
@@ -854,6 +857,9 @@
   </si>
   <si>
     <t>['17']</t>
+  </si>
+  <si>
+    <t>['36', '55', '76', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP181"/>
+  <dimension ref="A1:BP184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1474,7 +1480,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1680,7 +1686,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1761,7 +1767,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ3">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1886,7 +1892,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -2092,7 +2098,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2170,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ5">
         <v>1.33</v>
@@ -2298,7 +2304,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2504,7 +2510,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q7">
         <v>3.75</v>
@@ -2582,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ7">
         <v>2.13</v>
@@ -2791,7 +2797,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ8">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3122,7 +3128,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3534,7 +3540,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q12">
         <v>4.5</v>
@@ -3612,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ12">
         <v>1.13</v>
@@ -3740,7 +3746,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3821,7 +3827,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ13">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4152,7 +4158,7 @@
         <v>82</v>
       </c>
       <c r="P15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q15">
         <v>2.55</v>
@@ -4439,7 +4445,7 @@
         <v>2</v>
       </c>
       <c r="AQ16">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR16">
         <v>1.19</v>
@@ -4770,7 +4776,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -5260,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ20">
         <v>1.4</v>
@@ -5388,7 +5394,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5466,7 +5472,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ21">
         <v>2.13</v>
@@ -5594,7 +5600,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5675,7 +5681,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ22">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR22">
         <v>1.78</v>
@@ -5800,7 +5806,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q23">
         <v>4.75</v>
@@ -6006,7 +6012,7 @@
         <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q24">
         <v>4.33</v>
@@ -6290,10 +6296,10 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ25">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR25">
         <v>0.86</v>
@@ -6418,7 +6424,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q26">
         <v>1.68</v>
@@ -6499,7 +6505,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ26">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR26">
         <v>1.34</v>
@@ -6624,7 +6630,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6830,7 +6836,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6908,10 +6914,10 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ28">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR28">
         <v>0.99</v>
@@ -7242,7 +7248,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7448,7 +7454,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7654,7 +7660,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7860,7 +7866,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q33">
         <v>3</v>
@@ -7938,10 +7944,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ33">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR33">
         <v>1.23</v>
@@ -8066,7 +8072,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8272,7 +8278,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8350,7 +8356,7 @@
         <v>2.33</v>
       </c>
       <c r="AP35">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ35">
         <v>1.33</v>
@@ -8890,7 +8896,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -9096,7 +9102,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9177,7 +9183,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ39">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR39">
         <v>1.06</v>
@@ -9302,7 +9308,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9508,7 +9514,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9586,7 +9592,7 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ41">
         <v>0.73</v>
@@ -9714,7 +9720,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9920,7 +9926,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q43">
         <v>2.2</v>
@@ -10001,7 +10007,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ43">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR43">
         <v>2.21</v>
@@ -10126,7 +10132,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q44">
         <v>3.25</v>
@@ -10204,10 +10210,10 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ44">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR44">
         <v>1.29</v>
@@ -10332,7 +10338,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q45">
         <v>1.57</v>
@@ -10413,7 +10419,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ45">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR45">
         <v>1.83</v>
@@ -11156,7 +11162,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11362,7 +11368,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11774,7 +11780,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q52">
         <v>9.5</v>
@@ -11852,7 +11858,7 @@
         <v>2.5</v>
       </c>
       <c r="AP52">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ52">
         <v>1.87</v>
@@ -12267,7 +12273,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ54">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR54">
         <v>1.23</v>
@@ -12470,7 +12476,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ55">
         <v>1.53</v>
@@ -12598,7 +12604,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12676,7 +12682,7 @@
         <v>1.25</v>
       </c>
       <c r="AP56">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ56">
         <v>1.53</v>
@@ -13088,10 +13094,10 @@
         <v>1.2</v>
       </c>
       <c r="AP58">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ58">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR58">
         <v>1.4</v>
@@ -13216,7 +13222,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13503,7 +13509,7 @@
         <v>2</v>
       </c>
       <c r="AQ60">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR60">
         <v>1.37</v>
@@ -13628,7 +13634,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q61">
         <v>7.5</v>
@@ -13834,7 +13840,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -14040,7 +14046,7 @@
         <v>123</v>
       </c>
       <c r="P63" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q63">
         <v>2.05</v>
@@ -14533,7 +14539,7 @@
         <v>1</v>
       </c>
       <c r="AQ65">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR65">
         <v>1.3</v>
@@ -14658,7 +14664,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q66">
         <v>4.33</v>
@@ -14736,7 +14742,7 @@
         <v>0.6</v>
       </c>
       <c r="AP66">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ66">
         <v>1.13</v>
@@ -14864,7 +14870,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -15357,7 +15363,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ69">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR69">
         <v>1.17</v>
@@ -15563,7 +15569,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ70">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR70">
         <v>1.71</v>
@@ -15688,7 +15694,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q71">
         <v>4.33</v>
@@ -15766,7 +15772,7 @@
         <v>1.6</v>
       </c>
       <c r="AP71">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ71">
         <v>1.33</v>
@@ -16100,7 +16106,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q73">
         <v>2.75</v>
@@ -16590,7 +16596,7 @@
         <v>0.6</v>
       </c>
       <c r="AP75">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ75">
         <v>0.73</v>
@@ -16718,7 +16724,7 @@
         <v>86</v>
       </c>
       <c r="P76" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q76">
         <v>7.5</v>
@@ -16796,7 +16802,7 @@
         <v>2.33</v>
       </c>
       <c r="AP76">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ76">
         <v>1.87</v>
@@ -16924,7 +16930,7 @@
         <v>86</v>
       </c>
       <c r="P77" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q77">
         <v>4.33</v>
@@ -17130,7 +17136,7 @@
         <v>131</v>
       </c>
       <c r="P78" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q78">
         <v>2.5</v>
@@ -17211,7 +17217,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ78">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR78">
         <v>1.2</v>
@@ -17542,7 +17548,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q80">
         <v>3.5</v>
@@ -17620,10 +17626,10 @@
         <v>0.86</v>
       </c>
       <c r="AP80">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ80">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR80">
         <v>1.23</v>
@@ -17954,7 +17960,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q82">
         <v>4.5</v>
@@ -18032,10 +18038,10 @@
         <v>1.17</v>
       </c>
       <c r="AP82">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ82">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR82">
         <v>0.95</v>
@@ -18366,7 +18372,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q84">
         <v>4.75</v>
@@ -18650,7 +18656,7 @@
         <v>2.43</v>
       </c>
       <c r="AP85">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ85">
         <v>1.87</v>
@@ -18778,7 +18784,7 @@
         <v>137</v>
       </c>
       <c r="P86" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -19602,7 +19608,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19889,7 +19895,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ91">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR91">
         <v>1.81</v>
@@ -20014,7 +20020,7 @@
         <v>141</v>
       </c>
       <c r="P92" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20301,7 +20307,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ93">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR93">
         <v>1.59</v>
@@ -20504,7 +20510,7 @@
         <v>1.14</v>
       </c>
       <c r="AP94">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ94">
         <v>1.4</v>
@@ -20838,7 +20844,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q96">
         <v>5.5</v>
@@ -20916,7 +20922,7 @@
         <v>1.57</v>
       </c>
       <c r="AP96">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ96">
         <v>1.53</v>
@@ -21456,7 +21462,7 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q99">
         <v>3.6</v>
@@ -21662,7 +21668,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21740,7 +21746,7 @@
         <v>1.13</v>
       </c>
       <c r="AP100">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ100">
         <v>1.4</v>
@@ -21868,7 +21874,7 @@
         <v>148</v>
       </c>
       <c r="P101" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -22155,7 +22161,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ102">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR102">
         <v>1.23</v>
@@ -22361,7 +22367,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ103">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR103">
         <v>1.57</v>
@@ -22486,7 +22492,7 @@
         <v>151</v>
       </c>
       <c r="P104" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22770,7 +22776,7 @@
         <v>1.5</v>
       </c>
       <c r="AP105">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ105">
         <v>1.33</v>
@@ -22898,7 +22904,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -22979,7 +22985,7 @@
         <v>1</v>
       </c>
       <c r="AQ106">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR106">
         <v>1.48</v>
@@ -23104,7 +23110,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q107">
         <v>2.4</v>
@@ -23182,7 +23188,7 @@
         <v>0.38</v>
       </c>
       <c r="AP107">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ107">
         <v>0.73</v>
@@ -23310,7 +23316,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q108">
         <v>3.75</v>
@@ -23516,7 +23522,7 @@
         <v>154</v>
       </c>
       <c r="P109" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -23722,7 +23728,7 @@
         <v>155</v>
       </c>
       <c r="P110" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q110">
         <v>2.2</v>
@@ -24006,10 +24012,10 @@
         <v>0.67</v>
       </c>
       <c r="AP111">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ111">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR111">
         <v>1.44</v>
@@ -24340,7 +24346,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q113">
         <v>4.33</v>
@@ -24418,7 +24424,7 @@
         <v>1.78</v>
       </c>
       <c r="AP113">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ113">
         <v>1.33</v>
@@ -25245,7 +25251,7 @@
         <v>2</v>
       </c>
       <c r="AQ117">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR117">
         <v>1.56</v>
@@ -25370,7 +25376,7 @@
         <v>120</v>
       </c>
       <c r="P118" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q118">
         <v>3.16</v>
@@ -25576,7 +25582,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q119">
         <v>5.5</v>
@@ -25654,7 +25660,7 @@
         <v>2</v>
       </c>
       <c r="AP119">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ119">
         <v>2.13</v>
@@ -25863,7 +25869,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ120">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR120">
         <v>1.3</v>
@@ -26481,7 +26487,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ123">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR123">
         <v>1.65</v>
@@ -26606,7 +26612,7 @@
         <v>103</v>
       </c>
       <c r="P124" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q124">
         <v>1.57</v>
@@ -26812,7 +26818,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q125">
         <v>4.33</v>
@@ -27302,7 +27308,7 @@
         <v>1.5</v>
       </c>
       <c r="AP127">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ127">
         <v>1.33</v>
@@ -27636,7 +27642,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q129">
         <v>3.9</v>
@@ -27842,7 +27848,7 @@
         <v>161</v>
       </c>
       <c r="P130" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q130">
         <v>3.7</v>
@@ -28126,10 +28132,10 @@
         <v>0.7</v>
       </c>
       <c r="AP131">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ131">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR131">
         <v>0.98</v>
@@ -28335,7 +28341,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ132">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR132">
         <v>1.31</v>
@@ -28538,7 +28544,7 @@
         <v>0.7</v>
       </c>
       <c r="AP133">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ133">
         <v>0.73</v>
@@ -29362,10 +29368,10 @@
         <v>1.18</v>
       </c>
       <c r="AP137">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ137">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR137">
         <v>1.32</v>
@@ -29490,7 +29496,7 @@
         <v>86</v>
       </c>
       <c r="P138" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q138">
         <v>4.5</v>
@@ -29696,7 +29702,7 @@
         <v>168</v>
       </c>
       <c r="P139" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q139">
         <v>1.8</v>
@@ -29980,10 +29986,10 @@
         <v>0.64</v>
       </c>
       <c r="AP140">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ140">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR140">
         <v>1.4</v>
@@ -30108,7 +30114,7 @@
         <v>169</v>
       </c>
       <c r="P141" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30186,7 +30192,7 @@
         <v>0.64</v>
       </c>
       <c r="AP141">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ141">
         <v>0.73</v>
@@ -30395,7 +30401,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ142">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR142">
         <v>1.29</v>
@@ -30726,7 +30732,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -30932,7 +30938,7 @@
         <v>86</v>
       </c>
       <c r="P145" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -31422,7 +31428,7 @@
         <v>0.67</v>
       </c>
       <c r="AP147">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ147">
         <v>0.73</v>
@@ -31631,7 +31637,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ148">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR148">
         <v>1.24</v>
@@ -31962,7 +31968,7 @@
         <v>172</v>
       </c>
       <c r="P150" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q150">
         <v>3.25</v>
@@ -32168,7 +32174,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -32374,7 +32380,7 @@
         <v>174</v>
       </c>
       <c r="P152" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q152">
         <v>4.75</v>
@@ -32580,7 +32586,7 @@
         <v>86</v>
       </c>
       <c r="P153" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q153">
         <v>4.75</v>
@@ -32658,10 +32664,10 @@
         <v>0.67</v>
       </c>
       <c r="AP153">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ153">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR153">
         <v>1.03</v>
@@ -32992,7 +32998,7 @@
         <v>175</v>
       </c>
       <c r="P155" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q155">
         <v>3.25</v>
@@ -33070,10 +33076,10 @@
         <v>0.67</v>
       </c>
       <c r="AP155">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ155">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR155">
         <v>1.29</v>
@@ -33198,7 +33204,7 @@
         <v>161</v>
       </c>
       <c r="P156" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q156">
         <v>4.75</v>
@@ -33404,7 +33410,7 @@
         <v>176</v>
       </c>
       <c r="P157" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q157">
         <v>2.1</v>
@@ -34100,7 +34106,7 @@
         <v>0.85</v>
       </c>
       <c r="AP160">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ160">
         <v>0.73</v>
@@ -34228,7 +34234,7 @@
         <v>178</v>
       </c>
       <c r="P161" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q161">
         <v>2.75</v>
@@ -34309,7 +34315,7 @@
         <v>1</v>
       </c>
       <c r="AQ161">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR161">
         <v>1.41</v>
@@ -34434,7 +34440,7 @@
         <v>179</v>
       </c>
       <c r="P162" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34640,7 +34646,7 @@
         <v>180</v>
       </c>
       <c r="P163" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q163">
         <v>1.73</v>
@@ -34846,7 +34852,7 @@
         <v>85</v>
       </c>
       <c r="P164" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q164">
         <v>4.9</v>
@@ -34924,10 +34930,10 @@
         <v>1.15</v>
       </c>
       <c r="AP164">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ164">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR164">
         <v>1.02</v>
@@ -35130,7 +35136,7 @@
         <v>1.31</v>
       </c>
       <c r="AP165">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ165">
         <v>1.13</v>
@@ -35258,7 +35264,7 @@
         <v>181</v>
       </c>
       <c r="P166" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q166">
         <v>3.56</v>
@@ -35339,7 +35345,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ166">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR166">
         <v>1.24</v>
@@ -35464,7 +35470,7 @@
         <v>171</v>
       </c>
       <c r="P167" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35670,7 +35676,7 @@
         <v>182</v>
       </c>
       <c r="P168" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -35876,7 +35882,7 @@
         <v>141</v>
       </c>
       <c r="P169" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q169">
         <v>3.45</v>
@@ -36082,7 +36088,7 @@
         <v>183</v>
       </c>
       <c r="P170" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q170">
         <v>2.4</v>
@@ -36160,10 +36166,10 @@
         <v>0.79</v>
       </c>
       <c r="AP170">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ170">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR170">
         <v>1.36</v>
@@ -36288,7 +36294,7 @@
         <v>86</v>
       </c>
       <c r="P171" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q171">
         <v>2.75</v>
@@ -36369,7 +36375,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ171">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR171">
         <v>1.24</v>
@@ -36572,7 +36578,7 @@
         <v>0.71</v>
       </c>
       <c r="AP172">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ172">
         <v>0.73</v>
@@ -36906,7 +36912,7 @@
         <v>185</v>
       </c>
       <c r="P174" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37112,7 +37118,7 @@
         <v>186</v>
       </c>
       <c r="P175" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q175">
         <v>2.4</v>
@@ -37396,7 +37402,7 @@
         <v>1.21</v>
       </c>
       <c r="AP176">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ176">
         <v>1.13</v>
@@ -37524,7 +37530,7 @@
         <v>188</v>
       </c>
       <c r="P177" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q177">
         <v>2.8</v>
@@ -37730,7 +37736,7 @@
         <v>86</v>
       </c>
       <c r="P178" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q178">
         <v>2.85</v>
@@ -37811,7 +37817,7 @@
         <v>1</v>
       </c>
       <c r="AQ178">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR178">
         <v>1.38</v>
@@ -37936,7 +37942,7 @@
         <v>86</v>
       </c>
       <c r="P179" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q179">
         <v>4.33</v>
@@ -38142,7 +38148,7 @@
         <v>170</v>
       </c>
       <c r="P180" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q180">
         <v>1.91</v>
@@ -38505,6 +38511,624 @@
       </c>
       <c r="BP181">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7383409</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45423.5</v>
+      </c>
+      <c r="F182">
+        <v>9</v>
+      </c>
+      <c r="G182" t="s">
+        <v>75</v>
+      </c>
+      <c r="H182" t="s">
+        <v>71</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182">
+        <v>4</v>
+      </c>
+      <c r="N182">
+        <v>4</v>
+      </c>
+      <c r="O182" t="s">
+        <v>86</v>
+      </c>
+      <c r="P182" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q182">
+        <v>2.3</v>
+      </c>
+      <c r="R182">
+        <v>2.15</v>
+      </c>
+      <c r="S182">
+        <v>4.5</v>
+      </c>
+      <c r="T182">
+        <v>1.36</v>
+      </c>
+      <c r="U182">
+        <v>2.88</v>
+      </c>
+      <c r="V182">
+        <v>2.65</v>
+      </c>
+      <c r="W182">
+        <v>1.42</v>
+      </c>
+      <c r="X182">
+        <v>7</v>
+      </c>
+      <c r="Y182">
+        <v>1.08</v>
+      </c>
+      <c r="Z182">
+        <v>1.7</v>
+      </c>
+      <c r="AA182">
+        <v>3.7</v>
+      </c>
+      <c r="AB182">
+        <v>4.75</v>
+      </c>
+      <c r="AC182">
+        <v>1.05</v>
+      </c>
+      <c r="AD182">
+        <v>9.5</v>
+      </c>
+      <c r="AE182">
+        <v>1.28</v>
+      </c>
+      <c r="AF182">
+        <v>3.6</v>
+      </c>
+      <c r="AG182">
+        <v>1.75</v>
+      </c>
+      <c r="AH182">
+        <v>1.79</v>
+      </c>
+      <c r="AI182">
+        <v>1.73</v>
+      </c>
+      <c r="AJ182">
+        <v>1.95</v>
+      </c>
+      <c r="AK182">
+        <v>1.2</v>
+      </c>
+      <c r="AL182">
+        <v>1.22</v>
+      </c>
+      <c r="AM182">
+        <v>2</v>
+      </c>
+      <c r="AN182">
+        <v>1.73</v>
+      </c>
+      <c r="AO182">
+        <v>1.4</v>
+      </c>
+      <c r="AP182">
+        <v>1.63</v>
+      </c>
+      <c r="AQ182">
+        <v>1.5</v>
+      </c>
+      <c r="AR182">
+        <v>1.35</v>
+      </c>
+      <c r="AS182">
+        <v>1.23</v>
+      </c>
+      <c r="AT182">
+        <v>2.58</v>
+      </c>
+      <c r="AU182">
+        <v>8</v>
+      </c>
+      <c r="AV182">
+        <v>5</v>
+      </c>
+      <c r="AW182">
+        <v>7</v>
+      </c>
+      <c r="AX182">
+        <v>0</v>
+      </c>
+      <c r="AY182">
+        <v>15</v>
+      </c>
+      <c r="AZ182">
+        <v>5</v>
+      </c>
+      <c r="BA182">
+        <v>10</v>
+      </c>
+      <c r="BB182">
+        <v>5</v>
+      </c>
+      <c r="BC182">
+        <v>15</v>
+      </c>
+      <c r="BD182">
+        <v>1.41</v>
+      </c>
+      <c r="BE182">
+        <v>9</v>
+      </c>
+      <c r="BF182">
+        <v>3.58</v>
+      </c>
+      <c r="BG182">
+        <v>1.21</v>
+      </c>
+      <c r="BH182">
+        <v>3.74</v>
+      </c>
+      <c r="BI182">
+        <v>1.5</v>
+      </c>
+      <c r="BJ182">
+        <v>2.4</v>
+      </c>
+      <c r="BK182">
+        <v>1.82</v>
+      </c>
+      <c r="BL182">
+        <v>1.98</v>
+      </c>
+      <c r="BM182">
+        <v>2.2</v>
+      </c>
+      <c r="BN182">
+        <v>1.6</v>
+      </c>
+      <c r="BO182">
+        <v>2.84</v>
+      </c>
+      <c r="BP182">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7383410</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45423.5</v>
+      </c>
+      <c r="F183">
+        <v>9</v>
+      </c>
+      <c r="G183" t="s">
+        <v>80</v>
+      </c>
+      <c r="H183" t="s">
+        <v>78</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>1</v>
+      </c>
+      <c r="O183" t="s">
+        <v>190</v>
+      </c>
+      <c r="P183" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q183">
+        <v>3.95</v>
+      </c>
+      <c r="R183">
+        <v>2</v>
+      </c>
+      <c r="S183">
+        <v>2.75</v>
+      </c>
+      <c r="T183">
+        <v>1.42</v>
+      </c>
+      <c r="U183">
+        <v>2.62</v>
+      </c>
+      <c r="V183">
+        <v>2.95</v>
+      </c>
+      <c r="W183">
+        <v>1.35</v>
+      </c>
+      <c r="X183">
+        <v>7.8</v>
+      </c>
+      <c r="Y183">
+        <v>1.06</v>
+      </c>
+      <c r="Z183">
+        <v>3.6</v>
+      </c>
+      <c r="AA183">
+        <v>3.2</v>
+      </c>
+      <c r="AB183">
+        <v>2.1</v>
+      </c>
+      <c r="AC183">
+        <v>1.07</v>
+      </c>
+      <c r="AD183">
+        <v>8</v>
+      </c>
+      <c r="AE183">
+        <v>1.35</v>
+      </c>
+      <c r="AF183">
+        <v>3.1</v>
+      </c>
+      <c r="AG183">
+        <v>2.02</v>
+      </c>
+      <c r="AH183">
+        <v>1.58</v>
+      </c>
+      <c r="AI183">
+        <v>1.77</v>
+      </c>
+      <c r="AJ183">
+        <v>1.91</v>
+      </c>
+      <c r="AK183">
+        <v>1.67</v>
+      </c>
+      <c r="AL183">
+        <v>1.28</v>
+      </c>
+      <c r="AM183">
+        <v>1.3</v>
+      </c>
+      <c r="AN183">
+        <v>0.4</v>
+      </c>
+      <c r="AO183">
+        <v>0.8</v>
+      </c>
+      <c r="AP183">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AQ183">
+        <v>0.75</v>
+      </c>
+      <c r="AR183">
+        <v>1.13</v>
+      </c>
+      <c r="AS183">
+        <v>1.07</v>
+      </c>
+      <c r="AT183">
+        <v>2.2</v>
+      </c>
+      <c r="AU183">
+        <v>5</v>
+      </c>
+      <c r="AV183">
+        <v>4</v>
+      </c>
+      <c r="AW183">
+        <v>10</v>
+      </c>
+      <c r="AX183">
+        <v>9</v>
+      </c>
+      <c r="AY183">
+        <v>15</v>
+      </c>
+      <c r="AZ183">
+        <v>13</v>
+      </c>
+      <c r="BA183">
+        <v>6</v>
+      </c>
+      <c r="BB183">
+        <v>9</v>
+      </c>
+      <c r="BC183">
+        <v>15</v>
+      </c>
+      <c r="BD183">
+        <v>2.44</v>
+      </c>
+      <c r="BE183">
+        <v>8</v>
+      </c>
+      <c r="BF183">
+        <v>1.75</v>
+      </c>
+      <c r="BG183">
+        <v>1.29</v>
+      </c>
+      <c r="BH183">
+        <v>3.14</v>
+      </c>
+      <c r="BI183">
+        <v>1.55</v>
+      </c>
+      <c r="BJ183">
+        <v>2.3</v>
+      </c>
+      <c r="BK183">
+        <v>2</v>
+      </c>
+      <c r="BL183">
+        <v>1.8</v>
+      </c>
+      <c r="BM183">
+        <v>2.4</v>
+      </c>
+      <c r="BN183">
+        <v>1.5</v>
+      </c>
+      <c r="BO183">
+        <v>3.48</v>
+      </c>
+      <c r="BP183">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7383411</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45423.5</v>
+      </c>
+      <c r="F184">
+        <v>9</v>
+      </c>
+      <c r="G184" t="s">
+        <v>73</v>
+      </c>
+      <c r="H184" t="s">
+        <v>74</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184">
+        <v>1</v>
+      </c>
+      <c r="N184">
+        <v>1</v>
+      </c>
+      <c r="O184" t="s">
+        <v>86</v>
+      </c>
+      <c r="P184" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q184">
+        <v>3.25</v>
+      </c>
+      <c r="R184">
+        <v>1.95</v>
+      </c>
+      <c r="S184">
+        <v>3.3</v>
+      </c>
+      <c r="T184">
+        <v>1.45</v>
+      </c>
+      <c r="U184">
+        <v>2.55</v>
+      </c>
+      <c r="V184">
+        <v>3</v>
+      </c>
+      <c r="W184">
+        <v>1.33</v>
+      </c>
+      <c r="X184">
+        <v>8.1</v>
+      </c>
+      <c r="Y184">
+        <v>1.06</v>
+      </c>
+      <c r="Z184">
+        <v>2.95</v>
+      </c>
+      <c r="AA184">
+        <v>3</v>
+      </c>
+      <c r="AB184">
+        <v>2.5</v>
+      </c>
+      <c r="AC184">
+        <v>1.07</v>
+      </c>
+      <c r="AD184">
+        <v>8</v>
+      </c>
+      <c r="AE184">
+        <v>1.38</v>
+      </c>
+      <c r="AF184">
+        <v>3</v>
+      </c>
+      <c r="AG184">
+        <v>2.02</v>
+      </c>
+      <c r="AH184">
+        <v>1.58</v>
+      </c>
+      <c r="AI184">
+        <v>1.77</v>
+      </c>
+      <c r="AJ184">
+        <v>1.9</v>
+      </c>
+      <c r="AK184">
+        <v>1.45</v>
+      </c>
+      <c r="AL184">
+        <v>1.3</v>
+      </c>
+      <c r="AM184">
+        <v>1.45</v>
+      </c>
+      <c r="AN184">
+        <v>1</v>
+      </c>
+      <c r="AO184">
+        <v>0.8</v>
+      </c>
+      <c r="AP184">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ184">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR184">
+        <v>1.3</v>
+      </c>
+      <c r="AS184">
+        <v>1.25</v>
+      </c>
+      <c r="AT184">
+        <v>2.55</v>
+      </c>
+      <c r="AU184">
+        <v>3</v>
+      </c>
+      <c r="AV184">
+        <v>4</v>
+      </c>
+      <c r="AW184">
+        <v>8</v>
+      </c>
+      <c r="AX184">
+        <v>3</v>
+      </c>
+      <c r="AY184">
+        <v>11</v>
+      </c>
+      <c r="AZ184">
+        <v>7</v>
+      </c>
+      <c r="BA184">
+        <v>3</v>
+      </c>
+      <c r="BB184">
+        <v>0</v>
+      </c>
+      <c r="BC184">
+        <v>3</v>
+      </c>
+      <c r="BD184">
+        <v>2.1</v>
+      </c>
+      <c r="BE184">
+        <v>8</v>
+      </c>
+      <c r="BF184">
+        <v>1.95</v>
+      </c>
+      <c r="BG184">
+        <v>1.22</v>
+      </c>
+      <c r="BH184">
+        <v>3.65</v>
+      </c>
+      <c r="BI184">
+        <v>1.5</v>
+      </c>
+      <c r="BJ184">
+        <v>2.4</v>
+      </c>
+      <c r="BK184">
+        <v>1.82</v>
+      </c>
+      <c r="BL184">
+        <v>1.98</v>
+      </c>
+      <c r="BM184">
+        <v>2.2</v>
+      </c>
+      <c r="BN184">
+        <v>1.6</v>
+      </c>
+      <c r="BO184">
+        <v>2.93</v>
+      </c>
+      <c r="BP184">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="285">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -589,6 +589,9 @@
     <t>['37']</t>
   </si>
   <si>
+    <t>['20', '77']</t>
+  </si>
+  <si>
     <t>['23']</t>
   </si>
   <si>
@@ -859,7 +862,13 @@
     <t>['17']</t>
   </si>
   <si>
-    <t>['36', '55', '76', '90+2']</t>
+    <t>['37', '55', '76', '90+2']</t>
+  </si>
+  <si>
+    <t>['30', '48']</t>
+  </si>
+  <si>
+    <t>['11', '27', '45', '50', '79']</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP184"/>
+  <dimension ref="A1:BP187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1480,7 +1489,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1558,10 +1567,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ2">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1686,7 +1695,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1892,7 +1901,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1970,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ4">
         <v>0.73</v>
@@ -2098,7 +2107,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2304,7 +2313,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2385,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2510,7 +2519,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q7">
         <v>3.75</v>
@@ -2591,7 +2600,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ7">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3128,7 +3137,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3540,7 +3549,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q12">
         <v>4.5</v>
@@ -3746,7 +3755,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3824,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ13">
         <v>1.5</v>
@@ -4158,7 +4167,7 @@
         <v>82</v>
       </c>
       <c r="P15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q15">
         <v>2.55</v>
@@ -4442,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ16">
         <v>0.75</v>
@@ -4776,7 +4785,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -5394,7 +5403,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5475,7 +5484,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ21">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR21">
         <v>1.23</v>
@@ -5600,7 +5609,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5678,7 +5687,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ22">
         <v>0.9399999999999999</v>
@@ -5806,7 +5815,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q23">
         <v>4.75</v>
@@ -5884,10 +5893,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ23">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR23">
         <v>1.57</v>
@@ -6012,7 +6021,7 @@
         <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q24">
         <v>4.33</v>
@@ -6093,7 +6102,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ24">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR24">
         <v>0.98</v>
@@ -6424,7 +6433,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q26">
         <v>1.68</v>
@@ -6630,7 +6639,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6711,7 +6720,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ27">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR27">
         <v>1.48</v>
@@ -6836,7 +6845,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7120,7 +7129,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ29">
         <v>1.13</v>
@@ -7248,7 +7257,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7454,7 +7463,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7532,7 +7541,7 @@
         <v>2</v>
       </c>
       <c r="AP31">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ31">
         <v>1.33</v>
@@ -7660,7 +7669,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7866,7 +7875,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q33">
         <v>3</v>
@@ -8072,7 +8081,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8153,7 +8162,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR34">
         <v>1.53</v>
@@ -8278,7 +8287,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8565,7 +8574,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ36">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR36">
         <v>1.98</v>
@@ -8768,7 +8777,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ37">
         <v>0.73</v>
@@ -8896,7 +8905,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8974,7 +8983,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ38">
         <v>1.4</v>
@@ -9102,7 +9111,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9308,7 +9317,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9389,7 +9398,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ40">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR40">
         <v>1.36</v>
@@ -9514,7 +9523,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9720,7 +9729,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9798,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ42">
         <v>1.13</v>
@@ -9926,7 +9935,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q43">
         <v>2.2</v>
@@ -10132,7 +10141,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q44">
         <v>3.25</v>
@@ -10338,7 +10347,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q45">
         <v>1.57</v>
@@ -10622,7 +10631,7 @@
         <v>0.67</v>
       </c>
       <c r="AP46">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ46">
         <v>0.73</v>
@@ -11034,7 +11043,7 @@
         <v>2.33</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ48">
         <v>1.33</v>
@@ -11162,7 +11171,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11243,7 +11252,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ49">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR49">
         <v>2.07</v>
@@ -11368,7 +11377,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11780,7 +11789,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q52">
         <v>9.5</v>
@@ -11861,7 +11870,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ52">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR52">
         <v>1.15</v>
@@ -12270,7 +12279,7 @@
         <v>1.25</v>
       </c>
       <c r="AP54">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ54">
         <v>0.9399999999999999</v>
@@ -12479,7 +12488,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ55">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR55">
         <v>1.51</v>
@@ -12604,7 +12613,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12685,7 +12694,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ56">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR56">
         <v>1.03</v>
@@ -12888,7 +12897,7 @@
         <v>0.8</v>
       </c>
       <c r="AP57">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ57">
         <v>0.73</v>
@@ -13222,7 +13231,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13303,7 +13312,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ59">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR59">
         <v>1.25</v>
@@ -13506,7 +13515,7 @@
         <v>1.2</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ60">
         <v>0.9399999999999999</v>
@@ -13634,7 +13643,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q61">
         <v>7.5</v>
@@ -13712,10 +13721,10 @@
         <v>2.6</v>
       </c>
       <c r="AP61">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ61">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR61">
         <v>1.33</v>
@@ -13840,7 +13849,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -14046,7 +14055,7 @@
         <v>123</v>
       </c>
       <c r="P63" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q63">
         <v>2.05</v>
@@ -14664,7 +14673,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q66">
         <v>4.33</v>
@@ -14870,7 +14879,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -15154,7 +15163,7 @@
         <v>0.67</v>
       </c>
       <c r="AP68">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ68">
         <v>0.73</v>
@@ -15694,7 +15703,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q71">
         <v>4.33</v>
@@ -16106,7 +16115,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q73">
         <v>2.75</v>
@@ -16724,7 +16733,7 @@
         <v>86</v>
       </c>
       <c r="P76" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q76">
         <v>7.5</v>
@@ -16805,7 +16814,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ76">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR76">
         <v>1.23</v>
@@ -16930,7 +16939,7 @@
         <v>86</v>
       </c>
       <c r="P77" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q77">
         <v>4.33</v>
@@ -17011,7 +17020,7 @@
         <v>1</v>
       </c>
       <c r="AQ77">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR77">
         <v>1.52</v>
@@ -17136,7 +17145,7 @@
         <v>131</v>
       </c>
       <c r="P78" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q78">
         <v>2.5</v>
@@ -17214,7 +17223,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ78">
         <v>0.75</v>
@@ -17420,10 +17429,10 @@
         <v>2.6</v>
       </c>
       <c r="AP79">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ79">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR79">
         <v>1.46</v>
@@ -17548,7 +17557,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q80">
         <v>3.5</v>
@@ -17832,10 +17841,10 @@
         <v>1.83</v>
       </c>
       <c r="AP81">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ81">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR81">
         <v>1.28</v>
@@ -17960,7 +17969,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q82">
         <v>4.5</v>
@@ -18372,7 +18381,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q84">
         <v>4.75</v>
@@ -18450,10 +18459,10 @@
         <v>2.17</v>
       </c>
       <c r="AP84">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ84">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR84">
         <v>1.33</v>
@@ -18659,7 +18668,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ85">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR85">
         <v>1.41</v>
@@ -18784,7 +18793,7 @@
         <v>137</v>
       </c>
       <c r="P86" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -19068,7 +19077,7 @@
         <v>0.57</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ87">
         <v>0.73</v>
@@ -19608,7 +19617,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -20020,7 +20029,7 @@
         <v>141</v>
       </c>
       <c r="P92" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20101,7 +20110,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ92">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR92">
         <v>1.24</v>
@@ -20716,7 +20725,7 @@
         <v>1.57</v>
       </c>
       <c r="AP95">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ95">
         <v>1.33</v>
@@ -20844,7 +20853,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q96">
         <v>5.5</v>
@@ -20925,7 +20934,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ96">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR96">
         <v>1.28</v>
@@ -21337,7 +21346,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ98">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR98">
         <v>1.83</v>
@@ -21462,7 +21471,7 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q99">
         <v>3.6</v>
@@ -21540,7 +21549,7 @@
         <v>1.13</v>
       </c>
       <c r="AP99">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ99">
         <v>1.13</v>
@@ -21668,7 +21677,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21874,7 +21883,7 @@
         <v>148</v>
       </c>
       <c r="P101" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -22158,7 +22167,7 @@
         <v>1.25</v>
       </c>
       <c r="AP102">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ102">
         <v>1.5</v>
@@ -22492,7 +22501,7 @@
         <v>151</v>
       </c>
       <c r="P104" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22573,7 +22582,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ104">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR104">
         <v>1.61</v>
@@ -22904,7 +22913,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23110,7 +23119,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q107">
         <v>2.4</v>
@@ -23316,7 +23325,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q108">
         <v>3.75</v>
@@ -23397,7 +23406,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ108">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR108">
         <v>1.31</v>
@@ -23522,7 +23531,7 @@
         <v>154</v>
       </c>
       <c r="P109" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -23600,7 +23609,7 @@
         <v>1.88</v>
       </c>
       <c r="AP109">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ109">
         <v>1.33</v>
@@ -23728,7 +23737,7 @@
         <v>155</v>
       </c>
       <c r="P110" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q110">
         <v>2.2</v>
@@ -24221,7 +24230,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ112">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR112">
         <v>1.27</v>
@@ -24346,7 +24355,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q113">
         <v>4.33</v>
@@ -24630,7 +24639,7 @@
         <v>1.33</v>
       </c>
       <c r="AP114">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ114">
         <v>1.4</v>
@@ -24839,7 +24848,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ115">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR115">
         <v>1.67</v>
@@ -25248,7 +25257,7 @@
         <v>1.11</v>
       </c>
       <c r="AP117">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ117">
         <v>1.5</v>
@@ -25376,7 +25385,7 @@
         <v>120</v>
       </c>
       <c r="P118" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q118">
         <v>3.16</v>
@@ -25582,7 +25591,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q119">
         <v>5.5</v>
@@ -25663,7 +25672,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ119">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR119">
         <v>1.27</v>
@@ -25866,7 +25875,7 @@
         <v>0.78</v>
       </c>
       <c r="AP120">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ120">
         <v>0.75</v>
@@ -26612,7 +26621,7 @@
         <v>103</v>
       </c>
       <c r="P124" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q124">
         <v>1.57</v>
@@ -26818,7 +26827,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q125">
         <v>4.33</v>
@@ -27514,10 +27523,10 @@
         <v>2.2</v>
       </c>
       <c r="AP128">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ128">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR128">
         <v>1.51</v>
@@ -27642,7 +27651,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q129">
         <v>3.9</v>
@@ -27720,10 +27729,10 @@
         <v>2.1</v>
       </c>
       <c r="AP129">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ129">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR129">
         <v>1.16</v>
@@ -27848,7 +27857,7 @@
         <v>161</v>
       </c>
       <c r="P130" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q130">
         <v>3.7</v>
@@ -27926,10 +27935,10 @@
         <v>1.8</v>
       </c>
       <c r="AP130">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ130">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR130">
         <v>1.29</v>
@@ -29496,7 +29505,7 @@
         <v>86</v>
       </c>
       <c r="P138" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q138">
         <v>4.5</v>
@@ -29574,10 +29583,10 @@
         <v>2</v>
       </c>
       <c r="AP138">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ138">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR138">
         <v>1.28</v>
@@ -29702,7 +29711,7 @@
         <v>168</v>
       </c>
       <c r="P139" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q139">
         <v>1.8</v>
@@ -30114,7 +30123,7 @@
         <v>169</v>
       </c>
       <c r="P141" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30604,7 +30613,7 @@
         <v>1.73</v>
       </c>
       <c r="AP143">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ143">
         <v>1.33</v>
@@ -30732,7 +30741,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -30810,10 +30819,10 @@
         <v>1.73</v>
       </c>
       <c r="AP144">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ144">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR144">
         <v>1.12</v>
@@ -30938,7 +30947,7 @@
         <v>86</v>
       </c>
       <c r="P145" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -31019,7 +31028,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ145">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR145">
         <v>1.68</v>
@@ -31968,7 +31977,7 @@
         <v>172</v>
       </c>
       <c r="P150" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q150">
         <v>3.25</v>
@@ -32046,7 +32055,7 @@
         <v>1.25</v>
       </c>
       <c r="AP150">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ150">
         <v>1.33</v>
@@ -32174,7 +32183,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -32255,7 +32264,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ151">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR151">
         <v>1.78</v>
@@ -32380,7 +32389,7 @@
         <v>174</v>
       </c>
       <c r="P152" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q152">
         <v>4.75</v>
@@ -32458,10 +32467,10 @@
         <v>2.33</v>
       </c>
       <c r="AP152">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ152">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR152">
         <v>1.51</v>
@@ -32586,7 +32595,7 @@
         <v>86</v>
       </c>
       <c r="P153" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q153">
         <v>4.75</v>
@@ -32998,7 +33007,7 @@
         <v>175</v>
       </c>
       <c r="P155" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q155">
         <v>3.25</v>
@@ -33204,7 +33213,7 @@
         <v>161</v>
       </c>
       <c r="P156" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q156">
         <v>4.75</v>
@@ -33282,10 +33291,10 @@
         <v>2.08</v>
       </c>
       <c r="AP156">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ156">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR156">
         <v>1.08</v>
@@ -33410,7 +33419,7 @@
         <v>176</v>
       </c>
       <c r="P157" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q157">
         <v>2.1</v>
@@ -33697,7 +33706,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ158">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR158">
         <v>1.6</v>
@@ -34234,7 +34243,7 @@
         <v>178</v>
       </c>
       <c r="P161" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q161">
         <v>2.75</v>
@@ -34440,7 +34449,7 @@
         <v>179</v>
       </c>
       <c r="P162" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34518,7 +34527,7 @@
         <v>1.23</v>
       </c>
       <c r="AP162">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ162">
         <v>1.33</v>
@@ -34646,7 +34655,7 @@
         <v>180</v>
       </c>
       <c r="P163" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q163">
         <v>1.73</v>
@@ -34852,7 +34861,7 @@
         <v>85</v>
       </c>
       <c r="P164" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q164">
         <v>4.9</v>
@@ -35264,7 +35273,7 @@
         <v>181</v>
       </c>
       <c r="P166" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q166">
         <v>3.56</v>
@@ -35470,7 +35479,7 @@
         <v>171</v>
       </c>
       <c r="P167" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35548,7 +35557,7 @@
         <v>1.15</v>
       </c>
       <c r="AP167">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ167">
         <v>1.4</v>
@@ -35676,7 +35685,7 @@
         <v>182</v>
       </c>
       <c r="P168" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -35754,10 +35763,10 @@
         <v>2.15</v>
       </c>
       <c r="AP168">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ168">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR168">
         <v>1.26</v>
@@ -35882,7 +35891,7 @@
         <v>141</v>
       </c>
       <c r="P169" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q169">
         <v>3.45</v>
@@ -35963,7 +35972,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ169">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR169">
         <v>1.66</v>
@@ -36088,7 +36097,7 @@
         <v>183</v>
       </c>
       <c r="P170" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q170">
         <v>2.4</v>
@@ -36294,7 +36303,7 @@
         <v>86</v>
       </c>
       <c r="P171" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q171">
         <v>2.75</v>
@@ -36784,10 +36793,10 @@
         <v>1.64</v>
       </c>
       <c r="AP173">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ173">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR173">
         <v>1.47</v>
@@ -36912,7 +36921,7 @@
         <v>185</v>
       </c>
       <c r="P174" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -36990,7 +36999,7 @@
         <v>1.43</v>
       </c>
       <c r="AP174">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ174">
         <v>1.33</v>
@@ -37118,7 +37127,7 @@
         <v>186</v>
       </c>
       <c r="P175" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q175">
         <v>2.4</v>
@@ -37199,7 +37208,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ175">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR175">
         <v>1.83</v>
@@ -37530,7 +37539,7 @@
         <v>188</v>
       </c>
       <c r="P177" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q177">
         <v>2.8</v>
@@ -37736,7 +37745,7 @@
         <v>86</v>
       </c>
       <c r="P178" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q178">
         <v>2.85</v>
@@ -37942,7 +37951,7 @@
         <v>86</v>
       </c>
       <c r="P179" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q179">
         <v>4.33</v>
@@ -38020,7 +38029,7 @@
         <v>1.29</v>
       </c>
       <c r="AP179">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ179">
         <v>1.4</v>
@@ -38148,7 +38157,7 @@
         <v>170</v>
       </c>
       <c r="P180" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q180">
         <v>1.91</v>
@@ -38435,7 +38444,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ181">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR181">
         <v>1.67</v>
@@ -38560,7 +38569,7 @@
         <v>86</v>
       </c>
       <c r="P182" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q182">
         <v>2.3</v>
@@ -39129,6 +39138,624 @@
       </c>
       <c r="BP184">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7383412</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45424.5</v>
+      </c>
+      <c r="F185">
+        <v>9</v>
+      </c>
+      <c r="G185" t="s">
+        <v>70</v>
+      </c>
+      <c r="H185" t="s">
+        <v>77</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>2</v>
+      </c>
+      <c r="L185">
+        <v>2</v>
+      </c>
+      <c r="M185">
+        <v>2</v>
+      </c>
+      <c r="N185">
+        <v>4</v>
+      </c>
+      <c r="O185" t="s">
+        <v>191</v>
+      </c>
+      <c r="P185" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q185">
+        <v>3.4</v>
+      </c>
+      <c r="R185">
+        <v>2.1</v>
+      </c>
+      <c r="S185">
+        <v>3.2</v>
+      </c>
+      <c r="T185">
+        <v>1.4</v>
+      </c>
+      <c r="U185">
+        <v>2.75</v>
+      </c>
+      <c r="V185">
+        <v>2.75</v>
+      </c>
+      <c r="W185">
+        <v>1.4</v>
+      </c>
+      <c r="X185">
+        <v>8</v>
+      </c>
+      <c r="Y185">
+        <v>1.08</v>
+      </c>
+      <c r="Z185">
+        <v>2.74</v>
+      </c>
+      <c r="AA185">
+        <v>3.28</v>
+      </c>
+      <c r="AB185">
+        <v>2.6</v>
+      </c>
+      <c r="AC185">
+        <v>1.02</v>
+      </c>
+      <c r="AD185">
+        <v>9</v>
+      </c>
+      <c r="AE185">
+        <v>1.3</v>
+      </c>
+      <c r="AF185">
+        <v>3.65</v>
+      </c>
+      <c r="AG185">
+        <v>1.95</v>
+      </c>
+      <c r="AH185">
+        <v>1.85</v>
+      </c>
+      <c r="AI185">
+        <v>1.75</v>
+      </c>
+      <c r="AJ185">
+        <v>2</v>
+      </c>
+      <c r="AK185">
+        <v>1.5</v>
+      </c>
+      <c r="AL185">
+        <v>1.35</v>
+      </c>
+      <c r="AM185">
+        <v>1.4</v>
+      </c>
+      <c r="AN185">
+        <v>2</v>
+      </c>
+      <c r="AO185">
+        <v>2.13</v>
+      </c>
+      <c r="AP185">
+        <v>1.94</v>
+      </c>
+      <c r="AQ185">
+        <v>2.06</v>
+      </c>
+      <c r="AR185">
+        <v>1.47</v>
+      </c>
+      <c r="AS185">
+        <v>1.43</v>
+      </c>
+      <c r="AT185">
+        <v>2.9</v>
+      </c>
+      <c r="AU185">
+        <v>5</v>
+      </c>
+      <c r="AV185">
+        <v>5</v>
+      </c>
+      <c r="AW185">
+        <v>5</v>
+      </c>
+      <c r="AX185">
+        <v>4</v>
+      </c>
+      <c r="AY185">
+        <v>10</v>
+      </c>
+      <c r="AZ185">
+        <v>9</v>
+      </c>
+      <c r="BA185">
+        <v>6</v>
+      </c>
+      <c r="BB185">
+        <v>6</v>
+      </c>
+      <c r="BC185">
+        <v>12</v>
+      </c>
+      <c r="BD185">
+        <v>2</v>
+      </c>
+      <c r="BE185">
+        <v>8</v>
+      </c>
+      <c r="BF185">
+        <v>2.05</v>
+      </c>
+      <c r="BG185">
+        <v>1.21</v>
+      </c>
+      <c r="BH185">
+        <v>3.74</v>
+      </c>
+      <c r="BI185">
+        <v>1.42</v>
+      </c>
+      <c r="BJ185">
+        <v>2.65</v>
+      </c>
+      <c r="BK185">
+        <v>1.85</v>
+      </c>
+      <c r="BL185">
+        <v>1.95</v>
+      </c>
+      <c r="BM185">
+        <v>2.17</v>
+      </c>
+      <c r="BN185">
+        <v>1.67</v>
+      </c>
+      <c r="BO185">
+        <v>2.91</v>
+      </c>
+      <c r="BP185">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7383413</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45424.5</v>
+      </c>
+      <c r="F186">
+        <v>9</v>
+      </c>
+      <c r="G186" t="s">
+        <v>81</v>
+      </c>
+      <c r="H186" t="s">
+        <v>76</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+      <c r="N186">
+        <v>1</v>
+      </c>
+      <c r="O186" t="s">
+        <v>86</v>
+      </c>
+      <c r="P186" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q186">
+        <v>4</v>
+      </c>
+      <c r="R186">
+        <v>2.3</v>
+      </c>
+      <c r="S186">
+        <v>2.6</v>
+      </c>
+      <c r="T186">
+        <v>1.33</v>
+      </c>
+      <c r="U186">
+        <v>3.25</v>
+      </c>
+      <c r="V186">
+        <v>2.63</v>
+      </c>
+      <c r="W186">
+        <v>1.44</v>
+      </c>
+      <c r="X186">
+        <v>6.5</v>
+      </c>
+      <c r="Y186">
+        <v>1.11</v>
+      </c>
+      <c r="Z186">
+        <v>3.78</v>
+      </c>
+      <c r="AA186">
+        <v>3.6</v>
+      </c>
+      <c r="AB186">
+        <v>1.95</v>
+      </c>
+      <c r="AC186">
+        <v>1.01</v>
+      </c>
+      <c r="AD186">
+        <v>10.5</v>
+      </c>
+      <c r="AE186">
+        <v>1.23</v>
+      </c>
+      <c r="AF186">
+        <v>4.29</v>
+      </c>
+      <c r="AG186">
+        <v>1.83</v>
+      </c>
+      <c r="AH186">
+        <v>1.97</v>
+      </c>
+      <c r="AI186">
+        <v>1.62</v>
+      </c>
+      <c r="AJ186">
+        <v>2.2</v>
+      </c>
+      <c r="AK186">
+        <v>1.78</v>
+      </c>
+      <c r="AL186">
+        <v>1.3</v>
+      </c>
+      <c r="AM186">
+        <v>1.3</v>
+      </c>
+      <c r="AN186">
+        <v>1.27</v>
+      </c>
+      <c r="AO186">
+        <v>1.53</v>
+      </c>
+      <c r="AP186">
+        <v>1.19</v>
+      </c>
+      <c r="AQ186">
+        <v>1.63</v>
+      </c>
+      <c r="AR186">
+        <v>1.27</v>
+      </c>
+      <c r="AS186">
+        <v>1.49</v>
+      </c>
+      <c r="AT186">
+        <v>2.76</v>
+      </c>
+      <c r="AU186">
+        <v>3</v>
+      </c>
+      <c r="AV186">
+        <v>6</v>
+      </c>
+      <c r="AW186">
+        <v>8</v>
+      </c>
+      <c r="AX186">
+        <v>1</v>
+      </c>
+      <c r="AY186">
+        <v>11</v>
+      </c>
+      <c r="AZ186">
+        <v>7</v>
+      </c>
+      <c r="BA186">
+        <v>3</v>
+      </c>
+      <c r="BB186">
+        <v>10</v>
+      </c>
+      <c r="BC186">
+        <v>13</v>
+      </c>
+      <c r="BD186">
+        <v>2.39</v>
+      </c>
+      <c r="BE186">
+        <v>8</v>
+      </c>
+      <c r="BF186">
+        <v>1.82</v>
+      </c>
+      <c r="BG186">
+        <v>1.27</v>
+      </c>
+      <c r="BH186">
+        <v>3.28</v>
+      </c>
+      <c r="BI186">
+        <v>1.56</v>
+      </c>
+      <c r="BJ186">
+        <v>2.38</v>
+      </c>
+      <c r="BK186">
+        <v>2</v>
+      </c>
+      <c r="BL186">
+        <v>1.73</v>
+      </c>
+      <c r="BM186">
+        <v>2.41</v>
+      </c>
+      <c r="BN186">
+        <v>1.54</v>
+      </c>
+      <c r="BO186">
+        <v>3.34</v>
+      </c>
+      <c r="BP186">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7383414</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45424.5</v>
+      </c>
+      <c r="F187">
+        <v>9</v>
+      </c>
+      <c r="G187" t="s">
+        <v>72</v>
+      </c>
+      <c r="H187" t="s">
+        <v>79</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>3</v>
+      </c>
+      <c r="K187">
+        <v>4</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187">
+        <v>5</v>
+      </c>
+      <c r="N187">
+        <v>6</v>
+      </c>
+      <c r="O187" t="s">
+        <v>99</v>
+      </c>
+      <c r="P187" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q187">
+        <v>5.5</v>
+      </c>
+      <c r="R187">
+        <v>2.5</v>
+      </c>
+      <c r="S187">
+        <v>2</v>
+      </c>
+      <c r="T187">
+        <v>1.29</v>
+      </c>
+      <c r="U187">
+        <v>3.5</v>
+      </c>
+      <c r="V187">
+        <v>2.25</v>
+      </c>
+      <c r="W187">
+        <v>1.57</v>
+      </c>
+      <c r="X187">
+        <v>5.5</v>
+      </c>
+      <c r="Y187">
+        <v>1.14</v>
+      </c>
+      <c r="Z187">
+        <v>5.55</v>
+      </c>
+      <c r="AA187">
+        <v>4.48</v>
+      </c>
+      <c r="AB187">
+        <v>1.54</v>
+      </c>
+      <c r="AC187">
+        <v>1.02</v>
+      </c>
+      <c r="AD187">
+        <v>14.3</v>
+      </c>
+      <c r="AE187">
+        <v>1.18</v>
+      </c>
+      <c r="AF187">
+        <v>5.12</v>
+      </c>
+      <c r="AG187">
+        <v>1.6</v>
+      </c>
+      <c r="AH187">
+        <v>2.3</v>
+      </c>
+      <c r="AI187">
+        <v>1.67</v>
+      </c>
+      <c r="AJ187">
+        <v>2.1</v>
+      </c>
+      <c r="AK187">
+        <v>2.5</v>
+      </c>
+      <c r="AL187">
+        <v>1.2</v>
+      </c>
+      <c r="AM187">
+        <v>1.15</v>
+      </c>
+      <c r="AN187">
+        <v>1.47</v>
+      </c>
+      <c r="AO187">
+        <v>1.87</v>
+      </c>
+      <c r="AP187">
+        <v>1.38</v>
+      </c>
+      <c r="AQ187">
+        <v>1.94</v>
+      </c>
+      <c r="AR187">
+        <v>1.12</v>
+      </c>
+      <c r="AS187">
+        <v>1.49</v>
+      </c>
+      <c r="AT187">
+        <v>2.61</v>
+      </c>
+      <c r="AU187">
+        <v>3</v>
+      </c>
+      <c r="AV187">
+        <v>10</v>
+      </c>
+      <c r="AW187">
+        <v>11</v>
+      </c>
+      <c r="AX187">
+        <v>8</v>
+      </c>
+      <c r="AY187">
+        <v>14</v>
+      </c>
+      <c r="AZ187">
+        <v>18</v>
+      </c>
+      <c r="BA187">
+        <v>8</v>
+      </c>
+      <c r="BB187">
+        <v>5</v>
+      </c>
+      <c r="BC187">
+        <v>13</v>
+      </c>
+      <c r="BD187">
+        <v>3.16</v>
+      </c>
+      <c r="BE187">
+        <v>8.5</v>
+      </c>
+      <c r="BF187">
+        <v>1.51</v>
+      </c>
+      <c r="BG187">
+        <v>1.28</v>
+      </c>
+      <c r="BH187">
+        <v>3.2</v>
+      </c>
+      <c r="BI187">
+        <v>1.6</v>
+      </c>
+      <c r="BJ187">
+        <v>2.29</v>
+      </c>
+      <c r="BK187">
+        <v>2</v>
+      </c>
+      <c r="BL187">
+        <v>1.73</v>
+      </c>
+      <c r="BM187">
+        <v>2.48</v>
+      </c>
+      <c r="BN187">
+        <v>1.51</v>
+      </c>
+      <c r="BO187">
+        <v>3.42</v>
+      </c>
+      <c r="BP187">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="290">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -592,6 +592,12 @@
     <t>['20', '77']</t>
   </si>
   <si>
+    <t>['48', '57', '90+1']</t>
+  </si>
+  <si>
+    <t>['11', '89']</t>
+  </si>
+  <si>
     <t>['23']</t>
   </si>
   <si>
@@ -869,6 +875,15 @@
   </si>
   <si>
     <t>['11', '27', '45', '50', '79']</t>
+  </si>
+  <si>
+    <t>['12', '54']</t>
+  </si>
+  <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['45+4', '63']</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP187"/>
+  <dimension ref="A1:BP190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1489,7 +1504,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1695,7 +1710,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1773,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ3">
         <v>0.75</v>
@@ -1901,7 +1916,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1982,7 +1997,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ4">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2107,7 +2122,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2313,7 +2328,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2519,7 +2534,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q7">
         <v>3.75</v>
@@ -3137,7 +3152,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3215,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ10">
         <v>1.33</v>
@@ -3424,7 +3439,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ11">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3549,7 +3564,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q12">
         <v>4.5</v>
@@ -3630,7 +3645,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ12">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3755,7 +3770,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -4167,7 +4182,7 @@
         <v>82</v>
       </c>
       <c r="P15" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q15">
         <v>2.55</v>
@@ -4245,10 +4260,10 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ15">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR15">
         <v>1.31</v>
@@ -4660,7 +4675,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ17">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR17">
         <v>2.14</v>
@@ -4785,7 +4800,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -5072,7 +5087,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR19">
         <v>1.02</v>
@@ -5403,7 +5418,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5609,7 +5624,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5815,7 +5830,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q23">
         <v>4.75</v>
@@ -6021,7 +6036,7 @@
         <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q24">
         <v>4.33</v>
@@ -6099,7 +6114,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ24">
         <v>1.63</v>
@@ -6433,7 +6448,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q26">
         <v>1.68</v>
@@ -6639,7 +6654,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6717,7 +6732,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ27">
         <v>1.94</v>
@@ -6845,7 +6860,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7132,7 +7147,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ29">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR29">
         <v>1.36</v>
@@ -7257,7 +7272,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7338,7 +7353,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ30">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR30">
         <v>2.03</v>
@@ -7463,7 +7478,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7669,7 +7684,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7747,7 +7762,7 @@
         <v>2</v>
       </c>
       <c r="AP32">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ32">
         <v>1.33</v>
@@ -7875,7 +7890,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q33">
         <v>3</v>
@@ -8081,7 +8096,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8287,7 +8302,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8780,7 +8795,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ37">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR37">
         <v>1.34</v>
@@ -8905,7 +8920,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -9111,7 +9126,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9189,7 +9204,7 @@
         <v>1.33</v>
       </c>
       <c r="AP39">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ39">
         <v>0.9399999999999999</v>
@@ -9317,7 +9332,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9523,7 +9538,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9604,7 +9619,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ41">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR41">
         <v>1</v>
@@ -9729,7 +9744,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9810,7 +9825,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ42">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR42">
         <v>1.12</v>
@@ -9935,7 +9950,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q43">
         <v>2.2</v>
@@ -10141,7 +10156,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q44">
         <v>3.25</v>
@@ -10347,7 +10362,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q45">
         <v>1.57</v>
@@ -10634,7 +10649,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ46">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR46">
         <v>1.4</v>
@@ -10840,7 +10855,7 @@
         <v>1</v>
       </c>
       <c r="AQ47">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR47">
         <v>1.46</v>
@@ -11171,7 +11186,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11377,7 +11392,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11455,7 +11470,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ50">
         <v>1.4</v>
@@ -11661,7 +11676,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ51">
         <v>1.33</v>
@@ -11789,7 +11804,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q52">
         <v>9.5</v>
@@ -12076,7 +12091,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ53">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR53">
         <v>1.32</v>
@@ -12613,7 +12628,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12900,7 +12915,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ57">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR57">
         <v>1.14</v>
@@ -13231,7 +13246,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13309,7 +13324,7 @@
         <v>2.5</v>
       </c>
       <c r="AP59">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ59">
         <v>2.06</v>
@@ -13643,7 +13658,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q61">
         <v>7.5</v>
@@ -13849,7 +13864,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -14055,7 +14070,7 @@
         <v>123</v>
       </c>
       <c r="P63" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q63">
         <v>2.05</v>
@@ -14339,10 +14354,10 @@
         <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ64">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR64">
         <v>1.02</v>
@@ -14673,7 +14688,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q66">
         <v>4.33</v>
@@ -14754,7 +14769,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ66">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR66">
         <v>1.22</v>
@@ -14879,7 +14894,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -15166,7 +15181,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ68">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR68">
         <v>1.43</v>
@@ -15369,7 +15384,7 @@
         <v>1.4</v>
       </c>
       <c r="AP69">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ69">
         <v>1.5</v>
@@ -15703,7 +15718,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q71">
         <v>4.33</v>
@@ -15990,7 +16005,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ72">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR72">
         <v>1.45</v>
@@ -16115,7 +16130,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q73">
         <v>2.75</v>
@@ -16399,7 +16414,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ74">
         <v>1.33</v>
@@ -16608,7 +16623,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ75">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR75">
         <v>1.47</v>
@@ -16733,7 +16748,7 @@
         <v>86</v>
       </c>
       <c r="P76" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q76">
         <v>7.5</v>
@@ -16939,7 +16954,7 @@
         <v>86</v>
       </c>
       <c r="P77" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q77">
         <v>4.33</v>
@@ -17145,7 +17160,7 @@
         <v>131</v>
       </c>
       <c r="P78" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q78">
         <v>2.5</v>
@@ -17557,7 +17572,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q80">
         <v>3.5</v>
@@ -17969,7 +17984,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q82">
         <v>4.5</v>
@@ -18253,7 +18268,7 @@
         <v>1.33</v>
       </c>
       <c r="AP83">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ83">
         <v>1.4</v>
@@ -18381,7 +18396,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q84">
         <v>4.75</v>
@@ -18793,7 +18808,7 @@
         <v>137</v>
       </c>
       <c r="P86" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -19080,7 +19095,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ87">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR87">
         <v>1.53</v>
@@ -19286,7 +19301,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ88">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR88">
         <v>1.48</v>
@@ -19489,10 +19504,10 @@
         <v>1.29</v>
       </c>
       <c r="AP89">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ89">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR89">
         <v>1.34</v>
@@ -19617,7 +19632,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -20029,7 +20044,7 @@
         <v>141</v>
       </c>
       <c r="P92" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20107,7 +20122,7 @@
         <v>2.29</v>
       </c>
       <c r="AP92">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ92">
         <v>2.06</v>
@@ -20853,7 +20868,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q96">
         <v>5.5</v>
@@ -21140,7 +21155,7 @@
         <v>1</v>
       </c>
       <c r="AQ97">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR97">
         <v>1.41</v>
@@ -21471,7 +21486,7 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q99">
         <v>3.6</v>
@@ -21552,7 +21567,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ99">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR99">
         <v>1.3</v>
@@ -21677,7 +21692,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21883,7 +21898,7 @@
         <v>148</v>
       </c>
       <c r="P101" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -21961,10 +21976,10 @@
         <v>0.5</v>
       </c>
       <c r="AP101">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ101">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR101">
         <v>1.23</v>
@@ -22501,7 +22516,7 @@
         <v>151</v>
       </c>
       <c r="P104" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22913,7 +22928,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23119,7 +23134,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q107">
         <v>2.4</v>
@@ -23200,7 +23215,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ107">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR107">
         <v>1.26</v>
@@ -23325,7 +23340,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q108">
         <v>3.75</v>
@@ -23403,7 +23418,7 @@
         <v>1.75</v>
       </c>
       <c r="AP108">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ108">
         <v>1.63</v>
@@ -23531,7 +23546,7 @@
         <v>154</v>
       </c>
       <c r="P109" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -23737,7 +23752,7 @@
         <v>155</v>
       </c>
       <c r="P110" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q110">
         <v>2.2</v>
@@ -23815,10 +23830,10 @@
         <v>0.78</v>
       </c>
       <c r="AP110">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ110">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR110">
         <v>1.29</v>
@@ -24227,7 +24242,7 @@
         <v>2.33</v>
       </c>
       <c r="AP112">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ112">
         <v>1.94</v>
@@ -24355,7 +24370,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q113">
         <v>4.33</v>
@@ -25054,7 +25069,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ116">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR116">
         <v>1.6</v>
@@ -25385,7 +25400,7 @@
         <v>120</v>
       </c>
       <c r="P118" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q118">
         <v>3.16</v>
@@ -25591,7 +25606,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q119">
         <v>5.5</v>
@@ -26084,7 +26099,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ121">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR121">
         <v>1.79</v>
@@ -26621,7 +26636,7 @@
         <v>103</v>
       </c>
       <c r="P124" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q124">
         <v>1.57</v>
@@ -26702,7 +26717,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ124">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR124">
         <v>1.75</v>
@@ -26827,7 +26842,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q125">
         <v>4.33</v>
@@ -26905,10 +26920,10 @@
         <v>1</v>
       </c>
       <c r="AP125">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ125">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR125">
         <v>1.22</v>
@@ -27651,7 +27666,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q129">
         <v>3.9</v>
@@ -27857,7 +27872,7 @@
         <v>161</v>
       </c>
       <c r="P130" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q130">
         <v>3.7</v>
@@ -28347,7 +28362,7 @@
         <v>0.6</v>
       </c>
       <c r="AP132">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ132">
         <v>0.9399999999999999</v>
@@ -28556,7 +28571,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ133">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR133">
         <v>1.4</v>
@@ -28965,10 +28980,10 @@
         <v>0.64</v>
       </c>
       <c r="AP135">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ135">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR135">
         <v>1.23</v>
@@ -29174,7 +29189,7 @@
         <v>1</v>
       </c>
       <c r="AQ136">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR136">
         <v>1.46</v>
@@ -29505,7 +29520,7 @@
         <v>86</v>
       </c>
       <c r="P138" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q138">
         <v>4.5</v>
@@ -29711,7 +29726,7 @@
         <v>168</v>
       </c>
       <c r="P139" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q139">
         <v>1.8</v>
@@ -30123,7 +30138,7 @@
         <v>169</v>
       </c>
       <c r="P141" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30204,7 +30219,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ141">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR141">
         <v>1.03</v>
@@ -30407,7 +30422,7 @@
         <v>0.64</v>
       </c>
       <c r="AP142">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ142">
         <v>0.9399999999999999</v>
@@ -30741,7 +30756,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -30947,7 +30962,7 @@
         <v>86</v>
       </c>
       <c r="P145" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -31234,7 +31249,7 @@
         <v>1</v>
       </c>
       <c r="AQ146">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR146">
         <v>1.44</v>
@@ -31440,7 +31455,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ147">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR147">
         <v>1.34</v>
@@ -31643,7 +31658,7 @@
         <v>1.17</v>
       </c>
       <c r="AP148">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ148">
         <v>1.5</v>
@@ -31977,7 +31992,7 @@
         <v>172</v>
       </c>
       <c r="P150" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q150">
         <v>3.25</v>
@@ -32183,7 +32198,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -32389,7 +32404,7 @@
         <v>174</v>
       </c>
       <c r="P152" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q152">
         <v>4.75</v>
@@ -32595,7 +32610,7 @@
         <v>86</v>
       </c>
       <c r="P153" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q153">
         <v>4.75</v>
@@ -32879,10 +32894,10 @@
         <v>1.17</v>
       </c>
       <c r="AP154">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ154">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR154">
         <v>1.28</v>
@@ -33007,7 +33022,7 @@
         <v>175</v>
       </c>
       <c r="P155" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q155">
         <v>3.25</v>
@@ -33213,7 +33228,7 @@
         <v>161</v>
       </c>
       <c r="P156" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q156">
         <v>4.75</v>
@@ -33419,7 +33434,7 @@
         <v>176</v>
       </c>
       <c r="P157" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q157">
         <v>2.1</v>
@@ -33909,10 +33924,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP159">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ159">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR159">
         <v>1.23</v>
@@ -34118,7 +34133,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ160">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR160">
         <v>1.36</v>
@@ -34243,7 +34258,7 @@
         <v>178</v>
       </c>
       <c r="P161" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q161">
         <v>2.75</v>
@@ -34449,7 +34464,7 @@
         <v>179</v>
       </c>
       <c r="P162" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34655,7 +34670,7 @@
         <v>180</v>
       </c>
       <c r="P163" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q163">
         <v>1.73</v>
@@ -34861,7 +34876,7 @@
         <v>85</v>
       </c>
       <c r="P164" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q164">
         <v>4.9</v>
@@ -35148,7 +35163,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ165">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR165">
         <v>1.31</v>
@@ -35273,7 +35288,7 @@
         <v>181</v>
       </c>
       <c r="P166" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q166">
         <v>3.56</v>
@@ -35351,7 +35366,7 @@
         <v>0.85</v>
       </c>
       <c r="AP166">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ166">
         <v>0.9399999999999999</v>
@@ -35479,7 +35494,7 @@
         <v>171</v>
       </c>
       <c r="P167" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35685,7 +35700,7 @@
         <v>182</v>
       </c>
       <c r="P168" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -35891,7 +35906,7 @@
         <v>141</v>
       </c>
       <c r="P169" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q169">
         <v>3.45</v>
@@ -36097,7 +36112,7 @@
         <v>183</v>
       </c>
       <c r="P170" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q170">
         <v>2.4</v>
@@ -36303,7 +36318,7 @@
         <v>86</v>
       </c>
       <c r="P171" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q171">
         <v>2.75</v>
@@ -36381,7 +36396,7 @@
         <v>0.64</v>
       </c>
       <c r="AP171">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ171">
         <v>0.75</v>
@@ -36590,7 +36605,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ172">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR172">
         <v>1.32</v>
@@ -36921,7 +36936,7 @@
         <v>185</v>
       </c>
       <c r="P174" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37127,7 +37142,7 @@
         <v>186</v>
       </c>
       <c r="P175" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q175">
         <v>2.4</v>
@@ -37414,7 +37429,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ176">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR176">
         <v>1.08</v>
@@ -37539,7 +37554,7 @@
         <v>188</v>
       </c>
       <c r="P177" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q177">
         <v>2.8</v>
@@ -37617,10 +37632,10 @@
         <v>0.79</v>
       </c>
       <c r="AP177">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ177">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR177">
         <v>1.22</v>
@@ -37745,7 +37760,7 @@
         <v>86</v>
       </c>
       <c r="P178" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q178">
         <v>2.85</v>
@@ -37951,7 +37966,7 @@
         <v>86</v>
       </c>
       <c r="P179" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q179">
         <v>4.33</v>
@@ -38157,7 +38172,7 @@
         <v>170</v>
       </c>
       <c r="P180" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q180">
         <v>1.91</v>
@@ -38569,7 +38584,7 @@
         <v>86</v>
       </c>
       <c r="P182" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q182">
         <v>2.3</v>
@@ -39187,7 +39202,7 @@
         <v>191</v>
       </c>
       <c r="P185" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -39393,7 +39408,7 @@
         <v>86</v>
       </c>
       <c r="P186" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q186">
         <v>4</v>
@@ -39599,7 +39614,7 @@
         <v>99</v>
       </c>
       <c r="P187" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q187">
         <v>5.5</v>
@@ -39756,6 +39771,624 @@
       </c>
       <c r="BP187">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7383416</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45430.5</v>
+      </c>
+      <c r="F188">
+        <v>10</v>
+      </c>
+      <c r="G188" t="s">
+        <v>78</v>
+      </c>
+      <c r="H188" t="s">
+        <v>75</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>1</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>2</v>
+      </c>
+      <c r="N188">
+        <v>3</v>
+      </c>
+      <c r="O188" t="s">
+        <v>103</v>
+      </c>
+      <c r="P188" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q188">
+        <v>3.75</v>
+      </c>
+      <c r="R188">
+        <v>2.05</v>
+      </c>
+      <c r="S188">
+        <v>2.75</v>
+      </c>
+      <c r="T188">
+        <v>1.42</v>
+      </c>
+      <c r="U188">
+        <v>2.65</v>
+      </c>
+      <c r="V188">
+        <v>3</v>
+      </c>
+      <c r="W188">
+        <v>1.33</v>
+      </c>
+      <c r="X188">
+        <v>7.8</v>
+      </c>
+      <c r="Y188">
+        <v>1.06</v>
+      </c>
+      <c r="Z188">
+        <v>3.3</v>
+      </c>
+      <c r="AA188">
+        <v>3.45</v>
+      </c>
+      <c r="AB188">
+        <v>2.1</v>
+      </c>
+      <c r="AC188">
+        <v>1.06</v>
+      </c>
+      <c r="AD188">
+        <v>8.5</v>
+      </c>
+      <c r="AE188">
+        <v>1.33</v>
+      </c>
+      <c r="AF188">
+        <v>3.2</v>
+      </c>
+      <c r="AG188">
+        <v>2.04</v>
+      </c>
+      <c r="AH188">
+        <v>1.8</v>
+      </c>
+      <c r="AI188">
+        <v>1.83</v>
+      </c>
+      <c r="AJ188">
+        <v>1.85</v>
+      </c>
+      <c r="AK188">
+        <v>1.7</v>
+      </c>
+      <c r="AL188">
+        <v>1.25</v>
+      </c>
+      <c r="AM188">
+        <v>1.3</v>
+      </c>
+      <c r="AN188">
+        <v>1.33</v>
+      </c>
+      <c r="AO188">
+        <v>1.13</v>
+      </c>
+      <c r="AP188">
+        <v>1.25</v>
+      </c>
+      <c r="AQ188">
+        <v>1.25</v>
+      </c>
+      <c r="AR188">
+        <v>1.23</v>
+      </c>
+      <c r="AS188">
+        <v>1.38</v>
+      </c>
+      <c r="AT188">
+        <v>2.61</v>
+      </c>
+      <c r="AU188">
+        <v>3</v>
+      </c>
+      <c r="AV188">
+        <v>9</v>
+      </c>
+      <c r="AW188">
+        <v>0</v>
+      </c>
+      <c r="AX188">
+        <v>6</v>
+      </c>
+      <c r="AY188">
+        <v>3</v>
+      </c>
+      <c r="AZ188">
+        <v>15</v>
+      </c>
+      <c r="BA188">
+        <v>8</v>
+      </c>
+      <c r="BB188">
+        <v>10</v>
+      </c>
+      <c r="BC188">
+        <v>18</v>
+      </c>
+      <c r="BD188">
+        <v>2.54</v>
+      </c>
+      <c r="BE188">
+        <v>8</v>
+      </c>
+      <c r="BF188">
+        <v>1.69</v>
+      </c>
+      <c r="BG188">
+        <v>1.29</v>
+      </c>
+      <c r="BH188">
+        <v>3.25</v>
+      </c>
+      <c r="BI188">
+        <v>1.52</v>
+      </c>
+      <c r="BJ188">
+        <v>2.33</v>
+      </c>
+      <c r="BK188">
+        <v>1.95</v>
+      </c>
+      <c r="BL188">
+        <v>1.85</v>
+      </c>
+      <c r="BM188">
+        <v>2.45</v>
+      </c>
+      <c r="BN188">
+        <v>1.47</v>
+      </c>
+      <c r="BO188">
+        <v>3.3</v>
+      </c>
+      <c r="BP188">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7383415</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45430.5</v>
+      </c>
+      <c r="F189">
+        <v>10</v>
+      </c>
+      <c r="G189" t="s">
+        <v>71</v>
+      </c>
+      <c r="H189" t="s">
+        <v>73</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+      <c r="K189">
+        <v>1</v>
+      </c>
+      <c r="L189">
+        <v>3</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+      <c r="N189">
+        <v>4</v>
+      </c>
+      <c r="O189" t="s">
+        <v>192</v>
+      </c>
+      <c r="P189" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q189">
+        <v>2.77</v>
+      </c>
+      <c r="R189">
+        <v>2.27</v>
+      </c>
+      <c r="S189">
+        <v>4.1</v>
+      </c>
+      <c r="T189">
+        <v>1.39</v>
+      </c>
+      <c r="U189">
+        <v>3.07</v>
+      </c>
+      <c r="V189">
+        <v>2.94</v>
+      </c>
+      <c r="W189">
+        <v>1.42</v>
+      </c>
+      <c r="X189">
+        <v>7.2</v>
+      </c>
+      <c r="Y189">
+        <v>1.08</v>
+      </c>
+      <c r="Z189">
+        <v>2.08</v>
+      </c>
+      <c r="AA189">
+        <v>3.55</v>
+      </c>
+      <c r="AB189">
+        <v>3.25</v>
+      </c>
+      <c r="AC189">
+        <v>1.05</v>
+      </c>
+      <c r="AD189">
+        <v>9.5</v>
+      </c>
+      <c r="AE189">
+        <v>1.3</v>
+      </c>
+      <c r="AF189">
+        <v>3.45</v>
+      </c>
+      <c r="AG189">
+        <v>1.93</v>
+      </c>
+      <c r="AH189">
+        <v>1.84</v>
+      </c>
+      <c r="AI189">
+        <v>1.73</v>
+      </c>
+      <c r="AJ189">
+        <v>1.95</v>
+      </c>
+      <c r="AK189">
+        <v>1.33</v>
+      </c>
+      <c r="AL189">
+        <v>1.22</v>
+      </c>
+      <c r="AM189">
+        <v>1.7</v>
+      </c>
+      <c r="AN189">
+        <v>1.27</v>
+      </c>
+      <c r="AO189">
+        <v>0.73</v>
+      </c>
+      <c r="AP189">
+        <v>1.38</v>
+      </c>
+      <c r="AQ189">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR189">
+        <v>1.26</v>
+      </c>
+      <c r="AS189">
+        <v>1.1</v>
+      </c>
+      <c r="AT189">
+        <v>2.36</v>
+      </c>
+      <c r="AU189">
+        <v>3</v>
+      </c>
+      <c r="AV189">
+        <v>8</v>
+      </c>
+      <c r="AW189">
+        <v>1</v>
+      </c>
+      <c r="AX189">
+        <v>4</v>
+      </c>
+      <c r="AY189">
+        <v>4</v>
+      </c>
+      <c r="AZ189">
+        <v>12</v>
+      </c>
+      <c r="BA189">
+        <v>4</v>
+      </c>
+      <c r="BB189">
+        <v>7</v>
+      </c>
+      <c r="BC189">
+        <v>11</v>
+      </c>
+      <c r="BD189">
+        <v>1.91</v>
+      </c>
+      <c r="BE189">
+        <v>8</v>
+      </c>
+      <c r="BF189">
+        <v>2.2</v>
+      </c>
+      <c r="BG189">
+        <v>1.23</v>
+      </c>
+      <c r="BH189">
+        <v>3.6</v>
+      </c>
+      <c r="BI189">
+        <v>1.44</v>
+      </c>
+      <c r="BJ189">
+        <v>2.55</v>
+      </c>
+      <c r="BK189">
+        <v>1.8</v>
+      </c>
+      <c r="BL189">
+        <v>2</v>
+      </c>
+      <c r="BM189">
+        <v>2.23</v>
+      </c>
+      <c r="BN189">
+        <v>1.56</v>
+      </c>
+      <c r="BO189">
+        <v>2.95</v>
+      </c>
+      <c r="BP189">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7383417</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45430.5</v>
+      </c>
+      <c r="F190">
+        <v>10</v>
+      </c>
+      <c r="G190" t="s">
+        <v>74</v>
+      </c>
+      <c r="H190" t="s">
+        <v>80</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="K190">
+        <v>2</v>
+      </c>
+      <c r="L190">
+        <v>2</v>
+      </c>
+      <c r="M190">
+        <v>2</v>
+      </c>
+      <c r="N190">
+        <v>4</v>
+      </c>
+      <c r="O190" t="s">
+        <v>193</v>
+      </c>
+      <c r="P190" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q190">
+        <v>2.15</v>
+      </c>
+      <c r="R190">
+        <v>2.2</v>
+      </c>
+      <c r="S190">
+        <v>5</v>
+      </c>
+      <c r="T190">
+        <v>1.4</v>
+      </c>
+      <c r="U190">
+        <v>2.75</v>
+      </c>
+      <c r="V190">
+        <v>2.85</v>
+      </c>
+      <c r="W190">
+        <v>1.36</v>
+      </c>
+      <c r="X190">
+        <v>7.5</v>
+      </c>
+      <c r="Y190">
+        <v>1.07</v>
+      </c>
+      <c r="Z190">
+        <v>1.58</v>
+      </c>
+      <c r="AA190">
+        <v>3.95</v>
+      </c>
+      <c r="AB190">
+        <v>5.4</v>
+      </c>
+      <c r="AC190">
+        <v>1.05</v>
+      </c>
+      <c r="AD190">
+        <v>9.5</v>
+      </c>
+      <c r="AE190">
+        <v>1.3</v>
+      </c>
+      <c r="AF190">
+        <v>3.45</v>
+      </c>
+      <c r="AG190">
+        <v>1.98</v>
+      </c>
+      <c r="AH190">
+        <v>1.8</v>
+      </c>
+      <c r="AI190">
+        <v>1.95</v>
+      </c>
+      <c r="AJ190">
+        <v>1.73</v>
+      </c>
+      <c r="AK190">
+        <v>1.14</v>
+      </c>
+      <c r="AL190">
+        <v>1.2</v>
+      </c>
+      <c r="AM190">
+        <v>2.3</v>
+      </c>
+      <c r="AN190">
+        <v>1</v>
+      </c>
+      <c r="AO190">
+        <v>0.73</v>
+      </c>
+      <c r="AP190">
+        <v>1</v>
+      </c>
+      <c r="AQ190">
+        <v>0.75</v>
+      </c>
+      <c r="AR190">
+        <v>1.42</v>
+      </c>
+      <c r="AS190">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AT190">
+        <v>2.23</v>
+      </c>
+      <c r="AU190">
+        <v>3</v>
+      </c>
+      <c r="AV190">
+        <v>3</v>
+      </c>
+      <c r="AW190">
+        <v>2</v>
+      </c>
+      <c r="AX190">
+        <v>2</v>
+      </c>
+      <c r="AY190">
+        <v>5</v>
+      </c>
+      <c r="AZ190">
+        <v>5</v>
+      </c>
+      <c r="BA190">
+        <v>3</v>
+      </c>
+      <c r="BB190">
+        <v>1</v>
+      </c>
+      <c r="BC190">
+        <v>4</v>
+      </c>
+      <c r="BD190">
+        <v>1.31</v>
+      </c>
+      <c r="BE190">
+        <v>9.5</v>
+      </c>
+      <c r="BF190">
+        <v>4.13</v>
+      </c>
+      <c r="BG190">
+        <v>1.26</v>
+      </c>
+      <c r="BH190">
+        <v>3.35</v>
+      </c>
+      <c r="BI190">
+        <v>1.48</v>
+      </c>
+      <c r="BJ190">
+        <v>2.45</v>
+      </c>
+      <c r="BK190">
+        <v>1.9</v>
+      </c>
+      <c r="BL190">
+        <v>1.9</v>
+      </c>
+      <c r="BM190">
+        <v>2.38</v>
+      </c>
+      <c r="BN190">
+        <v>1.49</v>
+      </c>
+      <c r="BO190">
+        <v>3.2</v>
+      </c>
+      <c r="BP190">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -39913,22 +39913,22 @@
         <v>2.23</v>
       </c>
       <c r="AU188">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AV188">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW188">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AX188">
         <v>5</v>
       </c>
       <c r="AY188">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AZ188">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA188">
         <v>7</v>
@@ -40119,19 +40119,19 @@
         <v>2.36</v>
       </c>
       <c r="AU189">
+        <v>3</v>
+      </c>
+      <c r="AV189">
+        <v>8</v>
+      </c>
+      <c r="AW189">
+        <v>3</v>
+      </c>
+      <c r="AX189">
         <v>4</v>
       </c>
-      <c r="AV189">
+      <c r="AY189">
         <v>6</v>
-      </c>
-      <c r="AW189">
-        <v>6</v>
-      </c>
-      <c r="AX189">
-        <v>6</v>
-      </c>
-      <c r="AY189">
-        <v>10</v>
       </c>
       <c r="AZ189">
         <v>12</v>
@@ -40325,22 +40325,22 @@
         <v>2.61</v>
       </c>
       <c r="AU190">
+        <v>3</v>
+      </c>
+      <c r="AV190">
+        <v>9</v>
+      </c>
+      <c r="AW190">
+        <v>1</v>
+      </c>
+      <c r="AX190">
+        <v>6</v>
+      </c>
+      <c r="AY190">
         <v>4</v>
       </c>
-      <c r="AV190">
-        <v>11</v>
-      </c>
-      <c r="AW190">
-        <v>2</v>
-      </c>
-      <c r="AX190">
-        <v>10</v>
-      </c>
-      <c r="AY190">
-        <v>6</v>
-      </c>
       <c r="AZ190">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="BA190">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="293">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -598,6 +598,12 @@
     <t>['48', '57', '90+1']</t>
   </si>
   <si>
+    <t>['69', '90']</t>
+  </si>
+  <si>
+    <t>['7', '8', '36', '61', '66', '71', '78']</t>
+  </si>
+  <si>
     <t>['23']</t>
   </si>
   <si>
@@ -884,6 +890,9 @@
   </si>
   <si>
     <t>['12', '54']</t>
+  </si>
+  <si>
+    <t>['25', '59', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP190"/>
+  <dimension ref="A1:BP193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1504,7 +1513,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1710,7 +1719,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1916,7 +1925,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -2122,7 +2131,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2203,7 +2212,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ5">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2328,7 +2337,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2534,7 +2543,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q7">
         <v>3.75</v>
@@ -2818,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ8">
         <v>0.9399999999999999</v>
@@ -3024,10 +3033,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ9">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3230,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ10">
         <v>0.6899999999999999</v>
@@ -3358,7 +3367,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3439,7 +3448,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ11">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3564,7 +3573,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q12">
         <v>4.5</v>
@@ -3770,7 +3779,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -4054,10 +4063,10 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ14">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR14">
         <v>1.73</v>
@@ -4182,7 +4191,7 @@
         <v>82</v>
       </c>
       <c r="P15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q15">
         <v>2.55</v>
@@ -4672,7 +4681,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ17">
         <v>1.25</v>
@@ -4800,7 +4809,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -4878,10 +4887,10 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ18">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR18">
         <v>2.76</v>
@@ -5293,7 +5302,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ20">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR20">
         <v>1.19</v>
@@ -5418,7 +5427,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5624,7 +5633,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5830,7 +5839,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q23">
         <v>4.33</v>
@@ -6242,7 +6251,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q25">
         <v>4.75</v>
@@ -6448,7 +6457,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6654,7 +6663,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q27">
         <v>1.68</v>
@@ -6732,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ27">
         <v>0.75</v>
@@ -6860,7 +6869,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7272,7 +7281,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7350,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ30">
         <v>0.6899999999999999</v>
@@ -7478,7 +7487,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7559,7 +7568,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ31">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR31">
         <v>1.22</v>
@@ -7684,7 +7693,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7765,7 +7774,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ32">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR32">
         <v>1.27</v>
@@ -7890,7 +7899,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q33">
         <v>3</v>
@@ -8096,7 +8105,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8380,7 +8389,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ35">
         <v>1.63</v>
@@ -8714,7 +8723,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -8795,7 +8804,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ37">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR37">
         <v>1.35</v>
@@ -8920,7 +8929,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -9001,7 +9010,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ38">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR38">
         <v>1.59</v>
@@ -9126,7 +9135,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9332,7 +9341,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9410,7 +9419,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ40">
         <v>1.94</v>
@@ -9538,7 +9547,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q41">
         <v>3.25</v>
@@ -9744,7 +9753,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9950,7 +9959,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q43">
         <v>2.2</v>
@@ -10028,7 +10037,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ43">
         <v>1.5</v>
@@ -10156,7 +10165,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q44">
         <v>1.57</v>
@@ -10234,7 +10243,7 @@
         <v>0.75</v>
       </c>
       <c r="AP44">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ44">
         <v>0.75</v>
@@ -10568,7 +10577,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q46">
         <v>3.25</v>
@@ -10855,7 +10864,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ47">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR47">
         <v>1.43</v>
@@ -11186,7 +11195,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11264,7 +11273,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ49">
         <v>2.06</v>
@@ -11392,7 +11401,7 @@
         <v>86</v>
       </c>
       <c r="P50" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q50">
         <v>9.5</v>
@@ -11598,7 +11607,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q51">
         <v>3.75</v>
@@ -11679,7 +11688,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ51">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR51">
         <v>1.29</v>
@@ -11885,7 +11894,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ52">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR52">
         <v>0.99</v>
@@ -12294,7 +12303,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ54">
         <v>0.6899999999999999</v>
@@ -12834,7 +12843,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q57">
         <v>5.5</v>
@@ -13452,7 +13461,7 @@
         <v>121</v>
       </c>
       <c r="P60" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q60">
         <v>4.5</v>
@@ -13658,7 +13667,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q61">
         <v>7.5</v>
@@ -13864,7 +13873,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -13942,10 +13951,10 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ62">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR62">
         <v>1.37</v>
@@ -14276,7 +14285,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14354,10 +14363,10 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ64">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR64">
         <v>1.82</v>
@@ -14688,7 +14697,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q66">
         <v>4.33</v>
@@ -14894,7 +14903,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -14972,10 +14981,10 @@
         <v>1.8</v>
       </c>
       <c r="AP67">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ67">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR67">
         <v>1.88</v>
@@ -15178,7 +15187,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ68">
         <v>0.9399999999999999</v>
@@ -15796,7 +15805,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ71">
         <v>1.25</v>
@@ -15924,7 +15933,7 @@
         <v>86</v>
       </c>
       <c r="P72" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q72">
         <v>4.33</v>
@@ -16005,7 +16014,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ72">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR72">
         <v>1.01</v>
@@ -16130,7 +16139,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q73">
         <v>2.75</v>
@@ -16208,10 +16217,10 @@
         <v>1.4</v>
       </c>
       <c r="AP73">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ73">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR73">
         <v>1.79</v>
@@ -16417,7 +16426,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ74">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR74">
         <v>1.26</v>
@@ -16542,7 +16551,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q75">
         <v>7.5</v>
@@ -16954,7 +16963,7 @@
         <v>131</v>
       </c>
       <c r="P77" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17160,7 +17169,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q78">
         <v>4.33</v>
@@ -17572,7 +17581,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q80">
         <v>4.5</v>
@@ -17984,7 +17993,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q82">
         <v>3.5</v>
@@ -18190,7 +18199,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18477,7 +18486,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ84">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR84">
         <v>1.21</v>
@@ -18808,7 +18817,7 @@
         <v>137</v>
       </c>
       <c r="P86" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -18886,10 +18895,10 @@
         <v>1.83</v>
       </c>
       <c r="AP86">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ86">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR86">
         <v>1.63</v>
@@ -19298,7 +19307,7 @@
         <v>0.5</v>
       </c>
       <c r="AP88">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ88">
         <v>0.75</v>
@@ -19632,7 +19641,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19713,7 +19722,7 @@
         <v>1</v>
       </c>
       <c r="AQ90">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR90">
         <v>1.41</v>
@@ -19916,7 +19925,7 @@
         <v>0.86</v>
       </c>
       <c r="AP91">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ91">
         <v>0.75</v>
@@ -20122,7 +20131,7 @@
         <v>1.43</v>
       </c>
       <c r="AP92">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ92">
         <v>1.5</v>
@@ -20250,7 +20259,7 @@
         <v>142</v>
       </c>
       <c r="P93" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q93">
         <v>4.75</v>
@@ -20537,7 +20546,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ94">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR94">
         <v>1.47</v>
@@ -20743,7 +20752,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ95">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR95">
         <v>1.21</v>
@@ -21074,7 +21083,7 @@
         <v>145</v>
       </c>
       <c r="P97" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q97">
         <v>5.5</v>
@@ -21358,7 +21367,7 @@
         <v>2.25</v>
       </c>
       <c r="AP98">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ98">
         <v>1.94</v>
@@ -21486,7 +21495,7 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -21567,7 +21576,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ99">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR99">
         <v>0.98</v>
@@ -21692,7 +21701,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -22104,7 +22113,7 @@
         <v>149</v>
       </c>
       <c r="P102" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q102">
         <v>2.63</v>
@@ -22388,7 +22397,7 @@
         <v>0.75</v>
       </c>
       <c r="AP103">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ103">
         <v>0.9399999999999999</v>
@@ -22516,7 +22525,7 @@
         <v>151</v>
       </c>
       <c r="P104" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22594,7 +22603,7 @@
         <v>2.13</v>
       </c>
       <c r="AP104">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ104">
         <v>2.06</v>
@@ -22803,7 +22812,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ105">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR105">
         <v>1.45</v>
@@ -22928,7 +22937,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23134,7 +23143,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -23340,7 +23349,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q108">
         <v>2.4</v>
@@ -23546,7 +23555,7 @@
         <v>154</v>
       </c>
       <c r="P109" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -23627,7 +23636,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ109">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR109">
         <v>1.48</v>
@@ -24164,7 +24173,7 @@
         <v>157</v>
       </c>
       <c r="P112" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q112">
         <v>2.2</v>
@@ -24370,7 +24379,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q113">
         <v>4.33</v>
@@ -24451,7 +24460,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ113">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR113">
         <v>0.96</v>
@@ -24657,7 +24666,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ114">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR114">
         <v>1.2</v>
@@ -24860,7 +24869,7 @@
         <v>1.89</v>
       </c>
       <c r="AP115">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ115">
         <v>1.63</v>
@@ -25066,7 +25075,7 @@
         <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ116">
         <v>0.75</v>
@@ -25400,7 +25409,7 @@
         <v>121</v>
       </c>
       <c r="P118" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q118">
         <v>3.16</v>
@@ -25481,7 +25490,7 @@
         <v>1</v>
       </c>
       <c r="AQ118">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR118">
         <v>1.55</v>
@@ -25812,7 +25821,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q120">
         <v>5.5</v>
@@ -26096,7 +26105,7 @@
         <v>1.11</v>
       </c>
       <c r="AP121">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ121">
         <v>1.25</v>
@@ -26305,7 +26314,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ122">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR122">
         <v>1.29</v>
@@ -26430,7 +26439,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q123">
         <v>4.33</v>
@@ -26717,7 +26726,7 @@
         <v>1</v>
       </c>
       <c r="AQ124">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR124">
         <v>1.51</v>
@@ -26920,7 +26929,7 @@
         <v>1.3</v>
       </c>
       <c r="AP125">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ125">
         <v>1.5</v>
@@ -27048,7 +27057,7 @@
         <v>103</v>
       </c>
       <c r="P126" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q126">
         <v>1.57</v>
@@ -27126,7 +27135,7 @@
         <v>0.6</v>
       </c>
       <c r="AP126">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ126">
         <v>0.75</v>
@@ -27332,10 +27341,10 @@
         <v>1.9</v>
       </c>
       <c r="AP127">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ127">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR127">
         <v>1.69</v>
@@ -28078,7 +28087,7 @@
         <v>163</v>
       </c>
       <c r="P131" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q131">
         <v>3.7</v>
@@ -28490,7 +28499,7 @@
         <v>167</v>
       </c>
       <c r="P133" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q133">
         <v>3.9</v>
@@ -28774,10 +28783,10 @@
         <v>1.27</v>
       </c>
       <c r="AP134">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ134">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR134">
         <v>1.72</v>
@@ -29520,7 +29529,7 @@
         <v>86</v>
       </c>
       <c r="P138" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q138">
         <v>4.5</v>
@@ -29726,7 +29735,7 @@
         <v>168</v>
       </c>
       <c r="P139" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q139">
         <v>1.8</v>
@@ -29804,10 +29813,10 @@
         <v>1.36</v>
       </c>
       <c r="AP139">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ139">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR139">
         <v>1.7</v>
@@ -30138,7 +30147,7 @@
         <v>169</v>
       </c>
       <c r="P141" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30631,7 +30640,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ143">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR143">
         <v>1.51</v>
@@ -30756,7 +30765,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -30962,7 +30971,7 @@
         <v>86</v>
       </c>
       <c r="P145" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -31040,7 +31049,7 @@
         <v>2.27</v>
       </c>
       <c r="AP145">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ145">
         <v>1.94</v>
@@ -31786,7 +31795,7 @@
         <v>171</v>
       </c>
       <c r="P149" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q149">
         <v>3.25</v>
@@ -31867,7 +31876,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ149">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR149">
         <v>1.25</v>
@@ -32070,10 +32079,10 @@
         <v>1.25</v>
       </c>
       <c r="AP150">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ150">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR150">
         <v>1.62</v>
@@ -32198,7 +32207,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -32276,7 +32285,7 @@
         <v>1.83</v>
       </c>
       <c r="AP151">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ151">
         <v>1.63</v>
@@ -32404,7 +32413,7 @@
         <v>174</v>
       </c>
       <c r="P152" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q152">
         <v>4.75</v>
@@ -32610,7 +32619,7 @@
         <v>86</v>
       </c>
       <c r="P153" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q153">
         <v>4.75</v>
@@ -33022,7 +33031,7 @@
         <v>175</v>
       </c>
       <c r="P155" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q155">
         <v>3.25</v>
@@ -33228,7 +33237,7 @@
         <v>163</v>
       </c>
       <c r="P156" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q156">
         <v>4.75</v>
@@ -33434,7 +33443,7 @@
         <v>176</v>
       </c>
       <c r="P157" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q157">
         <v>2.1</v>
@@ -33512,10 +33521,10 @@
         <v>1.58</v>
       </c>
       <c r="AP157">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ157">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR157">
         <v>1.68</v>
@@ -33718,7 +33727,7 @@
         <v>1.77</v>
       </c>
       <c r="AP158">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ158">
         <v>1.63</v>
@@ -33846,7 +33855,7 @@
         <v>177</v>
       </c>
       <c r="P159" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q159">
         <v>2.75</v>
@@ -34464,7 +34473,7 @@
         <v>179</v>
       </c>
       <c r="P162" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34545,7 +34554,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ162">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR162">
         <v>1.48</v>
@@ -34670,7 +34679,7 @@
         <v>180</v>
       </c>
       <c r="P163" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q163">
         <v>1.73</v>
@@ -34748,10 +34757,10 @@
         <v>1.54</v>
       </c>
       <c r="AP163">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ163">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR163">
         <v>1.78</v>
@@ -34876,7 +34885,7 @@
         <v>85</v>
       </c>
       <c r="P164" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q164">
         <v>4.9</v>
@@ -35288,7 +35297,7 @@
         <v>181</v>
       </c>
       <c r="P166" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q166">
         <v>3.56</v>
@@ -35494,7 +35503,7 @@
         <v>182</v>
       </c>
       <c r="P167" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q167">
         <v>6</v>
@@ -35700,7 +35709,7 @@
         <v>172</v>
       </c>
       <c r="P168" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q168">
         <v>3.75</v>
@@ -35781,7 +35790,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ168">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR168">
         <v>1.07</v>
@@ -35906,7 +35915,7 @@
         <v>142</v>
       </c>
       <c r="P169" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q169">
         <v>3.45</v>
@@ -35984,7 +35993,7 @@
         <v>2.15</v>
       </c>
       <c r="AP169">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ169">
         <v>2.06</v>
@@ -36112,7 +36121,7 @@
         <v>183</v>
       </c>
       <c r="P170" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q170">
         <v>2.4</v>
@@ -36524,7 +36533,7 @@
         <v>86</v>
       </c>
       <c r="P172" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q172">
         <v>2.75</v>
@@ -36936,7 +36945,7 @@
         <v>185</v>
       </c>
       <c r="P174" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37017,7 +37026,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ174">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR174">
         <v>1.08</v>
@@ -37142,7 +37151,7 @@
         <v>186</v>
       </c>
       <c r="P175" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q175">
         <v>2.4</v>
@@ -37220,7 +37229,7 @@
         <v>2.21</v>
       </c>
       <c r="AP175">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ175">
         <v>2.06</v>
@@ -37554,7 +37563,7 @@
         <v>188</v>
       </c>
       <c r="P177" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q177">
         <v>2.8</v>
@@ -37760,7 +37769,7 @@
         <v>86</v>
       </c>
       <c r="P178" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q178">
         <v>2.85</v>
@@ -37966,7 +37975,7 @@
         <v>170</v>
       </c>
       <c r="P179" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q179">
         <v>1.91</v>
@@ -38044,10 +38053,10 @@
         <v>1.36</v>
       </c>
       <c r="AP179">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ179">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR179">
         <v>1.57</v>
@@ -38172,7 +38181,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q180">
         <v>4.33</v>
@@ -38253,7 +38262,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ180">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR180">
         <v>1.28</v>
@@ -38456,7 +38465,7 @@
         <v>2</v>
       </c>
       <c r="AP181">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ181">
         <v>1.94</v>
@@ -38996,7 +39005,7 @@
         <v>86</v>
       </c>
       <c r="P184" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q184">
         <v>2.3</v>
@@ -39202,7 +39211,7 @@
         <v>191</v>
       </c>
       <c r="P185" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -39408,7 +39417,7 @@
         <v>86</v>
       </c>
       <c r="P186" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q186">
         <v>4</v>
@@ -39614,7 +39623,7 @@
         <v>98</v>
       </c>
       <c r="P187" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q187">
         <v>5.5</v>
@@ -39820,7 +39829,7 @@
         <v>192</v>
       </c>
       <c r="P188" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q188">
         <v>2.15</v>
@@ -39913,22 +39922,22 @@
         <v>2.23</v>
       </c>
       <c r="AU188">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AV188">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW188">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AX188">
         <v>5</v>
       </c>
       <c r="AY188">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AZ188">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA188">
         <v>7</v>
@@ -40026,7 +40035,7 @@
         <v>193</v>
       </c>
       <c r="P189" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q189">
         <v>2.77</v>
@@ -40119,19 +40128,19 @@
         <v>2.36</v>
       </c>
       <c r="AU189">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV189">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW189">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX189">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY189">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ189">
         <v>12</v>
@@ -40232,7 +40241,7 @@
         <v>103</v>
       </c>
       <c r="P190" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q190">
         <v>3.75</v>
@@ -40325,22 +40334,22 @@
         <v>2.61</v>
       </c>
       <c r="AU190">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV190">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AW190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX190">
+        <v>10</v>
+      </c>
+      <c r="AY190">
         <v>6</v>
       </c>
-      <c r="AY190">
-        <v>4</v>
-      </c>
       <c r="AZ190">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BA190">
         <v>8</v>
@@ -40389,6 +40398,624 @@
       </c>
       <c r="BP190">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>7383419</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45431.5</v>
+      </c>
+      <c r="F191">
+        <v>10</v>
+      </c>
+      <c r="G191" t="s">
+        <v>77</v>
+      </c>
+      <c r="H191" t="s">
+        <v>81</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>2</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191">
+        <v>2</v>
+      </c>
+      <c r="O191" t="s">
+        <v>194</v>
+      </c>
+      <c r="P191" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q191">
+        <v>1.73</v>
+      </c>
+      <c r="R191">
+        <v>2.62</v>
+      </c>
+      <c r="S191">
+        <v>6.25</v>
+      </c>
+      <c r="T191">
+        <v>1.25</v>
+      </c>
+      <c r="U191">
+        <v>3.55</v>
+      </c>
+      <c r="V191">
+        <v>2.2</v>
+      </c>
+      <c r="W191">
+        <v>1.6</v>
+      </c>
+      <c r="X191">
+        <v>5.05</v>
+      </c>
+      <c r="Y191">
+        <v>1.15</v>
+      </c>
+      <c r="Z191">
+        <v>1.3</v>
+      </c>
+      <c r="AA191">
+        <v>4.8</v>
+      </c>
+      <c r="AB191">
+        <v>8</v>
+      </c>
+      <c r="AC191">
+        <v>1.03</v>
+      </c>
+      <c r="AD191">
+        <v>11</v>
+      </c>
+      <c r="AE191">
+        <v>1.15</v>
+      </c>
+      <c r="AF191">
+        <v>5.25</v>
+      </c>
+      <c r="AG191">
+        <v>1.57</v>
+      </c>
+      <c r="AH191">
+        <v>2.2</v>
+      </c>
+      <c r="AI191">
+        <v>1.83</v>
+      </c>
+      <c r="AJ191">
+        <v>1.85</v>
+      </c>
+      <c r="AK191">
+        <v>1.06</v>
+      </c>
+      <c r="AL191">
+        <v>1.1</v>
+      </c>
+      <c r="AM191">
+        <v>3.35</v>
+      </c>
+      <c r="AN191">
+        <v>2.07</v>
+      </c>
+      <c r="AO191">
+        <v>1.33</v>
+      </c>
+      <c r="AP191">
+        <v>2.13</v>
+      </c>
+      <c r="AQ191">
+        <v>1.25</v>
+      </c>
+      <c r="AR191">
+        <v>1.54</v>
+      </c>
+      <c r="AS191">
+        <v>1.12</v>
+      </c>
+      <c r="AT191">
+        <v>2.66</v>
+      </c>
+      <c r="AU191">
+        <v>6</v>
+      </c>
+      <c r="AV191">
+        <v>3</v>
+      </c>
+      <c r="AW191">
+        <v>13</v>
+      </c>
+      <c r="AX191">
+        <v>4</v>
+      </c>
+      <c r="AY191">
+        <v>19</v>
+      </c>
+      <c r="AZ191">
+        <v>7</v>
+      </c>
+      <c r="BA191">
+        <v>7</v>
+      </c>
+      <c r="BB191">
+        <v>2</v>
+      </c>
+      <c r="BC191">
+        <v>9</v>
+      </c>
+      <c r="BD191">
+        <v>1.3</v>
+      </c>
+      <c r="BE191">
+        <v>9.5</v>
+      </c>
+      <c r="BF191">
+        <v>4.58</v>
+      </c>
+      <c r="BG191">
+        <v>1.32</v>
+      </c>
+      <c r="BH191">
+        <v>3.05</v>
+      </c>
+      <c r="BI191">
+        <v>1.58</v>
+      </c>
+      <c r="BJ191">
+        <v>2.2</v>
+      </c>
+      <c r="BK191">
+        <v>2</v>
+      </c>
+      <c r="BL191">
+        <v>1.73</v>
+      </c>
+      <c r="BM191">
+        <v>2.6</v>
+      </c>
+      <c r="BN191">
+        <v>1.43</v>
+      </c>
+      <c r="BO191">
+        <v>3.55</v>
+      </c>
+      <c r="BP191">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="192" spans="1:68">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>7383420</v>
+      </c>
+      <c r="C192" t="s">
+        <v>68</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45431.5</v>
+      </c>
+      <c r="F192">
+        <v>10</v>
+      </c>
+      <c r="G192" t="s">
+        <v>76</v>
+      </c>
+      <c r="H192" t="s">
+        <v>72</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192">
+        <v>1</v>
+      </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
+      <c r="M192">
+        <v>3</v>
+      </c>
+      <c r="N192">
+        <v>3</v>
+      </c>
+      <c r="O192" t="s">
+        <v>86</v>
+      </c>
+      <c r="P192" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q192">
+        <v>2.2</v>
+      </c>
+      <c r="R192">
+        <v>2.3</v>
+      </c>
+      <c r="S192">
+        <v>4.33</v>
+      </c>
+      <c r="T192">
+        <v>1.3</v>
+      </c>
+      <c r="U192">
+        <v>3.25</v>
+      </c>
+      <c r="V192">
+        <v>2.38</v>
+      </c>
+      <c r="W192">
+        <v>1.53</v>
+      </c>
+      <c r="X192">
+        <v>5.6</v>
+      </c>
+      <c r="Y192">
+        <v>1.12</v>
+      </c>
+      <c r="Z192">
+        <v>1.67</v>
+      </c>
+      <c r="AA192">
+        <v>3.8</v>
+      </c>
+      <c r="AB192">
+        <v>4.2</v>
+      </c>
+      <c r="AC192">
+        <v>1.03</v>
+      </c>
+      <c r="AD192">
+        <v>11</v>
+      </c>
+      <c r="AE192">
+        <v>1.2</v>
+      </c>
+      <c r="AF192">
+        <v>4.5</v>
+      </c>
+      <c r="AG192">
+        <v>1.61</v>
+      </c>
+      <c r="AH192">
+        <v>2.05</v>
+      </c>
+      <c r="AI192">
+        <v>1.6</v>
+      </c>
+      <c r="AJ192">
+        <v>2.15</v>
+      </c>
+      <c r="AK192">
+        <v>1.2</v>
+      </c>
+      <c r="AL192">
+        <v>1.18</v>
+      </c>
+      <c r="AM192">
+        <v>2.1</v>
+      </c>
+      <c r="AN192">
+        <v>1.27</v>
+      </c>
+      <c r="AO192">
+        <v>1.33</v>
+      </c>
+      <c r="AP192">
+        <v>1.19</v>
+      </c>
+      <c r="AQ192">
+        <v>1.44</v>
+      </c>
+      <c r="AR192">
+        <v>1.61</v>
+      </c>
+      <c r="AS192">
+        <v>1.27</v>
+      </c>
+      <c r="AT192">
+        <v>2.88</v>
+      </c>
+      <c r="AU192">
+        <v>3</v>
+      </c>
+      <c r="AV192">
+        <v>7</v>
+      </c>
+      <c r="AW192">
+        <v>9</v>
+      </c>
+      <c r="AX192">
+        <v>3</v>
+      </c>
+      <c r="AY192">
+        <v>12</v>
+      </c>
+      <c r="AZ192">
+        <v>10</v>
+      </c>
+      <c r="BA192">
+        <v>8</v>
+      </c>
+      <c r="BB192">
+        <v>1</v>
+      </c>
+      <c r="BC192">
+        <v>9</v>
+      </c>
+      <c r="BD192">
+        <v>1.55</v>
+      </c>
+      <c r="BE192">
+        <v>8</v>
+      </c>
+      <c r="BF192">
+        <v>2.92</v>
+      </c>
+      <c r="BG192">
+        <v>1.36</v>
+      </c>
+      <c r="BH192">
+        <v>2.85</v>
+      </c>
+      <c r="BI192">
+        <v>1.64</v>
+      </c>
+      <c r="BJ192">
+        <v>2.1</v>
+      </c>
+      <c r="BK192">
+        <v>2.05</v>
+      </c>
+      <c r="BL192">
+        <v>1.7</v>
+      </c>
+      <c r="BM192">
+        <v>2.75</v>
+      </c>
+      <c r="BN192">
+        <v>1.38</v>
+      </c>
+      <c r="BO192">
+        <v>3.85</v>
+      </c>
+      <c r="BP192">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="193" spans="1:68">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>7383418</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45431.5</v>
+      </c>
+      <c r="F193">
+        <v>10</v>
+      </c>
+      <c r="G193" t="s">
+        <v>78</v>
+      </c>
+      <c r="H193" t="s">
+        <v>70</v>
+      </c>
+      <c r="I193">
+        <v>3</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>4</v>
+      </c>
+      <c r="L193">
+        <v>7</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193">
+        <v>8</v>
+      </c>
+      <c r="O193" t="s">
+        <v>195</v>
+      </c>
+      <c r="P193" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q193">
+        <v>2</v>
+      </c>
+      <c r="R193">
+        <v>2.4</v>
+      </c>
+      <c r="S193">
+        <v>5</v>
+      </c>
+      <c r="T193">
+        <v>1.28</v>
+      </c>
+      <c r="U193">
+        <v>3.4</v>
+      </c>
+      <c r="V193">
+        <v>2.3</v>
+      </c>
+      <c r="W193">
+        <v>1.55</v>
+      </c>
+      <c r="X193">
+        <v>5.35</v>
+      </c>
+      <c r="Y193">
+        <v>1.14</v>
+      </c>
+      <c r="Z193">
+        <v>1.5</v>
+      </c>
+      <c r="AA193">
+        <v>4.2</v>
+      </c>
+      <c r="AB193">
+        <v>5.5</v>
+      </c>
+      <c r="AC193">
+        <v>1.03</v>
+      </c>
+      <c r="AD193">
+        <v>11</v>
+      </c>
+      <c r="AE193">
+        <v>1.18</v>
+      </c>
+      <c r="AF193">
+        <v>4.75</v>
+      </c>
+      <c r="AG193">
+        <v>1.55</v>
+      </c>
+      <c r="AH193">
+        <v>2.2</v>
+      </c>
+      <c r="AI193">
+        <v>1.65</v>
+      </c>
+      <c r="AJ193">
+        <v>2.05</v>
+      </c>
+      <c r="AK193">
+        <v>1.14</v>
+      </c>
+      <c r="AL193">
+        <v>1.17</v>
+      </c>
+      <c r="AM193">
+        <v>2.45</v>
+      </c>
+      <c r="AN193">
+        <v>2.2</v>
+      </c>
+      <c r="AO193">
+        <v>1.4</v>
+      </c>
+      <c r="AP193">
+        <v>2.25</v>
+      </c>
+      <c r="AQ193">
+        <v>1.31</v>
+      </c>
+      <c r="AR193">
+        <v>1.85</v>
+      </c>
+      <c r="AS193">
+        <v>1.3</v>
+      </c>
+      <c r="AT193">
+        <v>3.15</v>
+      </c>
+      <c r="AU193">
+        <v>13</v>
+      </c>
+      <c r="AV193">
+        <v>4</v>
+      </c>
+      <c r="AW193">
+        <v>10</v>
+      </c>
+      <c r="AX193">
+        <v>1</v>
+      </c>
+      <c r="AY193">
+        <v>23</v>
+      </c>
+      <c r="AZ193">
+        <v>5</v>
+      </c>
+      <c r="BA193">
+        <v>12</v>
+      </c>
+      <c r="BB193">
+        <v>1</v>
+      </c>
+      <c r="BC193">
+        <v>13</v>
+      </c>
+      <c r="BD193">
+        <v>1.45</v>
+      </c>
+      <c r="BE193">
+        <v>8.5</v>
+      </c>
+      <c r="BF193">
+        <v>3.33</v>
+      </c>
+      <c r="BG193">
+        <v>1.32</v>
+      </c>
+      <c r="BH193">
+        <v>3.05</v>
+      </c>
+      <c r="BI193">
+        <v>1.57</v>
+      </c>
+      <c r="BJ193">
+        <v>2.2</v>
+      </c>
+      <c r="BK193">
+        <v>2</v>
+      </c>
+      <c r="BL193">
+        <v>1.73</v>
+      </c>
+      <c r="BM193">
+        <v>2.6</v>
+      </c>
+      <c r="BN193">
+        <v>1.43</v>
+      </c>
+      <c r="BO193">
+        <v>3.55</v>
+      </c>
+      <c r="BP193">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="294">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -604,6 +604,9 @@
     <t>['7', '8', '36', '61', '66', '71', '78']</t>
   </si>
   <si>
+    <t>['64']</t>
+  </si>
+  <si>
     <t>['23']</t>
   </si>
   <si>
@@ -743,9 +746,6 @@
   </si>
   <si>
     <t>['13', '64', '77']</t>
-  </si>
-  <si>
-    <t>['64']</t>
   </si>
   <si>
     <t>['3', '19', '67']</t>
@@ -893,6 +893,9 @@
   </si>
   <si>
     <t>['25', '59', '90+2']</t>
+  </si>
+  <si>
+    <t>['8', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP193"/>
+  <dimension ref="A1:BP194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1513,7 +1516,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1719,7 +1722,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1797,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ3">
         <v>0.75</v>
@@ -1925,7 +1928,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -2131,7 +2134,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2337,7 +2340,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2543,7 +2546,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q7">
         <v>3.75</v>
@@ -3367,7 +3370,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3573,7 +3576,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q12">
         <v>4.5</v>
@@ -3654,7 +3657,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ12">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3779,7 +3782,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -4191,7 +4194,7 @@
         <v>82</v>
       </c>
       <c r="P15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q15">
         <v>2.55</v>
@@ -4269,7 +4272,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ15">
         <v>0.75</v>
@@ -4684,7 +4687,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ17">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR17">
         <v>2.14</v>
@@ -4809,7 +4812,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -5427,7 +5430,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5633,7 +5636,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5839,7 +5842,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q23">
         <v>4.33</v>
@@ -6251,7 +6254,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q25">
         <v>4.75</v>
@@ -6457,7 +6460,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6535,7 +6538,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ26">
         <v>1.94</v>
@@ -6663,7 +6666,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q27">
         <v>1.68</v>
@@ -6869,7 +6872,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7156,7 +7159,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ29">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR29">
         <v>1.36</v>
@@ -7281,7 +7284,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7487,7 +7490,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7693,7 +7696,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7771,7 +7774,7 @@
         <v>2</v>
       </c>
       <c r="AP32">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ32">
         <v>1.44</v>
@@ -7899,7 +7902,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q33">
         <v>3</v>
@@ -8105,7 +8108,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8723,7 +8726,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -8929,7 +8932,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -9135,7 +9138,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9341,7 +9344,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9547,7 +9550,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q41">
         <v>3.25</v>
@@ -9628,7 +9631,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ41">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR41">
         <v>1.12</v>
@@ -9753,7 +9756,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9959,7 +9962,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q43">
         <v>2.2</v>
@@ -10165,7 +10168,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q44">
         <v>1.57</v>
@@ -10577,7 +10580,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q46">
         <v>3.25</v>
@@ -11070,7 +11073,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR48">
         <v>1.46</v>
@@ -11195,7 +11198,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11401,7 +11404,7 @@
         <v>86</v>
       </c>
       <c r="P50" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q50">
         <v>9.5</v>
@@ -11607,7 +11610,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q51">
         <v>3.75</v>
@@ -11685,7 +11688,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ51">
         <v>1.31</v>
@@ -12843,7 +12846,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q57">
         <v>5.5</v>
@@ -13461,7 +13464,7 @@
         <v>121</v>
       </c>
       <c r="P60" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q60">
         <v>4.5</v>
@@ -13539,7 +13542,7 @@
         <v>2.5</v>
       </c>
       <c r="AP60">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ60">
         <v>2.06</v>
@@ -13667,7 +13670,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q61">
         <v>7.5</v>
@@ -13873,7 +13876,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -14285,7 +14288,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14697,7 +14700,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q66">
         <v>4.33</v>
@@ -14778,7 +14781,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ66">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR66">
         <v>1.22</v>
@@ -14903,7 +14906,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -15808,7 +15811,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ71">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR71">
         <v>1.45</v>
@@ -15933,7 +15936,7 @@
         <v>86</v>
       </c>
       <c r="P72" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q72">
         <v>4.33</v>
@@ -16139,7 +16142,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q73">
         <v>2.75</v>
@@ -16423,7 +16426,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ74">
         <v>1.25</v>
@@ -16551,7 +16554,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q75">
         <v>7.5</v>
@@ -16963,7 +16966,7 @@
         <v>131</v>
       </c>
       <c r="P77" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17169,7 +17172,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q78">
         <v>4.33</v>
@@ -17581,7 +17584,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q80">
         <v>4.5</v>
@@ -17993,7 +17996,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="Q82">
         <v>3.5</v>
@@ -19513,10 +19516,10 @@
         <v>1.29</v>
       </c>
       <c r="AP89">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ89">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR89">
         <v>1.34</v>
@@ -19641,7 +19644,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -21782,7 +21785,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ100">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR100">
         <v>1.3</v>
@@ -23221,7 +23224,7 @@
         <v>1.75</v>
       </c>
       <c r="AP107">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ107">
         <v>1.63</v>
@@ -24251,7 +24254,7 @@
         <v>0.78</v>
       </c>
       <c r="AP112">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ112">
         <v>0.6899999999999999</v>
@@ -26108,7 +26111,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ121">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR121">
         <v>1.79</v>
@@ -26520,7 +26523,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ123">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR123">
         <v>1.22</v>
@@ -27753,7 +27756,7 @@
         <v>0.6</v>
       </c>
       <c r="AP129">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ129">
         <v>0.9399999999999999</v>
@@ -28992,7 +28995,7 @@
         <v>1</v>
       </c>
       <c r="AQ135">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR135">
         <v>1.46</v>
@@ -30431,7 +30434,7 @@
         <v>0.64</v>
       </c>
       <c r="AP142">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ142">
         <v>0.9399999999999999</v>
@@ -32413,7 +32416,7 @@
         <v>174</v>
       </c>
       <c r="P152" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q152">
         <v>4.75</v>
@@ -32903,10 +32906,10 @@
         <v>1.17</v>
       </c>
       <c r="AP154">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ154">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR154">
         <v>1.28</v>
@@ -33443,7 +33446,7 @@
         <v>176</v>
       </c>
       <c r="P157" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q157">
         <v>2.1</v>
@@ -34345,7 +34348,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP161">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ161">
         <v>0.75</v>
@@ -35172,7 +35175,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ165">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR165">
         <v>1.31</v>
@@ -36611,7 +36614,7 @@
         <v>0.64</v>
       </c>
       <c r="AP172">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ172">
         <v>0.75</v>
@@ -37438,7 +37441,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ176">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR176">
         <v>1.08</v>
@@ -39417,7 +39420,7 @@
         <v>86</v>
       </c>
       <c r="P186" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q186">
         <v>4</v>
@@ -40113,7 +40116,7 @@
         <v>0.73</v>
       </c>
       <c r="AP189">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ189">
         <v>0.6899999999999999</v>
@@ -40322,7 +40325,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ190">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR190">
         <v>1.23</v>
@@ -40859,7 +40862,7 @@
         <v>195</v>
       </c>
       <c r="P193" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q193">
         <v>2</v>
@@ -41016,6 +41019,212 @@
       </c>
       <c r="BP193">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7436191</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45433.58333333334</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194" t="s">
+        <v>71</v>
+      </c>
+      <c r="H194" t="s">
+        <v>75</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+      <c r="M194">
+        <v>2</v>
+      </c>
+      <c r="N194">
+        <v>3</v>
+      </c>
+      <c r="O194" t="s">
+        <v>196</v>
+      </c>
+      <c r="P194" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q194">
+        <v>3.94</v>
+      </c>
+      <c r="R194">
+        <v>2.25</v>
+      </c>
+      <c r="S194">
+        <v>2.93</v>
+      </c>
+      <c r="T194">
+        <v>1.41</v>
+      </c>
+      <c r="U194">
+        <v>3.03</v>
+      </c>
+      <c r="V194">
+        <v>3.01</v>
+      </c>
+      <c r="W194">
+        <v>1.41</v>
+      </c>
+      <c r="X194">
+        <v>7.3</v>
+      </c>
+      <c r="Y194">
+        <v>1.07</v>
+      </c>
+      <c r="Z194">
+        <v>3.3</v>
+      </c>
+      <c r="AA194">
+        <v>3.4</v>
+      </c>
+      <c r="AB194">
+        <v>2.29</v>
+      </c>
+      <c r="AC194">
+        <v>1.02</v>
+      </c>
+      <c r="AD194">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE194">
+        <v>1.28</v>
+      </c>
+      <c r="AF194">
+        <v>3.18</v>
+      </c>
+      <c r="AG194">
+        <v>2.03</v>
+      </c>
+      <c r="AH194">
+        <v>1.86</v>
+      </c>
+      <c r="AI194">
+        <v>1.79</v>
+      </c>
+      <c r="AJ194">
+        <v>2.09</v>
+      </c>
+      <c r="AK194">
+        <v>1.67</v>
+      </c>
+      <c r="AL194">
+        <v>1.35</v>
+      </c>
+      <c r="AM194">
+        <v>1.37</v>
+      </c>
+      <c r="AN194">
+        <v>1.44</v>
+      </c>
+      <c r="AO194">
+        <v>1.44</v>
+      </c>
+      <c r="AP194">
+        <v>1.39</v>
+      </c>
+      <c r="AQ194">
+        <v>1.48</v>
+      </c>
+      <c r="AR194">
+        <v>1.26</v>
+      </c>
+      <c r="AS194">
+        <v>1.44</v>
+      </c>
+      <c r="AT194">
+        <v>2.7</v>
+      </c>
+      <c r="AU194">
+        <v>4</v>
+      </c>
+      <c r="AV194">
+        <v>3</v>
+      </c>
+      <c r="AW194">
+        <v>1</v>
+      </c>
+      <c r="AX194">
+        <v>2</v>
+      </c>
+      <c r="AY194">
+        <v>5</v>
+      </c>
+      <c r="AZ194">
+        <v>5</v>
+      </c>
+      <c r="BA194">
+        <v>2</v>
+      </c>
+      <c r="BB194">
+        <v>4</v>
+      </c>
+      <c r="BC194">
+        <v>6</v>
+      </c>
+      <c r="BD194">
+        <v>2.71</v>
+      </c>
+      <c r="BE194">
+        <v>9.5</v>
+      </c>
+      <c r="BF194">
+        <v>1.62</v>
+      </c>
+      <c r="BG194">
+        <v>1.16</v>
+      </c>
+      <c r="BH194">
+        <v>4.3</v>
+      </c>
+      <c r="BI194">
+        <v>1.33</v>
+      </c>
+      <c r="BJ194">
+        <v>2.91</v>
+      </c>
+      <c r="BK194">
+        <v>1.64</v>
+      </c>
+      <c r="BL194">
+        <v>2.18</v>
+      </c>
+      <c r="BM194">
+        <v>2.02</v>
+      </c>
+      <c r="BN194">
+        <v>1.76</v>
+      </c>
+      <c r="BO194">
+        <v>2.62</v>
+      </c>
+      <c r="BP194">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -41164,19 +41164,19 @@
         <v>4</v>
       </c>
       <c r="AV194">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW194">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX194">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AY194">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ194">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BA194">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="295">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -605,6 +605,9 @@
   </si>
   <si>
     <t>['64']</t>
+  </si>
+  <si>
+    <t>['51', '58']</t>
   </si>
   <si>
     <t>['23']</t>
@@ -1257,7 +1260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP194"/>
+  <dimension ref="A1:BP195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1516,7 +1519,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1722,7 +1725,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1928,7 +1931,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -2134,7 +2137,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2340,7 +2343,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2546,7 +2549,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q7">
         <v>3.75</v>
@@ -2624,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ7">
         <v>2.06</v>
@@ -3164,7 +3167,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3576,7 +3579,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3657,7 +3660,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ12">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3782,7 +3785,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3988,7 +3991,7 @@
         <v>82</v>
       </c>
       <c r="P14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q14">
         <v>2.55</v>
@@ -4812,7 +4815,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -4893,7 +4896,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ18">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR18">
         <v>2.76</v>
@@ -5430,7 +5433,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5636,7 +5639,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5920,7 +5923,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ23">
         <v>1.5</v>
@@ -6048,7 +6051,7 @@
         <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q24">
         <v>4.33</v>
@@ -6254,7 +6257,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q25">
         <v>4.75</v>
@@ -6460,7 +6463,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6666,7 +6669,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q27">
         <v>1.68</v>
@@ -6872,7 +6875,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7284,7 +7287,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7490,7 +7493,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7696,7 +7699,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7777,7 +7780,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ32">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR32">
         <v>1.27</v>
@@ -7902,7 +7905,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q33">
         <v>3</v>
@@ -8108,7 +8111,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8726,7 +8729,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -8804,7 +8807,7 @@
         <v>2.33</v>
       </c>
       <c r="AP37">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ37">
         <v>1.25</v>
@@ -8932,7 +8935,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9138,7 +9141,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -9344,7 +9347,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9550,7 +9553,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9756,7 +9759,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9962,7 +9965,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q43">
         <v>2.2</v>
@@ -10168,7 +10171,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q44">
         <v>1.57</v>
@@ -10580,7 +10583,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q46">
         <v>3.25</v>
@@ -10867,7 +10870,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ47">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR47">
         <v>1.43</v>
@@ -11198,7 +11201,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11404,7 +11407,7 @@
         <v>86</v>
       </c>
       <c r="P50" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q50">
         <v>9.5</v>
@@ -11816,7 +11819,7 @@
         <v>116</v>
       </c>
       <c r="P52" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q52">
         <v>3.75</v>
@@ -12512,7 +12515,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ55">
         <v>1.63</v>
@@ -12718,7 +12721,7 @@
         <v>1.2</v>
       </c>
       <c r="AP56">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ56">
         <v>0.75</v>
@@ -12846,7 +12849,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q57">
         <v>5.5</v>
@@ -13464,7 +13467,7 @@
         <v>121</v>
       </c>
       <c r="P60" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q60">
         <v>4.5</v>
@@ -13670,7 +13673,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q61">
         <v>7.5</v>
@@ -14082,7 +14085,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q63">
         <v>2.05</v>
@@ -14288,7 +14291,7 @@
         <v>123</v>
       </c>
       <c r="P64" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14369,7 +14372,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ64">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR64">
         <v>1.37</v>
@@ -14700,7 +14703,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q66">
         <v>4.33</v>
@@ -14906,7 +14909,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -15730,7 +15733,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q71">
         <v>4.33</v>
@@ -15811,7 +15814,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ71">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR71">
         <v>1.01</v>
@@ -16142,7 +16145,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q73">
         <v>2.75</v>
@@ -16348,7 +16351,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q74">
         <v>7.5</v>
@@ -16632,7 +16635,7 @@
         <v>0.6</v>
       </c>
       <c r="AP75">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ75">
         <v>0.75</v>
@@ -16966,7 +16969,7 @@
         <v>86</v>
       </c>
       <c r="P77" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q77">
         <v>4.33</v>
@@ -17172,7 +17175,7 @@
         <v>131</v>
       </c>
       <c r="P78" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q78">
         <v>2.5</v>
@@ -17584,7 +17587,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q80">
         <v>4.5</v>
@@ -18202,7 +18205,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18692,7 +18695,7 @@
         <v>2.43</v>
       </c>
       <c r="AP85">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ85">
         <v>1.94</v>
@@ -19232,7 +19235,7 @@
         <v>139</v>
       </c>
       <c r="P88" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q88">
         <v>1.83</v>
@@ -19313,7 +19316,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ88">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR88">
         <v>1.63</v>
@@ -19644,7 +19647,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -20262,7 +20265,7 @@
         <v>142</v>
       </c>
       <c r="P93" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q93">
         <v>4.75</v>
@@ -20546,7 +20549,7 @@
         <v>1.14</v>
       </c>
       <c r="AP94">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ94">
         <v>1.31</v>
@@ -20755,7 +20758,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ95">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR95">
         <v>1.21</v>
@@ -21086,7 +21089,7 @@
         <v>145</v>
       </c>
       <c r="P97" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q97">
         <v>5.5</v>
@@ -21498,7 +21501,7 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -21704,7 +21707,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -21910,7 +21913,7 @@
         <v>148</v>
       </c>
       <c r="P101" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -22528,7 +22531,7 @@
         <v>151</v>
       </c>
       <c r="P104" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22812,10 +22815,10 @@
         <v>1.5</v>
       </c>
       <c r="AP105">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ105">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR105">
         <v>1.45</v>
@@ -22940,7 +22943,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23146,7 +23149,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -23352,7 +23355,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q108">
         <v>2.4</v>
@@ -23558,7 +23561,7 @@
         <v>154</v>
       </c>
       <c r="P109" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -23764,7 +23767,7 @@
         <v>155</v>
       </c>
       <c r="P110" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q110">
         <v>2.2</v>
@@ -24048,7 +24051,7 @@
         <v>0.67</v>
       </c>
       <c r="AP111">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ111">
         <v>0.9399999999999999</v>
@@ -24588,7 +24591,7 @@
         <v>86</v>
       </c>
       <c r="P114" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -25412,7 +25415,7 @@
         <v>121</v>
       </c>
       <c r="P118" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q118">
         <v>3.16</v>
@@ -25493,7 +25496,7 @@
         <v>1</v>
       </c>
       <c r="AQ118">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR118">
         <v>1.55</v>
@@ -25824,7 +25827,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q120">
         <v>5.5</v>
@@ -26317,7 +26320,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ122">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR122">
         <v>1.29</v>
@@ -26648,7 +26651,7 @@
         <v>161</v>
       </c>
       <c r="P124" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q124">
         <v>4.33</v>
@@ -26854,7 +26857,7 @@
         <v>103</v>
       </c>
       <c r="P125" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q125">
         <v>1.57</v>
@@ -27962,7 +27965,7 @@
         <v>0.7</v>
       </c>
       <c r="AP130">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ130">
         <v>0.6899999999999999</v>
@@ -28090,7 +28093,7 @@
         <v>163</v>
       </c>
       <c r="P131" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q131">
         <v>3.7</v>
@@ -28502,7 +28505,7 @@
         <v>167</v>
       </c>
       <c r="P133" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q133">
         <v>3.9</v>
@@ -29532,7 +29535,7 @@
         <v>86</v>
       </c>
       <c r="P138" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q138">
         <v>4.5</v>
@@ -29738,7 +29741,7 @@
         <v>168</v>
       </c>
       <c r="P139" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q139">
         <v>1.8</v>
@@ -29819,7 +29822,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ139">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR139">
         <v>1.7</v>
@@ -30022,7 +30025,7 @@
         <v>0.64</v>
       </c>
       <c r="AP140">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ140">
         <v>0.75</v>
@@ -30150,7 +30153,7 @@
         <v>169</v>
       </c>
       <c r="P141" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30768,7 +30771,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -30974,7 +30977,7 @@
         <v>86</v>
       </c>
       <c r="P145" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -31464,7 +31467,7 @@
         <v>0.67</v>
       </c>
       <c r="AP147">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ147">
         <v>0.75</v>
@@ -32004,7 +32007,7 @@
         <v>172</v>
       </c>
       <c r="P150" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q150">
         <v>3.25</v>
@@ -32085,7 +32088,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ150">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR150">
         <v>1.25</v>
@@ -32210,7 +32213,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -32416,7 +32419,7 @@
         <v>174</v>
       </c>
       <c r="P152" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q152">
         <v>4.75</v>
@@ -32622,7 +32625,7 @@
         <v>86</v>
       </c>
       <c r="P153" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q153">
         <v>4.75</v>
@@ -33034,7 +33037,7 @@
         <v>175</v>
       </c>
       <c r="P155" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q155">
         <v>3.25</v>
@@ -33240,7 +33243,7 @@
         <v>163</v>
       </c>
       <c r="P156" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q156">
         <v>4.75</v>
@@ -33446,7 +33449,7 @@
         <v>176</v>
       </c>
       <c r="P157" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q157">
         <v>2.1</v>
@@ -33858,7 +33861,7 @@
         <v>177</v>
       </c>
       <c r="P159" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q159">
         <v>2.75</v>
@@ -34348,7 +34351,7 @@
         <v>0.85</v>
       </c>
       <c r="AP161">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ161">
         <v>0.6899999999999999</v>
@@ -34476,7 +34479,7 @@
         <v>179</v>
       </c>
       <c r="P162" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34557,7 +34560,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ162">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR162">
         <v>1.48</v>
@@ -34682,7 +34685,7 @@
         <v>180</v>
       </c>
       <c r="P163" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q163">
         <v>1.73</v>
@@ -34888,7 +34891,7 @@
         <v>85</v>
       </c>
       <c r="P164" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q164">
         <v>4.9</v>
@@ -35300,7 +35303,7 @@
         <v>181</v>
       </c>
       <c r="P166" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q166">
         <v>3.56</v>
@@ -35506,7 +35509,7 @@
         <v>182</v>
       </c>
       <c r="P167" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q167">
         <v>6</v>
@@ -35712,7 +35715,7 @@
         <v>171</v>
       </c>
       <c r="P168" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q168">
         <v>3.75</v>
@@ -35918,7 +35921,7 @@
         <v>142</v>
       </c>
       <c r="P169" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q169">
         <v>3.45</v>
@@ -36124,7 +36127,7 @@
         <v>183</v>
       </c>
       <c r="P170" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q170">
         <v>2.4</v>
@@ -36202,7 +36205,7 @@
         <v>0.79</v>
       </c>
       <c r="AP170">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ170">
         <v>0.9399999999999999</v>
@@ -36536,7 +36539,7 @@
         <v>86</v>
       </c>
       <c r="P172" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q172">
         <v>2.75</v>
@@ -36948,7 +36951,7 @@
         <v>185</v>
       </c>
       <c r="P174" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37154,7 +37157,7 @@
         <v>186</v>
       </c>
       <c r="P175" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q175">
         <v>2.4</v>
@@ -37566,7 +37569,7 @@
         <v>188</v>
       </c>
       <c r="P177" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q177">
         <v>2.8</v>
@@ -37772,7 +37775,7 @@
         <v>86</v>
       </c>
       <c r="P178" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q178">
         <v>2.85</v>
@@ -37978,7 +37981,7 @@
         <v>170</v>
       </c>
       <c r="P179" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q179">
         <v>1.91</v>
@@ -38059,7 +38062,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ179">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR179">
         <v>1.57</v>
@@ -38184,7 +38187,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q180">
         <v>4.33</v>
@@ -39008,7 +39011,7 @@
         <v>86</v>
       </c>
       <c r="P184" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q184">
         <v>2.3</v>
@@ -39086,7 +39089,7 @@
         <v>1.4</v>
       </c>
       <c r="AP184">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ184">
         <v>1.5</v>
@@ -39214,7 +39217,7 @@
         <v>191</v>
       </c>
       <c r="P185" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -39420,7 +39423,7 @@
         <v>86</v>
       </c>
       <c r="P186" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q186">
         <v>4</v>
@@ -39626,7 +39629,7 @@
         <v>98</v>
       </c>
       <c r="P187" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q187">
         <v>5.5</v>
@@ -39832,7 +39835,7 @@
         <v>192</v>
       </c>
       <c r="P188" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q188">
         <v>2.77</v>
@@ -40038,7 +40041,7 @@
         <v>103</v>
       </c>
       <c r="P189" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q189">
         <v>3.75</v>
@@ -40244,7 +40247,7 @@
         <v>193</v>
       </c>
       <c r="P190" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q190">
         <v>2.15</v>
@@ -40450,7 +40453,7 @@
         <v>194</v>
       </c>
       <c r="P191" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q191">
         <v>2</v>
@@ -40862,7 +40865,7 @@
         <v>86</v>
       </c>
       <c r="P193" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q193">
         <v>2.2</v>
@@ -40943,7 +40946,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ193">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR193">
         <v>1.61</v>
@@ -41068,7 +41071,7 @@
         <v>196</v>
       </c>
       <c r="P194" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q194">
         <v>3.94</v>
@@ -41149,7 +41152,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ194">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AR194">
         <v>1.26</v>
@@ -41225,6 +41228,212 @@
       </c>
       <c r="BP194">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="195" spans="1:68">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>7437875</v>
+      </c>
+      <c r="C195" t="s">
+        <v>68</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45436.60416666666</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195" t="s">
+        <v>75</v>
+      </c>
+      <c r="H195" t="s">
+        <v>72</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>2</v>
+      </c>
+      <c r="M195">
+        <v>1</v>
+      </c>
+      <c r="N195">
+        <v>3</v>
+      </c>
+      <c r="O195" t="s">
+        <v>197</v>
+      </c>
+      <c r="P195" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q195">
+        <v>2.32</v>
+      </c>
+      <c r="R195">
+        <v>2.54</v>
+      </c>
+      <c r="S195">
+        <v>4.67</v>
+      </c>
+      <c r="T195">
+        <v>1.29</v>
+      </c>
+      <c r="U195">
+        <v>3.5</v>
+      </c>
+      <c r="V195">
+        <v>2.45</v>
+      </c>
+      <c r="W195">
+        <v>1.58</v>
+      </c>
+      <c r="X195">
+        <v>4.85</v>
+      </c>
+      <c r="Y195">
+        <v>1.13</v>
+      </c>
+      <c r="Z195">
+        <v>1.8</v>
+      </c>
+      <c r="AA195">
+        <v>4.08</v>
+      </c>
+      <c r="AB195">
+        <v>4.24</v>
+      </c>
+      <c r="AC195">
+        <v>1.03</v>
+      </c>
+      <c r="AD195">
+        <v>13.9</v>
+      </c>
+      <c r="AE195">
+        <v>1.21</v>
+      </c>
+      <c r="AF195">
+        <v>4.75</v>
+      </c>
+      <c r="AG195">
+        <v>1.64</v>
+      </c>
+      <c r="AH195">
+        <v>2.35</v>
+      </c>
+      <c r="AI195">
+        <v>1.62</v>
+      </c>
+      <c r="AJ195">
+        <v>2.37</v>
+      </c>
+      <c r="AK195">
+        <v>1.25</v>
+      </c>
+      <c r="AL195">
+        <v>1.27</v>
+      </c>
+      <c r="AM195">
+        <v>2.08</v>
+      </c>
+      <c r="AN195">
+        <v>1.48</v>
+      </c>
+      <c r="AO195">
+        <v>1.41</v>
+      </c>
+      <c r="AP195">
+        <v>1.53</v>
+      </c>
+      <c r="AQ195">
+        <v>1.36</v>
+      </c>
+      <c r="AR195">
+        <v>1.39</v>
+      </c>
+      <c r="AS195">
+        <v>1.27</v>
+      </c>
+      <c r="AT195">
+        <v>2.66</v>
+      </c>
+      <c r="AU195">
+        <v>7</v>
+      </c>
+      <c r="AV195">
+        <v>7</v>
+      </c>
+      <c r="AW195">
+        <v>9</v>
+      </c>
+      <c r="AX195">
+        <v>3</v>
+      </c>
+      <c r="AY195">
+        <v>16</v>
+      </c>
+      <c r="AZ195">
+        <v>10</v>
+      </c>
+      <c r="BA195">
+        <v>7</v>
+      </c>
+      <c r="BB195">
+        <v>3</v>
+      </c>
+      <c r="BC195">
+        <v>10</v>
+      </c>
+      <c r="BD195">
+        <v>1.46</v>
+      </c>
+      <c r="BE195">
+        <v>9.9</v>
+      </c>
+      <c r="BF195">
+        <v>3.25</v>
+      </c>
+      <c r="BG195">
+        <v>1.19</v>
+      </c>
+      <c r="BH195">
+        <v>3.98</v>
+      </c>
+      <c r="BI195">
+        <v>1.39</v>
+      </c>
+      <c r="BJ195">
+        <v>2.76</v>
+      </c>
+      <c r="BK195">
+        <v>1.72</v>
+      </c>
+      <c r="BL195">
+        <v>2.09</v>
+      </c>
+      <c r="BM195">
+        <v>2.15</v>
+      </c>
+      <c r="BN195">
+        <v>1.68</v>
+      </c>
+      <c r="BO195">
+        <v>2.75</v>
+      </c>
+      <c r="BP195">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="295">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1260,7 +1260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP195"/>
+  <dimension ref="A1:BP196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ4">
         <v>0.75</v>
@@ -3248,7 +3248,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ10">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ17">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR17">
         <v>2.14</v>
@@ -6335,7 +6335,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ25">
         <v>1.94</v>
@@ -7162,7 +7162,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ29">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR29">
         <v>1.36</v>
@@ -7571,7 +7571,7 @@
         <v>2</v>
       </c>
       <c r="AP31">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ31">
         <v>1.25</v>
@@ -9837,10 +9837,10 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ42">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR42">
         <v>1.12</v>
@@ -11076,7 +11076,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR48">
         <v>1.46</v>
@@ -12309,7 +12309,7 @@
         <v>1.25</v>
       </c>
       <c r="AP54">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ54">
         <v>0.9399999999999999</v>
@@ -13133,7 +13133,7 @@
         <v>0.8</v>
       </c>
       <c r="AP58">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ58">
         <v>0.6899999999999999</v>
@@ -14784,7 +14784,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ66">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR66">
         <v>1.22</v>
@@ -16020,7 +16020,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ72">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR72">
         <v>1.45</v>
@@ -17253,7 +17253,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ78">
         <v>0.75</v>
@@ -17871,7 +17871,7 @@
         <v>1.83</v>
       </c>
       <c r="AP81">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ81">
         <v>1.63</v>
@@ -19522,7 +19522,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ89">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR89">
         <v>1.34</v>
@@ -21788,7 +21788,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ100">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR100">
         <v>1.3</v>
@@ -22197,7 +22197,7 @@
         <v>1.25</v>
       </c>
       <c r="AP102">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ102">
         <v>1.5</v>
@@ -24463,7 +24463,7 @@
         <v>1.33</v>
       </c>
       <c r="AP113">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ113">
         <v>1.31</v>
@@ -26114,7 +26114,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ121">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR121">
         <v>1.79</v>
@@ -26732,7 +26732,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ124">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR124">
         <v>1.22</v>
@@ -28583,7 +28583,7 @@
         <v>2.1</v>
       </c>
       <c r="AP133">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ133">
         <v>2.06</v>
@@ -29204,7 +29204,7 @@
         <v>1</v>
       </c>
       <c r="AQ136">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR136">
         <v>1.46</v>
@@ -30849,7 +30849,7 @@
         <v>1.73</v>
       </c>
       <c r="AP144">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ144">
         <v>1.63</v>
@@ -32912,7 +32912,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ154">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR154">
         <v>1.28</v>
@@ -33321,7 +33321,7 @@
         <v>2.08</v>
       </c>
       <c r="AP156">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ156">
         <v>2.06</v>
@@ -35178,7 +35178,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ165">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR165">
         <v>1.31</v>
@@ -35793,7 +35793,7 @@
         <v>1.15</v>
       </c>
       <c r="AP168">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ168">
         <v>1.31</v>
@@ -37029,7 +37029,7 @@
         <v>1.43</v>
       </c>
       <c r="AP174">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ174">
         <v>1.25</v>
@@ -37444,7 +37444,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ176">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR176">
         <v>1.08</v>
@@ -39707,7 +39707,7 @@
         <v>1.87</v>
       </c>
       <c r="AP187">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ187">
         <v>1.94</v>
@@ -40122,7 +40122,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ189">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR189">
         <v>1.23</v>
@@ -41152,7 +41152,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ194">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AR194">
         <v>1.26</v>
@@ -41355,10 +41355,10 @@
         <v>1.41</v>
       </c>
       <c r="AP195">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AQ195">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="AR195">
         <v>1.39</v>
@@ -41434,6 +41434,212 @@
       </c>
       <c r="BP195">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="196" spans="1:68">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>7437876</v>
+      </c>
+      <c r="C196" t="s">
+        <v>68</v>
+      </c>
+      <c r="D196" t="s">
+        <v>69</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45440.58333333334</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196" t="s">
+        <v>72</v>
+      </c>
+      <c r="H196" t="s">
+        <v>75</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>1</v>
+      </c>
+      <c r="N196">
+        <v>1</v>
+      </c>
+      <c r="O196" t="s">
+        <v>86</v>
+      </c>
+      <c r="P196" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q196">
+        <v>3.82</v>
+      </c>
+      <c r="R196">
+        <v>2.28</v>
+      </c>
+      <c r="S196">
+        <v>2.54</v>
+      </c>
+      <c r="T196">
+        <v>1.32</v>
+      </c>
+      <c r="U196">
+        <v>3.22</v>
+      </c>
+      <c r="V196">
+        <v>2.46</v>
+      </c>
+      <c r="W196">
+        <v>1.51</v>
+      </c>
+      <c r="X196">
+        <v>5.85</v>
+      </c>
+      <c r="Y196">
+        <v>1.12</v>
+      </c>
+      <c r="Z196">
+        <v>3.3</v>
+      </c>
+      <c r="AA196">
+        <v>3.91</v>
+      </c>
+      <c r="AB196">
+        <v>1.99</v>
+      </c>
+      <c r="AC196">
+        <v>1.01</v>
+      </c>
+      <c r="AD196">
+        <v>12.9</v>
+      </c>
+      <c r="AE196">
+        <v>1.22</v>
+      </c>
+      <c r="AF196">
+        <v>4.42</v>
+      </c>
+      <c r="AG196">
+        <v>1.71</v>
+      </c>
+      <c r="AH196">
+        <v>2.2</v>
+      </c>
+      <c r="AI196">
+        <v>1.59</v>
+      </c>
+      <c r="AJ196">
+        <v>2.27</v>
+      </c>
+      <c r="AK196">
+        <v>1.78</v>
+      </c>
+      <c r="AL196">
+        <v>1.28</v>
+      </c>
+      <c r="AM196">
+        <v>1.32</v>
+      </c>
+      <c r="AN196">
+        <v>1.36</v>
+      </c>
+      <c r="AO196">
+        <v>1.53</v>
+      </c>
+      <c r="AP196">
+        <v>1.32</v>
+      </c>
+      <c r="AQ196">
+        <v>1.57</v>
+      </c>
+      <c r="AR196">
+        <v>1.15</v>
+      </c>
+      <c r="AS196">
+        <v>1.47</v>
+      </c>
+      <c r="AT196">
+        <v>2.62</v>
+      </c>
+      <c r="AU196">
+        <v>4</v>
+      </c>
+      <c r="AV196">
+        <v>6</v>
+      </c>
+      <c r="AW196">
+        <v>7</v>
+      </c>
+      <c r="AX196">
+        <v>2</v>
+      </c>
+      <c r="AY196">
+        <v>11</v>
+      </c>
+      <c r="AZ196">
+        <v>8</v>
+      </c>
+      <c r="BA196">
+        <v>5</v>
+      </c>
+      <c r="BB196">
+        <v>6</v>
+      </c>
+      <c r="BC196">
+        <v>11</v>
+      </c>
+      <c r="BD196">
+        <v>2.26</v>
+      </c>
+      <c r="BE196">
+        <v>9.1</v>
+      </c>
+      <c r="BF196">
+        <v>1.85</v>
+      </c>
+      <c r="BG196">
+        <v>1.19</v>
+      </c>
+      <c r="BH196">
+        <v>3.94</v>
+      </c>
+      <c r="BI196">
+        <v>1.39</v>
+      </c>
+      <c r="BJ196">
+        <v>2.76</v>
+      </c>
+      <c r="BK196">
+        <v>1.7</v>
+      </c>
+      <c r="BL196">
+        <v>2.08</v>
+      </c>
+      <c r="BM196">
+        <v>2.14</v>
+      </c>
+      <c r="BN196">
+        <v>1.63</v>
+      </c>
+      <c r="BO196">
+        <v>2.79</v>
+      </c>
+      <c r="BP196">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -41155,13 +41155,13 @@
         <v>1.57</v>
       </c>
       <c r="AR194">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="AS194">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT194">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="AU194">
         <v>4</v>
@@ -41361,13 +41361,13 @@
         <v>1.32</v>
       </c>
       <c r="AR195">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="AS195">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="AT195">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="AU195">
         <v>7</v>
@@ -41567,13 +41567,13 @@
         <v>1.57</v>
       </c>
       <c r="AR196">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="AS196">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT196">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="AU196">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ2">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2009,10 +2009,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AQ4">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2215,10 +2215,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ5">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2421,10 +2421,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ6">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2627,10 +2627,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ7">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2827,25 +2827,25 @@
         <v>2.6</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO8">
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AQ8">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>3.12</v>
       </c>
       <c r="AU8">
         <v>15</v>
@@ -3033,25 +3033,25 @@
         <v>2.15</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AQ9">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AU9">
         <v>7</v>
@@ -3239,25 +3239,25 @@
         <v>1.22</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO10">
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ10">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AU10">
         <v>7</v>
@@ -3445,25 +3445,25 @@
         <v>4.75</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ11">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>3.09</v>
       </c>
       <c r="AU11">
         <v>9</v>
@@ -3654,22 +3654,22 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AU12">
         <v>5</v>
@@ -3857,25 +3857,25 @@
         <v>1.45</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AQ13">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AU13">
         <v>4</v>
@@ -4063,25 +4063,25 @@
         <v>1.87</v>
       </c>
       <c r="AN14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP14">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ14">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR14">
-        <v>1.31</v>
+        <v>1.12</v>
       </c>
       <c r="AS14">
-        <v>0.88</v>
+        <v>1.05</v>
       </c>
       <c r="AT14">
-        <v>2.19</v>
+        <v>2.17</v>
       </c>
       <c r="AU14">
         <v>6</v>
@@ -4272,22 +4272,22 @@
         <v>3</v>
       </c>
       <c r="AO15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP15">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AQ15">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR15">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="AS15">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="AT15">
-        <v>3.77</v>
+        <v>3.7</v>
       </c>
       <c r="AU15">
         <v>2</v>
@@ -4475,25 +4475,25 @@
         <v>2.6</v>
       </c>
       <c r="AN16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP16">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR16">
-        <v>1.19</v>
+        <v>0.95</v>
       </c>
       <c r="AS16">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AT16">
-        <v>2.24</v>
+        <v>1.96</v>
       </c>
       <c r="AU16">
         <v>6</v>
@@ -4684,22 +4684,22 @@
         <v>3</v>
       </c>
       <c r="AO17">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AP17">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ17">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AR17">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="AS17">
-        <v>2.23</v>
+        <v>1.55</v>
       </c>
       <c r="AT17">
-        <v>4.37</v>
+        <v>3.57</v>
       </c>
       <c r="AU17">
         <v>7</v>
@@ -4887,25 +4887,25 @@
         <v>2.3</v>
       </c>
       <c r="AN18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO18">
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AQ18">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AR18">
-        <v>2.76</v>
+        <v>2.43</v>
       </c>
       <c r="AS18">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT18">
-        <v>4.41</v>
+        <v>4.04</v>
       </c>
       <c r="AU18">
         <v>5</v>
@@ -5099,19 +5099,19 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ19">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR19">
-        <v>1.02</v>
+        <v>0.8</v>
       </c>
       <c r="AS19">
-        <v>0.61</v>
+        <v>0.9</v>
       </c>
       <c r="AT19">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU19">
         <v>9</v>
@@ -5302,22 +5302,22 @@
         <v>0</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP20">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ20">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AR20">
-        <v>1.19</v>
+        <v>0.77</v>
       </c>
       <c r="AS20">
-        <v>0.71</v>
+        <v>1.14</v>
       </c>
       <c r="AT20">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5505,25 +5505,25 @@
         <v>1.14</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AO21">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP21">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ21">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR21">
-        <v>1.23</v>
+        <v>0.9</v>
       </c>
       <c r="AS21">
-        <v>1.85</v>
+        <v>1.51</v>
       </c>
       <c r="AT21">
-        <v>3.08</v>
+        <v>2.41</v>
       </c>
       <c r="AU21">
         <v>2</v>
@@ -5711,25 +5711,25 @@
         <v>2</v>
       </c>
       <c r="AN22">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AQ22">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR22">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AS22">
-        <v>0.58</v>
+        <v>1.21</v>
       </c>
       <c r="AT22">
-        <v>2.36</v>
+        <v>2.91</v>
       </c>
       <c r="AU22">
         <v>6</v>
@@ -5917,25 +5917,25 @@
         <v>2</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO23">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP23">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AR23">
-        <v>0.86</v>
+        <v>1.1</v>
       </c>
       <c r="AS23">
-        <v>0.92</v>
+        <v>1.3</v>
       </c>
       <c r="AT23">
-        <v>1.78</v>
+        <v>2.4</v>
       </c>
       <c r="AU23">
         <v>6</v>
@@ -6123,25 +6123,25 @@
         <v>1.22</v>
       </c>
       <c r="AN24">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AO24">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP24">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AR24">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
       <c r="AS24">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AT24">
-        <v>3.08</v>
+        <v>3.06</v>
       </c>
       <c r="AU24">
         <v>6</v>
@@ -6329,25 +6329,25 @@
         <v>1.16</v>
       </c>
       <c r="AN25">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AO25">
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AQ25">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR25">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="AS25">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AT25">
-        <v>3.47</v>
+        <v>3.37</v>
       </c>
       <c r="AU25">
         <v>4</v>
@@ -6535,25 +6535,25 @@
         <v>1.14</v>
       </c>
       <c r="AN26">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO26">
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ26">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR26">
-        <v>1.48</v>
+        <v>1.17</v>
       </c>
       <c r="AS26">
-        <v>1.64</v>
+        <v>1.81</v>
       </c>
       <c r="AT26">
-        <v>3.12</v>
+        <v>2.98</v>
       </c>
       <c r="AU26">
         <v>4</v>
@@ -6741,25 +6741,25 @@
         <v>3.75</v>
       </c>
       <c r="AN27">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP27">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AQ27">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR27">
-        <v>1.34</v>
+        <v>1.55</v>
       </c>
       <c r="AS27">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AT27">
-        <v>2.37</v>
+        <v>2.6</v>
       </c>
       <c r="AU27">
         <v>6</v>
@@ -6947,25 +6947,25 @@
         <v>1.57</v>
       </c>
       <c r="AN28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP28">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ28">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR28">
-        <v>0.99</v>
+        <v>0.86</v>
       </c>
       <c r="AS28">
-        <v>0.67</v>
+        <v>1.1</v>
       </c>
       <c r="AT28">
-        <v>1.66</v>
+        <v>1.96</v>
       </c>
       <c r="AU28">
         <v>3</v>
@@ -7153,25 +7153,25 @@
         <v>1.87</v>
       </c>
       <c r="AN29">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AO29">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ29">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AR29">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="AS29">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AT29">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="AU29">
         <v>6</v>
@@ -7359,25 +7359,25 @@
         <v>2.15</v>
       </c>
       <c r="AN30">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP30">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AQ30">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR30">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AS30">
-        <v>0.5600000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="AT30">
-        <v>2.59</v>
+        <v>2.86</v>
       </c>
       <c r="AU30">
         <v>10</v>
@@ -7565,25 +7565,25 @@
         <v>1.55</v>
       </c>
       <c r="AN31">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO31">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AQ31">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR31">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AS31">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AT31">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="AU31">
         <v>2</v>
@@ -7771,25 +7771,25 @@
         <v>1.75</v>
       </c>
       <c r="AN32">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AO32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ32">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AR32">
-        <v>1.27</v>
+        <v>1.1</v>
       </c>
       <c r="AS32">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="AT32">
-        <v>2.61</v>
+        <v>2.31</v>
       </c>
       <c r="AU32">
         <v>4</v>
@@ -7977,25 +7977,25 @@
         <v>1.55</v>
       </c>
       <c r="AN33">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AO33">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AP33">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ33">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR33">
-        <v>1.23</v>
+        <v>0.9</v>
       </c>
       <c r="AS33">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
       <c r="AT33">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="AU33">
         <v>6</v>
@@ -8183,25 +8183,25 @@
         <v>1.12</v>
       </c>
       <c r="AN34">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AO34">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ34">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR34">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AS34">
-        <v>1.76</v>
+        <v>1.52</v>
       </c>
       <c r="AT34">
-        <v>3.29</v>
+        <v>2.9</v>
       </c>
       <c r="AU34">
         <v>5</v>
@@ -8392,22 +8392,22 @@
         <v>3</v>
       </c>
       <c r="AO35">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AP35">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ35">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AR35">
-        <v>1.98</v>
+        <v>1.73</v>
       </c>
       <c r="AS35">
-        <v>1.91</v>
+        <v>2.09</v>
       </c>
       <c r="AT35">
-        <v>3.89</v>
+        <v>3.82</v>
       </c>
       <c r="AU35">
         <v>5</v>
@@ -8595,25 +8595,25 @@
         <v>3.18</v>
       </c>
       <c r="AN36">
-        <v>2.33</v>
+        <v>1.6</v>
       </c>
       <c r="AO36">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AP36">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ36">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR36">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="AS36">
-        <v>0.74</v>
+        <v>0.9</v>
       </c>
       <c r="AT36">
-        <v>2.08</v>
+        <v>2.19</v>
       </c>
       <c r="AU36">
         <v>6</v>
@@ -8801,25 +8801,25 @@
         <v>2</v>
       </c>
       <c r="AN37">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AO37">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="AP37">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ37">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR37">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="AS37">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="AT37">
-        <v>2.92</v>
+        <v>2.78</v>
       </c>
       <c r="AU37">
         <v>8</v>
@@ -9007,25 +9007,25 @@
         <v>1.66</v>
       </c>
       <c r="AN38">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AO38">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AP38">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR38">
         <v>1.06</v>
       </c>
       <c r="AS38">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AT38">
-        <v>2.34</v>
+        <v>2.43</v>
       </c>
       <c r="AU38">
         <v>4</v>
@@ -9213,25 +9213,25 @@
         <v>1.3</v>
       </c>
       <c r="AN39">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AO39">
-        <v>0.5</v>
+        <v>1.83</v>
       </c>
       <c r="AP39">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AQ39">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AR39">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AS39">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="AT39">
-        <v>2.79</v>
+        <v>2.84</v>
       </c>
       <c r="AU39">
         <v>3</v>
@@ -9419,25 +9419,25 @@
         <v>1.45</v>
       </c>
       <c r="AN40">
-        <v>2.33</v>
+        <v>2.67</v>
       </c>
       <c r="AO40">
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AQ40">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR40">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AS40">
-        <v>1.56</v>
+        <v>1.69</v>
       </c>
       <c r="AT40">
-        <v>2.92</v>
+        <v>3.12</v>
       </c>
       <c r="AU40">
         <v>4</v>
@@ -9625,25 +9625,25 @@
         <v>1.6</v>
       </c>
       <c r="AN41">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO41">
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ41">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR41">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AS41">
-        <v>0.68</v>
+        <v>0.99</v>
       </c>
       <c r="AT41">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="AU41">
         <v>6</v>
@@ -9831,25 +9831,25 @@
         <v>1.44</v>
       </c>
       <c r="AN42">
-        <v>0.33</v>
+        <v>1.33</v>
       </c>
       <c r="AO42">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AP42">
+        <v>1.32</v>
+      </c>
+      <c r="AQ42">
+        <v>1.57</v>
+      </c>
+      <c r="AR42">
         <v>1.29</v>
       </c>
-      <c r="AQ42">
-        <v>1.44</v>
-      </c>
-      <c r="AR42">
-        <v>1.12</v>
-      </c>
       <c r="AS42">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AT42">
-        <v>2.22</v>
+        <v>2.59</v>
       </c>
       <c r="AU42">
         <v>8</v>
@@ -10043,19 +10043,19 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AQ43">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AR43">
-        <v>2.21</v>
+        <v>1.94</v>
       </c>
       <c r="AS43">
-        <v>0.86</v>
+        <v>1.15</v>
       </c>
       <c r="AT43">
-        <v>3.07</v>
+        <v>3.09</v>
       </c>
       <c r="AU43">
         <v>7</v>
@@ -10243,25 +10243,25 @@
         <v>4</v>
       </c>
       <c r="AN44">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AO44">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AP44">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ44">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR44">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AS44">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AT44">
-        <v>2.89</v>
+        <v>2.76</v>
       </c>
       <c r="AU44">
         <v>5</v>
@@ -10449,25 +10449,25 @@
         <v>2.2</v>
       </c>
       <c r="AN45">
-        <v>0.67</v>
+        <v>1.43</v>
       </c>
       <c r="AO45">
-        <v>0.67</v>
+        <v>0.29</v>
       </c>
       <c r="AP45">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AQ45">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR45">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AS45">
-        <v>0.61</v>
+        <v>0.92</v>
       </c>
       <c r="AT45">
-        <v>2.01</v>
+        <v>2.35</v>
       </c>
       <c r="AU45">
         <v>4</v>
@@ -10655,25 +10655,25 @@
         <v>1.42</v>
       </c>
       <c r="AN46">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AO46">
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ46">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AR46">
-        <v>1.29</v>
+        <v>1.1</v>
       </c>
       <c r="AS46">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT46">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AU46">
         <v>4</v>
@@ -10861,25 +10861,25 @@
         <v>2.4</v>
       </c>
       <c r="AN47">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO47">
-        <v>2.33</v>
+        <v>1.57</v>
       </c>
       <c r="AP47">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ47">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AR47">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="AS47">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="AT47">
-        <v>2.88</v>
+        <v>2.64</v>
       </c>
       <c r="AU47">
         <v>4</v>
@@ -11067,25 +11067,25 @@
         <v>1.3</v>
       </c>
       <c r="AN48">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AO48">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ48">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AR48">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="AS48">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="AT48">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="AU48">
         <v>3</v>
@@ -11273,25 +11273,25 @@
         <v>1.44</v>
       </c>
       <c r="AN49">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AO49">
-        <v>3</v>
+        <v>2.43</v>
       </c>
       <c r="AP49">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AQ49">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR49">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="AS49">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT49">
-        <v>3.57</v>
+        <v>3.3</v>
       </c>
       <c r="AU49">
         <v>4</v>
@@ -11479,25 +11479,25 @@
         <v>1.03</v>
       </c>
       <c r="AN50">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AO50">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AP50">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ50">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR50">
-        <v>1.15</v>
+        <v>0.93</v>
       </c>
       <c r="AS50">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="AT50">
-        <v>2.81</v>
+        <v>2.67</v>
       </c>
       <c r="AU50">
         <v>0</v>
@@ -11685,25 +11685,25 @@
         <v>1.47</v>
       </c>
       <c r="AN51">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO51">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="AP51">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ51">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR51">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
       <c r="AS51">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AT51">
-        <v>2.44</v>
+        <v>2.43</v>
       </c>
       <c r="AU51">
         <v>3</v>
@@ -11891,25 +11891,25 @@
         <v>1.4</v>
       </c>
       <c r="AN52">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO52">
-        <v>1.33</v>
+        <v>1.88</v>
       </c>
       <c r="AP52">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ52">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AR52">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AS52">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="AT52">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -12097,25 +12097,25 @@
         <v>3.55</v>
       </c>
       <c r="AN53">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AO53">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="AP53">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AQ53">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR53">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="AS53">
-        <v>0.96</v>
+        <v>1.09</v>
       </c>
       <c r="AT53">
-        <v>2.28</v>
+        <v>2.45</v>
       </c>
       <c r="AU53">
         <v>5</v>
@@ -12303,25 +12303,25 @@
         <v>1.73</v>
       </c>
       <c r="AN54">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO54">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AP54">
+        <v>1.32</v>
+      </c>
+      <c r="AQ54">
+        <v>0.97</v>
+      </c>
+      <c r="AR54">
         <v>1.29</v>
       </c>
-      <c r="AQ54">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AR54">
-        <v>1.23</v>
-      </c>
       <c r="AS54">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="AT54">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AU54">
         <v>2</v>
@@ -12509,25 +12509,25 @@
         <v>1.55</v>
       </c>
       <c r="AN55">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AO55">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AP55">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ55">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AR55">
-        <v>1.51</v>
+        <v>1.34</v>
       </c>
       <c r="AS55">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT55">
-        <v>3.18</v>
+        <v>3.14</v>
       </c>
       <c r="AU55">
         <v>3</v>
@@ -12715,25 +12715,25 @@
         <v>2</v>
       </c>
       <c r="AN56">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AO56">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ56">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR56">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AS56">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AT56">
-        <v>2.47</v>
+        <v>2.36</v>
       </c>
       <c r="AU56">
         <v>8</v>
@@ -12921,25 +12921,25 @@
         <v>1.14</v>
       </c>
       <c r="AN57">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="AO57">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AP57">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ57">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AR57">
-        <v>1.03</v>
+        <v>0.89</v>
       </c>
       <c r="AS57">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="AT57">
-        <v>2.72</v>
+        <v>2.69</v>
       </c>
       <c r="AU57">
         <v>3</v>
@@ -13127,25 +13127,25 @@
         <v>2.15</v>
       </c>
       <c r="AN58">
-        <v>1</v>
+        <v>1.44</v>
       </c>
       <c r="AO58">
-        <v>0.8</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP58">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AQ58">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR58">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="AS58">
-        <v>0.98</v>
+        <v>1.09</v>
       </c>
       <c r="AT58">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="AU58">
         <v>7</v>
@@ -13333,22 +13333,22 @@
         <v>2.65</v>
       </c>
       <c r="AN59">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="AO59">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ59">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR59">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="AS59">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="AT59">
         <v>2.61</v>
@@ -13539,25 +13539,25 @@
         <v>1.22</v>
       </c>
       <c r="AN60">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AO60">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AP60">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ60">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR60">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AS60">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT60">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="AU60">
         <v>3</v>
@@ -13745,25 +13745,25 @@
         <v>1.08</v>
       </c>
       <c r="AN61">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AO61">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="AP61">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AQ61">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR61">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AS61">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AT61">
-        <v>3.08</v>
+        <v>3.16</v>
       </c>
       <c r="AU61">
         <v>7</v>
@@ -13951,25 +13951,25 @@
         <v>1.9</v>
       </c>
       <c r="AN62">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="AO62">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AP62">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ62">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR62">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AS62">
-        <v>0.7</v>
+        <v>0.89</v>
       </c>
       <c r="AT62">
-        <v>1.72</v>
+        <v>1.93</v>
       </c>
       <c r="AU62">
         <v>8</v>
@@ -14157,25 +14157,25 @@
         <v>2.4</v>
       </c>
       <c r="AN63">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="AO63">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AP63">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ63">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AR63">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AS63">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="AT63">
-        <v>3.13</v>
+        <v>3.14</v>
       </c>
       <c r="AU63">
         <v>3</v>
@@ -14363,25 +14363,25 @@
         <v>2.38</v>
       </c>
       <c r="AN64">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AO64">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AP64">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AQ64">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AR64">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="AS64">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="AT64">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="AU64">
         <v>7</v>
@@ -14569,25 +14569,25 @@
         <v>1.51</v>
       </c>
       <c r="AN65">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AO65">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ65">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AR65">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AS65">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AT65">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="AU65">
         <v>11</v>
@@ -14775,25 +14775,25 @@
         <v>1.26</v>
       </c>
       <c r="AN66">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AO66">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AP66">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ66">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AR66">
-        <v>1.22</v>
+        <v>1.06</v>
       </c>
       <c r="AS66">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="AT66">
-        <v>2.45</v>
+        <v>2.41</v>
       </c>
       <c r="AU66">
         <v>4</v>
@@ -14981,25 +14981,25 @@
         <v>2.15</v>
       </c>
       <c r="AN67">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AO67">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AQ67">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR67">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AS67">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="AT67">
-        <v>3.29</v>
+        <v>3.24</v>
       </c>
       <c r="AU67">
         <v>6</v>
@@ -15187,25 +15187,25 @@
         <v>4.2</v>
       </c>
       <c r="AN68">
-        <v>1.8</v>
+        <v>2.09</v>
       </c>
       <c r="AO68">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AP68">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ68">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR68">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="AS68">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="AT68">
-        <v>2.96</v>
+        <v>3.07</v>
       </c>
       <c r="AU68">
         <v>5</v>
@@ -15393,25 +15393,25 @@
         <v>2.25</v>
       </c>
       <c r="AN69">
-        <v>1.2</v>
+        <v>1.64</v>
       </c>
       <c r="AO69">
-        <v>0.67</v>
+        <v>0.45</v>
       </c>
       <c r="AP69">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AQ69">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR69">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="AS69">
-        <v>0.96</v>
+        <v>1.08</v>
       </c>
       <c r="AT69">
-        <v>2.39</v>
+        <v>2.47</v>
       </c>
       <c r="AU69">
         <v>2</v>
@@ -15599,25 +15599,25 @@
         <v>1.52</v>
       </c>
       <c r="AN70">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="AO70">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AP70">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ70">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AR70">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AS70">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="AT70">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="AU70">
         <v>8</v>
@@ -15805,25 +15805,25 @@
         <v>1.25</v>
       </c>
       <c r="AN71">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AO71">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AP71">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ71">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AR71">
-        <v>1.01</v>
+        <v>0.86</v>
       </c>
       <c r="AS71">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT71">
-        <v>2.26</v>
+        <v>2.09</v>
       </c>
       <c r="AU71">
         <v>2</v>
@@ -16011,25 +16011,25 @@
         <v>2.25</v>
       </c>
       <c r="AN72">
-        <v>2.33</v>
+        <v>2.45</v>
       </c>
       <c r="AO72">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AP72">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AQ72">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AR72">
         <v>1.45</v>
       </c>
       <c r="AS72">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="AT72">
-        <v>2.83</v>
+        <v>2.87</v>
       </c>
       <c r="AU72">
         <v>5</v>
@@ -16217,25 +16217,25 @@
         <v>1.72</v>
       </c>
       <c r="AN73">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AO73">
+        <v>1.91</v>
+      </c>
+      <c r="AP73">
+        <v>1.41</v>
+      </c>
+      <c r="AQ73">
+        <v>1.63</v>
+      </c>
+      <c r="AR73">
+        <v>1.78</v>
+      </c>
+      <c r="AS73">
         <v>1.4</v>
       </c>
-      <c r="AP73">
-        <v>1.19</v>
-      </c>
-      <c r="AQ73">
-        <v>1.31</v>
-      </c>
-      <c r="AR73">
-        <v>1.79</v>
-      </c>
-      <c r="AS73">
-        <v>1.34</v>
-      </c>
       <c r="AT73">
-        <v>3.13</v>
+        <v>3.18</v>
       </c>
       <c r="AU73">
         <v>9</v>
@@ -16423,25 +16423,25 @@
         <v>1.01</v>
       </c>
       <c r="AN74">
-        <v>0.2</v>
+        <v>0.42</v>
       </c>
       <c r="AO74">
-        <v>2.33</v>
+        <v>2.17</v>
       </c>
       <c r="AP74">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ74">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR74">
-        <v>1.23</v>
+        <v>1.08</v>
       </c>
       <c r="AS74">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="AT74">
-        <v>2.92</v>
+        <v>2.74</v>
       </c>
       <c r="AU74">
         <v>5</v>
@@ -16629,25 +16629,25 @@
         <v>2.9</v>
       </c>
       <c r="AN75">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AO75">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="AP75">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ75">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR75">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AS75">
-        <v>0.6899999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AT75">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="AU75">
         <v>3</v>
@@ -16838,22 +16838,22 @@
         <v>1.17</v>
       </c>
       <c r="AO76">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AP76">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ76">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR76">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="AS76">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AT76">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="AU76">
         <v>10</v>
@@ -17041,25 +17041,25 @@
         <v>1.28</v>
       </c>
       <c r="AN77">
-        <v>1.4</v>
+        <v>1.08</v>
       </c>
       <c r="AO77">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AP77">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ77">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AR77">
-        <v>1.52</v>
+        <v>1.35</v>
       </c>
       <c r="AS77">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="AT77">
-        <v>3.28</v>
+        <v>3.14</v>
       </c>
       <c r="AU77">
         <v>2</v>
@@ -17247,25 +17247,25 @@
         <v>1.87</v>
       </c>
       <c r="AN78">
-        <v>1.33</v>
+        <v>1.58</v>
       </c>
       <c r="AO78">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AP78">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AQ78">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR78">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AS78">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="AT78">
-        <v>2.25</v>
+        <v>2.44</v>
       </c>
       <c r="AU78">
         <v>8</v>
@@ -17453,25 +17453,25 @@
         <v>1.47</v>
       </c>
       <c r="AN79">
-        <v>2.33</v>
+        <v>1.83</v>
       </c>
       <c r="AO79">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="AP79">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ79">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR79">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="AS79">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="AT79">
-        <v>2.91</v>
+        <v>2.89</v>
       </c>
       <c r="AU79">
         <v>11</v>
@@ -17659,25 +17659,25 @@
         <v>1.24</v>
       </c>
       <c r="AN80">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="AO80">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AP80">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ80">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AR80">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="AS80">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT80">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
       <c r="AU80">
         <v>4</v>
@@ -17865,25 +17865,25 @@
         <v>1.35</v>
       </c>
       <c r="AN81">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="AO81">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="AP81">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AQ81">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AR81">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="AS81">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AT81">
-        <v>2.99</v>
+        <v>3.1</v>
       </c>
       <c r="AU81">
         <v>2</v>
@@ -18071,25 +18071,25 @@
         <v>1.4</v>
       </c>
       <c r="AN82">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="AO82">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AP82">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ82">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR82">
-        <v>1.23</v>
+        <v>1.1</v>
       </c>
       <c r="AS82">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="AT82">
-        <v>2.46</v>
+        <v>2.41</v>
       </c>
       <c r="AU82">
         <v>8</v>
@@ -18277,25 +18277,25 @@
         <v>1.22</v>
       </c>
       <c r="AN83">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AO83">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AP83">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AQ83">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR83">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AS83">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="AT83">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="AU83">
         <v>0</v>
@@ -18483,25 +18483,25 @@
         <v>1.25</v>
       </c>
       <c r="AN84">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AO84">
-        <v>1.33</v>
+        <v>1.92</v>
       </c>
       <c r="AP84">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ84">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AR84">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AS84">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="AT84">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AU84">
         <v>7</v>
@@ -18689,25 +18689,25 @@
         <v>1.22</v>
       </c>
       <c r="AN85">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AO85">
-        <v>2.43</v>
+        <v>2.23</v>
       </c>
       <c r="AP85">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ85">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR85">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="AS85">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="AT85">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AU85">
         <v>8</v>
@@ -18895,25 +18895,25 @@
         <v>3.83</v>
       </c>
       <c r="AN86">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AO86">
-        <v>0.5</v>
+        <v>0.21</v>
       </c>
       <c r="AP86">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AQ86">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR86">
         <v>1.48</v>
       </c>
       <c r="AS86">
-        <v>0.68</v>
+        <v>0.86</v>
       </c>
       <c r="AT86">
-        <v>2.16</v>
+        <v>2.34</v>
       </c>
       <c r="AU86">
         <v>9</v>
@@ -19101,25 +19101,25 @@
         <v>3.1</v>
       </c>
       <c r="AN87">
-        <v>2.43</v>
+        <v>1.79</v>
       </c>
       <c r="AO87">
         <v>0.57</v>
       </c>
       <c r="AP87">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ87">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR87">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AS87">
-        <v>0.98</v>
+        <v>1.13</v>
       </c>
       <c r="AT87">
-        <v>2.51</v>
+        <v>2.61</v>
       </c>
       <c r="AU87">
         <v>3</v>
@@ -19307,25 +19307,25 @@
         <v>2.95</v>
       </c>
       <c r="AN88">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AO88">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AP88">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ88">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AR88">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AS88">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="AT88">
-        <v>3.04</v>
+        <v>2.86</v>
       </c>
       <c r="AU88">
         <v>7</v>
@@ -19516,22 +19516,22 @@
         <v>1.43</v>
       </c>
       <c r="AO89">
+        <v>1.36</v>
+      </c>
+      <c r="AP89">
+        <v>1.39</v>
+      </c>
+      <c r="AQ89">
+        <v>1.57</v>
+      </c>
+      <c r="AR89">
         <v>1.29</v>
       </c>
-      <c r="AP89">
-        <v>1.29</v>
-      </c>
-      <c r="AQ89">
-        <v>1.44</v>
-      </c>
-      <c r="AR89">
-        <v>1.34</v>
-      </c>
       <c r="AS89">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="AT89">
-        <v>2.69</v>
+        <v>2.7</v>
       </c>
       <c r="AU89">
         <v>5</v>
@@ -19719,25 +19719,25 @@
         <v>1.63</v>
       </c>
       <c r="AN90">
-        <v>1.17</v>
+        <v>0.93</v>
       </c>
       <c r="AO90">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AP90">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ90">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR90">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="AS90">
         <v>1.22</v>
       </c>
       <c r="AT90">
-        <v>2.63</v>
+        <v>2.53</v>
       </c>
       <c r="AU90">
         <v>4</v>
@@ -19925,25 +19925,25 @@
         <v>3</v>
       </c>
       <c r="AN91">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AO91">
-        <v>0.86</v>
+        <v>1.14</v>
       </c>
       <c r="AP91">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AQ91">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR91">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="AS91">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="AT91">
-        <v>2.91</v>
+        <v>2.99</v>
       </c>
       <c r="AU91">
         <v>8</v>
@@ -20131,22 +20131,22 @@
         <v>3.3</v>
       </c>
       <c r="AN92">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AO92">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AP92">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ92">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AR92">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="AS92">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AT92">
         <v>2.82</v>
@@ -20337,25 +20337,25 @@
         <v>1.22</v>
       </c>
       <c r="AN93">
-        <v>1.43</v>
+        <v>1.07</v>
       </c>
       <c r="AO93">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AP93">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ93">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR93">
-        <v>1.24</v>
+        <v>1.12</v>
       </c>
       <c r="AS93">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AT93">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="AU93">
         <v>4</v>
@@ -20543,25 +20543,25 @@
         <v>1.48</v>
       </c>
       <c r="AN94">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="AO94">
-        <v>1.14</v>
+        <v>1.87</v>
       </c>
       <c r="AP94">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ94">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AR94">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="AS94">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="AT94">
-        <v>2.91</v>
+        <v>2.87</v>
       </c>
       <c r="AU94">
         <v>4</v>
@@ -20749,25 +20749,25 @@
         <v>1.45</v>
       </c>
       <c r="AN95">
+        <v>1.6</v>
+      </c>
+      <c r="AO95">
+        <v>1.67</v>
+      </c>
+      <c r="AP95">
+        <v>1.22</v>
+      </c>
+      <c r="AQ95">
+        <v>1.32</v>
+      </c>
+      <c r="AR95">
+        <v>1.18</v>
+      </c>
+      <c r="AS95">
         <v>1.29</v>
       </c>
-      <c r="AO95">
-        <v>1.57</v>
-      </c>
-      <c r="AP95">
-        <v>1.19</v>
-      </c>
-      <c r="AQ95">
-        <v>1.35</v>
-      </c>
-      <c r="AR95">
-        <v>1.21</v>
-      </c>
-      <c r="AS95">
-        <v>1.37</v>
-      </c>
       <c r="AT95">
-        <v>2.58</v>
+        <v>2.47</v>
       </c>
       <c r="AU95">
         <v>7</v>
@@ -20955,25 +20955,25 @@
         <v>2.4</v>
       </c>
       <c r="AN96">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="AO96">
-        <v>0.43</v>
+        <v>0.2</v>
       </c>
       <c r="AP96">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ96">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR96">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="AS96">
-        <v>0.71</v>
+        <v>0.85</v>
       </c>
       <c r="AT96">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="AU96">
         <v>11</v>
@@ -21161,25 +21161,25 @@
         <v>1.12</v>
       </c>
       <c r="AN97">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AO97">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="AP97">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ97">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AR97">
-        <v>1.28</v>
+        <v>1.14</v>
       </c>
       <c r="AS97">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="AT97">
-        <v>3.12</v>
+        <v>2.97</v>
       </c>
       <c r="AU97">
         <v>4</v>
@@ -21367,25 +21367,25 @@
         <v>1.28</v>
       </c>
       <c r="AN98">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO98">
         <v>2.25</v>
       </c>
       <c r="AP98">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AQ98">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR98">
         <v>1.83</v>
       </c>
       <c r="AS98">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AT98">
-        <v>3.34</v>
+        <v>3.39</v>
       </c>
       <c r="AU98">
         <v>6</v>
@@ -21573,25 +21573,25 @@
         <v>1.09</v>
       </c>
       <c r="AN99">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="AO99">
-        <v>1.13</v>
+        <v>1.81</v>
       </c>
       <c r="AP99">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ99">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AR99">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="AS99">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AT99">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="AU99">
         <v>3</v>
@@ -21779,25 +21779,25 @@
         <v>1.36</v>
       </c>
       <c r="AN100">
+        <v>1.56</v>
+      </c>
+      <c r="AO100">
         <v>1.25</v>
       </c>
-      <c r="AO100">
-        <v>1.13</v>
-      </c>
       <c r="AP100">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AQ100">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AR100">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="AS100">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="AT100">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="AU100">
         <v>7</v>
@@ -21985,25 +21985,25 @@
         <v>1.75</v>
       </c>
       <c r="AN101">
-        <v>1.38</v>
+        <v>1.06</v>
       </c>
       <c r="AO101">
         <v>0.5</v>
       </c>
       <c r="AP101">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ101">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR101">
-        <v>1.23</v>
+        <v>1.12</v>
       </c>
       <c r="AS101">
-        <v>1.02</v>
+        <v>1.14</v>
       </c>
       <c r="AT101">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
       <c r="AU101">
         <v>5</v>
@@ -22191,25 +22191,25 @@
         <v>1.65</v>
       </c>
       <c r="AN102">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="AO102">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AP102">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AQ102">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AR102">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AS102">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AT102">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="AU102">
         <v>6</v>
@@ -22400,22 +22400,22 @@
         <v>2.13</v>
       </c>
       <c r="AO103">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AP103">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AQ103">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR103">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AS103">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT103">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AU103">
         <v>9</v>
@@ -22603,25 +22603,25 @@
         <v>1.88</v>
       </c>
       <c r="AN104">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AO104">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AP104">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ104">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR104">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AS104">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT104">
-        <v>3.11</v>
+        <v>3.13</v>
       </c>
       <c r="AU104">
         <v>5</v>
@@ -22809,25 +22809,25 @@
         <v>1.83</v>
       </c>
       <c r="AN105">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="AO105">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AP105">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ105">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AR105">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="AS105">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="AT105">
-        <v>2.77</v>
+        <v>2.66</v>
       </c>
       <c r="AU105">
         <v>6</v>
@@ -23015,25 +23015,25 @@
         <v>1.72</v>
       </c>
       <c r="AN106">
-        <v>1.25</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO106">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AP106">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ106">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR106">
-        <v>1.48</v>
+        <v>1.32</v>
       </c>
       <c r="AS106">
-        <v>1.02</v>
+        <v>1.15</v>
       </c>
       <c r="AT106">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AU106">
         <v>7</v>
@@ -23221,25 +23221,25 @@
         <v>1.32</v>
       </c>
       <c r="AN107">
-        <v>1.63</v>
+        <v>1.35</v>
       </c>
       <c r="AO107">
-        <v>1.75</v>
+        <v>1.41</v>
       </c>
       <c r="AP107">
+        <v>1.39</v>
+      </c>
+      <c r="AQ107">
+        <v>1.41</v>
+      </c>
+      <c r="AR107">
         <v>1.29</v>
       </c>
-      <c r="AQ107">
-        <v>1.63</v>
-      </c>
-      <c r="AR107">
-        <v>1.31</v>
-      </c>
       <c r="AS107">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="AT107">
-        <v>3.15</v>
+        <v>3.11</v>
       </c>
       <c r="AU107">
         <v>5</v>
@@ -23427,25 +23427,25 @@
         <v>2</v>
       </c>
       <c r="AN108">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AO108">
-        <v>0.38</v>
+        <v>0.18</v>
       </c>
       <c r="AP108">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ108">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR108">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="AS108">
-        <v>0.6899999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="AT108">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="AU108">
         <v>3</v>
@@ -23633,25 +23633,25 @@
         <v>2.65</v>
       </c>
       <c r="AN109">
-        <v>2.5</v>
+        <v>1.88</v>
       </c>
       <c r="AO109">
-        <v>1.88</v>
+        <v>1.53</v>
       </c>
       <c r="AP109">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ109">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR109">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AS109">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AT109">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="AU109">
         <v>7</v>
@@ -23839,25 +23839,25 @@
         <v>2.25</v>
       </c>
       <c r="AN110">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="AO110">
-        <v>0.78</v>
+        <v>0.61</v>
       </c>
       <c r="AP110">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ110">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR110">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AS110">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="AT110">
-        <v>2.36</v>
+        <v>2.45</v>
       </c>
       <c r="AU110">
         <v>8</v>
@@ -24045,25 +24045,25 @@
         <v>1.9</v>
       </c>
       <c r="AN111">
-        <v>1.56</v>
+        <v>1.33</v>
       </c>
       <c r="AO111">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP111">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ111">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR111">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AS111">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="AT111">
-        <v>2.62</v>
+        <v>2.76</v>
       </c>
       <c r="AU111">
         <v>4</v>
@@ -24251,25 +24251,25 @@
         <v>1.1</v>
       </c>
       <c r="AN112">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AO112">
-        <v>2.33</v>
+        <v>2.22</v>
       </c>
       <c r="AP112">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ112">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR112">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="AS112">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="AT112">
-        <v>2.76</v>
+        <v>2.67</v>
       </c>
       <c r="AU112">
         <v>3</v>
@@ -24457,25 +24457,25 @@
         <v>1.28</v>
       </c>
       <c r="AN113">
-        <v>1.89</v>
+        <v>1.61</v>
       </c>
       <c r="AO113">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="AP113">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AQ113">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AR113">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="AS113">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="AT113">
-        <v>2.69</v>
+        <v>2.79</v>
       </c>
       <c r="AU113">
         <v>2</v>
@@ -24663,25 +24663,25 @@
         <v>1.2</v>
       </c>
       <c r="AN114">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO114">
-        <v>1.78</v>
+        <v>1.5</v>
       </c>
       <c r="AP114">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ114">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR114">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
       <c r="AS114">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AT114">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="AU114">
         <v>5</v>
@@ -24869,25 +24869,25 @@
         <v>1.67</v>
       </c>
       <c r="AN115">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AO115">
-        <v>1.89</v>
+        <v>1.5</v>
       </c>
       <c r="AP115">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AQ115">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AR115">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="AS115">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="AT115">
-        <v>3.45</v>
+        <v>3.34</v>
       </c>
       <c r="AU115">
         <v>7</v>
@@ -25075,25 +25075,25 @@
         <v>5.45</v>
       </c>
       <c r="AN116">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AO116">
-        <v>0.67</v>
+        <v>0.32</v>
       </c>
       <c r="AP116">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ116">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR116">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AS116">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AT116">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="AU116">
         <v>12</v>
@@ -25281,25 +25281,25 @@
         <v>2.05</v>
       </c>
       <c r="AN117">
-        <v>2.33</v>
+        <v>1.79</v>
       </c>
       <c r="AO117">
-        <v>1.11</v>
+        <v>1.37</v>
       </c>
       <c r="AP117">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ117">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AR117">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AS117">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AT117">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="AU117">
         <v>4</v>
@@ -25487,25 +25487,25 @@
         <v>1.55</v>
       </c>
       <c r="AN118">
-        <v>1.22</v>
+        <v>0.89</v>
       </c>
       <c r="AO118">
-        <v>1.33</v>
+        <v>1.58</v>
       </c>
       <c r="AP118">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ118">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AR118">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
       <c r="AS118">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="AT118">
-        <v>2.89</v>
+        <v>2.61</v>
       </c>
       <c r="AU118">
         <v>4</v>
@@ -25693,25 +25693,25 @@
         <v>1.66</v>
       </c>
       <c r="AN119">
+        <v>1.58</v>
+      </c>
+      <c r="AO119">
+        <v>1</v>
+      </c>
+      <c r="AP119">
         <v>1.22</v>
       </c>
-      <c r="AO119">
-        <v>0.78</v>
-      </c>
-      <c r="AP119">
-        <v>1.19</v>
-      </c>
       <c r="AQ119">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR119">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AS119">
-        <v>0.96</v>
+        <v>1.1</v>
       </c>
       <c r="AT119">
-        <v>2.26</v>
+        <v>2.35</v>
       </c>
       <c r="AU119">
         <v>5</v>
@@ -25899,25 +25899,25 @@
         <v>1.12</v>
       </c>
       <c r="AN120">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AO120">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AP120">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ120">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR120">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AS120">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="AT120">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="AU120">
         <v>4</v>
@@ -26105,25 +26105,25 @@
         <v>1.9</v>
       </c>
       <c r="AN121">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AO121">
-        <v>1.11</v>
+        <v>1.42</v>
       </c>
       <c r="AP121">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AQ121">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AR121">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="AS121">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="AT121">
-        <v>3.16</v>
+        <v>3.15</v>
       </c>
       <c r="AU121">
         <v>6</v>
@@ -26311,25 +26311,25 @@
         <v>1.3</v>
       </c>
       <c r="AN122">
-        <v>0.4</v>
+        <v>0.55</v>
       </c>
       <c r="AO122">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="AP122">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ122">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AR122">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="AS122">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AT122">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AU122">
         <v>6</v>
@@ -26517,25 +26517,25 @@
         <v>1.3</v>
       </c>
       <c r="AN123">
-        <v>1.1</v>
+        <v>0.85</v>
       </c>
       <c r="AO123">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="AP123">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ123">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AR123">
-        <v>1.51</v>
+        <v>1.36</v>
       </c>
       <c r="AS123">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AT123">
-        <v>2.98</v>
+        <v>2.85</v>
       </c>
       <c r="AU123">
         <v>0</v>
@@ -26723,25 +26723,25 @@
         <v>1.3</v>
       </c>
       <c r="AN124">
-        <v>1.2</v>
+        <v>0.95</v>
       </c>
       <c r="AO124">
-        <v>1</v>
+        <v>1.35</v>
       </c>
       <c r="AP124">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ124">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AR124">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AS124">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AT124">
-        <v>2.57</v>
+        <v>2.48</v>
       </c>
       <c r="AU124">
         <v>5</v>
@@ -26929,25 +26929,25 @@
         <v>4.33</v>
       </c>
       <c r="AN125">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="AO125">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AP125">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AQ125">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR125">
         <v>1.75</v>
       </c>
       <c r="AS125">
-        <v>0.6899999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AT125">
-        <v>2.44</v>
+        <v>2.59</v>
       </c>
       <c r="AU125">
         <v>5</v>
@@ -27138,22 +27138,22 @@
         <v>2.1</v>
       </c>
       <c r="AO126">
+        <v>1.45</v>
+      </c>
+      <c r="AP126">
+        <v>2.09</v>
+      </c>
+      <c r="AQ126">
+        <v>1.39</v>
+      </c>
+      <c r="AR126">
+        <v>1.57</v>
+      </c>
+      <c r="AS126">
         <v>1.3</v>
       </c>
-      <c r="AP126">
-        <v>2.13</v>
-      </c>
-      <c r="AQ126">
-        <v>1.5</v>
-      </c>
-      <c r="AR126">
-        <v>1.65</v>
-      </c>
-      <c r="AS126">
-        <v>1.29</v>
-      </c>
       <c r="AT126">
-        <v>2.94</v>
+        <v>2.87</v>
       </c>
       <c r="AU126">
         <v>9</v>
@@ -27344,22 +27344,22 @@
         <v>2.2</v>
       </c>
       <c r="AO127">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="AP127">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ127">
+        <v>1.22</v>
+      </c>
+      <c r="AR127">
+        <v>1.6</v>
+      </c>
+      <c r="AS127">
         <v>1.25</v>
       </c>
-      <c r="AR127">
-        <v>1.69</v>
-      </c>
-      <c r="AS127">
-        <v>1.2</v>
-      </c>
       <c r="AT127">
-        <v>2.89</v>
+        <v>2.85</v>
       </c>
       <c r="AU127">
         <v>5</v>
@@ -27547,25 +27547,25 @@
         <v>1.21</v>
       </c>
       <c r="AN128">
-        <v>2.1</v>
+        <v>1.67</v>
       </c>
       <c r="AO128">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="AP128">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ128">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR128">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="AS128">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="AT128">
-        <v>3.03</v>
+        <v>3.06</v>
       </c>
       <c r="AU128">
         <v>5</v>
@@ -27753,25 +27753,25 @@
         <v>1.78</v>
       </c>
       <c r="AN129">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="AO129">
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="AP129">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ129">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR129">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="AS129">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
       <c r="AT129">
-        <v>2.53</v>
+        <v>2.61</v>
       </c>
       <c r="AU129">
         <v>5</v>
@@ -27959,25 +27959,25 @@
         <v>2.5</v>
       </c>
       <c r="AN130">
-        <v>1.7</v>
+        <v>1.43</v>
       </c>
       <c r="AO130">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="AP130">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ130">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR130">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AS130">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AT130">
-        <v>2.48</v>
+        <v>2.57</v>
       </c>
       <c r="AU130">
         <v>5</v>
@@ -28165,25 +28165,25 @@
         <v>1.3</v>
       </c>
       <c r="AN131">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="AO131">
-        <v>1.8</v>
+        <v>1.52</v>
       </c>
       <c r="AP131">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AQ131">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AR131">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AS131">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="AT131">
-        <v>3.04</v>
+        <v>2.94</v>
       </c>
       <c r="AU131">
         <v>5</v>
@@ -28371,25 +28371,25 @@
         <v>1.25</v>
       </c>
       <c r="AN132">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO132">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AP132">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ132">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR132">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="AS132">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="AT132">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="AU132">
         <v>8</v>
@@ -28577,25 +28577,25 @@
         <v>1.3</v>
       </c>
       <c r="AN133">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="AO133">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AP133">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AQ133">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR133">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AS133">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="AT133">
-        <v>2.64</v>
+        <v>2.83</v>
       </c>
       <c r="AU133">
         <v>2</v>
@@ -28992,22 +28992,22 @@
         <v>0.64</v>
       </c>
       <c r="AO135">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="AP135">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ135">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AR135">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="AS135">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="AT135">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="AU135">
         <v>3</v>
@@ -29195,25 +29195,25 @@
         <v>1.3</v>
       </c>
       <c r="AN136">
-        <v>1.09</v>
+        <v>0.86</v>
       </c>
       <c r="AO136">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="AP136">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ136">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AR136">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="AS136">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="AT136">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="AU136">
         <v>6</v>
@@ -29401,25 +29401,25 @@
         <v>1.95</v>
       </c>
       <c r="AN137">
-        <v>1.09</v>
+        <v>0.86</v>
       </c>
       <c r="AO137">
-        <v>0.64</v>
+        <v>0.45</v>
       </c>
       <c r="AP137">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ137">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR137">
-        <v>1.23</v>
+        <v>1.13</v>
       </c>
       <c r="AS137">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AT137">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="AU137">
         <v>5</v>
@@ -30019,25 +30019,25 @@
         <v>2.2</v>
       </c>
       <c r="AN140">
-        <v>1.82</v>
+        <v>1.48</v>
       </c>
       <c r="AO140">
-        <v>0.64</v>
+        <v>0.87</v>
       </c>
       <c r="AP140">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ140">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR140">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AS140">
-        <v>1.03</v>
+        <v>1.14</v>
       </c>
       <c r="AT140">
-        <v>2.43</v>
+        <v>2.51</v>
       </c>
       <c r="AU140">
         <v>2</v>
@@ -30225,25 +30225,25 @@
         <v>1.38</v>
       </c>
       <c r="AN141">
-        <v>0.27</v>
+        <v>0.48</v>
       </c>
       <c r="AO141">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="AP141">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ141">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR141">
-        <v>1.03</v>
+        <v>0.87</v>
       </c>
       <c r="AS141">
-        <v>1.08</v>
+        <v>1.19</v>
       </c>
       <c r="AT141">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AU141">
         <v>4</v>
@@ -30431,25 +30431,25 @@
         <v>1.6</v>
       </c>
       <c r="AN142">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="AO142">
-        <v>0.64</v>
+        <v>0.87</v>
       </c>
       <c r="AP142">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ142">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR142">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AS142">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AT142">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU142">
         <v>5</v>
@@ -31255,25 +31255,25 @@
         <v>2</v>
       </c>
       <c r="AN146">
-        <v>1.08</v>
+        <v>0.88</v>
       </c>
       <c r="AO146">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="AP146">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ146">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR146">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AS146">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="AT146">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="AU146">
         <v>4</v>
@@ -31461,25 +31461,25 @@
         <v>3.4</v>
       </c>
       <c r="AN147">
-        <v>1.75</v>
+        <v>1.46</v>
       </c>
       <c r="AO147">
-        <v>0.67</v>
+        <v>0.46</v>
       </c>
       <c r="AP147">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ147">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR147">
         <v>1.34</v>
       </c>
       <c r="AS147">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AT147">
-        <v>2.07</v>
+        <v>2.22</v>
       </c>
       <c r="AU147">
         <v>4</v>
@@ -31667,25 +31667,25 @@
         <v>1.47</v>
       </c>
       <c r="AN148">
-        <v>1.08</v>
+        <v>0.88</v>
       </c>
       <c r="AO148">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AP148">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ148">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AR148">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="AS148">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="AT148">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="AU148">
         <v>3</v>
@@ -32697,25 +32697,25 @@
         <v>1.22</v>
       </c>
       <c r="AN153">
-        <v>0.25</v>
+        <v>0.48</v>
       </c>
       <c r="AO153">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="AP153">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ153">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR153">
-        <v>1.03</v>
+        <v>0.87</v>
       </c>
       <c r="AS153">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="AT153">
-        <v>2.35</v>
+        <v>2.23</v>
       </c>
       <c r="AU153">
         <v>3</v>
@@ -32903,25 +32903,25 @@
         <v>1.44</v>
       </c>
       <c r="AN154">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="AO154">
-        <v>1.17</v>
+        <v>1.44</v>
       </c>
       <c r="AP154">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ154">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AR154">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AS154">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="AT154">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="AU154">
         <v>2</v>
@@ -33109,22 +33109,22 @@
         <v>1.52</v>
       </c>
       <c r="AN155">
-        <v>0.67</v>
+        <v>0.76</v>
       </c>
       <c r="AO155">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="AP155">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ155">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR155">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="AS155">
-        <v>1.04</v>
+        <v>1.14</v>
       </c>
       <c r="AT155">
         <v>2.33</v>
@@ -33933,25 +33933,25 @@
         <v>1.73</v>
       </c>
       <c r="AN159">
-        <v>1.08</v>
+        <v>0.96</v>
       </c>
       <c r="AO159">
-        <v>0.62</v>
+        <v>0.85</v>
       </c>
       <c r="AP159">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ159">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR159">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AS159">
-        <v>1.06</v>
+        <v>1.15</v>
       </c>
       <c r="AT159">
-        <v>2.47</v>
+        <v>2.51</v>
       </c>
       <c r="AU159">
         <v>4</v>
@@ -34139,25 +34139,25 @@
         <v>2.35</v>
       </c>
       <c r="AN160">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AO160">
-        <v>0.6899999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="AP160">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ160">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR160">
         <v>1.23</v>
       </c>
       <c r="AS160">
-        <v>0.72</v>
+        <v>0.87</v>
       </c>
       <c r="AT160">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AU160">
         <v>5</v>
@@ -34345,25 +34345,25 @@
         <v>2.12</v>
       </c>
       <c r="AN161">
-        <v>1.69</v>
+        <v>1.5</v>
       </c>
       <c r="AO161">
         <v>0.85</v>
       </c>
       <c r="AP161">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ161">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR161">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AS161">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AT161">
-        <v>2.46</v>
+        <v>2.57</v>
       </c>
       <c r="AU161">
         <v>5</v>
@@ -34963,25 +34963,25 @@
         <v>1.22</v>
       </c>
       <c r="AN164">
-        <v>0.23</v>
+        <v>0.48</v>
       </c>
       <c r="AO164">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="AP164">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ164">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AR164">
-        <v>1.02</v>
+        <v>0.88</v>
       </c>
       <c r="AS164">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AT164">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AU164">
         <v>5</v>
@@ -35169,25 +35169,25 @@
         <v>1.28</v>
       </c>
       <c r="AN165">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AO165">
-        <v>1.31</v>
+        <v>1.56</v>
       </c>
       <c r="AP165">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ165">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AR165">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="AS165">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="AT165">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AU165">
         <v>5</v>
@@ -35375,25 +35375,25 @@
         <v>1.48</v>
       </c>
       <c r="AN166">
-        <v>1.08</v>
+        <v>0.85</v>
       </c>
       <c r="AO166">
-        <v>0.85</v>
+        <v>0.96</v>
       </c>
       <c r="AP166">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ166">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR166">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="AS166">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AT166">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="AU166">
         <v>5</v>
@@ -36199,25 +36199,25 @@
         <v>1.95</v>
       </c>
       <c r="AN170">
-        <v>1.79</v>
+        <v>1.5</v>
       </c>
       <c r="AO170">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AP170">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ170">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR170">
         <v>1.36</v>
       </c>
       <c r="AS170">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AT170">
-        <v>2.64</v>
+        <v>2.69</v>
       </c>
       <c r="AU170">
         <v>4</v>
@@ -36405,25 +36405,25 @@
         <v>1.95</v>
       </c>
       <c r="AN171">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AO171">
-        <v>0.71</v>
+        <v>0.46</v>
       </c>
       <c r="AP171">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ171">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR171">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AS171">
-        <v>0.74</v>
+        <v>0.91</v>
       </c>
       <c r="AT171">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AU171">
         <v>3</v>
@@ -36611,25 +36611,25 @@
         <v>1.77</v>
       </c>
       <c r="AN172">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="AO172">
-        <v>0.64</v>
+        <v>0.93</v>
       </c>
       <c r="AP172">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ172">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR172">
         <v>1.24</v>
       </c>
       <c r="AS172">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="AT172">
-        <v>2.32</v>
+        <v>2.39</v>
       </c>
       <c r="AU172">
         <v>5</v>
@@ -37435,25 +37435,25 @@
         <v>1.18</v>
       </c>
       <c r="AN176">
-        <v>0.21</v>
+        <v>0.48</v>
       </c>
       <c r="AO176">
-        <v>1.21</v>
+        <v>1.48</v>
       </c>
       <c r="AP176">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ176">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AR176">
-        <v>1.08</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AS176">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AT176">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AU176">
         <v>9</v>
@@ -37641,25 +37641,25 @@
         <v>1.65</v>
       </c>
       <c r="AN177">
-        <v>1.21</v>
+        <v>1</v>
       </c>
       <c r="AO177">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AP177">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ177">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR177">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="AS177">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AT177">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="AU177">
         <v>7</v>
@@ -37847,25 +37847,25 @@
         <v>1.65</v>
       </c>
       <c r="AN178">
-        <v>1.07</v>
+        <v>0.93</v>
       </c>
       <c r="AO178">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AP178">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ178">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AR178">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AS178">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AT178">
-        <v>2.61</v>
+        <v>2.57</v>
       </c>
       <c r="AU178">
         <v>5</v>
@@ -38671,25 +38671,25 @@
         <v>1.45</v>
       </c>
       <c r="AN182">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="AO182">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AP182">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ182">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR182">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AS182">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="AT182">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="AU182">
         <v>3</v>
@@ -38877,25 +38877,25 @@
         <v>1.3</v>
       </c>
       <c r="AN183">
-        <v>0.4</v>
+        <v>0.57</v>
       </c>
       <c r="AO183">
-        <v>0.8</v>
+        <v>1.07</v>
       </c>
       <c r="AP183">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ183">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR183">
-        <v>1.13</v>
+        <v>0.97</v>
       </c>
       <c r="AS183">
-        <v>1.07</v>
+        <v>1.15</v>
       </c>
       <c r="AT183">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="AU183">
         <v>5</v>
@@ -39083,25 +39083,25 @@
         <v>2</v>
       </c>
       <c r="AN184">
-        <v>1.73</v>
+        <v>1.43</v>
       </c>
       <c r="AO184">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AP184">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ184">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AR184">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AS184">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AT184">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="AU184">
         <v>8</v>
@@ -39907,25 +39907,25 @@
         <v>1.7</v>
       </c>
       <c r="AN188">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="AO188">
-        <v>0.73</v>
+        <v>0.84</v>
       </c>
       <c r="AP188">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ188">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR188">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="AS188">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AT188">
-        <v>2.36</v>
+        <v>2.43</v>
       </c>
       <c r="AU188">
         <v>4</v>
@@ -40113,25 +40113,25 @@
         <v>1.3</v>
       </c>
       <c r="AN189">
-        <v>1.33</v>
+        <v>1.03</v>
       </c>
       <c r="AO189">
-        <v>1.13</v>
+        <v>1.39</v>
       </c>
       <c r="AP189">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ189">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AR189">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="AS189">
         <v>1.38</v>
       </c>
       <c r="AT189">
-        <v>2.61</v>
+        <v>2.54</v>
       </c>
       <c r="AU189">
         <v>4</v>
@@ -40319,25 +40319,25 @@
         <v>2.3</v>
       </c>
       <c r="AN190">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AO190">
-        <v>0.73</v>
+        <v>0.65</v>
       </c>
       <c r="AP190">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ190">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR190">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="AS190">
-        <v>0.8100000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="AT190">
-        <v>2.23</v>
+        <v>2.31</v>
       </c>
       <c r="AU190">
         <v>12</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
+        <v>1.94</v>
+      </c>
+      <c r="AQ2">
         <v>1.63</v>
-      </c>
-      <c r="AQ2">
-        <v>1.41</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2009,10 +2009,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AQ4">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2215,10 +2215,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ5">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2421,10 +2421,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2627,10 +2627,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AQ7">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2827,25 +2827,25 @@
         <v>2.6</v>
       </c>
       <c r="AN8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO8">
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AQ8">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR8">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AT8">
-        <v>3.12</v>
+        <v>0</v>
       </c>
       <c r="AU8">
         <v>15</v>
@@ -3033,25 +3033,25 @@
         <v>2.15</v>
       </c>
       <c r="AN9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ9">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR9">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>3.04</v>
+        <v>0</v>
       </c>
       <c r="AU9">
         <v>7</v>
@@ -3239,25 +3239,25 @@
         <v>1.22</v>
       </c>
       <c r="AN10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO10">
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ10">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AR10">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>7</v>
@@ -3445,25 +3445,25 @@
         <v>4.75</v>
       </c>
       <c r="AN11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ11">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR11">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>3.09</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>9</v>
@@ -3654,22 +3654,22 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ12">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AR12">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>5</v>
@@ -3857,25 +3857,25 @@
         <v>1.45</v>
       </c>
       <c r="AN13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ13">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AR13">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>4</v>
@@ -4063,25 +4063,25 @@
         <v>1.87</v>
       </c>
       <c r="AN14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ14">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR14">
-        <v>1.12</v>
+        <v>1.31</v>
       </c>
       <c r="AS14">
-        <v>1.05</v>
+        <v>0.88</v>
       </c>
       <c r="AT14">
-        <v>2.17</v>
+        <v>2.19</v>
       </c>
       <c r="AU14">
         <v>6</v>
@@ -4272,22 +4272,22 @@
         <v>3</v>
       </c>
       <c r="AO15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP15">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ15">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AR15">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AS15">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="AT15">
-        <v>3.7</v>
+        <v>3.77</v>
       </c>
       <c r="AU15">
         <v>2</v>
@@ -4475,25 +4475,25 @@
         <v>2.6</v>
       </c>
       <c r="AN16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO16">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR16">
-        <v>0.95</v>
+        <v>1.19</v>
       </c>
       <c r="AS16">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AT16">
-        <v>1.96</v>
+        <v>2.24</v>
       </c>
       <c r="AU16">
         <v>6</v>
@@ -4684,22 +4684,22 @@
         <v>3</v>
       </c>
       <c r="AO17">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AP17">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ17">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AR17">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="AS17">
-        <v>1.55</v>
+        <v>2.23</v>
       </c>
       <c r="AT17">
-        <v>3.57</v>
+        <v>4.37</v>
       </c>
       <c r="AU17">
         <v>7</v>
@@ -4887,25 +4887,25 @@
         <v>2.3</v>
       </c>
       <c r="AN18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO18">
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AQ18">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AR18">
-        <v>2.43</v>
+        <v>2.76</v>
       </c>
       <c r="AS18">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="AT18">
-        <v>4.04</v>
+        <v>4.41</v>
       </c>
       <c r="AU18">
         <v>5</v>
@@ -5099,19 +5099,19 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR19">
-        <v>0.8</v>
+        <v>1.02</v>
       </c>
       <c r="AS19">
-        <v>0.9</v>
+        <v>0.61</v>
       </c>
       <c r="AT19">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="AU19">
         <v>9</v>
@@ -5302,22 +5302,22 @@
         <v>0</v>
       </c>
       <c r="AO20">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ20">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR20">
-        <v>0.77</v>
+        <v>1.19</v>
       </c>
       <c r="AS20">
-        <v>1.14</v>
+        <v>0.71</v>
       </c>
       <c r="AT20">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5505,25 +5505,25 @@
         <v>1.14</v>
       </c>
       <c r="AN21">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AO21">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ21">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR21">
-        <v>0.9</v>
+        <v>1.23</v>
       </c>
       <c r="AS21">
-        <v>1.51</v>
+        <v>1.85</v>
       </c>
       <c r="AT21">
-        <v>2.41</v>
+        <v>3.08</v>
       </c>
       <c r="AU21">
         <v>2</v>
@@ -5711,25 +5711,25 @@
         <v>2</v>
       </c>
       <c r="AN22">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AO22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ22">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR22">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="AS22">
-        <v>1.21</v>
+        <v>0.58</v>
       </c>
       <c r="AT22">
-        <v>2.91</v>
+        <v>2.36</v>
       </c>
       <c r="AU22">
         <v>6</v>
@@ -5917,25 +5917,25 @@
         <v>2</v>
       </c>
       <c r="AN23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO23">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AQ23">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AR23">
-        <v>1.1</v>
+        <v>0.86</v>
       </c>
       <c r="AS23">
-        <v>1.3</v>
+        <v>0.92</v>
       </c>
       <c r="AT23">
-        <v>2.4</v>
+        <v>1.78</v>
       </c>
       <c r="AU23">
         <v>6</v>
@@ -6123,25 +6123,25 @@
         <v>1.22</v>
       </c>
       <c r="AN24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AO24">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ24">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AR24">
-        <v>1.01</v>
+        <v>0.98</v>
       </c>
       <c r="AS24">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AT24">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
       <c r="AU24">
         <v>6</v>
@@ -6329,25 +6329,25 @@
         <v>1.16</v>
       </c>
       <c r="AN25">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AO25">
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AQ25">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR25">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="AS25">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AT25">
-        <v>3.37</v>
+        <v>3.47</v>
       </c>
       <c r="AU25">
         <v>4</v>
@@ -6535,25 +6535,25 @@
         <v>1.14</v>
       </c>
       <c r="AN26">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO26">
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ26">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR26">
-        <v>1.17</v>
+        <v>1.48</v>
       </c>
       <c r="AS26">
-        <v>1.81</v>
+        <v>1.64</v>
       </c>
       <c r="AT26">
-        <v>2.98</v>
+        <v>3.12</v>
       </c>
       <c r="AU26">
         <v>4</v>
@@ -6741,25 +6741,25 @@
         <v>3.75</v>
       </c>
       <c r="AN27">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO27">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR27">
-        <v>1.55</v>
+        <v>1.34</v>
       </c>
       <c r="AS27">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AT27">
-        <v>2.6</v>
+        <v>2.37</v>
       </c>
       <c r="AU27">
         <v>6</v>
@@ -6947,25 +6947,25 @@
         <v>1.57</v>
       </c>
       <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
         <v>0.5</v>
       </c>
-      <c r="AO28">
-        <v>1</v>
-      </c>
       <c r="AP28">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ28">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR28">
-        <v>0.86</v>
+        <v>0.99</v>
       </c>
       <c r="AS28">
-        <v>1.1</v>
+        <v>0.67</v>
       </c>
       <c r="AT28">
-        <v>1.96</v>
+        <v>1.66</v>
       </c>
       <c r="AU28">
         <v>3</v>
@@ -7153,25 +7153,25 @@
         <v>1.87</v>
       </c>
       <c r="AN29">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AO29">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="AQ29">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AR29">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AS29">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AT29">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="AU29">
         <v>6</v>
@@ -7359,25 +7359,25 @@
         <v>2.15</v>
       </c>
       <c r="AN30">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO30">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AQ30">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR30">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="AS30">
-        <v>0.89</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT30">
-        <v>2.86</v>
+        <v>2.59</v>
       </c>
       <c r="AU30">
         <v>10</v>
@@ -7565,25 +7565,25 @@
         <v>1.55</v>
       </c>
       <c r="AN31">
+        <v>0.5</v>
+      </c>
+      <c r="AO31">
+        <v>2</v>
+      </c>
+      <c r="AP31">
+        <v>1.29</v>
+      </c>
+      <c r="AQ31">
         <v>1.25</v>
       </c>
-      <c r="AO31">
-        <v>1.5</v>
-      </c>
-      <c r="AP31">
-        <v>1.32</v>
-      </c>
-      <c r="AQ31">
+      <c r="AR31">
         <v>1.22</v>
       </c>
-      <c r="AR31">
-        <v>1.28</v>
-      </c>
       <c r="AS31">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="AT31">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="AU31">
         <v>2</v>
@@ -7771,25 +7771,25 @@
         <v>1.75</v>
       </c>
       <c r="AN32">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AO32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP32">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ32">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AR32">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AS32">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="AT32">
-        <v>2.31</v>
+        <v>2.61</v>
       </c>
       <c r="AU32">
         <v>4</v>
@@ -7977,25 +7977,25 @@
         <v>1.55</v>
       </c>
       <c r="AN33">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AO33">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR33">
-        <v>0.9</v>
+        <v>1.23</v>
       </c>
       <c r="AS33">
-        <v>1.01</v>
+        <v>0.97</v>
       </c>
       <c r="AT33">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="AU33">
         <v>6</v>
@@ -8183,25 +8183,25 @@
         <v>1.12</v>
       </c>
       <c r="AN34">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AO34">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AP34">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ34">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR34">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AS34">
-        <v>1.52</v>
+        <v>1.76</v>
       </c>
       <c r="AT34">
-        <v>2.9</v>
+        <v>3.29</v>
       </c>
       <c r="AU34">
         <v>5</v>
@@ -8392,22 +8392,22 @@
         <v>3</v>
       </c>
       <c r="AO35">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AP35">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ35">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AR35">
-        <v>1.73</v>
+        <v>1.98</v>
       </c>
       <c r="AS35">
-        <v>2.09</v>
+        <v>1.91</v>
       </c>
       <c r="AT35">
-        <v>3.82</v>
+        <v>3.89</v>
       </c>
       <c r="AU35">
         <v>5</v>
@@ -8595,25 +8595,25 @@
         <v>3.18</v>
       </c>
       <c r="AN36">
-        <v>1.6</v>
+        <v>2.33</v>
       </c>
       <c r="AO36">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="AQ36">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR36">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="AS36">
-        <v>0.9</v>
+        <v>0.74</v>
       </c>
       <c r="AT36">
-        <v>2.19</v>
+        <v>2.08</v>
       </c>
       <c r="AU36">
         <v>6</v>
@@ -8801,25 +8801,25 @@
         <v>2</v>
       </c>
       <c r="AN37">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AO37">
-        <v>1.8</v>
+        <v>2.33</v>
       </c>
       <c r="AP37">
+        <v>1.71</v>
+      </c>
+      <c r="AQ37">
+        <v>1.25</v>
+      </c>
+      <c r="AR37">
+        <v>1.35</v>
+      </c>
+      <c r="AS37">
         <v>1.57</v>
       </c>
-      <c r="AQ37">
-        <v>1.22</v>
-      </c>
-      <c r="AR37">
-        <v>1.2</v>
-      </c>
-      <c r="AS37">
-        <v>1.58</v>
-      </c>
       <c r="AT37">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="AU37">
         <v>8</v>
@@ -9007,25 +9007,25 @@
         <v>1.66</v>
       </c>
       <c r="AN38">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AO38">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ38">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR38">
         <v>1.06</v>
       </c>
       <c r="AS38">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="AT38">
-        <v>2.43</v>
+        <v>2.34</v>
       </c>
       <c r="AU38">
         <v>4</v>
@@ -9213,25 +9213,25 @@
         <v>1.3</v>
       </c>
       <c r="AN39">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AO39">
-        <v>1.83</v>
+        <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ39">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR39">
-        <v>1.49</v>
+        <v>1.59</v>
       </c>
       <c r="AS39">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="AT39">
-        <v>2.84</v>
+        <v>2.79</v>
       </c>
       <c r="AU39">
         <v>3</v>
@@ -9419,25 +9419,25 @@
         <v>1.45</v>
       </c>
       <c r="AN40">
-        <v>2.67</v>
+        <v>2.33</v>
       </c>
       <c r="AO40">
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ40">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR40">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AS40">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
       <c r="AT40">
-        <v>3.12</v>
+        <v>2.92</v>
       </c>
       <c r="AU40">
         <v>4</v>
@@ -9625,25 +9625,25 @@
         <v>1.6</v>
       </c>
       <c r="AN41">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO41">
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ41">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR41">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AS41">
-        <v>0.99</v>
+        <v>0.68</v>
       </c>
       <c r="AT41">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="AU41">
         <v>6</v>
@@ -9831,25 +9831,25 @@
         <v>1.44</v>
       </c>
       <c r="AN42">
-        <v>1.33</v>
+        <v>0.33</v>
       </c>
       <c r="AO42">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AQ42">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AR42">
-        <v>1.29</v>
+        <v>1.12</v>
       </c>
       <c r="AS42">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AT42">
-        <v>2.59</v>
+        <v>2.22</v>
       </c>
       <c r="AU42">
         <v>8</v>
@@ -10043,19 +10043,19 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AQ43">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AR43">
-        <v>1.94</v>
+        <v>2.21</v>
       </c>
       <c r="AS43">
-        <v>1.15</v>
+        <v>0.86</v>
       </c>
       <c r="AT43">
-        <v>3.09</v>
+        <v>3.07</v>
       </c>
       <c r="AU43">
         <v>7</v>
@@ -10243,25 +10243,25 @@
         <v>4</v>
       </c>
       <c r="AN44">
-        <v>2.71</v>
+        <v>3</v>
       </c>
       <c r="AO44">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AP44">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR44">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AS44">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="AT44">
-        <v>2.76</v>
+        <v>2.89</v>
       </c>
       <c r="AU44">
         <v>5</v>
@@ -10449,25 +10449,25 @@
         <v>2.2</v>
       </c>
       <c r="AN45">
-        <v>1.43</v>
+        <v>0.67</v>
       </c>
       <c r="AO45">
-        <v>0.29</v>
+        <v>0.67</v>
       </c>
       <c r="AP45">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ45">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR45">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AS45">
-        <v>0.92</v>
+        <v>0.61</v>
       </c>
       <c r="AT45">
-        <v>2.35</v>
+        <v>2.01</v>
       </c>
       <c r="AU45">
         <v>4</v>
@@ -10655,25 +10655,25 @@
         <v>1.42</v>
       </c>
       <c r="AN46">
-        <v>0.71</v>
+        <v>0.33</v>
       </c>
       <c r="AO46">
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ46">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AR46">
-        <v>1.1</v>
+        <v>1.29</v>
       </c>
       <c r="AS46">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AT46">
-        <v>2.31</v>
+        <v>2.4</v>
       </c>
       <c r="AU46">
         <v>4</v>
@@ -10861,25 +10861,25 @@
         <v>2.4</v>
       </c>
       <c r="AN47">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO47">
-        <v>1.57</v>
+        <v>2.33</v>
       </c>
       <c r="AP47">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="AQ47">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AR47">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="AS47">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="AT47">
-        <v>2.64</v>
+        <v>2.88</v>
       </c>
       <c r="AU47">
         <v>4</v>
@@ -11067,25 +11067,25 @@
         <v>1.3</v>
       </c>
       <c r="AN48">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AO48">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AP48">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AR48">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="AS48">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="AT48">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="AU48">
         <v>3</v>
@@ -11273,25 +11273,25 @@
         <v>1.44</v>
       </c>
       <c r="AN49">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AO49">
-        <v>2.43</v>
+        <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AQ49">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR49">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="AS49">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT49">
-        <v>3.3</v>
+        <v>3.57</v>
       </c>
       <c r="AU49">
         <v>4</v>
@@ -11479,25 +11479,25 @@
         <v>1.03</v>
       </c>
       <c r="AN50">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AO50">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AP50">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ50">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR50">
-        <v>0.93</v>
+        <v>1.15</v>
       </c>
       <c r="AS50">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="AT50">
-        <v>2.67</v>
+        <v>2.81</v>
       </c>
       <c r="AU50">
         <v>0</v>
@@ -11685,25 +11685,25 @@
         <v>1.47</v>
       </c>
       <c r="AN51">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO51">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="AP51">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ51">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AR51">
-        <v>1.04</v>
+        <v>0.99</v>
       </c>
       <c r="AS51">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="AT51">
-        <v>2.43</v>
+        <v>2.44</v>
       </c>
       <c r="AU51">
         <v>3</v>
@@ -11891,25 +11891,25 @@
         <v>1.4</v>
       </c>
       <c r="AN52">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AO52">
-        <v>1.88</v>
+        <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ52">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR52">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AS52">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="AT52">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -12097,25 +12097,25 @@
         <v>3.55</v>
       </c>
       <c r="AN53">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AO53">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="AP53">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ53">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR53">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="AS53">
-        <v>1.09</v>
+        <v>0.96</v>
       </c>
       <c r="AT53">
-        <v>2.45</v>
+        <v>2.28</v>
       </c>
       <c r="AU53">
         <v>5</v>
@@ -12303,25 +12303,25 @@
         <v>1.73</v>
       </c>
       <c r="AN54">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO54">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AP54">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AQ54">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR54">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AS54">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="AT54">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="AU54">
         <v>2</v>
@@ -12509,25 +12509,25 @@
         <v>1.55</v>
       </c>
       <c r="AN55">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AO55">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AQ55">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AR55">
-        <v>1.34</v>
+        <v>1.51</v>
       </c>
       <c r="AS55">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT55">
-        <v>3.14</v>
+        <v>3.18</v>
       </c>
       <c r="AU55">
         <v>3</v>
@@ -12715,25 +12715,25 @@
         <v>2</v>
       </c>
       <c r="AN56">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AO56">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AP56">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR56">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="AS56">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AT56">
-        <v>2.36</v>
+        <v>2.47</v>
       </c>
       <c r="AU56">
         <v>8</v>
@@ -12921,25 +12921,25 @@
         <v>1.14</v>
       </c>
       <c r="AN57">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="AO57">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AP57">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ57">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AR57">
-        <v>0.89</v>
+        <v>1.03</v>
       </c>
       <c r="AS57">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AT57">
-        <v>2.69</v>
+        <v>2.72</v>
       </c>
       <c r="AU57">
         <v>3</v>
@@ -13127,25 +13127,25 @@
         <v>2.15</v>
       </c>
       <c r="AN58">
-        <v>1.44</v>
+        <v>1</v>
       </c>
       <c r="AO58">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AP58">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AQ58">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR58">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AS58">
-        <v>1.09</v>
+        <v>0.98</v>
       </c>
       <c r="AT58">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="AU58">
         <v>7</v>
@@ -13333,22 +13333,22 @@
         <v>2.65</v>
       </c>
       <c r="AN59">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="AO59">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AP59">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="AQ59">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR59">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="AS59">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="AT59">
         <v>2.61</v>
@@ -13539,25 +13539,25 @@
         <v>1.22</v>
       </c>
       <c r="AN60">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AO60">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AP60">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ60">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR60">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AS60">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AT60">
-        <v>2.61</v>
+        <v>2.65</v>
       </c>
       <c r="AU60">
         <v>3</v>
@@ -13745,25 +13745,25 @@
         <v>1.08</v>
       </c>
       <c r="AN61">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="AO61">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="AP61">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ61">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR61">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AS61">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AT61">
-        <v>3.16</v>
+        <v>3.08</v>
       </c>
       <c r="AU61">
         <v>7</v>
@@ -13951,25 +13951,25 @@
         <v>1.9</v>
       </c>
       <c r="AN62">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="AO62">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ62">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR62">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AS62">
-        <v>0.89</v>
+        <v>0.7</v>
       </c>
       <c r="AT62">
-        <v>1.93</v>
+        <v>1.72</v>
       </c>
       <c r="AU62">
         <v>8</v>
@@ -14157,25 +14157,25 @@
         <v>2.4</v>
       </c>
       <c r="AN63">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="AO63">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AP63">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ63">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR63">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="AS63">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT63">
-        <v>3.14</v>
+        <v>3.13</v>
       </c>
       <c r="AU63">
         <v>3</v>
@@ -14363,25 +14363,25 @@
         <v>2.38</v>
       </c>
       <c r="AN64">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="AO64">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AP64">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ64">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AR64">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="AS64">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AT64">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="AU64">
         <v>7</v>
@@ -14569,25 +14569,25 @@
         <v>1.51</v>
       </c>
       <c r="AN65">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AO65">
+        <v>1.5</v>
+      </c>
+      <c r="AP65">
+        <v>1</v>
+      </c>
+      <c r="AQ65">
+        <v>1.5</v>
+      </c>
+      <c r="AR65">
         <v>1.3</v>
       </c>
-      <c r="AP65">
-        <v>0.97</v>
-      </c>
-      <c r="AQ65">
-        <v>1.39</v>
-      </c>
-      <c r="AR65">
-        <v>1.27</v>
-      </c>
       <c r="AS65">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT65">
-        <v>2.51</v>
+        <v>2.52</v>
       </c>
       <c r="AU65">
         <v>11</v>
@@ -14775,25 +14775,25 @@
         <v>1.26</v>
       </c>
       <c r="AN66">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AO66">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AP66">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ66">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AR66">
-        <v>1.06</v>
+        <v>1.22</v>
       </c>
       <c r="AS66">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="AT66">
-        <v>2.41</v>
+        <v>2.45</v>
       </c>
       <c r="AU66">
         <v>4</v>
@@ -14981,25 +14981,25 @@
         <v>2.15</v>
       </c>
       <c r="AN67">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AO67">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AP67">
+        <v>1.19</v>
+      </c>
+      <c r="AQ67">
+        <v>1.25</v>
+      </c>
+      <c r="AR67">
+        <v>1.88</v>
+      </c>
+      <c r="AS67">
         <v>1.41</v>
       </c>
-      <c r="AQ67">
-        <v>1.22</v>
-      </c>
-      <c r="AR67">
-        <v>1.82</v>
-      </c>
-      <c r="AS67">
-        <v>1.42</v>
-      </c>
       <c r="AT67">
-        <v>3.24</v>
+        <v>3.29</v>
       </c>
       <c r="AU67">
         <v>6</v>
@@ -15187,25 +15187,25 @@
         <v>4.2</v>
       </c>
       <c r="AN68">
-        <v>2.09</v>
+        <v>1.8</v>
       </c>
       <c r="AO68">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AP68">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ68">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR68">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="AS68">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="AT68">
-        <v>3.07</v>
+        <v>2.96</v>
       </c>
       <c r="AU68">
         <v>5</v>
@@ -15393,25 +15393,25 @@
         <v>2.25</v>
       </c>
       <c r="AN69">
-        <v>1.64</v>
+        <v>1.2</v>
       </c>
       <c r="AO69">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AP69">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ69">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR69">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="AS69">
-        <v>1.08</v>
+        <v>0.96</v>
       </c>
       <c r="AT69">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AU69">
         <v>2</v>
@@ -15599,25 +15599,25 @@
         <v>1.52</v>
       </c>
       <c r="AN70">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="AO70">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="AP70">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ70">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AR70">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AS70">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="AT70">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="AU70">
         <v>8</v>
@@ -15805,25 +15805,25 @@
         <v>1.25</v>
       </c>
       <c r="AN71">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AO71">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="AP71">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ71">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AR71">
-        <v>0.86</v>
+        <v>1.01</v>
       </c>
       <c r="AS71">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AT71">
-        <v>2.09</v>
+        <v>2.26</v>
       </c>
       <c r="AU71">
         <v>2</v>
@@ -16011,25 +16011,25 @@
         <v>2.25</v>
       </c>
       <c r="AN72">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AO72">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AP72">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ72">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AR72">
         <v>1.45</v>
       </c>
       <c r="AS72">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT72">
-        <v>2.87</v>
+        <v>2.83</v>
       </c>
       <c r="AU72">
         <v>5</v>
@@ -16217,25 +16217,25 @@
         <v>1.72</v>
       </c>
       <c r="AN73">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AO73">
-        <v>1.91</v>
+        <v>1.4</v>
       </c>
       <c r="AP73">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AQ73">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR73">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="AS73">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="AT73">
-        <v>3.18</v>
+        <v>3.13</v>
       </c>
       <c r="AU73">
         <v>9</v>
@@ -16423,25 +16423,25 @@
         <v>1.01</v>
       </c>
       <c r="AN74">
-        <v>0.42</v>
+        <v>0.2</v>
       </c>
       <c r="AO74">
-        <v>2.17</v>
+        <v>2.33</v>
       </c>
       <c r="AP74">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ74">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR74">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AS74">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="AT74">
-        <v>2.74</v>
+        <v>2.92</v>
       </c>
       <c r="AU74">
         <v>5</v>
@@ -16629,25 +16629,25 @@
         <v>2.9</v>
       </c>
       <c r="AN75">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AO75">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="AP75">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AQ75">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR75">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="AS75">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT75">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="AU75">
         <v>3</v>
@@ -16838,22 +16838,22 @@
         <v>1.17</v>
       </c>
       <c r="AO76">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AP76">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ76">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AR76">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="AS76">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AT76">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="AU76">
         <v>10</v>
@@ -17041,25 +17041,25 @@
         <v>1.28</v>
       </c>
       <c r="AN77">
-        <v>1.08</v>
+        <v>1.4</v>
       </c>
       <c r="AO77">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AP77">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ77">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AR77">
-        <v>1.35</v>
+        <v>1.52</v>
       </c>
       <c r="AS77">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="AT77">
-        <v>3.14</v>
+        <v>3.28</v>
       </c>
       <c r="AU77">
         <v>2</v>
@@ -17247,25 +17247,25 @@
         <v>1.87</v>
       </c>
       <c r="AN78">
-        <v>1.58</v>
+        <v>1.33</v>
       </c>
       <c r="AO78">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR78">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="AS78">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="AT78">
-        <v>2.44</v>
+        <v>2.25</v>
       </c>
       <c r="AU78">
         <v>8</v>
@@ -17453,25 +17453,25 @@
         <v>1.47</v>
       </c>
       <c r="AN79">
-        <v>1.83</v>
+        <v>2.33</v>
       </c>
       <c r="AO79">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="AP79">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="AQ79">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR79">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="AS79">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AT79">
-        <v>2.89</v>
+        <v>2.91</v>
       </c>
       <c r="AU79">
         <v>11</v>
@@ -17659,25 +17659,25 @@
         <v>1.24</v>
       </c>
       <c r="AN80">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AO80">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="AP80">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ80">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AR80">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AS80">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="AT80">
-        <v>2.09</v>
+        <v>2.12</v>
       </c>
       <c r="AU80">
         <v>4</v>
@@ -17865,25 +17865,25 @@
         <v>1.35</v>
       </c>
       <c r="AN81">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AO81">
-        <v>1.38</v>
+        <v>1.83</v>
       </c>
       <c r="AP81">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AQ81">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AR81">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="AS81">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="AT81">
-        <v>3.1</v>
+        <v>2.99</v>
       </c>
       <c r="AU81">
         <v>2</v>
@@ -18071,25 +18071,25 @@
         <v>1.4</v>
       </c>
       <c r="AN82">
-        <v>0.38</v>
+        <v>0.17</v>
       </c>
       <c r="AO82">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AP82">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ82">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR82">
-        <v>1.1</v>
+        <v>1.23</v>
       </c>
       <c r="AS82">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="AT82">
-        <v>2.41</v>
+        <v>2.46</v>
       </c>
       <c r="AU82">
         <v>8</v>
@@ -18277,25 +18277,25 @@
         <v>1.22</v>
       </c>
       <c r="AN83">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AO83">
-        <v>2.08</v>
+        <v>2.17</v>
       </c>
       <c r="AP83">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ83">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR83">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="AS83">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="AT83">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AU83">
         <v>0</v>
@@ -18483,25 +18483,25 @@
         <v>1.25</v>
       </c>
       <c r="AN84">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO84">
-        <v>1.92</v>
+        <v>1.33</v>
       </c>
       <c r="AP84">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ84">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR84">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="AS84">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="AT84">
-        <v>2.61</v>
+        <v>2.59</v>
       </c>
       <c r="AU84">
         <v>7</v>
@@ -18689,25 +18689,25 @@
         <v>1.22</v>
       </c>
       <c r="AN85">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AO85">
-        <v>2.23</v>
+        <v>2.43</v>
       </c>
       <c r="AP85">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AQ85">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR85">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="AS85">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="AT85">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AU85">
         <v>8</v>
@@ -18895,25 +18895,25 @@
         <v>3.83</v>
       </c>
       <c r="AN86">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AO86">
-        <v>0.21</v>
+        <v>0.5</v>
       </c>
       <c r="AP86">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ86">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR86">
         <v>1.48</v>
       </c>
       <c r="AS86">
-        <v>0.86</v>
+        <v>0.68</v>
       </c>
       <c r="AT86">
-        <v>2.34</v>
+        <v>2.16</v>
       </c>
       <c r="AU86">
         <v>9</v>
@@ -19101,25 +19101,25 @@
         <v>3.1</v>
       </c>
       <c r="AN87">
-        <v>1.79</v>
+        <v>2.43</v>
       </c>
       <c r="AO87">
         <v>0.57</v>
       </c>
       <c r="AP87">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="AQ87">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR87">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AS87">
-        <v>1.13</v>
+        <v>0.98</v>
       </c>
       <c r="AT87">
-        <v>2.61</v>
+        <v>2.51</v>
       </c>
       <c r="AU87">
         <v>3</v>
@@ -19307,25 +19307,25 @@
         <v>2.95</v>
       </c>
       <c r="AN88">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AO88">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="AP88">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ88">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AR88">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AS88">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="AT88">
-        <v>2.86</v>
+        <v>3.04</v>
       </c>
       <c r="AU88">
         <v>7</v>
@@ -19516,22 +19516,22 @@
         <v>1.43</v>
       </c>
       <c r="AO89">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AP89">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ89">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AR89">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="AS89">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="AT89">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="AU89">
         <v>5</v>
@@ -19719,25 +19719,25 @@
         <v>1.63</v>
       </c>
       <c r="AN90">
-        <v>0.93</v>
+        <v>1.17</v>
       </c>
       <c r="AO90">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AP90">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ90">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AR90">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AS90">
         <v>1.22</v>
       </c>
       <c r="AT90">
-        <v>2.53</v>
+        <v>2.63</v>
       </c>
       <c r="AU90">
         <v>4</v>
@@ -19925,25 +19925,25 @@
         <v>3</v>
       </c>
       <c r="AN91">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AO91">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="AP91">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AQ91">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR91">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="AS91">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="AT91">
-        <v>2.99</v>
+        <v>2.91</v>
       </c>
       <c r="AU91">
         <v>8</v>
@@ -20131,22 +20131,22 @@
         <v>3.3</v>
       </c>
       <c r="AN92">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="AO92">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="AP92">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ92">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AR92">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="AS92">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="AT92">
         <v>2.82</v>
@@ -20337,25 +20337,25 @@
         <v>1.22</v>
       </c>
       <c r="AN93">
-        <v>1.07</v>
+        <v>1.43</v>
       </c>
       <c r="AO93">
-        <v>2.2</v>
+        <v>2.29</v>
       </c>
       <c r="AP93">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ93">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR93">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
       <c r="AS93">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AT93">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="AU93">
         <v>4</v>
@@ -20543,25 +20543,25 @@
         <v>1.48</v>
       </c>
       <c r="AN94">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="AO94">
-        <v>1.87</v>
+        <v>1.14</v>
       </c>
       <c r="AP94">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AQ94">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR94">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="AS94">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AT94">
-        <v>2.87</v>
+        <v>2.91</v>
       </c>
       <c r="AU94">
         <v>4</v>
@@ -20749,25 +20749,25 @@
         <v>1.45</v>
       </c>
       <c r="AN95">
-        <v>1.6</v>
+        <v>1.29</v>
       </c>
       <c r="AO95">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AP95">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ95">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AR95">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="AS95">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="AT95">
-        <v>2.47</v>
+        <v>2.58</v>
       </c>
       <c r="AU95">
         <v>7</v>
@@ -20955,25 +20955,25 @@
         <v>2.4</v>
       </c>
       <c r="AN96">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AO96">
-        <v>0.2</v>
+        <v>0.43</v>
       </c>
       <c r="AP96">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ96">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR96">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AS96">
-        <v>0.85</v>
+        <v>0.71</v>
       </c>
       <c r="AT96">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="AU96">
         <v>11</v>
@@ -21161,25 +21161,25 @@
         <v>1.12</v>
       </c>
       <c r="AN97">
-        <v>0.53</v>
+        <v>0.57</v>
       </c>
       <c r="AO97">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="AP97">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ97">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AR97">
-        <v>1.14</v>
+        <v>1.28</v>
       </c>
       <c r="AS97">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="AT97">
-        <v>2.97</v>
+        <v>3.12</v>
       </c>
       <c r="AU97">
         <v>4</v>
@@ -21367,25 +21367,25 @@
         <v>1.28</v>
       </c>
       <c r="AN98">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO98">
         <v>2.25</v>
       </c>
       <c r="AP98">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AQ98">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR98">
         <v>1.83</v>
       </c>
       <c r="AS98">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AT98">
-        <v>3.39</v>
+        <v>3.34</v>
       </c>
       <c r="AU98">
         <v>6</v>
@@ -21573,25 +21573,25 @@
         <v>1.09</v>
       </c>
       <c r="AN99">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AO99">
-        <v>1.81</v>
+        <v>1.13</v>
       </c>
       <c r="AP99">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ99">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR99">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="AS99">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT99">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="AU99">
         <v>3</v>
@@ -21779,25 +21779,25 @@
         <v>1.36</v>
       </c>
       <c r="AN100">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="AO100">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AP100">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ100">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AR100">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="AS100">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AT100">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="AU100">
         <v>7</v>
@@ -21985,25 +21985,25 @@
         <v>1.75</v>
       </c>
       <c r="AN101">
-        <v>1.06</v>
+        <v>1.38</v>
       </c>
       <c r="AO101">
         <v>0.5</v>
       </c>
       <c r="AP101">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ101">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR101">
-        <v>1.12</v>
+        <v>1.23</v>
       </c>
       <c r="AS101">
-        <v>1.14</v>
+        <v>1.02</v>
       </c>
       <c r="AT101">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="AU101">
         <v>5</v>
@@ -22191,25 +22191,25 @@
         <v>1.65</v>
       </c>
       <c r="AN102">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AO102">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AP102">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AQ102">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AR102">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="AS102">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AT102">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AU102">
         <v>6</v>
@@ -22400,22 +22400,22 @@
         <v>2.13</v>
       </c>
       <c r="AO103">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AP103">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ103">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR103">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AS103">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="AT103">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AU103">
         <v>9</v>
@@ -22603,25 +22603,25 @@
         <v>1.88</v>
       </c>
       <c r="AN104">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="AO104">
-        <v>2.18</v>
+        <v>2.13</v>
       </c>
       <c r="AP104">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ104">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR104">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="AS104">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT104">
-        <v>3.13</v>
+        <v>3.11</v>
       </c>
       <c r="AU104">
         <v>5</v>
@@ -22809,25 +22809,25 @@
         <v>1.83</v>
       </c>
       <c r="AN105">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="AO105">
+        <v>1.5</v>
+      </c>
+      <c r="AP105">
         <v>1.71</v>
       </c>
-      <c r="AP105">
-        <v>1.57</v>
-      </c>
       <c r="AQ105">
+        <v>1.35</v>
+      </c>
+      <c r="AR105">
+        <v>1.45</v>
+      </c>
+      <c r="AS105">
         <v>1.32</v>
       </c>
-      <c r="AR105">
-        <v>1.4</v>
-      </c>
-      <c r="AS105">
-        <v>1.26</v>
-      </c>
       <c r="AT105">
-        <v>2.66</v>
+        <v>2.77</v>
       </c>
       <c r="AU105">
         <v>6</v>
@@ -23015,25 +23015,25 @@
         <v>1.72</v>
       </c>
       <c r="AN106">
-        <v>0.9399999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="AO106">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AP106">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ106">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR106">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="AS106">
-        <v>1.15</v>
+        <v>1.02</v>
       </c>
       <c r="AT106">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AU106">
         <v>7</v>
@@ -23221,25 +23221,25 @@
         <v>1.32</v>
       </c>
       <c r="AN107">
-        <v>1.35</v>
+        <v>1.63</v>
       </c>
       <c r="AO107">
-        <v>1.41</v>
+        <v>1.75</v>
       </c>
       <c r="AP107">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ107">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AR107">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AS107">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="AT107">
-        <v>3.11</v>
+        <v>3.15</v>
       </c>
       <c r="AU107">
         <v>5</v>
@@ -23427,25 +23427,25 @@
         <v>2</v>
       </c>
       <c r="AN108">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="AO108">
-        <v>0.18</v>
+        <v>0.38</v>
       </c>
       <c r="AP108">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ108">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR108">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
       <c r="AS108">
-        <v>0.83</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT108">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="AU108">
         <v>3</v>
@@ -23633,25 +23633,25 @@
         <v>2.65</v>
       </c>
       <c r="AN109">
+        <v>2.5</v>
+      </c>
+      <c r="AO109">
         <v>1.88</v>
       </c>
-      <c r="AO109">
-        <v>1.53</v>
-      </c>
       <c r="AP109">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="AQ109">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AR109">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="AS109">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="AT109">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="AU109">
         <v>7</v>
@@ -23839,25 +23839,25 @@
         <v>2.25</v>
       </c>
       <c r="AN110">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="AO110">
-        <v>0.61</v>
+        <v>0.78</v>
       </c>
       <c r="AP110">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ110">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR110">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AS110">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
       <c r="AT110">
-        <v>2.45</v>
+        <v>2.36</v>
       </c>
       <c r="AU110">
         <v>8</v>
@@ -24045,25 +24045,25 @@
         <v>1.9</v>
       </c>
       <c r="AN111">
-        <v>1.33</v>
+        <v>1.56</v>
       </c>
       <c r="AO111">
+        <v>0.67</v>
+      </c>
+      <c r="AP111">
+        <v>1.71</v>
+      </c>
+      <c r="AQ111">
         <v>0.9399999999999999</v>
       </c>
-      <c r="AP111">
-        <v>1.57</v>
-      </c>
-      <c r="AQ111">
-        <v>0.97</v>
-      </c>
       <c r="AR111">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AS111">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="AT111">
-        <v>2.76</v>
+        <v>2.62</v>
       </c>
       <c r="AU111">
         <v>4</v>
@@ -24251,25 +24251,25 @@
         <v>1.1</v>
       </c>
       <c r="AN112">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AO112">
-        <v>2.22</v>
+        <v>2.33</v>
       </c>
       <c r="AP112">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ112">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR112">
-        <v>1.12</v>
+        <v>1.27</v>
       </c>
       <c r="AS112">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="AT112">
-        <v>2.67</v>
+        <v>2.76</v>
       </c>
       <c r="AU112">
         <v>3</v>
@@ -24457,25 +24457,25 @@
         <v>1.28</v>
       </c>
       <c r="AN113">
-        <v>1.61</v>
+        <v>1.89</v>
       </c>
       <c r="AO113">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="AP113">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AQ113">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR113">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AS113">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="AT113">
-        <v>2.79</v>
+        <v>2.69</v>
       </c>
       <c r="AU113">
         <v>2</v>
@@ -24663,25 +24663,25 @@
         <v>1.2</v>
       </c>
       <c r="AN114">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO114">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="AP114">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ114">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AR114">
-        <v>0.84</v>
+        <v>0.96</v>
       </c>
       <c r="AS114">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="AT114">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="AU114">
         <v>5</v>
@@ -24869,25 +24869,25 @@
         <v>1.67</v>
       </c>
       <c r="AN115">
-        <v>2.11</v>
+        <v>2.22</v>
       </c>
       <c r="AO115">
-        <v>1.5</v>
+        <v>1.89</v>
       </c>
       <c r="AP115">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ115">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AR115">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AS115">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="AT115">
-        <v>3.34</v>
+        <v>3.45</v>
       </c>
       <c r="AU115">
         <v>7</v>
@@ -25075,25 +25075,25 @@
         <v>5.45</v>
       </c>
       <c r="AN116">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="AO116">
-        <v>0.32</v>
+        <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ116">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR116">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="AS116">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AT116">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="AU116">
         <v>12</v>
@@ -25281,25 +25281,25 @@
         <v>2.05</v>
       </c>
       <c r="AN117">
-        <v>1.79</v>
+        <v>2.33</v>
       </c>
       <c r="AO117">
-        <v>1.37</v>
+        <v>1.11</v>
       </c>
       <c r="AP117">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="AQ117">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AR117">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AS117">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT117">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="AU117">
         <v>4</v>
@@ -25487,25 +25487,25 @@
         <v>1.55</v>
       </c>
       <c r="AN118">
-        <v>0.89</v>
+        <v>1.22</v>
       </c>
       <c r="AO118">
-        <v>1.58</v>
+        <v>1.33</v>
       </c>
       <c r="AP118">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ118">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AR118">
-        <v>1.37</v>
+        <v>1.55</v>
       </c>
       <c r="AS118">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="AT118">
-        <v>2.61</v>
+        <v>2.89</v>
       </c>
       <c r="AU118">
         <v>4</v>
@@ -25693,25 +25693,25 @@
         <v>1.66</v>
       </c>
       <c r="AN119">
-        <v>1.58</v>
+        <v>1.22</v>
       </c>
       <c r="AO119">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AP119">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ119">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR119">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AS119">
-        <v>1.1</v>
+        <v>0.96</v>
       </c>
       <c r="AT119">
-        <v>2.35</v>
+        <v>2.26</v>
       </c>
       <c r="AU119">
         <v>5</v>
@@ -25899,25 +25899,25 @@
         <v>1.12</v>
       </c>
       <c r="AN120">
-        <v>0.58</v>
+        <v>0.44</v>
       </c>
       <c r="AO120">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AP120">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ120">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR120">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AS120">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="AT120">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="AU120">
         <v>4</v>
@@ -26105,25 +26105,25 @@
         <v>1.9</v>
       </c>
       <c r="AN121">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AO121">
-        <v>1.42</v>
+        <v>1.11</v>
       </c>
       <c r="AP121">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AQ121">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AR121">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="AS121">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="AT121">
-        <v>3.15</v>
+        <v>3.16</v>
       </c>
       <c r="AU121">
         <v>6</v>
@@ -26311,25 +26311,25 @@
         <v>1.3</v>
       </c>
       <c r="AN122">
-        <v>0.55</v>
+        <v>0.4</v>
       </c>
       <c r="AO122">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="AP122">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ122">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AR122">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AS122">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT122">
-        <v>2.46</v>
+        <v>2.67</v>
       </c>
       <c r="AU122">
         <v>6</v>
@@ -26517,25 +26517,25 @@
         <v>1.3</v>
       </c>
       <c r="AN123">
-        <v>0.85</v>
+        <v>1.1</v>
       </c>
       <c r="AO123">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="AP123">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ123">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR123">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="AS123">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AT123">
-        <v>2.85</v>
+        <v>2.98</v>
       </c>
       <c r="AU123">
         <v>0</v>
@@ -26723,25 +26723,25 @@
         <v>1.3</v>
       </c>
       <c r="AN124">
-        <v>0.95</v>
+        <v>1.2</v>
       </c>
       <c r="AO124">
+        <v>1</v>
+      </c>
+      <c r="AP124">
+        <v>1.25</v>
+      </c>
+      <c r="AQ124">
+        <v>1.44</v>
+      </c>
+      <c r="AR124">
+        <v>1.22</v>
+      </c>
+      <c r="AS124">
         <v>1.35</v>
       </c>
-      <c r="AP124">
-        <v>1</v>
-      </c>
-      <c r="AQ124">
-        <v>1.57</v>
-      </c>
-      <c r="AR124">
-        <v>1.11</v>
-      </c>
-      <c r="AS124">
-        <v>1.37</v>
-      </c>
       <c r="AT124">
-        <v>2.48</v>
+        <v>2.57</v>
       </c>
       <c r="AU124">
         <v>5</v>
@@ -26929,25 +26929,25 @@
         <v>4.33</v>
       </c>
       <c r="AN125">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="AO125">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AP125">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AQ125">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR125">
         <v>1.75</v>
       </c>
       <c r="AS125">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT125">
-        <v>2.59</v>
+        <v>2.44</v>
       </c>
       <c r="AU125">
         <v>5</v>
@@ -27138,22 +27138,22 @@
         <v>2.1</v>
       </c>
       <c r="AO126">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AP126">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ126">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AR126">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="AS126">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AT126">
-        <v>2.87</v>
+        <v>2.94</v>
       </c>
       <c r="AU126">
         <v>9</v>
@@ -27344,22 +27344,22 @@
         <v>2.2</v>
       </c>
       <c r="AO127">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="AP127">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ127">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AR127">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AS127">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT127">
-        <v>2.85</v>
+        <v>2.89</v>
       </c>
       <c r="AU127">
         <v>5</v>
@@ -27547,25 +27547,25 @@
         <v>1.21</v>
       </c>
       <c r="AN128">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="AO128">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="AP128">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="AQ128">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR128">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="AS128">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="AT128">
-        <v>3.06</v>
+        <v>3.03</v>
       </c>
       <c r="AU128">
         <v>5</v>
@@ -27753,25 +27753,25 @@
         <v>1.78</v>
       </c>
       <c r="AN129">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="AO129">
-        <v>0.86</v>
+        <v>0.6</v>
       </c>
       <c r="AP129">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ129">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR129">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="AS129">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="AT129">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="AU129">
         <v>5</v>
@@ -27959,25 +27959,25 @@
         <v>2.5</v>
       </c>
       <c r="AN130">
-        <v>1.43</v>
+        <v>1.7</v>
       </c>
       <c r="AO130">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AP130">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AQ130">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR130">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AS130">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="AT130">
-        <v>2.57</v>
+        <v>2.48</v>
       </c>
       <c r="AU130">
         <v>5</v>
@@ -28165,25 +28165,25 @@
         <v>1.3</v>
       </c>
       <c r="AN131">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="AO131">
-        <v>1.52</v>
+        <v>1.8</v>
       </c>
       <c r="AP131">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ131">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AR131">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AS131">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="AT131">
-        <v>2.94</v>
+        <v>3.04</v>
       </c>
       <c r="AU131">
         <v>5</v>
@@ -28371,25 +28371,25 @@
         <v>1.25</v>
       </c>
       <c r="AN132">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO132">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="AP132">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ132">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR132">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="AS132">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="AT132">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="AU132">
         <v>8</v>
@@ -28577,25 +28577,25 @@
         <v>1.3</v>
       </c>
       <c r="AN133">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="AO133">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="AP133">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AQ133">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR133">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="AS133">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="AT133">
-        <v>2.83</v>
+        <v>2.64</v>
       </c>
       <c r="AU133">
         <v>2</v>
@@ -28992,22 +28992,22 @@
         <v>0.64</v>
       </c>
       <c r="AO135">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="AP135">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ135">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AR135">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="AS135">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="AT135">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="AU135">
         <v>3</v>
@@ -29195,25 +29195,25 @@
         <v>1.3</v>
       </c>
       <c r="AN136">
-        <v>0.86</v>
+        <v>1.09</v>
       </c>
       <c r="AO136">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="AP136">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ136">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AR136">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="AS136">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="AT136">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="AU136">
         <v>6</v>
@@ -29401,25 +29401,25 @@
         <v>1.95</v>
       </c>
       <c r="AN137">
-        <v>0.86</v>
+        <v>1.09</v>
       </c>
       <c r="AO137">
-        <v>0.45</v>
+        <v>0.64</v>
       </c>
       <c r="AP137">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ137">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR137">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="AS137">
-        <v>0.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT137">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="AU137">
         <v>5</v>
@@ -30019,25 +30019,25 @@
         <v>2.2</v>
       </c>
       <c r="AN140">
-        <v>1.48</v>
+        <v>1.82</v>
       </c>
       <c r="AO140">
-        <v>0.87</v>
+        <v>0.64</v>
       </c>
       <c r="AP140">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AQ140">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR140">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AS140">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="AT140">
-        <v>2.51</v>
+        <v>2.43</v>
       </c>
       <c r="AU140">
         <v>2</v>
@@ -30225,25 +30225,25 @@
         <v>1.38</v>
       </c>
       <c r="AN141">
-        <v>0.48</v>
+        <v>0.27</v>
       </c>
       <c r="AO141">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="AP141">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ141">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR141">
-        <v>0.87</v>
+        <v>1.03</v>
       </c>
       <c r="AS141">
-        <v>1.19</v>
+        <v>1.08</v>
       </c>
       <c r="AT141">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AU141">
         <v>4</v>
@@ -30431,25 +30431,25 @@
         <v>1.6</v>
       </c>
       <c r="AN142">
-        <v>1.35</v>
+        <v>1.55</v>
       </c>
       <c r="AO142">
-        <v>0.87</v>
+        <v>0.64</v>
       </c>
       <c r="AP142">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ142">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR142">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AS142">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="AT142">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="AU142">
         <v>5</v>
@@ -31255,25 +31255,25 @@
         <v>2</v>
       </c>
       <c r="AN146">
-        <v>0.88</v>
+        <v>1.08</v>
       </c>
       <c r="AO146">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="AP146">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ146">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR146">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AS146">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="AT146">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="AU146">
         <v>4</v>
@@ -31461,25 +31461,25 @@
         <v>3.4</v>
       </c>
       <c r="AN147">
-        <v>1.46</v>
+        <v>1.75</v>
       </c>
       <c r="AO147">
-        <v>0.46</v>
+        <v>0.67</v>
       </c>
       <c r="AP147">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AQ147">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR147">
         <v>1.34</v>
       </c>
       <c r="AS147">
-        <v>0.88</v>
+        <v>0.73</v>
       </c>
       <c r="AT147">
-        <v>2.22</v>
+        <v>2.07</v>
       </c>
       <c r="AU147">
         <v>4</v>
@@ -31667,25 +31667,25 @@
         <v>1.47</v>
       </c>
       <c r="AN148">
-        <v>0.88</v>
+        <v>1.08</v>
       </c>
       <c r="AO148">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AP148">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ148">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AR148">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="AS148">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="AT148">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="AU148">
         <v>3</v>
@@ -32697,25 +32697,25 @@
         <v>1.22</v>
       </c>
       <c r="AN153">
-        <v>0.48</v>
+        <v>0.25</v>
       </c>
       <c r="AO153">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="AP153">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ153">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR153">
-        <v>0.87</v>
+        <v>1.03</v>
       </c>
       <c r="AS153">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="AT153">
-        <v>2.23</v>
+        <v>2.35</v>
       </c>
       <c r="AU153">
         <v>3</v>
@@ -32903,25 +32903,25 @@
         <v>1.44</v>
       </c>
       <c r="AN154">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="AO154">
+        <v>1.17</v>
+      </c>
+      <c r="AP154">
+        <v>1.29</v>
+      </c>
+      <c r="AQ154">
         <v>1.44</v>
       </c>
-      <c r="AP154">
-        <v>1.39</v>
-      </c>
-      <c r="AQ154">
-        <v>1.57</v>
-      </c>
       <c r="AR154">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AS154">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AT154">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="AU154">
         <v>2</v>
@@ -33109,22 +33109,22 @@
         <v>1.52</v>
       </c>
       <c r="AN155">
-        <v>0.76</v>
+        <v>0.67</v>
       </c>
       <c r="AO155">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="AP155">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ155">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR155">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AS155">
-        <v>1.14</v>
+        <v>1.04</v>
       </c>
       <c r="AT155">
         <v>2.33</v>
@@ -33933,25 +33933,25 @@
         <v>1.73</v>
       </c>
       <c r="AN159">
-        <v>0.96</v>
+        <v>1.08</v>
       </c>
       <c r="AO159">
-        <v>0.85</v>
+        <v>0.62</v>
       </c>
       <c r="AP159">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ159">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR159">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="AS159">
-        <v>1.15</v>
+        <v>1.06</v>
       </c>
       <c r="AT159">
-        <v>2.51</v>
+        <v>2.47</v>
       </c>
       <c r="AU159">
         <v>4</v>
@@ -34139,25 +34139,25 @@
         <v>2.35</v>
       </c>
       <c r="AN160">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AO160">
-        <v>0.46</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP160">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ160">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR160">
         <v>1.23</v>
       </c>
       <c r="AS160">
-        <v>0.87</v>
+        <v>0.72</v>
       </c>
       <c r="AT160">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AU160">
         <v>5</v>
@@ -34345,25 +34345,25 @@
         <v>2.12</v>
       </c>
       <c r="AN161">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="AO161">
         <v>0.85</v>
       </c>
       <c r="AP161">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AQ161">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR161">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="AS161">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AT161">
-        <v>2.57</v>
+        <v>2.46</v>
       </c>
       <c r="AU161">
         <v>5</v>
@@ -34963,25 +34963,25 @@
         <v>1.22</v>
       </c>
       <c r="AN164">
-        <v>0.48</v>
+        <v>0.23</v>
       </c>
       <c r="AO164">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="AP164">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ164">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AR164">
-        <v>0.88</v>
+        <v>1.02</v>
       </c>
       <c r="AS164">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AT164">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="AU164">
         <v>5</v>
@@ -35169,25 +35169,25 @@
         <v>1.28</v>
       </c>
       <c r="AN165">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AO165">
-        <v>1.56</v>
+        <v>1.31</v>
       </c>
       <c r="AP165">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ165">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AR165">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AS165">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="AT165">
-        <v>2.57</v>
+        <v>2.69</v>
       </c>
       <c r="AU165">
         <v>5</v>
@@ -35375,25 +35375,25 @@
         <v>1.48</v>
       </c>
       <c r="AN166">
+        <v>1.08</v>
+      </c>
+      <c r="AO166">
         <v>0.85</v>
       </c>
-      <c r="AO166">
-        <v>0.96</v>
-      </c>
       <c r="AP166">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ166">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR166">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AS166">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AT166">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AU166">
         <v>5</v>
@@ -36199,25 +36199,25 @@
         <v>1.95</v>
       </c>
       <c r="AN170">
-        <v>1.5</v>
+        <v>1.79</v>
       </c>
       <c r="AO170">
-        <v>0.93</v>
+        <v>0.79</v>
       </c>
       <c r="AP170">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AQ170">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR170">
         <v>1.36</v>
       </c>
       <c r="AS170">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AT170">
-        <v>2.69</v>
+        <v>2.64</v>
       </c>
       <c r="AU170">
         <v>4</v>
@@ -36405,25 +36405,25 @@
         <v>1.95</v>
       </c>
       <c r="AN171">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AO171">
-        <v>0.46</v>
+        <v>0.71</v>
       </c>
       <c r="AP171">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ171">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR171">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AS171">
-        <v>0.91</v>
+        <v>0.74</v>
       </c>
       <c r="AT171">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AU171">
         <v>3</v>
@@ -36611,25 +36611,25 @@
         <v>1.77</v>
       </c>
       <c r="AN172">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="AO172">
-        <v>0.93</v>
+        <v>0.64</v>
       </c>
       <c r="AP172">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ172">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR172">
         <v>1.24</v>
       </c>
       <c r="AS172">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="AT172">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AU172">
         <v>5</v>
@@ -37435,25 +37435,25 @@
         <v>1.18</v>
       </c>
       <c r="AN176">
-        <v>0.48</v>
+        <v>0.21</v>
       </c>
       <c r="AO176">
-        <v>1.48</v>
+        <v>1.21</v>
       </c>
       <c r="AP176">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ176">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AR176">
-        <v>0.9399999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="AS176">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AT176">
-        <v>2.29</v>
+        <v>2.44</v>
       </c>
       <c r="AU176">
         <v>9</v>
@@ -37641,25 +37641,25 @@
         <v>1.65</v>
       </c>
       <c r="AN177">
-        <v>1</v>
+        <v>1.21</v>
       </c>
       <c r="AO177">
-        <v>0.9</v>
+        <v>0.79</v>
       </c>
       <c r="AP177">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ177">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR177">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AS177">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AT177">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="AU177">
         <v>7</v>
@@ -37847,25 +37847,25 @@
         <v>1.65</v>
       </c>
       <c r="AN178">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AO178">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AP178">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ178">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AR178">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="AS178">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT178">
-        <v>2.57</v>
+        <v>2.61</v>
       </c>
       <c r="AU178">
         <v>5</v>
@@ -38671,25 +38671,25 @@
         <v>1.45</v>
       </c>
       <c r="AN182">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AO182">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AP182">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ182">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR182">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AS182">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="AT182">
-        <v>2.54</v>
+        <v>2.55</v>
       </c>
       <c r="AU182">
         <v>3</v>
@@ -38877,25 +38877,25 @@
         <v>1.3</v>
       </c>
       <c r="AN183">
-        <v>0.57</v>
+        <v>0.4</v>
       </c>
       <c r="AO183">
+        <v>0.8</v>
+      </c>
+      <c r="AP183">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AQ183">
+        <v>0.75</v>
+      </c>
+      <c r="AR183">
+        <v>1.13</v>
+      </c>
+      <c r="AS183">
         <v>1.07</v>
       </c>
-      <c r="AP183">
-        <v>0.66</v>
-      </c>
-      <c r="AQ183">
-        <v>1</v>
-      </c>
-      <c r="AR183">
-        <v>0.97</v>
-      </c>
-      <c r="AS183">
-        <v>1.15</v>
-      </c>
       <c r="AT183">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="AU183">
         <v>5</v>
@@ -39083,25 +39083,25 @@
         <v>2</v>
       </c>
       <c r="AN184">
-        <v>1.43</v>
+        <v>1.73</v>
       </c>
       <c r="AO184">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AP184">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AQ184">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AR184">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AS184">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AT184">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="AU184">
         <v>8</v>
@@ -39907,25 +39907,25 @@
         <v>1.7</v>
       </c>
       <c r="AN188">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="AO188">
-        <v>0.84</v>
+        <v>0.73</v>
       </c>
       <c r="AP188">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ188">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR188">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="AS188">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AT188">
-        <v>2.43</v>
+        <v>2.36</v>
       </c>
       <c r="AU188">
         <v>4</v>
@@ -40113,25 +40113,25 @@
         <v>1.3</v>
       </c>
       <c r="AN189">
-        <v>1.03</v>
+        <v>1.33</v>
       </c>
       <c r="AO189">
-        <v>1.39</v>
+        <v>1.13</v>
       </c>
       <c r="AP189">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ189">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AR189">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AS189">
         <v>1.38</v>
       </c>
       <c r="AT189">
-        <v>2.54</v>
+        <v>2.61</v>
       </c>
       <c r="AU189">
         <v>4</v>
@@ -40319,25 +40319,25 @@
         <v>2.3</v>
       </c>
       <c r="AN190">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AO190">
-        <v>0.65</v>
+        <v>0.73</v>
       </c>
       <c r="AP190">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ190">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR190">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="AS190">
-        <v>0.99</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT190">
-        <v>2.31</v>
+        <v>2.23</v>
       </c>
       <c r="AU190">
         <v>12</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ2">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2009,10 +2009,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AQ4">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2215,10 +2215,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ5">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2421,10 +2421,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ6">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2627,10 +2627,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ7">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2827,25 +2827,25 @@
         <v>2.6</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO8">
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AQ8">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>3.12</v>
       </c>
       <c r="AU8">
         <v>15</v>
@@ -3033,25 +3033,25 @@
         <v>2.15</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AQ9">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AU9">
         <v>7</v>
@@ -3239,25 +3239,25 @@
         <v>1.22</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO10">
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ10">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AU10">
         <v>7</v>
@@ -3445,25 +3445,25 @@
         <v>4.75</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ11">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>3.09</v>
       </c>
       <c r="AU11">
         <v>9</v>
@@ -3654,22 +3654,22 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AU12">
         <v>5</v>
@@ -3857,25 +3857,25 @@
         <v>1.45</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AQ13">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AU13">
         <v>4</v>
@@ -4063,25 +4063,25 @@
         <v>1.87</v>
       </c>
       <c r="AN14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP14">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ14">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR14">
-        <v>1.31</v>
+        <v>1.12</v>
       </c>
       <c r="AS14">
-        <v>0.88</v>
+        <v>1.05</v>
       </c>
       <c r="AT14">
-        <v>2.19</v>
+        <v>2.17</v>
       </c>
       <c r="AU14">
         <v>6</v>
@@ -4272,22 +4272,22 @@
         <v>3</v>
       </c>
       <c r="AO15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP15">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AQ15">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR15">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="AS15">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="AT15">
-        <v>3.77</v>
+        <v>3.7</v>
       </c>
       <c r="AU15">
         <v>2</v>
@@ -4475,25 +4475,25 @@
         <v>2.6</v>
       </c>
       <c r="AN16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP16">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR16">
-        <v>1.19</v>
+        <v>0.95</v>
       </c>
       <c r="AS16">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AT16">
-        <v>2.24</v>
+        <v>1.96</v>
       </c>
       <c r="AU16">
         <v>6</v>
@@ -4684,22 +4684,22 @@
         <v>3</v>
       </c>
       <c r="AO17">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AP17">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ17">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AR17">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="AS17">
-        <v>2.23</v>
+        <v>1.55</v>
       </c>
       <c r="AT17">
-        <v>4.37</v>
+        <v>3.57</v>
       </c>
       <c r="AU17">
         <v>7</v>
@@ -4887,25 +4887,25 @@
         <v>2.3</v>
       </c>
       <c r="AN18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO18">
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AQ18">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AR18">
-        <v>2.76</v>
+        <v>2.43</v>
       </c>
       <c r="AS18">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT18">
-        <v>4.41</v>
+        <v>4.04</v>
       </c>
       <c r="AU18">
         <v>5</v>
@@ -5099,19 +5099,19 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ19">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR19">
-        <v>1.02</v>
+        <v>0.8</v>
       </c>
       <c r="AS19">
-        <v>0.61</v>
+        <v>0.9</v>
       </c>
       <c r="AT19">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU19">
         <v>9</v>
@@ -5302,22 +5302,22 @@
         <v>0</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP20">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ20">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AR20">
-        <v>1.19</v>
+        <v>0.77</v>
       </c>
       <c r="AS20">
-        <v>0.71</v>
+        <v>1.14</v>
       </c>
       <c r="AT20">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5505,25 +5505,25 @@
         <v>1.14</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AO21">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP21">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ21">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR21">
-        <v>1.23</v>
+        <v>0.9</v>
       </c>
       <c r="AS21">
-        <v>1.85</v>
+        <v>1.51</v>
       </c>
       <c r="AT21">
-        <v>3.08</v>
+        <v>2.41</v>
       </c>
       <c r="AU21">
         <v>2</v>
@@ -5711,25 +5711,25 @@
         <v>2</v>
       </c>
       <c r="AN22">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AQ22">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR22">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AS22">
-        <v>0.58</v>
+        <v>1.21</v>
       </c>
       <c r="AT22">
-        <v>2.36</v>
+        <v>2.91</v>
       </c>
       <c r="AU22">
         <v>6</v>
@@ -5917,25 +5917,25 @@
         <v>2</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO23">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP23">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AR23">
-        <v>0.86</v>
+        <v>1.1</v>
       </c>
       <c r="AS23">
-        <v>0.92</v>
+        <v>1.3</v>
       </c>
       <c r="AT23">
-        <v>1.78</v>
+        <v>2.4</v>
       </c>
       <c r="AU23">
         <v>6</v>
@@ -6123,25 +6123,25 @@
         <v>1.22</v>
       </c>
       <c r="AN24">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AO24">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP24">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AR24">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
       <c r="AS24">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AT24">
-        <v>3.08</v>
+        <v>3.06</v>
       </c>
       <c r="AU24">
         <v>6</v>
@@ -6329,25 +6329,25 @@
         <v>1.16</v>
       </c>
       <c r="AN25">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AO25">
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AQ25">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR25">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="AS25">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AT25">
-        <v>3.47</v>
+        <v>3.37</v>
       </c>
       <c r="AU25">
         <v>4</v>
@@ -6535,25 +6535,25 @@
         <v>1.14</v>
       </c>
       <c r="AN26">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO26">
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ26">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR26">
-        <v>1.48</v>
+        <v>1.17</v>
       </c>
       <c r="AS26">
-        <v>1.64</v>
+        <v>1.81</v>
       </c>
       <c r="AT26">
-        <v>3.12</v>
+        <v>2.98</v>
       </c>
       <c r="AU26">
         <v>4</v>
@@ -6741,25 +6741,25 @@
         <v>3.75</v>
       </c>
       <c r="AN27">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP27">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AQ27">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR27">
-        <v>1.34</v>
+        <v>1.55</v>
       </c>
       <c r="AS27">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AT27">
-        <v>2.37</v>
+        <v>2.6</v>
       </c>
       <c r="AU27">
         <v>6</v>
@@ -6947,25 +6947,25 @@
         <v>1.57</v>
       </c>
       <c r="AN28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP28">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ28">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR28">
-        <v>0.99</v>
+        <v>0.86</v>
       </c>
       <c r="AS28">
-        <v>0.67</v>
+        <v>1.1</v>
       </c>
       <c r="AT28">
-        <v>1.66</v>
+        <v>1.96</v>
       </c>
       <c r="AU28">
         <v>3</v>
@@ -7153,25 +7153,25 @@
         <v>1.87</v>
       </c>
       <c r="AN29">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AO29">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ29">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AR29">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="AS29">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AT29">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="AU29">
         <v>6</v>
@@ -7359,25 +7359,25 @@
         <v>2.15</v>
       </c>
       <c r="AN30">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP30">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AQ30">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR30">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AS30">
-        <v>0.5600000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="AT30">
-        <v>2.59</v>
+        <v>2.86</v>
       </c>
       <c r="AU30">
         <v>10</v>
@@ -7565,25 +7565,25 @@
         <v>1.55</v>
       </c>
       <c r="AN31">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO31">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AQ31">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR31">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AS31">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AT31">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="AU31">
         <v>2</v>
@@ -7771,25 +7771,25 @@
         <v>1.75</v>
       </c>
       <c r="AN32">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AO32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ32">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AR32">
-        <v>1.27</v>
+        <v>1.1</v>
       </c>
       <c r="AS32">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="AT32">
-        <v>2.61</v>
+        <v>2.31</v>
       </c>
       <c r="AU32">
         <v>4</v>
@@ -7977,25 +7977,25 @@
         <v>1.55</v>
       </c>
       <c r="AN33">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AO33">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AP33">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ33">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR33">
-        <v>1.23</v>
+        <v>0.9</v>
       </c>
       <c r="AS33">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
       <c r="AT33">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="AU33">
         <v>6</v>
@@ -8183,25 +8183,25 @@
         <v>1.12</v>
       </c>
       <c r="AN34">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AO34">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ34">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR34">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AS34">
-        <v>1.76</v>
+        <v>1.52</v>
       </c>
       <c r="AT34">
-        <v>3.29</v>
+        <v>2.9</v>
       </c>
       <c r="AU34">
         <v>5</v>
@@ -8392,22 +8392,22 @@
         <v>3</v>
       </c>
       <c r="AO35">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AP35">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ35">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AR35">
-        <v>1.98</v>
+        <v>1.73</v>
       </c>
       <c r="AS35">
-        <v>1.91</v>
+        <v>2.09</v>
       </c>
       <c r="AT35">
-        <v>3.89</v>
+        <v>3.82</v>
       </c>
       <c r="AU35">
         <v>5</v>
@@ -8595,25 +8595,25 @@
         <v>3.18</v>
       </c>
       <c r="AN36">
-        <v>2.33</v>
+        <v>1.6</v>
       </c>
       <c r="AO36">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AP36">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ36">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR36">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="AS36">
-        <v>0.74</v>
+        <v>0.9</v>
       </c>
       <c r="AT36">
-        <v>2.08</v>
+        <v>2.19</v>
       </c>
       <c r="AU36">
         <v>6</v>
@@ -8801,25 +8801,25 @@
         <v>2</v>
       </c>
       <c r="AN37">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AO37">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="AP37">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ37">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR37">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="AS37">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="AT37">
-        <v>2.92</v>
+        <v>2.78</v>
       </c>
       <c r="AU37">
         <v>8</v>
@@ -9007,25 +9007,25 @@
         <v>1.66</v>
       </c>
       <c r="AN38">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AO38">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AP38">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR38">
         <v>1.06</v>
       </c>
       <c r="AS38">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AT38">
-        <v>2.34</v>
+        <v>2.43</v>
       </c>
       <c r="AU38">
         <v>4</v>
@@ -9213,25 +9213,25 @@
         <v>1.3</v>
       </c>
       <c r="AN39">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AO39">
-        <v>0.5</v>
+        <v>1.83</v>
       </c>
       <c r="AP39">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AQ39">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AR39">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AS39">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="AT39">
-        <v>2.79</v>
+        <v>2.84</v>
       </c>
       <c r="AU39">
         <v>3</v>
@@ -9419,25 +9419,25 @@
         <v>1.45</v>
       </c>
       <c r="AN40">
-        <v>2.33</v>
+        <v>2.67</v>
       </c>
       <c r="AO40">
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AQ40">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR40">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AS40">
-        <v>1.56</v>
+        <v>1.69</v>
       </c>
       <c r="AT40">
-        <v>2.92</v>
+        <v>3.12</v>
       </c>
       <c r="AU40">
         <v>4</v>
@@ -9625,25 +9625,25 @@
         <v>1.6</v>
       </c>
       <c r="AN41">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO41">
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ41">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR41">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AS41">
-        <v>0.68</v>
+        <v>0.99</v>
       </c>
       <c r="AT41">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="AU41">
         <v>6</v>
@@ -9831,25 +9831,25 @@
         <v>1.44</v>
       </c>
       <c r="AN42">
-        <v>0.33</v>
+        <v>1.33</v>
       </c>
       <c r="AO42">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AP42">
+        <v>1.32</v>
+      </c>
+      <c r="AQ42">
+        <v>1.57</v>
+      </c>
+      <c r="AR42">
         <v>1.29</v>
       </c>
-      <c r="AQ42">
-        <v>1.44</v>
-      </c>
-      <c r="AR42">
-        <v>1.12</v>
-      </c>
       <c r="AS42">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AT42">
-        <v>2.22</v>
+        <v>2.59</v>
       </c>
       <c r="AU42">
         <v>8</v>
@@ -10043,19 +10043,19 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AQ43">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AR43">
-        <v>2.21</v>
+        <v>1.94</v>
       </c>
       <c r="AS43">
-        <v>0.86</v>
+        <v>1.15</v>
       </c>
       <c r="AT43">
-        <v>3.07</v>
+        <v>3.09</v>
       </c>
       <c r="AU43">
         <v>7</v>
@@ -10243,25 +10243,25 @@
         <v>4</v>
       </c>
       <c r="AN44">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AO44">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AP44">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ44">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR44">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AS44">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AT44">
-        <v>2.89</v>
+        <v>2.76</v>
       </c>
       <c r="AU44">
         <v>5</v>
@@ -10449,25 +10449,25 @@
         <v>2.2</v>
       </c>
       <c r="AN45">
-        <v>0.67</v>
+        <v>1.43</v>
       </c>
       <c r="AO45">
-        <v>0.67</v>
+        <v>0.29</v>
       </c>
       <c r="AP45">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AQ45">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR45">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AS45">
-        <v>0.61</v>
+        <v>0.92</v>
       </c>
       <c r="AT45">
-        <v>2.01</v>
+        <v>2.35</v>
       </c>
       <c r="AU45">
         <v>4</v>
@@ -10655,25 +10655,25 @@
         <v>1.42</v>
       </c>
       <c r="AN46">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AO46">
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ46">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AR46">
-        <v>1.29</v>
+        <v>1.1</v>
       </c>
       <c r="AS46">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT46">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AU46">
         <v>4</v>
@@ -10861,25 +10861,25 @@
         <v>2.4</v>
       </c>
       <c r="AN47">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO47">
-        <v>2.33</v>
+        <v>1.57</v>
       </c>
       <c r="AP47">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ47">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AR47">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="AS47">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="AT47">
-        <v>2.88</v>
+        <v>2.64</v>
       </c>
       <c r="AU47">
         <v>4</v>
@@ -11067,25 +11067,25 @@
         <v>1.3</v>
       </c>
       <c r="AN48">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AO48">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ48">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AR48">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="AS48">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="AT48">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="AU48">
         <v>3</v>
@@ -11273,25 +11273,25 @@
         <v>1.44</v>
       </c>
       <c r="AN49">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AO49">
-        <v>3</v>
+        <v>2.43</v>
       </c>
       <c r="AP49">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AQ49">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR49">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="AS49">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT49">
-        <v>3.57</v>
+        <v>3.3</v>
       </c>
       <c r="AU49">
         <v>4</v>
@@ -11479,25 +11479,25 @@
         <v>1.03</v>
       </c>
       <c r="AN50">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AO50">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AP50">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ50">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR50">
-        <v>1.15</v>
+        <v>0.93</v>
       </c>
       <c r="AS50">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="AT50">
-        <v>2.81</v>
+        <v>2.67</v>
       </c>
       <c r="AU50">
         <v>0</v>
@@ -11685,25 +11685,25 @@
         <v>1.47</v>
       </c>
       <c r="AN51">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO51">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="AP51">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ51">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR51">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
       <c r="AS51">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AT51">
-        <v>2.44</v>
+        <v>2.43</v>
       </c>
       <c r="AU51">
         <v>3</v>
@@ -11891,25 +11891,25 @@
         <v>1.4</v>
       </c>
       <c r="AN52">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO52">
-        <v>1.33</v>
+        <v>1.88</v>
       </c>
       <c r="AP52">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ52">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AR52">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AS52">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="AT52">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -12097,25 +12097,25 @@
         <v>3.55</v>
       </c>
       <c r="AN53">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AO53">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="AP53">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AQ53">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR53">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="AS53">
-        <v>0.96</v>
+        <v>1.09</v>
       </c>
       <c r="AT53">
-        <v>2.28</v>
+        <v>2.45</v>
       </c>
       <c r="AU53">
         <v>5</v>
@@ -12303,25 +12303,25 @@
         <v>1.73</v>
       </c>
       <c r="AN54">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO54">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AP54">
+        <v>1.32</v>
+      </c>
+      <c r="AQ54">
+        <v>0.97</v>
+      </c>
+      <c r="AR54">
         <v>1.29</v>
       </c>
-      <c r="AQ54">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AR54">
-        <v>1.23</v>
-      </c>
       <c r="AS54">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="AT54">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AU54">
         <v>2</v>
@@ -12509,25 +12509,25 @@
         <v>1.55</v>
       </c>
       <c r="AN55">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AO55">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AP55">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ55">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AR55">
-        <v>1.51</v>
+        <v>1.34</v>
       </c>
       <c r="AS55">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT55">
-        <v>3.18</v>
+        <v>3.14</v>
       </c>
       <c r="AU55">
         <v>3</v>
@@ -12715,25 +12715,25 @@
         <v>2</v>
       </c>
       <c r="AN56">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AO56">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ56">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR56">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AS56">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AT56">
-        <v>2.47</v>
+        <v>2.36</v>
       </c>
       <c r="AU56">
         <v>8</v>
@@ -12921,25 +12921,25 @@
         <v>1.14</v>
       </c>
       <c r="AN57">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="AO57">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AP57">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ57">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AR57">
-        <v>1.03</v>
+        <v>0.89</v>
       </c>
       <c r="AS57">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="AT57">
-        <v>2.72</v>
+        <v>2.69</v>
       </c>
       <c r="AU57">
         <v>3</v>
@@ -13127,25 +13127,25 @@
         <v>2.15</v>
       </c>
       <c r="AN58">
-        <v>1</v>
+        <v>1.44</v>
       </c>
       <c r="AO58">
-        <v>0.8</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP58">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AQ58">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR58">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="AS58">
-        <v>0.98</v>
+        <v>1.09</v>
       </c>
       <c r="AT58">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="AU58">
         <v>7</v>
@@ -13333,22 +13333,22 @@
         <v>2.65</v>
       </c>
       <c r="AN59">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="AO59">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ59">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR59">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="AS59">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="AT59">
         <v>2.61</v>
@@ -13539,25 +13539,25 @@
         <v>1.22</v>
       </c>
       <c r="AN60">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AO60">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AP60">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ60">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR60">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AS60">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT60">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="AU60">
         <v>3</v>
@@ -13745,25 +13745,25 @@
         <v>1.08</v>
       </c>
       <c r="AN61">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AO61">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="AP61">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AQ61">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR61">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AS61">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AT61">
-        <v>3.08</v>
+        <v>3.16</v>
       </c>
       <c r="AU61">
         <v>7</v>
@@ -13951,25 +13951,25 @@
         <v>1.9</v>
       </c>
       <c r="AN62">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="AO62">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AP62">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ62">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR62">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AS62">
-        <v>0.7</v>
+        <v>0.89</v>
       </c>
       <c r="AT62">
-        <v>1.72</v>
+        <v>1.93</v>
       </c>
       <c r="AU62">
         <v>8</v>
@@ -14157,25 +14157,25 @@
         <v>2.4</v>
       </c>
       <c r="AN63">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="AO63">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AP63">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ63">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AR63">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AS63">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="AT63">
-        <v>3.13</v>
+        <v>3.14</v>
       </c>
       <c r="AU63">
         <v>3</v>
@@ -14363,25 +14363,25 @@
         <v>2.38</v>
       </c>
       <c r="AN64">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AO64">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AP64">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AQ64">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AR64">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="AS64">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="AT64">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="AU64">
         <v>7</v>
@@ -14569,25 +14569,25 @@
         <v>1.51</v>
       </c>
       <c r="AN65">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AO65">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ65">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AR65">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AS65">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AT65">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="AU65">
         <v>11</v>
@@ -14775,25 +14775,25 @@
         <v>1.26</v>
       </c>
       <c r="AN66">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AO66">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AP66">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ66">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AR66">
-        <v>1.22</v>
+        <v>1.06</v>
       </c>
       <c r="AS66">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="AT66">
-        <v>2.45</v>
+        <v>2.41</v>
       </c>
       <c r="AU66">
         <v>4</v>
@@ -14981,25 +14981,25 @@
         <v>2.15</v>
       </c>
       <c r="AN67">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AO67">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AQ67">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR67">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AS67">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="AT67">
-        <v>3.29</v>
+        <v>3.24</v>
       </c>
       <c r="AU67">
         <v>6</v>
@@ -15187,25 +15187,25 @@
         <v>4.2</v>
       </c>
       <c r="AN68">
-        <v>1.8</v>
+        <v>2.09</v>
       </c>
       <c r="AO68">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AP68">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ68">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR68">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="AS68">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="AT68">
-        <v>2.96</v>
+        <v>3.07</v>
       </c>
       <c r="AU68">
         <v>5</v>
@@ -15393,25 +15393,25 @@
         <v>2.25</v>
       </c>
       <c r="AN69">
-        <v>1.2</v>
+        <v>1.64</v>
       </c>
       <c r="AO69">
-        <v>0.67</v>
+        <v>0.45</v>
       </c>
       <c r="AP69">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AQ69">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR69">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="AS69">
-        <v>0.96</v>
+        <v>1.08</v>
       </c>
       <c r="AT69">
-        <v>2.39</v>
+        <v>2.47</v>
       </c>
       <c r="AU69">
         <v>2</v>
@@ -15599,25 +15599,25 @@
         <v>1.52</v>
       </c>
       <c r="AN70">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="AO70">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AP70">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ70">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AR70">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AS70">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="AT70">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="AU70">
         <v>8</v>
@@ -15805,25 +15805,25 @@
         <v>1.25</v>
       </c>
       <c r="AN71">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AO71">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AP71">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ71">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AR71">
-        <v>1.01</v>
+        <v>0.86</v>
       </c>
       <c r="AS71">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT71">
-        <v>2.26</v>
+        <v>2.09</v>
       </c>
       <c r="AU71">
         <v>2</v>
@@ -16011,25 +16011,25 @@
         <v>2.25</v>
       </c>
       <c r="AN72">
-        <v>2.33</v>
+        <v>2.45</v>
       </c>
       <c r="AO72">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AP72">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AQ72">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AR72">
         <v>1.45</v>
       </c>
       <c r="AS72">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="AT72">
-        <v>2.83</v>
+        <v>2.87</v>
       </c>
       <c r="AU72">
         <v>5</v>
@@ -16217,25 +16217,25 @@
         <v>1.72</v>
       </c>
       <c r="AN73">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AO73">
+        <v>1.91</v>
+      </c>
+      <c r="AP73">
+        <v>1.41</v>
+      </c>
+      <c r="AQ73">
+        <v>1.63</v>
+      </c>
+      <c r="AR73">
+        <v>1.78</v>
+      </c>
+      <c r="AS73">
         <v>1.4</v>
       </c>
-      <c r="AP73">
-        <v>1.19</v>
-      </c>
-      <c r="AQ73">
-        <v>1.31</v>
-      </c>
-      <c r="AR73">
-        <v>1.79</v>
-      </c>
-      <c r="AS73">
-        <v>1.34</v>
-      </c>
       <c r="AT73">
-        <v>3.13</v>
+        <v>3.18</v>
       </c>
       <c r="AU73">
         <v>9</v>
@@ -16423,25 +16423,25 @@
         <v>1.01</v>
       </c>
       <c r="AN74">
-        <v>0.2</v>
+        <v>0.42</v>
       </c>
       <c r="AO74">
-        <v>2.33</v>
+        <v>2.17</v>
       </c>
       <c r="AP74">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ74">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR74">
-        <v>1.23</v>
+        <v>1.08</v>
       </c>
       <c r="AS74">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="AT74">
-        <v>2.92</v>
+        <v>2.74</v>
       </c>
       <c r="AU74">
         <v>5</v>
@@ -16629,25 +16629,25 @@
         <v>2.9</v>
       </c>
       <c r="AN75">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AO75">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="AP75">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ75">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR75">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AS75">
-        <v>0.6899999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AT75">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="AU75">
         <v>3</v>
@@ -16838,22 +16838,22 @@
         <v>1.17</v>
       </c>
       <c r="AO76">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AP76">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ76">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR76">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="AS76">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AT76">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="AU76">
         <v>10</v>
@@ -17041,25 +17041,25 @@
         <v>1.28</v>
       </c>
       <c r="AN77">
-        <v>1.4</v>
+        <v>1.08</v>
       </c>
       <c r="AO77">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AP77">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ77">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AR77">
-        <v>1.52</v>
+        <v>1.35</v>
       </c>
       <c r="AS77">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="AT77">
-        <v>3.28</v>
+        <v>3.14</v>
       </c>
       <c r="AU77">
         <v>2</v>
@@ -17247,25 +17247,25 @@
         <v>1.87</v>
       </c>
       <c r="AN78">
-        <v>1.33</v>
+        <v>1.58</v>
       </c>
       <c r="AO78">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AP78">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AQ78">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR78">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AS78">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="AT78">
-        <v>2.25</v>
+        <v>2.44</v>
       </c>
       <c r="AU78">
         <v>8</v>
@@ -17453,25 +17453,25 @@
         <v>1.47</v>
       </c>
       <c r="AN79">
-        <v>2.33</v>
+        <v>1.83</v>
       </c>
       <c r="AO79">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="AP79">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ79">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR79">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="AS79">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="AT79">
-        <v>2.91</v>
+        <v>2.89</v>
       </c>
       <c r="AU79">
         <v>11</v>
@@ -17659,25 +17659,25 @@
         <v>1.24</v>
       </c>
       <c r="AN80">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="AO80">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AP80">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ80">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AR80">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="AS80">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT80">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
       <c r="AU80">
         <v>4</v>
@@ -17865,25 +17865,25 @@
         <v>1.35</v>
       </c>
       <c r="AN81">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="AO81">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="AP81">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AQ81">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AR81">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="AS81">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AT81">
-        <v>2.99</v>
+        <v>3.1</v>
       </c>
       <c r="AU81">
         <v>2</v>
@@ -18071,25 +18071,25 @@
         <v>1.4</v>
       </c>
       <c r="AN82">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="AO82">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AP82">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ82">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR82">
-        <v>1.23</v>
+        <v>1.1</v>
       </c>
       <c r="AS82">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="AT82">
-        <v>2.46</v>
+        <v>2.41</v>
       </c>
       <c r="AU82">
         <v>8</v>
@@ -18277,25 +18277,25 @@
         <v>1.22</v>
       </c>
       <c r="AN83">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AO83">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AP83">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AQ83">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR83">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AS83">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="AT83">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="AU83">
         <v>0</v>
@@ -18483,25 +18483,25 @@
         <v>1.25</v>
       </c>
       <c r="AN84">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AO84">
-        <v>1.33</v>
+        <v>1.92</v>
       </c>
       <c r="AP84">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ84">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AR84">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AS84">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="AT84">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AU84">
         <v>7</v>
@@ -18689,25 +18689,25 @@
         <v>1.22</v>
       </c>
       <c r="AN85">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AO85">
-        <v>2.43</v>
+        <v>2.23</v>
       </c>
       <c r="AP85">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ85">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR85">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="AS85">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="AT85">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AU85">
         <v>8</v>
@@ -18895,25 +18895,25 @@
         <v>3.83</v>
       </c>
       <c r="AN86">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AO86">
-        <v>0.5</v>
+        <v>0.21</v>
       </c>
       <c r="AP86">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AQ86">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR86">
         <v>1.48</v>
       </c>
       <c r="AS86">
-        <v>0.68</v>
+        <v>0.86</v>
       </c>
       <c r="AT86">
-        <v>2.16</v>
+        <v>2.34</v>
       </c>
       <c r="AU86">
         <v>9</v>
@@ -19101,25 +19101,25 @@
         <v>3.1</v>
       </c>
       <c r="AN87">
-        <v>2.43</v>
+        <v>1.79</v>
       </c>
       <c r="AO87">
         <v>0.57</v>
       </c>
       <c r="AP87">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ87">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR87">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AS87">
-        <v>0.98</v>
+        <v>1.13</v>
       </c>
       <c r="AT87">
-        <v>2.51</v>
+        <v>2.61</v>
       </c>
       <c r="AU87">
         <v>3</v>
@@ -19307,25 +19307,25 @@
         <v>2.95</v>
       </c>
       <c r="AN88">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AO88">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AP88">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ88">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AR88">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AS88">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="AT88">
-        <v>3.04</v>
+        <v>2.86</v>
       </c>
       <c r="AU88">
         <v>7</v>
@@ -19516,22 +19516,22 @@
         <v>1.43</v>
       </c>
       <c r="AO89">
+        <v>1.36</v>
+      </c>
+      <c r="AP89">
+        <v>1.39</v>
+      </c>
+      <c r="AQ89">
+        <v>1.57</v>
+      </c>
+      <c r="AR89">
         <v>1.29</v>
       </c>
-      <c r="AP89">
-        <v>1.29</v>
-      </c>
-      <c r="AQ89">
-        <v>1.44</v>
-      </c>
-      <c r="AR89">
-        <v>1.34</v>
-      </c>
       <c r="AS89">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="AT89">
-        <v>2.69</v>
+        <v>2.7</v>
       </c>
       <c r="AU89">
         <v>5</v>
@@ -19719,25 +19719,25 @@
         <v>1.63</v>
       </c>
       <c r="AN90">
-        <v>1.17</v>
+        <v>0.93</v>
       </c>
       <c r="AO90">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AP90">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ90">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR90">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="AS90">
         <v>1.22</v>
       </c>
       <c r="AT90">
-        <v>2.63</v>
+        <v>2.53</v>
       </c>
       <c r="AU90">
         <v>4</v>
@@ -19925,25 +19925,25 @@
         <v>3</v>
       </c>
       <c r="AN91">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AO91">
-        <v>0.86</v>
+        <v>1.14</v>
       </c>
       <c r="AP91">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AQ91">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR91">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="AS91">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="AT91">
-        <v>2.91</v>
+        <v>2.99</v>
       </c>
       <c r="AU91">
         <v>8</v>
@@ -20131,22 +20131,22 @@
         <v>3.3</v>
       </c>
       <c r="AN92">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AO92">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AP92">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ92">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AR92">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="AS92">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AT92">
         <v>2.82</v>
@@ -20337,25 +20337,25 @@
         <v>1.22</v>
       </c>
       <c r="AN93">
-        <v>1.43</v>
+        <v>1.07</v>
       </c>
       <c r="AO93">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AP93">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ93">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR93">
-        <v>1.24</v>
+        <v>1.12</v>
       </c>
       <c r="AS93">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AT93">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="AU93">
         <v>4</v>
@@ -20543,25 +20543,25 @@
         <v>1.48</v>
       </c>
       <c r="AN94">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="AO94">
-        <v>1.14</v>
+        <v>1.87</v>
       </c>
       <c r="AP94">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ94">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AR94">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="AS94">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="AT94">
-        <v>2.91</v>
+        <v>2.87</v>
       </c>
       <c r="AU94">
         <v>4</v>
@@ -20749,25 +20749,25 @@
         <v>1.45</v>
       </c>
       <c r="AN95">
+        <v>1.6</v>
+      </c>
+      <c r="AO95">
+        <v>1.67</v>
+      </c>
+      <c r="AP95">
+        <v>1.22</v>
+      </c>
+      <c r="AQ95">
+        <v>1.32</v>
+      </c>
+      <c r="AR95">
+        <v>1.18</v>
+      </c>
+      <c r="AS95">
         <v>1.29</v>
       </c>
-      <c r="AO95">
-        <v>1.57</v>
-      </c>
-      <c r="AP95">
-        <v>1.19</v>
-      </c>
-      <c r="AQ95">
-        <v>1.35</v>
-      </c>
-      <c r="AR95">
-        <v>1.21</v>
-      </c>
-      <c r="AS95">
-        <v>1.37</v>
-      </c>
       <c r="AT95">
-        <v>2.58</v>
+        <v>2.47</v>
       </c>
       <c r="AU95">
         <v>7</v>
@@ -20955,25 +20955,25 @@
         <v>2.4</v>
       </c>
       <c r="AN96">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="AO96">
-        <v>0.43</v>
+        <v>0.2</v>
       </c>
       <c r="AP96">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ96">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR96">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="AS96">
-        <v>0.71</v>
+        <v>0.85</v>
       </c>
       <c r="AT96">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="AU96">
         <v>11</v>
@@ -21161,25 +21161,25 @@
         <v>1.12</v>
       </c>
       <c r="AN97">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AO97">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="AP97">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ97">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AR97">
-        <v>1.28</v>
+        <v>1.14</v>
       </c>
       <c r="AS97">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="AT97">
-        <v>3.12</v>
+        <v>2.97</v>
       </c>
       <c r="AU97">
         <v>4</v>
@@ -21367,25 +21367,25 @@
         <v>1.28</v>
       </c>
       <c r="AN98">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO98">
         <v>2.25</v>
       </c>
       <c r="AP98">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AQ98">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR98">
         <v>1.83</v>
       </c>
       <c r="AS98">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AT98">
-        <v>3.34</v>
+        <v>3.39</v>
       </c>
       <c r="AU98">
         <v>6</v>
@@ -21573,25 +21573,25 @@
         <v>1.09</v>
       </c>
       <c r="AN99">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="AO99">
-        <v>1.13</v>
+        <v>1.81</v>
       </c>
       <c r="AP99">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ99">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AR99">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="AS99">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AT99">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="AU99">
         <v>3</v>
@@ -21779,25 +21779,25 @@
         <v>1.36</v>
       </c>
       <c r="AN100">
+        <v>1.56</v>
+      </c>
+      <c r="AO100">
         <v>1.25</v>
       </c>
-      <c r="AO100">
-        <v>1.13</v>
-      </c>
       <c r="AP100">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AQ100">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AR100">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="AS100">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="AT100">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="AU100">
         <v>7</v>
@@ -21985,25 +21985,25 @@
         <v>1.75</v>
       </c>
       <c r="AN101">
-        <v>1.38</v>
+        <v>1.06</v>
       </c>
       <c r="AO101">
         <v>0.5</v>
       </c>
       <c r="AP101">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ101">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR101">
-        <v>1.23</v>
+        <v>1.12</v>
       </c>
       <c r="AS101">
-        <v>1.02</v>
+        <v>1.14</v>
       </c>
       <c r="AT101">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
       <c r="AU101">
         <v>5</v>
@@ -22191,25 +22191,25 @@
         <v>1.65</v>
       </c>
       <c r="AN102">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="AO102">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AP102">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AQ102">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AR102">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AS102">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AT102">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="AU102">
         <v>6</v>
@@ -22400,22 +22400,22 @@
         <v>2.13</v>
       </c>
       <c r="AO103">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AP103">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AQ103">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR103">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AS103">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT103">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AU103">
         <v>9</v>
@@ -22603,25 +22603,25 @@
         <v>1.88</v>
       </c>
       <c r="AN104">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AO104">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AP104">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ104">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR104">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AS104">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT104">
-        <v>3.11</v>
+        <v>3.13</v>
       </c>
       <c r="AU104">
         <v>5</v>
@@ -22809,25 +22809,25 @@
         <v>1.83</v>
       </c>
       <c r="AN105">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="AO105">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AP105">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ105">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AR105">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="AS105">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="AT105">
-        <v>2.77</v>
+        <v>2.66</v>
       </c>
       <c r="AU105">
         <v>6</v>
@@ -23015,25 +23015,25 @@
         <v>1.72</v>
       </c>
       <c r="AN106">
-        <v>1.25</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO106">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AP106">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ106">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR106">
-        <v>1.48</v>
+        <v>1.32</v>
       </c>
       <c r="AS106">
-        <v>1.02</v>
+        <v>1.15</v>
       </c>
       <c r="AT106">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AU106">
         <v>7</v>
@@ -23221,25 +23221,25 @@
         <v>1.32</v>
       </c>
       <c r="AN107">
-        <v>1.63</v>
+        <v>1.35</v>
       </c>
       <c r="AO107">
-        <v>1.75</v>
+        <v>1.41</v>
       </c>
       <c r="AP107">
+        <v>1.39</v>
+      </c>
+      <c r="AQ107">
+        <v>1.41</v>
+      </c>
+      <c r="AR107">
         <v>1.29</v>
       </c>
-      <c r="AQ107">
-        <v>1.63</v>
-      </c>
-      <c r="AR107">
-        <v>1.31</v>
-      </c>
       <c r="AS107">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="AT107">
-        <v>3.15</v>
+        <v>3.11</v>
       </c>
       <c r="AU107">
         <v>5</v>
@@ -23427,25 +23427,25 @@
         <v>2</v>
       </c>
       <c r="AN108">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AO108">
-        <v>0.38</v>
+        <v>0.18</v>
       </c>
       <c r="AP108">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ108">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR108">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="AS108">
-        <v>0.6899999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="AT108">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="AU108">
         <v>3</v>
@@ -23633,25 +23633,25 @@
         <v>2.65</v>
       </c>
       <c r="AN109">
-        <v>2.5</v>
+        <v>1.88</v>
       </c>
       <c r="AO109">
-        <v>1.88</v>
+        <v>1.53</v>
       </c>
       <c r="AP109">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ109">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR109">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AS109">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AT109">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="AU109">
         <v>7</v>
@@ -23839,25 +23839,25 @@
         <v>2.25</v>
       </c>
       <c r="AN110">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="AO110">
-        <v>0.78</v>
+        <v>0.61</v>
       </c>
       <c r="AP110">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ110">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR110">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AS110">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="AT110">
-        <v>2.36</v>
+        <v>2.45</v>
       </c>
       <c r="AU110">
         <v>8</v>
@@ -24045,25 +24045,25 @@
         <v>1.9</v>
       </c>
       <c r="AN111">
-        <v>1.56</v>
+        <v>1.33</v>
       </c>
       <c r="AO111">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP111">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ111">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR111">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AS111">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="AT111">
-        <v>2.62</v>
+        <v>2.76</v>
       </c>
       <c r="AU111">
         <v>4</v>
@@ -24251,25 +24251,25 @@
         <v>1.1</v>
       </c>
       <c r="AN112">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AO112">
-        <v>2.33</v>
+        <v>2.22</v>
       </c>
       <c r="AP112">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ112">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR112">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="AS112">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="AT112">
-        <v>2.76</v>
+        <v>2.67</v>
       </c>
       <c r="AU112">
         <v>3</v>
@@ -24457,25 +24457,25 @@
         <v>1.28</v>
       </c>
       <c r="AN113">
-        <v>1.89</v>
+        <v>1.61</v>
       </c>
       <c r="AO113">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="AP113">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AQ113">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AR113">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="AS113">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="AT113">
-        <v>2.69</v>
+        <v>2.79</v>
       </c>
       <c r="AU113">
         <v>2</v>
@@ -24663,25 +24663,25 @@
         <v>1.2</v>
       </c>
       <c r="AN114">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO114">
-        <v>1.78</v>
+        <v>1.5</v>
       </c>
       <c r="AP114">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ114">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR114">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
       <c r="AS114">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AT114">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="AU114">
         <v>5</v>
@@ -24869,25 +24869,25 @@
         <v>1.67</v>
       </c>
       <c r="AN115">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AO115">
-        <v>1.89</v>
+        <v>1.5</v>
       </c>
       <c r="AP115">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AQ115">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AR115">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="AS115">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="AT115">
-        <v>3.45</v>
+        <v>3.34</v>
       </c>
       <c r="AU115">
         <v>7</v>
@@ -25075,25 +25075,25 @@
         <v>5.45</v>
       </c>
       <c r="AN116">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AO116">
-        <v>0.67</v>
+        <v>0.32</v>
       </c>
       <c r="AP116">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ116">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR116">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AS116">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AT116">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="AU116">
         <v>12</v>
@@ -25281,25 +25281,25 @@
         <v>2.05</v>
       </c>
       <c r="AN117">
-        <v>2.33</v>
+        <v>1.79</v>
       </c>
       <c r="AO117">
-        <v>1.11</v>
+        <v>1.37</v>
       </c>
       <c r="AP117">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ117">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AR117">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AS117">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AT117">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="AU117">
         <v>4</v>
@@ -25487,25 +25487,25 @@
         <v>1.55</v>
       </c>
       <c r="AN118">
-        <v>1.22</v>
+        <v>0.89</v>
       </c>
       <c r="AO118">
-        <v>1.33</v>
+        <v>1.58</v>
       </c>
       <c r="AP118">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ118">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AR118">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
       <c r="AS118">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="AT118">
-        <v>2.89</v>
+        <v>2.61</v>
       </c>
       <c r="AU118">
         <v>4</v>
@@ -25693,25 +25693,25 @@
         <v>1.66</v>
       </c>
       <c r="AN119">
+        <v>1.58</v>
+      </c>
+      <c r="AO119">
+        <v>1</v>
+      </c>
+      <c r="AP119">
         <v>1.22</v>
       </c>
-      <c r="AO119">
-        <v>0.78</v>
-      </c>
-      <c r="AP119">
-        <v>1.19</v>
-      </c>
       <c r="AQ119">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR119">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AS119">
-        <v>0.96</v>
+        <v>1.1</v>
       </c>
       <c r="AT119">
-        <v>2.26</v>
+        <v>2.35</v>
       </c>
       <c r="AU119">
         <v>5</v>
@@ -25899,25 +25899,25 @@
         <v>1.12</v>
       </c>
       <c r="AN120">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AO120">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AP120">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ120">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR120">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AS120">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="AT120">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="AU120">
         <v>4</v>
@@ -26105,25 +26105,25 @@
         <v>1.9</v>
       </c>
       <c r="AN121">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AO121">
-        <v>1.11</v>
+        <v>1.42</v>
       </c>
       <c r="AP121">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AQ121">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AR121">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="AS121">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="AT121">
-        <v>3.16</v>
+        <v>3.15</v>
       </c>
       <c r="AU121">
         <v>6</v>
@@ -26311,25 +26311,25 @@
         <v>1.3</v>
       </c>
       <c r="AN122">
-        <v>0.4</v>
+        <v>0.55</v>
       </c>
       <c r="AO122">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="AP122">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ122">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AR122">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="AS122">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AT122">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AU122">
         <v>6</v>
@@ -26517,25 +26517,25 @@
         <v>1.3</v>
       </c>
       <c r="AN123">
-        <v>1.1</v>
+        <v>0.85</v>
       </c>
       <c r="AO123">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="AP123">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ123">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AR123">
-        <v>1.51</v>
+        <v>1.36</v>
       </c>
       <c r="AS123">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AT123">
-        <v>2.98</v>
+        <v>2.85</v>
       </c>
       <c r="AU123">
         <v>0</v>
@@ -26723,25 +26723,25 @@
         <v>1.3</v>
       </c>
       <c r="AN124">
-        <v>1.2</v>
+        <v>0.95</v>
       </c>
       <c r="AO124">
-        <v>1</v>
+        <v>1.35</v>
       </c>
       <c r="AP124">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ124">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AR124">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AS124">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AT124">
-        <v>2.57</v>
+        <v>2.48</v>
       </c>
       <c r="AU124">
         <v>5</v>
@@ -26929,25 +26929,25 @@
         <v>4.33</v>
       </c>
       <c r="AN125">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="AO125">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AP125">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AQ125">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR125">
         <v>1.75</v>
       </c>
       <c r="AS125">
-        <v>0.6899999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AT125">
-        <v>2.44</v>
+        <v>2.59</v>
       </c>
       <c r="AU125">
         <v>5</v>
@@ -27138,22 +27138,22 @@
         <v>2.1</v>
       </c>
       <c r="AO126">
+        <v>1.45</v>
+      </c>
+      <c r="AP126">
+        <v>2.09</v>
+      </c>
+      <c r="AQ126">
+        <v>1.39</v>
+      </c>
+      <c r="AR126">
+        <v>1.57</v>
+      </c>
+      <c r="AS126">
         <v>1.3</v>
       </c>
-      <c r="AP126">
-        <v>2.13</v>
-      </c>
-      <c r="AQ126">
-        <v>1.5</v>
-      </c>
-      <c r="AR126">
-        <v>1.65</v>
-      </c>
-      <c r="AS126">
-        <v>1.29</v>
-      </c>
       <c r="AT126">
-        <v>2.94</v>
+        <v>2.87</v>
       </c>
       <c r="AU126">
         <v>9</v>
@@ -27344,22 +27344,22 @@
         <v>2.2</v>
       </c>
       <c r="AO127">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="AP127">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ127">
+        <v>1.22</v>
+      </c>
+      <c r="AR127">
+        <v>1.6</v>
+      </c>
+      <c r="AS127">
         <v>1.25</v>
       </c>
-      <c r="AR127">
-        <v>1.69</v>
-      </c>
-      <c r="AS127">
-        <v>1.2</v>
-      </c>
       <c r="AT127">
-        <v>2.89</v>
+        <v>2.85</v>
       </c>
       <c r="AU127">
         <v>5</v>
@@ -27547,25 +27547,25 @@
         <v>1.21</v>
       </c>
       <c r="AN128">
-        <v>2.1</v>
+        <v>1.67</v>
       </c>
       <c r="AO128">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="AP128">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ128">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR128">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="AS128">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="AT128">
-        <v>3.03</v>
+        <v>3.06</v>
       </c>
       <c r="AU128">
         <v>5</v>
@@ -27753,25 +27753,25 @@
         <v>1.78</v>
       </c>
       <c r="AN129">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="AO129">
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="AP129">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ129">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR129">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="AS129">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
       <c r="AT129">
-        <v>2.53</v>
+        <v>2.61</v>
       </c>
       <c r="AU129">
         <v>5</v>
@@ -27959,25 +27959,25 @@
         <v>2.5</v>
       </c>
       <c r="AN130">
-        <v>1.7</v>
+        <v>1.43</v>
       </c>
       <c r="AO130">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="AP130">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ130">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR130">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AS130">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AT130">
-        <v>2.48</v>
+        <v>2.57</v>
       </c>
       <c r="AU130">
         <v>5</v>
@@ -28165,25 +28165,25 @@
         <v>1.3</v>
       </c>
       <c r="AN131">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="AO131">
-        <v>1.8</v>
+        <v>1.52</v>
       </c>
       <c r="AP131">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AQ131">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AR131">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AS131">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="AT131">
-        <v>3.04</v>
+        <v>2.94</v>
       </c>
       <c r="AU131">
         <v>5</v>
@@ -28371,25 +28371,25 @@
         <v>1.25</v>
       </c>
       <c r="AN132">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO132">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AP132">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ132">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR132">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="AS132">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="AT132">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="AU132">
         <v>8</v>
@@ -28577,25 +28577,25 @@
         <v>1.3</v>
       </c>
       <c r="AN133">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="AO133">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AP133">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AQ133">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR133">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AS133">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="AT133">
-        <v>2.64</v>
+        <v>2.83</v>
       </c>
       <c r="AU133">
         <v>2</v>
@@ -28783,25 +28783,25 @@
         <v>1.65</v>
       </c>
       <c r="AN134">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="AO134">
-        <v>1.27</v>
+        <v>1.59</v>
       </c>
       <c r="AP134">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AQ134">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AR134">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="AS134">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="AT134">
-        <v>3.09</v>
+        <v>3.14</v>
       </c>
       <c r="AU134">
         <v>3</v>
@@ -29607,25 +29607,25 @@
         <v>1.23</v>
       </c>
       <c r="AN138">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
       <c r="AO138">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AP138">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AQ138">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR138">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="AS138">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="AT138">
-        <v>2.73</v>
+        <v>2.77</v>
       </c>
       <c r="AU138">
         <v>3</v>
@@ -29816,22 +29816,22 @@
         <v>2.27</v>
       </c>
       <c r="AO139">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
       <c r="AP139">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ139">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AR139">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AS139">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="AT139">
-        <v>3.03</v>
+        <v>2.84</v>
       </c>
       <c r="AU139">
         <v>13</v>
@@ -30637,25 +30637,25 @@
         <v>2.35</v>
       </c>
       <c r="AN143">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="AO143">
-        <v>1.73</v>
+        <v>1.48</v>
       </c>
       <c r="AP143">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ143">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR143">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="AS143">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AT143">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="AU143">
         <v>6</v>
@@ -30843,25 +30843,25 @@
         <v>1.35</v>
       </c>
       <c r="AN144">
-        <v>1.73</v>
+        <v>1.48</v>
       </c>
       <c r="AO144">
-        <v>1.73</v>
+        <v>1.48</v>
       </c>
       <c r="AP144">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AQ144">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AR144">
-        <v>1.12</v>
+        <v>1.21</v>
       </c>
       <c r="AS144">
         <v>1.67</v>
       </c>
       <c r="AT144">
-        <v>2.79</v>
+        <v>2.88</v>
       </c>
       <c r="AU144">
         <v>2</v>
@@ -31049,25 +31049,25 @@
         <v>1.36</v>
       </c>
       <c r="AN145">
-        <v>2.18</v>
+        <v>2.13</v>
       </c>
       <c r="AO145">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="AP145">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AQ145">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR145">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="AS145">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="AT145">
-        <v>3.21</v>
+        <v>3.23</v>
       </c>
       <c r="AU145">
         <v>0</v>
@@ -31873,25 +31873,25 @@
         <v>1.78</v>
       </c>
       <c r="AN149">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="AO149">
-        <v>1.25</v>
+        <v>1.63</v>
       </c>
       <c r="AP149">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AQ149">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AR149">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="AS149">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="AT149">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="AU149">
         <v>5</v>
@@ -32079,25 +32079,25 @@
         <v>1.5</v>
       </c>
       <c r="AN150">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="AO150">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="AP150">
+        <v>1.22</v>
+      </c>
+      <c r="AQ150">
+        <v>1.32</v>
+      </c>
+      <c r="AR150">
+        <v>1.18</v>
+      </c>
+      <c r="AS150">
         <v>1.19</v>
       </c>
-      <c r="AQ150">
-        <v>1.35</v>
-      </c>
-      <c r="AR150">
-        <v>1.25</v>
-      </c>
-      <c r="AS150">
-        <v>1.29</v>
-      </c>
       <c r="AT150">
-        <v>2.54</v>
+        <v>2.37</v>
       </c>
       <c r="AU150">
         <v>5</v>
@@ -32288,22 +32288,22 @@
         <v>2.33</v>
       </c>
       <c r="AO151">
-        <v>1.83</v>
+        <v>1.54</v>
       </c>
       <c r="AP151">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ151">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AR151">
-        <v>1.78</v>
+        <v>1.64</v>
       </c>
       <c r="AS151">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="AT151">
-        <v>3.42</v>
+        <v>3.3</v>
       </c>
       <c r="AU151">
         <v>6</v>
@@ -32491,25 +32491,25 @@
         <v>1.22</v>
       </c>
       <c r="AN152">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="AO152">
-        <v>2.33</v>
+        <v>2.28</v>
       </c>
       <c r="AP152">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ152">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR152">
-        <v>1.51</v>
+        <v>1.4</v>
       </c>
       <c r="AS152">
-        <v>1.49</v>
+        <v>1.64</v>
       </c>
       <c r="AT152">
-        <v>3</v>
+        <v>3.04</v>
       </c>
       <c r="AU152">
         <v>4</v>
@@ -33315,25 +33315,25 @@
         <v>1.18</v>
       </c>
       <c r="AN156">
-        <v>1.58</v>
+        <v>1.4</v>
       </c>
       <c r="AO156">
         <v>2.08</v>
       </c>
       <c r="AP156">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AQ156">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR156">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AS156">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="AT156">
-        <v>2.54</v>
+        <v>2.73</v>
       </c>
       <c r="AU156">
         <v>4</v>
@@ -33521,25 +33521,25 @@
         <v>2.5</v>
       </c>
       <c r="AN157">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
       <c r="AO157">
-        <v>1.58</v>
+        <v>1.4</v>
       </c>
       <c r="AP157">
+        <v>1.41</v>
+      </c>
+      <c r="AQ157">
+        <v>1.22</v>
+      </c>
+      <c r="AR157">
+        <v>1.63</v>
+      </c>
+      <c r="AS157">
         <v>1.19</v>
       </c>
-      <c r="AQ157">
-        <v>1.25</v>
-      </c>
-      <c r="AR157">
-        <v>1.68</v>
-      </c>
-      <c r="AS157">
-        <v>1.12</v>
-      </c>
       <c r="AT157">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU157">
         <v>5</v>
@@ -33727,25 +33727,25 @@
         <v>1.77</v>
       </c>
       <c r="AN158">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="AO158">
-        <v>1.77</v>
+        <v>1.5</v>
       </c>
       <c r="AP158">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AQ158">
+        <v>1.41</v>
+      </c>
+      <c r="AR158">
+        <v>1.53</v>
+      </c>
+      <c r="AS158">
         <v>1.63</v>
       </c>
-      <c r="AR158">
-        <v>1.6</v>
-      </c>
-      <c r="AS158">
-        <v>1.59</v>
-      </c>
       <c r="AT158">
-        <v>3.19</v>
+        <v>3.16</v>
       </c>
       <c r="AU158">
         <v>4</v>
@@ -34551,25 +34551,25 @@
         <v>1.96</v>
       </c>
       <c r="AN162">
-        <v>2.08</v>
+        <v>1.62</v>
       </c>
       <c r="AO162">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="AP162">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ162">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AR162">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="AS162">
-        <v>1.31</v>
+        <v>1.19</v>
       </c>
       <c r="AT162">
-        <v>2.79</v>
+        <v>2.59</v>
       </c>
       <c r="AU162">
         <v>4</v>
@@ -34757,25 +34757,25 @@
         <v>3.75</v>
       </c>
       <c r="AN163">
-        <v>2.23</v>
+        <v>2.19</v>
       </c>
       <c r="AO163">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="AP163">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ163">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR163">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AS163">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="AT163">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="AU163">
         <v>13</v>
@@ -35581,25 +35581,25 @@
         <v>1.1</v>
       </c>
       <c r="AN167">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="AO167">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="AP167">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AQ167">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR167">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="AS167">
-        <v>1.48</v>
+        <v>1.66</v>
       </c>
       <c r="AT167">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="AU167">
         <v>7</v>
@@ -35787,25 +35787,25 @@
         <v>1.36</v>
       </c>
       <c r="AN168">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="AO168">
-        <v>1.15</v>
+        <v>1.56</v>
       </c>
       <c r="AP168">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AQ168">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AR168">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="AS168">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="AT168">
-        <v>2.38</v>
+        <v>2.57</v>
       </c>
       <c r="AU168">
         <v>4</v>
@@ -35993,22 +35993,22 @@
         <v>1.45</v>
       </c>
       <c r="AN169">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="AO169">
         <v>2.15</v>
       </c>
       <c r="AP169">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AQ169">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR169">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AS169">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AT169">
         <v>3.12</v>
@@ -36817,25 +36817,25 @@
         <v>1.62</v>
       </c>
       <c r="AN173">
-        <v>1.93</v>
+        <v>1.61</v>
       </c>
       <c r="AO173">
-        <v>1.64</v>
+        <v>1.39</v>
       </c>
       <c r="AP173">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ173">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AR173">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AS173">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="AT173">
-        <v>3.02</v>
+        <v>3.01</v>
       </c>
       <c r="AU173">
         <v>8</v>
@@ -37026,22 +37026,22 @@
         <v>1.36</v>
       </c>
       <c r="AO174">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="AP174">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AQ174">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR174">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="AS174">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="AT174">
-        <v>2.19</v>
+        <v>2.37</v>
       </c>
       <c r="AU174">
         <v>8</v>
@@ -37229,25 +37229,25 @@
         <v>2.05</v>
       </c>
       <c r="AN175">
-        <v>2.29</v>
+        <v>2.14</v>
       </c>
       <c r="AO175">
-        <v>2.21</v>
+        <v>2.18</v>
       </c>
       <c r="AP175">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ175">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR175">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AS175">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="AT175">
-        <v>3.28</v>
+        <v>3.18</v>
       </c>
       <c r="AU175">
         <v>6</v>
@@ -38056,22 +38056,22 @@
         <v>2.14</v>
       </c>
       <c r="AO179">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="AP179">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AQ179">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AR179">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AS179">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="AT179">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="AU179">
         <v>5</v>
@@ -38259,25 +38259,25 @@
         <v>1.25</v>
       </c>
       <c r="AN180">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AO180">
-        <v>1.29</v>
+        <v>1.66</v>
       </c>
       <c r="AP180">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AQ180">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AR180">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="AS180">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AT180">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="AU180">
         <v>2</v>
@@ -38465,25 +38465,25 @@
         <v>1.25</v>
       </c>
       <c r="AN181">
-        <v>1.14</v>
+        <v>1.34</v>
       </c>
       <c r="AO181">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AP181">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AQ181">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR181">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AS181">
-        <v>1.51</v>
+        <v>1.69</v>
       </c>
       <c r="AT181">
-        <v>3.18</v>
+        <v>3.27</v>
       </c>
       <c r="AU181">
         <v>3</v>
@@ -39289,25 +39289,25 @@
         <v>1.4</v>
       </c>
       <c r="AN185">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AO185">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="AP185">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ185">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR185">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AS185">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AT185">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="AU185">
         <v>5</v>
@@ -39495,25 +39495,25 @@
         <v>1.3</v>
       </c>
       <c r="AN186">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AO186">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="AP186">
+        <v>1.22</v>
+      </c>
+      <c r="AQ186">
+        <v>1.41</v>
+      </c>
+      <c r="AR186">
         <v>1.19</v>
       </c>
-      <c r="AQ186">
-        <v>1.63</v>
-      </c>
-      <c r="AR186">
-        <v>1.27</v>
-      </c>
       <c r="AS186">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="AT186">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="AU186">
         <v>3</v>
@@ -39701,25 +39701,25 @@
         <v>1.15</v>
       </c>
       <c r="AN187">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AO187">
-        <v>1.87</v>
+        <v>2.03</v>
       </c>
       <c r="AP187">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AQ187">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR187">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="AS187">
-        <v>1.49</v>
+        <v>1.67</v>
       </c>
       <c r="AT187">
-        <v>2.61</v>
+        <v>2.87</v>
       </c>
       <c r="AU187">
         <v>3</v>
@@ -40525,25 +40525,25 @@
         <v>2.45</v>
       </c>
       <c r="AN191">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AO191">
-        <v>1.4</v>
+        <v>1.68</v>
       </c>
       <c r="AP191">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ191">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AR191">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="AS191">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="AT191">
-        <v>3.15</v>
+        <v>3.07</v>
       </c>
       <c r="AU191">
         <v>13</v>
@@ -40731,25 +40731,25 @@
         <v>3.35</v>
       </c>
       <c r="AN192">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="AO192">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AP192">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AQ192">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR192">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AS192">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="AT192">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="AU192">
         <v>6</v>
@@ -40937,25 +40937,25 @@
         <v>2.1</v>
       </c>
       <c r="AN193">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
       <c r="AO193">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AP193">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AQ193">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AR193">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AS193">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="AT193">
-        <v>2.88</v>
+        <v>2.74</v>
       </c>
       <c r="AU193">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
+        <v>1.94</v>
+      </c>
+      <c r="AQ2">
         <v>1.63</v>
-      </c>
-      <c r="AQ2">
-        <v>1.41</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2009,10 +2009,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AQ4">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2215,10 +2215,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ5">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2421,10 +2421,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2627,10 +2627,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AQ7">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2827,25 +2827,25 @@
         <v>2.6</v>
       </c>
       <c r="AN8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO8">
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AQ8">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR8">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AT8">
-        <v>3.12</v>
+        <v>0</v>
       </c>
       <c r="AU8">
         <v>15</v>
@@ -3033,25 +3033,25 @@
         <v>2.15</v>
       </c>
       <c r="AN9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ9">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR9">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>3.04</v>
+        <v>0</v>
       </c>
       <c r="AU9">
         <v>7</v>
@@ -3239,25 +3239,25 @@
         <v>1.22</v>
       </c>
       <c r="AN10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO10">
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ10">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AR10">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>7</v>
@@ -3445,25 +3445,25 @@
         <v>4.75</v>
       </c>
       <c r="AN11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ11">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR11">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>3.09</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>9</v>
@@ -3654,22 +3654,22 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ12">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AR12">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>5</v>
@@ -3857,25 +3857,25 @@
         <v>1.45</v>
       </c>
       <c r="AN13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ13">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AR13">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>4</v>
@@ -4063,25 +4063,25 @@
         <v>1.87</v>
       </c>
       <c r="AN14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ14">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR14">
-        <v>1.12</v>
+        <v>1.31</v>
       </c>
       <c r="AS14">
-        <v>1.05</v>
+        <v>0.88</v>
       </c>
       <c r="AT14">
-        <v>2.17</v>
+        <v>2.19</v>
       </c>
       <c r="AU14">
         <v>6</v>
@@ -4272,22 +4272,22 @@
         <v>3</v>
       </c>
       <c r="AO15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP15">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ15">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AR15">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AS15">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="AT15">
-        <v>3.7</v>
+        <v>3.77</v>
       </c>
       <c r="AU15">
         <v>2</v>
@@ -4475,25 +4475,25 @@
         <v>2.6</v>
       </c>
       <c r="AN16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO16">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR16">
-        <v>0.95</v>
+        <v>1.19</v>
       </c>
       <c r="AS16">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AT16">
-        <v>1.96</v>
+        <v>2.24</v>
       </c>
       <c r="AU16">
         <v>6</v>
@@ -4684,22 +4684,22 @@
         <v>3</v>
       </c>
       <c r="AO17">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AP17">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ17">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AR17">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="AS17">
-        <v>1.55</v>
+        <v>2.23</v>
       </c>
       <c r="AT17">
-        <v>3.57</v>
+        <v>4.37</v>
       </c>
       <c r="AU17">
         <v>7</v>
@@ -4887,25 +4887,25 @@
         <v>2.3</v>
       </c>
       <c r="AN18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO18">
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AQ18">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AR18">
-        <v>2.43</v>
+        <v>2.76</v>
       </c>
       <c r="AS18">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="AT18">
-        <v>4.04</v>
+        <v>4.41</v>
       </c>
       <c r="AU18">
         <v>5</v>
@@ -5099,19 +5099,19 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR19">
-        <v>0.8</v>
+        <v>1.02</v>
       </c>
       <c r="AS19">
-        <v>0.9</v>
+        <v>0.61</v>
       </c>
       <c r="AT19">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="AU19">
         <v>9</v>
@@ -5302,22 +5302,22 @@
         <v>0</v>
       </c>
       <c r="AO20">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ20">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR20">
-        <v>0.77</v>
+        <v>1.19</v>
       </c>
       <c r="AS20">
-        <v>1.14</v>
+        <v>0.71</v>
       </c>
       <c r="AT20">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5505,25 +5505,25 @@
         <v>1.14</v>
       </c>
       <c r="AN21">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AO21">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ21">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR21">
-        <v>0.9</v>
+        <v>1.23</v>
       </c>
       <c r="AS21">
-        <v>1.51</v>
+        <v>1.85</v>
       </c>
       <c r="AT21">
-        <v>2.41</v>
+        <v>3.08</v>
       </c>
       <c r="AU21">
         <v>2</v>
@@ -5711,25 +5711,25 @@
         <v>2</v>
       </c>
       <c r="AN22">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AO22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ22">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR22">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="AS22">
-        <v>1.21</v>
+        <v>0.58</v>
       </c>
       <c r="AT22">
-        <v>2.91</v>
+        <v>2.36</v>
       </c>
       <c r="AU22">
         <v>6</v>
@@ -5917,25 +5917,25 @@
         <v>2</v>
       </c>
       <c r="AN23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO23">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AQ23">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AR23">
-        <v>1.1</v>
+        <v>0.86</v>
       </c>
       <c r="AS23">
-        <v>1.3</v>
+        <v>0.92</v>
       </c>
       <c r="AT23">
-        <v>2.4</v>
+        <v>1.78</v>
       </c>
       <c r="AU23">
         <v>6</v>
@@ -6123,25 +6123,25 @@
         <v>1.22</v>
       </c>
       <c r="AN24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AO24">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ24">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AR24">
-        <v>1.01</v>
+        <v>0.98</v>
       </c>
       <c r="AS24">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AT24">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
       <c r="AU24">
         <v>6</v>
@@ -6329,25 +6329,25 @@
         <v>1.16</v>
       </c>
       <c r="AN25">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AO25">
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AQ25">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR25">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="AS25">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AT25">
-        <v>3.37</v>
+        <v>3.47</v>
       </c>
       <c r="AU25">
         <v>4</v>
@@ -6535,25 +6535,25 @@
         <v>1.14</v>
       </c>
       <c r="AN26">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO26">
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ26">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR26">
-        <v>1.17</v>
+        <v>1.48</v>
       </c>
       <c r="AS26">
-        <v>1.81</v>
+        <v>1.64</v>
       </c>
       <c r="AT26">
-        <v>2.98</v>
+        <v>3.12</v>
       </c>
       <c r="AU26">
         <v>4</v>
@@ -6741,25 +6741,25 @@
         <v>3.75</v>
       </c>
       <c r="AN27">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO27">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR27">
-        <v>1.55</v>
+        <v>1.34</v>
       </c>
       <c r="AS27">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AT27">
-        <v>2.6</v>
+        <v>2.37</v>
       </c>
       <c r="AU27">
         <v>6</v>
@@ -6947,25 +6947,25 @@
         <v>1.57</v>
       </c>
       <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
         <v>0.5</v>
       </c>
-      <c r="AO28">
-        <v>1</v>
-      </c>
       <c r="AP28">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ28">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR28">
-        <v>0.86</v>
+        <v>0.99</v>
       </c>
       <c r="AS28">
-        <v>1.1</v>
+        <v>0.67</v>
       </c>
       <c r="AT28">
-        <v>1.96</v>
+        <v>1.66</v>
       </c>
       <c r="AU28">
         <v>3</v>
@@ -7153,25 +7153,25 @@
         <v>1.87</v>
       </c>
       <c r="AN29">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AO29">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="AQ29">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AR29">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AS29">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AT29">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="AU29">
         <v>6</v>
@@ -7359,25 +7359,25 @@
         <v>2.15</v>
       </c>
       <c r="AN30">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO30">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AQ30">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR30">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="AS30">
-        <v>0.89</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT30">
-        <v>2.86</v>
+        <v>2.59</v>
       </c>
       <c r="AU30">
         <v>10</v>
@@ -7565,25 +7565,25 @@
         <v>1.55</v>
       </c>
       <c r="AN31">
+        <v>0.5</v>
+      </c>
+      <c r="AO31">
+        <v>2</v>
+      </c>
+      <c r="AP31">
+        <v>1.29</v>
+      </c>
+      <c r="AQ31">
         <v>1.25</v>
       </c>
-      <c r="AO31">
-        <v>1.5</v>
-      </c>
-      <c r="AP31">
-        <v>1.32</v>
-      </c>
-      <c r="AQ31">
+      <c r="AR31">
         <v>1.22</v>
       </c>
-      <c r="AR31">
-        <v>1.28</v>
-      </c>
       <c r="AS31">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="AT31">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="AU31">
         <v>2</v>
@@ -7771,25 +7771,25 @@
         <v>1.75</v>
       </c>
       <c r="AN32">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AO32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP32">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ32">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AR32">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AS32">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="AT32">
-        <v>2.31</v>
+        <v>2.61</v>
       </c>
       <c r="AU32">
         <v>4</v>
@@ -7977,25 +7977,25 @@
         <v>1.55</v>
       </c>
       <c r="AN33">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AO33">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR33">
-        <v>0.9</v>
+        <v>1.23</v>
       </c>
       <c r="AS33">
-        <v>1.01</v>
+        <v>0.97</v>
       </c>
       <c r="AT33">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="AU33">
         <v>6</v>
@@ -8183,25 +8183,25 @@
         <v>1.12</v>
       </c>
       <c r="AN34">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AO34">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AP34">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ34">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR34">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AS34">
-        <v>1.52</v>
+        <v>1.76</v>
       </c>
       <c r="AT34">
-        <v>2.9</v>
+        <v>3.29</v>
       </c>
       <c r="AU34">
         <v>5</v>
@@ -8392,22 +8392,22 @@
         <v>3</v>
       </c>
       <c r="AO35">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AP35">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ35">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AR35">
-        <v>1.73</v>
+        <v>1.98</v>
       </c>
       <c r="AS35">
-        <v>2.09</v>
+        <v>1.91</v>
       </c>
       <c r="AT35">
-        <v>3.82</v>
+        <v>3.89</v>
       </c>
       <c r="AU35">
         <v>5</v>
@@ -8595,25 +8595,25 @@
         <v>3.18</v>
       </c>
       <c r="AN36">
-        <v>1.6</v>
+        <v>2.33</v>
       </c>
       <c r="AO36">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="AQ36">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR36">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="AS36">
-        <v>0.9</v>
+        <v>0.74</v>
       </c>
       <c r="AT36">
-        <v>2.19</v>
+        <v>2.08</v>
       </c>
       <c r="AU36">
         <v>6</v>
@@ -8801,25 +8801,25 @@
         <v>2</v>
       </c>
       <c r="AN37">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AO37">
-        <v>1.8</v>
+        <v>2.33</v>
       </c>
       <c r="AP37">
+        <v>1.71</v>
+      </c>
+      <c r="AQ37">
+        <v>1.25</v>
+      </c>
+      <c r="AR37">
+        <v>1.35</v>
+      </c>
+      <c r="AS37">
         <v>1.57</v>
       </c>
-      <c r="AQ37">
-        <v>1.22</v>
-      </c>
-      <c r="AR37">
-        <v>1.2</v>
-      </c>
-      <c r="AS37">
-        <v>1.58</v>
-      </c>
       <c r="AT37">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="AU37">
         <v>8</v>
@@ -9007,25 +9007,25 @@
         <v>1.66</v>
       </c>
       <c r="AN38">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AO38">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ38">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR38">
         <v>1.06</v>
       </c>
       <c r="AS38">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="AT38">
-        <v>2.43</v>
+        <v>2.34</v>
       </c>
       <c r="AU38">
         <v>4</v>
@@ -9213,25 +9213,25 @@
         <v>1.3</v>
       </c>
       <c r="AN39">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AO39">
-        <v>1.83</v>
+        <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ39">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR39">
-        <v>1.49</v>
+        <v>1.59</v>
       </c>
       <c r="AS39">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="AT39">
-        <v>2.84</v>
+        <v>2.79</v>
       </c>
       <c r="AU39">
         <v>3</v>
@@ -9419,25 +9419,25 @@
         <v>1.45</v>
       </c>
       <c r="AN40">
-        <v>2.67</v>
+        <v>2.33</v>
       </c>
       <c r="AO40">
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ40">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR40">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AS40">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
       <c r="AT40">
-        <v>3.12</v>
+        <v>2.92</v>
       </c>
       <c r="AU40">
         <v>4</v>
@@ -9625,25 +9625,25 @@
         <v>1.6</v>
       </c>
       <c r="AN41">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO41">
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ41">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR41">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AS41">
-        <v>0.99</v>
+        <v>0.68</v>
       </c>
       <c r="AT41">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="AU41">
         <v>6</v>
@@ -9831,25 +9831,25 @@
         <v>1.44</v>
       </c>
       <c r="AN42">
-        <v>1.33</v>
+        <v>0.33</v>
       </c>
       <c r="AO42">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AQ42">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AR42">
-        <v>1.29</v>
+        <v>1.12</v>
       </c>
       <c r="AS42">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AT42">
-        <v>2.59</v>
+        <v>2.22</v>
       </c>
       <c r="AU42">
         <v>8</v>
@@ -10043,19 +10043,19 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AQ43">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AR43">
-        <v>1.94</v>
+        <v>2.21</v>
       </c>
       <c r="AS43">
-        <v>1.15</v>
+        <v>0.86</v>
       </c>
       <c r="AT43">
-        <v>3.09</v>
+        <v>3.07</v>
       </c>
       <c r="AU43">
         <v>7</v>
@@ -10243,25 +10243,25 @@
         <v>4</v>
       </c>
       <c r="AN44">
-        <v>2.71</v>
+        <v>3</v>
       </c>
       <c r="AO44">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AP44">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR44">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AS44">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="AT44">
-        <v>2.76</v>
+        <v>2.89</v>
       </c>
       <c r="AU44">
         <v>5</v>
@@ -10449,25 +10449,25 @@
         <v>2.2</v>
       </c>
       <c r="AN45">
-        <v>1.43</v>
+        <v>0.67</v>
       </c>
       <c r="AO45">
-        <v>0.29</v>
+        <v>0.67</v>
       </c>
       <c r="AP45">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ45">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR45">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AS45">
-        <v>0.92</v>
+        <v>0.61</v>
       </c>
       <c r="AT45">
-        <v>2.35</v>
+        <v>2.01</v>
       </c>
       <c r="AU45">
         <v>4</v>
@@ -10655,25 +10655,25 @@
         <v>1.42</v>
       </c>
       <c r="AN46">
-        <v>0.71</v>
+        <v>0.33</v>
       </c>
       <c r="AO46">
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ46">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AR46">
-        <v>1.1</v>
+        <v>1.29</v>
       </c>
       <c r="AS46">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AT46">
-        <v>2.31</v>
+        <v>2.4</v>
       </c>
       <c r="AU46">
         <v>4</v>
@@ -10861,25 +10861,25 @@
         <v>2.4</v>
       </c>
       <c r="AN47">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO47">
-        <v>1.57</v>
+        <v>2.33</v>
       </c>
       <c r="AP47">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="AQ47">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AR47">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="AS47">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="AT47">
-        <v>2.64</v>
+        <v>2.88</v>
       </c>
       <c r="AU47">
         <v>4</v>
@@ -11067,25 +11067,25 @@
         <v>1.3</v>
       </c>
       <c r="AN48">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AO48">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AP48">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AR48">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="AS48">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="AT48">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="AU48">
         <v>3</v>
@@ -11273,25 +11273,25 @@
         <v>1.44</v>
       </c>
       <c r="AN49">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AO49">
-        <v>2.43</v>
+        <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AQ49">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR49">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="AS49">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT49">
-        <v>3.3</v>
+        <v>3.57</v>
       </c>
       <c r="AU49">
         <v>4</v>
@@ -11479,25 +11479,25 @@
         <v>1.03</v>
       </c>
       <c r="AN50">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AO50">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AP50">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ50">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR50">
-        <v>0.93</v>
+        <v>1.15</v>
       </c>
       <c r="AS50">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="AT50">
-        <v>2.67</v>
+        <v>2.81</v>
       </c>
       <c r="AU50">
         <v>0</v>
@@ -11685,25 +11685,25 @@
         <v>1.47</v>
       </c>
       <c r="AN51">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO51">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="AP51">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ51">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AR51">
-        <v>1.04</v>
+        <v>0.99</v>
       </c>
       <c r="AS51">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="AT51">
-        <v>2.43</v>
+        <v>2.44</v>
       </c>
       <c r="AU51">
         <v>3</v>
@@ -11891,25 +11891,25 @@
         <v>1.4</v>
       </c>
       <c r="AN52">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AO52">
-        <v>1.88</v>
+        <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ52">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR52">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AS52">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="AT52">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -12097,25 +12097,25 @@
         <v>3.55</v>
       </c>
       <c r="AN53">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AO53">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="AP53">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ53">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR53">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="AS53">
-        <v>1.09</v>
+        <v>0.96</v>
       </c>
       <c r="AT53">
-        <v>2.45</v>
+        <v>2.28</v>
       </c>
       <c r="AU53">
         <v>5</v>
@@ -12303,25 +12303,25 @@
         <v>1.73</v>
       </c>
       <c r="AN54">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO54">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AP54">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AQ54">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR54">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AS54">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="AT54">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="AU54">
         <v>2</v>
@@ -12509,25 +12509,25 @@
         <v>1.55</v>
       </c>
       <c r="AN55">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AO55">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AQ55">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AR55">
-        <v>1.34</v>
+        <v>1.51</v>
       </c>
       <c r="AS55">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT55">
-        <v>3.14</v>
+        <v>3.18</v>
       </c>
       <c r="AU55">
         <v>3</v>
@@ -12715,25 +12715,25 @@
         <v>2</v>
       </c>
       <c r="AN56">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AO56">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AP56">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR56">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="AS56">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AT56">
-        <v>2.36</v>
+        <v>2.47</v>
       </c>
       <c r="AU56">
         <v>8</v>
@@ -12921,25 +12921,25 @@
         <v>1.14</v>
       </c>
       <c r="AN57">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="AO57">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AP57">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ57">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AR57">
-        <v>0.89</v>
+        <v>1.03</v>
       </c>
       <c r="AS57">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AT57">
-        <v>2.69</v>
+        <v>2.72</v>
       </c>
       <c r="AU57">
         <v>3</v>
@@ -13127,25 +13127,25 @@
         <v>2.15</v>
       </c>
       <c r="AN58">
-        <v>1.44</v>
+        <v>1</v>
       </c>
       <c r="AO58">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AP58">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AQ58">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR58">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AS58">
-        <v>1.09</v>
+        <v>0.98</v>
       </c>
       <c r="AT58">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="AU58">
         <v>7</v>
@@ -13333,22 +13333,22 @@
         <v>2.65</v>
       </c>
       <c r="AN59">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="AO59">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AP59">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="AQ59">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR59">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="AS59">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="AT59">
         <v>2.61</v>
@@ -13539,25 +13539,25 @@
         <v>1.22</v>
       </c>
       <c r="AN60">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AO60">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AP60">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ60">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR60">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AS60">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AT60">
-        <v>2.61</v>
+        <v>2.65</v>
       </c>
       <c r="AU60">
         <v>3</v>
@@ -13745,25 +13745,25 @@
         <v>1.08</v>
       </c>
       <c r="AN61">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="AO61">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="AP61">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ61">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR61">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AS61">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AT61">
-        <v>3.16</v>
+        <v>3.08</v>
       </c>
       <c r="AU61">
         <v>7</v>
@@ -13951,25 +13951,25 @@
         <v>1.9</v>
       </c>
       <c r="AN62">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="AO62">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ62">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR62">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AS62">
-        <v>0.89</v>
+        <v>0.7</v>
       </c>
       <c r="AT62">
-        <v>1.93</v>
+        <v>1.72</v>
       </c>
       <c r="AU62">
         <v>8</v>
@@ -14157,25 +14157,25 @@
         <v>2.4</v>
       </c>
       <c r="AN63">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="AO63">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AP63">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ63">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR63">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="AS63">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT63">
-        <v>3.14</v>
+        <v>3.13</v>
       </c>
       <c r="AU63">
         <v>3</v>
@@ -14363,25 +14363,25 @@
         <v>2.38</v>
       </c>
       <c r="AN64">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="AO64">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AP64">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ64">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AR64">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="AS64">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AT64">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="AU64">
         <v>7</v>
@@ -14569,25 +14569,25 @@
         <v>1.51</v>
       </c>
       <c r="AN65">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AO65">
+        <v>1.5</v>
+      </c>
+      <c r="AP65">
+        <v>1</v>
+      </c>
+      <c r="AQ65">
+        <v>1.5</v>
+      </c>
+      <c r="AR65">
         <v>1.3</v>
       </c>
-      <c r="AP65">
-        <v>0.97</v>
-      </c>
-      <c r="AQ65">
-        <v>1.39</v>
-      </c>
-      <c r="AR65">
-        <v>1.27</v>
-      </c>
       <c r="AS65">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT65">
-        <v>2.51</v>
+        <v>2.52</v>
       </c>
       <c r="AU65">
         <v>11</v>
@@ -14775,25 +14775,25 @@
         <v>1.26</v>
       </c>
       <c r="AN66">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AO66">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AP66">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ66">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AR66">
-        <v>1.06</v>
+        <v>1.22</v>
       </c>
       <c r="AS66">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="AT66">
-        <v>2.41</v>
+        <v>2.45</v>
       </c>
       <c r="AU66">
         <v>4</v>
@@ -14981,25 +14981,25 @@
         <v>2.15</v>
       </c>
       <c r="AN67">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AO67">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AP67">
+        <v>1.19</v>
+      </c>
+      <c r="AQ67">
+        <v>1.25</v>
+      </c>
+      <c r="AR67">
+        <v>1.88</v>
+      </c>
+      <c r="AS67">
         <v>1.41</v>
       </c>
-      <c r="AQ67">
-        <v>1.22</v>
-      </c>
-      <c r="AR67">
-        <v>1.82</v>
-      </c>
-      <c r="AS67">
-        <v>1.42</v>
-      </c>
       <c r="AT67">
-        <v>3.24</v>
+        <v>3.29</v>
       </c>
       <c r="AU67">
         <v>6</v>
@@ -15187,25 +15187,25 @@
         <v>4.2</v>
       </c>
       <c r="AN68">
-        <v>2.09</v>
+        <v>1.8</v>
       </c>
       <c r="AO68">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AP68">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ68">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR68">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="AS68">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="AT68">
-        <v>3.07</v>
+        <v>2.96</v>
       </c>
       <c r="AU68">
         <v>5</v>
@@ -15393,25 +15393,25 @@
         <v>2.25</v>
       </c>
       <c r="AN69">
-        <v>1.64</v>
+        <v>1.2</v>
       </c>
       <c r="AO69">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AP69">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ69">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR69">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="AS69">
-        <v>1.08</v>
+        <v>0.96</v>
       </c>
       <c r="AT69">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AU69">
         <v>2</v>
@@ -15599,25 +15599,25 @@
         <v>1.52</v>
       </c>
       <c r="AN70">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="AO70">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="AP70">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ70">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AR70">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AS70">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="AT70">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="AU70">
         <v>8</v>
@@ -15805,25 +15805,25 @@
         <v>1.25</v>
       </c>
       <c r="AN71">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AO71">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="AP71">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ71">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AR71">
-        <v>0.86</v>
+        <v>1.01</v>
       </c>
       <c r="AS71">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AT71">
-        <v>2.09</v>
+        <v>2.26</v>
       </c>
       <c r="AU71">
         <v>2</v>
@@ -16011,25 +16011,25 @@
         <v>2.25</v>
       </c>
       <c r="AN72">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AO72">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AP72">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ72">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AR72">
         <v>1.45</v>
       </c>
       <c r="AS72">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT72">
-        <v>2.87</v>
+        <v>2.83</v>
       </c>
       <c r="AU72">
         <v>5</v>
@@ -16217,25 +16217,25 @@
         <v>1.72</v>
       </c>
       <c r="AN73">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AO73">
-        <v>1.91</v>
+        <v>1.4</v>
       </c>
       <c r="AP73">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AQ73">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR73">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="AS73">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="AT73">
-        <v>3.18</v>
+        <v>3.13</v>
       </c>
       <c r="AU73">
         <v>9</v>
@@ -16423,25 +16423,25 @@
         <v>1.01</v>
       </c>
       <c r="AN74">
-        <v>0.42</v>
+        <v>0.2</v>
       </c>
       <c r="AO74">
-        <v>2.17</v>
+        <v>2.33</v>
       </c>
       <c r="AP74">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ74">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR74">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AS74">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="AT74">
-        <v>2.74</v>
+        <v>2.92</v>
       </c>
       <c r="AU74">
         <v>5</v>
@@ -16629,25 +16629,25 @@
         <v>2.9</v>
       </c>
       <c r="AN75">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AO75">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="AP75">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AQ75">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR75">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="AS75">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT75">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="AU75">
         <v>3</v>
@@ -16838,22 +16838,22 @@
         <v>1.17</v>
       </c>
       <c r="AO76">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AP76">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ76">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AR76">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="AS76">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AT76">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="AU76">
         <v>10</v>
@@ -17041,25 +17041,25 @@
         <v>1.28</v>
       </c>
       <c r="AN77">
-        <v>1.08</v>
+        <v>1.4</v>
       </c>
       <c r="AO77">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AP77">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ77">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AR77">
-        <v>1.35</v>
+        <v>1.52</v>
       </c>
       <c r="AS77">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="AT77">
-        <v>3.14</v>
+        <v>3.28</v>
       </c>
       <c r="AU77">
         <v>2</v>
@@ -17247,25 +17247,25 @@
         <v>1.87</v>
       </c>
       <c r="AN78">
-        <v>1.58</v>
+        <v>1.33</v>
       </c>
       <c r="AO78">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR78">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="AS78">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="AT78">
-        <v>2.44</v>
+        <v>2.25</v>
       </c>
       <c r="AU78">
         <v>8</v>
@@ -17453,25 +17453,25 @@
         <v>1.47</v>
       </c>
       <c r="AN79">
-        <v>1.83</v>
+        <v>2.33</v>
       </c>
       <c r="AO79">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="AP79">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="AQ79">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR79">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="AS79">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AT79">
-        <v>2.89</v>
+        <v>2.91</v>
       </c>
       <c r="AU79">
         <v>11</v>
@@ -17659,25 +17659,25 @@
         <v>1.24</v>
       </c>
       <c r="AN80">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AO80">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="AP80">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ80">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AR80">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AS80">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="AT80">
-        <v>2.09</v>
+        <v>2.12</v>
       </c>
       <c r="AU80">
         <v>4</v>
@@ -17865,25 +17865,25 @@
         <v>1.35</v>
       </c>
       <c r="AN81">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AO81">
-        <v>1.38</v>
+        <v>1.83</v>
       </c>
       <c r="AP81">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AQ81">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AR81">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="AS81">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="AT81">
-        <v>3.1</v>
+        <v>2.99</v>
       </c>
       <c r="AU81">
         <v>2</v>
@@ -18071,25 +18071,25 @@
         <v>1.4</v>
       </c>
       <c r="AN82">
-        <v>0.38</v>
+        <v>0.17</v>
       </c>
       <c r="AO82">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AP82">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ82">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR82">
-        <v>1.1</v>
+        <v>1.23</v>
       </c>
       <c r="AS82">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="AT82">
-        <v>2.41</v>
+        <v>2.46</v>
       </c>
       <c r="AU82">
         <v>8</v>
@@ -18277,25 +18277,25 @@
         <v>1.22</v>
       </c>
       <c r="AN83">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AO83">
-        <v>2.08</v>
+        <v>2.17</v>
       </c>
       <c r="AP83">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ83">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR83">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="AS83">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="AT83">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AU83">
         <v>0</v>
@@ -18483,25 +18483,25 @@
         <v>1.25</v>
       </c>
       <c r="AN84">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO84">
-        <v>1.92</v>
+        <v>1.33</v>
       </c>
       <c r="AP84">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ84">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR84">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="AS84">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="AT84">
-        <v>2.61</v>
+        <v>2.59</v>
       </c>
       <c r="AU84">
         <v>7</v>
@@ -18689,25 +18689,25 @@
         <v>1.22</v>
       </c>
       <c r="AN85">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AO85">
-        <v>2.23</v>
+        <v>2.43</v>
       </c>
       <c r="AP85">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AQ85">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR85">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="AS85">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="AT85">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AU85">
         <v>8</v>
@@ -18895,25 +18895,25 @@
         <v>3.83</v>
       </c>
       <c r="AN86">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AO86">
-        <v>0.21</v>
+        <v>0.5</v>
       </c>
       <c r="AP86">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ86">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR86">
         <v>1.48</v>
       </c>
       <c r="AS86">
-        <v>0.86</v>
+        <v>0.68</v>
       </c>
       <c r="AT86">
-        <v>2.34</v>
+        <v>2.16</v>
       </c>
       <c r="AU86">
         <v>9</v>
@@ -19101,25 +19101,25 @@
         <v>3.1</v>
       </c>
       <c r="AN87">
-        <v>1.79</v>
+        <v>2.43</v>
       </c>
       <c r="AO87">
         <v>0.57</v>
       </c>
       <c r="AP87">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="AQ87">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR87">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AS87">
-        <v>1.13</v>
+        <v>0.98</v>
       </c>
       <c r="AT87">
-        <v>2.61</v>
+        <v>2.51</v>
       </c>
       <c r="AU87">
         <v>3</v>
@@ -19307,25 +19307,25 @@
         <v>2.95</v>
       </c>
       <c r="AN88">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AO88">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="AP88">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ88">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AR88">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AS88">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="AT88">
-        <v>2.86</v>
+        <v>3.04</v>
       </c>
       <c r="AU88">
         <v>7</v>
@@ -19516,22 +19516,22 @@
         <v>1.43</v>
       </c>
       <c r="AO89">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AP89">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ89">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AR89">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="AS89">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="AT89">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="AU89">
         <v>5</v>
@@ -19719,25 +19719,25 @@
         <v>1.63</v>
       </c>
       <c r="AN90">
-        <v>0.93</v>
+        <v>1.17</v>
       </c>
       <c r="AO90">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AP90">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ90">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AR90">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AS90">
         <v>1.22</v>
       </c>
       <c r="AT90">
-        <v>2.53</v>
+        <v>2.63</v>
       </c>
       <c r="AU90">
         <v>4</v>
@@ -19925,25 +19925,25 @@
         <v>3</v>
       </c>
       <c r="AN91">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AO91">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="AP91">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AQ91">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR91">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="AS91">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="AT91">
-        <v>2.99</v>
+        <v>2.91</v>
       </c>
       <c r="AU91">
         <v>8</v>
@@ -20131,22 +20131,22 @@
         <v>3.3</v>
       </c>
       <c r="AN92">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="AO92">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="AP92">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ92">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AR92">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="AS92">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="AT92">
         <v>2.82</v>
@@ -20337,25 +20337,25 @@
         <v>1.22</v>
       </c>
       <c r="AN93">
-        <v>1.07</v>
+        <v>1.43</v>
       </c>
       <c r="AO93">
-        <v>2.2</v>
+        <v>2.29</v>
       </c>
       <c r="AP93">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ93">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR93">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
       <c r="AS93">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AT93">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="AU93">
         <v>4</v>
@@ -20543,25 +20543,25 @@
         <v>1.48</v>
       </c>
       <c r="AN94">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="AO94">
-        <v>1.87</v>
+        <v>1.14</v>
       </c>
       <c r="AP94">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AQ94">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR94">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="AS94">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AT94">
-        <v>2.87</v>
+        <v>2.91</v>
       </c>
       <c r="AU94">
         <v>4</v>
@@ -20749,25 +20749,25 @@
         <v>1.45</v>
       </c>
       <c r="AN95">
-        <v>1.6</v>
+        <v>1.29</v>
       </c>
       <c r="AO95">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AP95">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ95">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AR95">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="AS95">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="AT95">
-        <v>2.47</v>
+        <v>2.58</v>
       </c>
       <c r="AU95">
         <v>7</v>
@@ -20955,25 +20955,25 @@
         <v>2.4</v>
       </c>
       <c r="AN96">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AO96">
-        <v>0.2</v>
+        <v>0.43</v>
       </c>
       <c r="AP96">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ96">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR96">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AS96">
-        <v>0.85</v>
+        <v>0.71</v>
       </c>
       <c r="AT96">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="AU96">
         <v>11</v>
@@ -21161,25 +21161,25 @@
         <v>1.12</v>
       </c>
       <c r="AN97">
-        <v>0.53</v>
+        <v>0.57</v>
       </c>
       <c r="AO97">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="AP97">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ97">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AR97">
-        <v>1.14</v>
+        <v>1.28</v>
       </c>
       <c r="AS97">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="AT97">
-        <v>2.97</v>
+        <v>3.12</v>
       </c>
       <c r="AU97">
         <v>4</v>
@@ -21367,25 +21367,25 @@
         <v>1.28</v>
       </c>
       <c r="AN98">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO98">
         <v>2.25</v>
       </c>
       <c r="AP98">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AQ98">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR98">
         <v>1.83</v>
       </c>
       <c r="AS98">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AT98">
-        <v>3.39</v>
+        <v>3.34</v>
       </c>
       <c r="AU98">
         <v>6</v>
@@ -21573,25 +21573,25 @@
         <v>1.09</v>
       </c>
       <c r="AN99">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AO99">
-        <v>1.81</v>
+        <v>1.13</v>
       </c>
       <c r="AP99">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ99">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR99">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="AS99">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT99">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="AU99">
         <v>3</v>
@@ -21779,25 +21779,25 @@
         <v>1.36</v>
       </c>
       <c r="AN100">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="AO100">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AP100">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ100">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AR100">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="AS100">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AT100">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="AU100">
         <v>7</v>
@@ -21985,25 +21985,25 @@
         <v>1.75</v>
       </c>
       <c r="AN101">
-        <v>1.06</v>
+        <v>1.38</v>
       </c>
       <c r="AO101">
         <v>0.5</v>
       </c>
       <c r="AP101">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ101">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR101">
-        <v>1.12</v>
+        <v>1.23</v>
       </c>
       <c r="AS101">
-        <v>1.14</v>
+        <v>1.02</v>
       </c>
       <c r="AT101">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="AU101">
         <v>5</v>
@@ -22191,25 +22191,25 @@
         <v>1.65</v>
       </c>
       <c r="AN102">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AO102">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AP102">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AQ102">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AR102">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="AS102">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AT102">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AU102">
         <v>6</v>
@@ -22400,22 +22400,22 @@
         <v>2.13</v>
       </c>
       <c r="AO103">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AP103">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ103">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR103">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AS103">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="AT103">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AU103">
         <v>9</v>
@@ -22603,25 +22603,25 @@
         <v>1.88</v>
       </c>
       <c r="AN104">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="AO104">
-        <v>2.18</v>
+        <v>2.13</v>
       </c>
       <c r="AP104">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ104">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR104">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="AS104">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT104">
-        <v>3.13</v>
+        <v>3.11</v>
       </c>
       <c r="AU104">
         <v>5</v>
@@ -22809,25 +22809,25 @@
         <v>1.83</v>
       </c>
       <c r="AN105">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="AO105">
+        <v>1.5</v>
+      </c>
+      <c r="AP105">
         <v>1.71</v>
       </c>
-      <c r="AP105">
-        <v>1.57</v>
-      </c>
       <c r="AQ105">
+        <v>1.35</v>
+      </c>
+      <c r="AR105">
+        <v>1.45</v>
+      </c>
+      <c r="AS105">
         <v>1.32</v>
       </c>
-      <c r="AR105">
-        <v>1.4</v>
-      </c>
-      <c r="AS105">
-        <v>1.26</v>
-      </c>
       <c r="AT105">
-        <v>2.66</v>
+        <v>2.77</v>
       </c>
       <c r="AU105">
         <v>6</v>
@@ -23015,25 +23015,25 @@
         <v>1.72</v>
       </c>
       <c r="AN106">
-        <v>0.9399999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="AO106">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AP106">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ106">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR106">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="AS106">
-        <v>1.15</v>
+        <v>1.02</v>
       </c>
       <c r="AT106">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AU106">
         <v>7</v>
@@ -23221,25 +23221,25 @@
         <v>1.32</v>
       </c>
       <c r="AN107">
-        <v>1.35</v>
+        <v>1.63</v>
       </c>
       <c r="AO107">
-        <v>1.41</v>
+        <v>1.75</v>
       </c>
       <c r="AP107">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ107">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AR107">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AS107">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="AT107">
-        <v>3.11</v>
+        <v>3.15</v>
       </c>
       <c r="AU107">
         <v>5</v>
@@ -23427,25 +23427,25 @@
         <v>2</v>
       </c>
       <c r="AN108">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="AO108">
-        <v>0.18</v>
+        <v>0.38</v>
       </c>
       <c r="AP108">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ108">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR108">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
       <c r="AS108">
-        <v>0.83</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT108">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="AU108">
         <v>3</v>
@@ -23633,25 +23633,25 @@
         <v>2.65</v>
       </c>
       <c r="AN109">
+        <v>2.5</v>
+      </c>
+      <c r="AO109">
         <v>1.88</v>
       </c>
-      <c r="AO109">
-        <v>1.53</v>
-      </c>
       <c r="AP109">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="AQ109">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AR109">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="AS109">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="AT109">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="AU109">
         <v>7</v>
@@ -23839,25 +23839,25 @@
         <v>2.25</v>
       </c>
       <c r="AN110">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="AO110">
-        <v>0.61</v>
+        <v>0.78</v>
       </c>
       <c r="AP110">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ110">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR110">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AS110">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
       <c r="AT110">
-        <v>2.45</v>
+        <v>2.36</v>
       </c>
       <c r="AU110">
         <v>8</v>
@@ -24045,25 +24045,25 @@
         <v>1.9</v>
       </c>
       <c r="AN111">
-        <v>1.33</v>
+        <v>1.56</v>
       </c>
       <c r="AO111">
+        <v>0.67</v>
+      </c>
+      <c r="AP111">
+        <v>1.71</v>
+      </c>
+      <c r="AQ111">
         <v>0.9399999999999999</v>
       </c>
-      <c r="AP111">
-        <v>1.57</v>
-      </c>
-      <c r="AQ111">
-        <v>0.97</v>
-      </c>
       <c r="AR111">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AS111">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="AT111">
-        <v>2.76</v>
+        <v>2.62</v>
       </c>
       <c r="AU111">
         <v>4</v>
@@ -24251,25 +24251,25 @@
         <v>1.1</v>
       </c>
       <c r="AN112">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AO112">
-        <v>2.22</v>
+        <v>2.33</v>
       </c>
       <c r="AP112">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ112">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR112">
-        <v>1.12</v>
+        <v>1.27</v>
       </c>
       <c r="AS112">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="AT112">
-        <v>2.67</v>
+        <v>2.76</v>
       </c>
       <c r="AU112">
         <v>3</v>
@@ -24457,25 +24457,25 @@
         <v>1.28</v>
       </c>
       <c r="AN113">
-        <v>1.61</v>
+        <v>1.89</v>
       </c>
       <c r="AO113">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="AP113">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AQ113">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR113">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AS113">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="AT113">
-        <v>2.79</v>
+        <v>2.69</v>
       </c>
       <c r="AU113">
         <v>2</v>
@@ -24663,25 +24663,25 @@
         <v>1.2</v>
       </c>
       <c r="AN114">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO114">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="AP114">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ114">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AR114">
-        <v>0.84</v>
+        <v>0.96</v>
       </c>
       <c r="AS114">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="AT114">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="AU114">
         <v>5</v>
@@ -24869,25 +24869,25 @@
         <v>1.67</v>
       </c>
       <c r="AN115">
-        <v>2.11</v>
+        <v>2.22</v>
       </c>
       <c r="AO115">
-        <v>1.5</v>
+        <v>1.89</v>
       </c>
       <c r="AP115">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ115">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AR115">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AS115">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="AT115">
-        <v>3.34</v>
+        <v>3.45</v>
       </c>
       <c r="AU115">
         <v>7</v>
@@ -25075,25 +25075,25 @@
         <v>5.45</v>
       </c>
       <c r="AN116">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="AO116">
-        <v>0.32</v>
+        <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ116">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR116">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="AS116">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AT116">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="AU116">
         <v>12</v>
@@ -25281,25 +25281,25 @@
         <v>2.05</v>
       </c>
       <c r="AN117">
-        <v>1.79</v>
+        <v>2.33</v>
       </c>
       <c r="AO117">
-        <v>1.37</v>
+        <v>1.11</v>
       </c>
       <c r="AP117">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="AQ117">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AR117">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AS117">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT117">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="AU117">
         <v>4</v>
@@ -25487,25 +25487,25 @@
         <v>1.55</v>
       </c>
       <c r="AN118">
-        <v>0.89</v>
+        <v>1.22</v>
       </c>
       <c r="AO118">
-        <v>1.58</v>
+        <v>1.33</v>
       </c>
       <c r="AP118">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ118">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AR118">
-        <v>1.37</v>
+        <v>1.55</v>
       </c>
       <c r="AS118">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="AT118">
-        <v>2.61</v>
+        <v>2.89</v>
       </c>
       <c r="AU118">
         <v>4</v>
@@ -25693,25 +25693,25 @@
         <v>1.66</v>
       </c>
       <c r="AN119">
-        <v>1.58</v>
+        <v>1.22</v>
       </c>
       <c r="AO119">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AP119">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ119">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR119">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AS119">
-        <v>1.1</v>
+        <v>0.96</v>
       </c>
       <c r="AT119">
-        <v>2.35</v>
+        <v>2.26</v>
       </c>
       <c r="AU119">
         <v>5</v>
@@ -25899,25 +25899,25 @@
         <v>1.12</v>
       </c>
       <c r="AN120">
-        <v>0.58</v>
+        <v>0.44</v>
       </c>
       <c r="AO120">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AP120">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ120">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR120">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AS120">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="AT120">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="AU120">
         <v>4</v>
@@ -26105,25 +26105,25 @@
         <v>1.9</v>
       </c>
       <c r="AN121">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AO121">
-        <v>1.42</v>
+        <v>1.11</v>
       </c>
       <c r="AP121">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AQ121">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AR121">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="AS121">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="AT121">
-        <v>3.15</v>
+        <v>3.16</v>
       </c>
       <c r="AU121">
         <v>6</v>
@@ -26311,25 +26311,25 @@
         <v>1.3</v>
       </c>
       <c r="AN122">
-        <v>0.55</v>
+        <v>0.4</v>
       </c>
       <c r="AO122">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="AP122">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ122">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AR122">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AS122">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT122">
-        <v>2.46</v>
+        <v>2.67</v>
       </c>
       <c r="AU122">
         <v>6</v>
@@ -26517,25 +26517,25 @@
         <v>1.3</v>
       </c>
       <c r="AN123">
-        <v>0.85</v>
+        <v>1.1</v>
       </c>
       <c r="AO123">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="AP123">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ123">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR123">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="AS123">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AT123">
-        <v>2.85</v>
+        <v>2.98</v>
       </c>
       <c r="AU123">
         <v>0</v>
@@ -26723,25 +26723,25 @@
         <v>1.3</v>
       </c>
       <c r="AN124">
-        <v>0.95</v>
+        <v>1.2</v>
       </c>
       <c r="AO124">
+        <v>1</v>
+      </c>
+      <c r="AP124">
+        <v>1.25</v>
+      </c>
+      <c r="AQ124">
+        <v>1.44</v>
+      </c>
+      <c r="AR124">
+        <v>1.22</v>
+      </c>
+      <c r="AS124">
         <v>1.35</v>
       </c>
-      <c r="AP124">
-        <v>1</v>
-      </c>
-      <c r="AQ124">
-        <v>1.57</v>
-      </c>
-      <c r="AR124">
-        <v>1.11</v>
-      </c>
-      <c r="AS124">
-        <v>1.37</v>
-      </c>
       <c r="AT124">
-        <v>2.48</v>
+        <v>2.57</v>
       </c>
       <c r="AU124">
         <v>5</v>
@@ -26929,25 +26929,25 @@
         <v>4.33</v>
       </c>
       <c r="AN125">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="AO125">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AP125">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AQ125">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR125">
         <v>1.75</v>
       </c>
       <c r="AS125">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT125">
-        <v>2.59</v>
+        <v>2.44</v>
       </c>
       <c r="AU125">
         <v>5</v>
@@ -27138,22 +27138,22 @@
         <v>2.1</v>
       </c>
       <c r="AO126">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AP126">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ126">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AR126">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="AS126">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AT126">
-        <v>2.87</v>
+        <v>2.94</v>
       </c>
       <c r="AU126">
         <v>9</v>
@@ -27344,22 +27344,22 @@
         <v>2.2</v>
       </c>
       <c r="AO127">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="AP127">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ127">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AR127">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AS127">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT127">
-        <v>2.85</v>
+        <v>2.89</v>
       </c>
       <c r="AU127">
         <v>5</v>
@@ -27547,25 +27547,25 @@
         <v>1.21</v>
       </c>
       <c r="AN128">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="AO128">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="AP128">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="AQ128">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR128">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="AS128">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="AT128">
-        <v>3.06</v>
+        <v>3.03</v>
       </c>
       <c r="AU128">
         <v>5</v>
@@ -27753,25 +27753,25 @@
         <v>1.78</v>
       </c>
       <c r="AN129">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="AO129">
-        <v>0.86</v>
+        <v>0.6</v>
       </c>
       <c r="AP129">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ129">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR129">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="AS129">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="AT129">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="AU129">
         <v>5</v>
@@ -27959,25 +27959,25 @@
         <v>2.5</v>
       </c>
       <c r="AN130">
-        <v>1.43</v>
+        <v>1.7</v>
       </c>
       <c r="AO130">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AP130">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AQ130">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR130">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AS130">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="AT130">
-        <v>2.57</v>
+        <v>2.48</v>
       </c>
       <c r="AU130">
         <v>5</v>
@@ -28165,25 +28165,25 @@
         <v>1.3</v>
       </c>
       <c r="AN131">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="AO131">
-        <v>1.52</v>
+        <v>1.8</v>
       </c>
       <c r="AP131">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ131">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AR131">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AS131">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="AT131">
-        <v>2.94</v>
+        <v>3.04</v>
       </c>
       <c r="AU131">
         <v>5</v>
@@ -28371,25 +28371,25 @@
         <v>1.25</v>
       </c>
       <c r="AN132">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO132">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="AP132">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ132">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR132">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="AS132">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="AT132">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="AU132">
         <v>8</v>
@@ -28577,25 +28577,25 @@
         <v>1.3</v>
       </c>
       <c r="AN133">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="AO133">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="AP133">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AQ133">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR133">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="AS133">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="AT133">
-        <v>2.83</v>
+        <v>2.64</v>
       </c>
       <c r="AU133">
         <v>2</v>
@@ -28783,25 +28783,25 @@
         <v>1.65</v>
       </c>
       <c r="AN134">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="AO134">
-        <v>1.59</v>
+        <v>1.27</v>
       </c>
       <c r="AP134">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AQ134">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR134">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="AS134">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT134">
-        <v>3.14</v>
+        <v>3.09</v>
       </c>
       <c r="AU134">
         <v>3</v>
@@ -29607,25 +29607,25 @@
         <v>1.23</v>
       </c>
       <c r="AN138">
-        <v>1.55</v>
+        <v>1.36</v>
       </c>
       <c r="AO138">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AP138">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ138">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR138">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="AS138">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="AT138">
-        <v>2.77</v>
+        <v>2.73</v>
       </c>
       <c r="AU138">
         <v>3</v>
@@ -29816,22 +29816,22 @@
         <v>2.27</v>
       </c>
       <c r="AO139">
-        <v>1.55</v>
+        <v>1.36</v>
       </c>
       <c r="AP139">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ139">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AR139">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="AS139">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="AT139">
-        <v>2.84</v>
+        <v>3.03</v>
       </c>
       <c r="AU139">
         <v>13</v>
@@ -30637,25 +30637,25 @@
         <v>2.35</v>
       </c>
       <c r="AN143">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="AO143">
-        <v>1.48</v>
+        <v>1.73</v>
       </c>
       <c r="AP143">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="AQ143">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AR143">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="AS143">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT143">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AU143">
         <v>6</v>
@@ -30843,25 +30843,25 @@
         <v>1.35</v>
       </c>
       <c r="AN144">
-        <v>1.48</v>
+        <v>1.73</v>
       </c>
       <c r="AO144">
-        <v>1.48</v>
+        <v>1.73</v>
       </c>
       <c r="AP144">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AQ144">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AR144">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
       <c r="AS144">
         <v>1.67</v>
       </c>
       <c r="AT144">
-        <v>2.88</v>
+        <v>2.79</v>
       </c>
       <c r="AU144">
         <v>2</v>
@@ -31049,25 +31049,25 @@
         <v>1.36</v>
       </c>
       <c r="AN145">
+        <v>2.18</v>
+      </c>
+      <c r="AO145">
+        <v>2.27</v>
+      </c>
+      <c r="AP145">
         <v>2.13</v>
       </c>
-      <c r="AO145">
-        <v>2.3</v>
-      </c>
-      <c r="AP145">
-        <v>2.09</v>
-      </c>
       <c r="AQ145">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR145">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="AS145">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="AT145">
-        <v>3.23</v>
+        <v>3.21</v>
       </c>
       <c r="AU145">
         <v>0</v>
@@ -31873,25 +31873,25 @@
         <v>1.78</v>
       </c>
       <c r="AN149">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="AO149">
-        <v>1.63</v>
+        <v>1.25</v>
       </c>
       <c r="AP149">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ149">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR149">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="AS149">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="AT149">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="AU149">
         <v>5</v>
@@ -32079,25 +32079,25 @@
         <v>1.5</v>
       </c>
       <c r="AN150">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="AO150">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="AP150">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ150">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AR150">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AS150">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT150">
-        <v>2.37</v>
+        <v>2.54</v>
       </c>
       <c r="AU150">
         <v>5</v>
@@ -32288,22 +32288,22 @@
         <v>2.33</v>
       </c>
       <c r="AO151">
-        <v>1.54</v>
+        <v>1.83</v>
       </c>
       <c r="AP151">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ151">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AR151">
+        <v>1.78</v>
+      </c>
+      <c r="AS151">
         <v>1.64</v>
       </c>
-      <c r="AS151">
-        <v>1.66</v>
-      </c>
       <c r="AT151">
-        <v>3.3</v>
+        <v>3.42</v>
       </c>
       <c r="AU151">
         <v>6</v>
@@ -32491,25 +32491,25 @@
         <v>1.22</v>
       </c>
       <c r="AN152">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="AO152">
-        <v>2.28</v>
+        <v>2.33</v>
       </c>
       <c r="AP152">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="AQ152">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR152">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="AS152">
-        <v>1.64</v>
+        <v>1.49</v>
       </c>
       <c r="AT152">
-        <v>3.04</v>
+        <v>3</v>
       </c>
       <c r="AU152">
         <v>4</v>
@@ -33315,25 +33315,25 @@
         <v>1.18</v>
       </c>
       <c r="AN156">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="AO156">
         <v>2.08</v>
       </c>
       <c r="AP156">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AQ156">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR156">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="AS156">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="AT156">
-        <v>2.73</v>
+        <v>2.54</v>
       </c>
       <c r="AU156">
         <v>4</v>
@@ -33521,25 +33521,25 @@
         <v>2.5</v>
       </c>
       <c r="AN157">
-        <v>1.52</v>
+        <v>1.25</v>
       </c>
       <c r="AO157">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="AP157">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AQ157">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AR157">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="AS157">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT157">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="AU157">
         <v>5</v>
@@ -33727,25 +33727,25 @@
         <v>1.77</v>
       </c>
       <c r="AN158">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="AO158">
-        <v>1.5</v>
+        <v>1.77</v>
       </c>
       <c r="AP158">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ158">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AR158">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AS158">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT158">
-        <v>3.16</v>
+        <v>3.19</v>
       </c>
       <c r="AU158">
         <v>4</v>
@@ -34551,25 +34551,25 @@
         <v>1.96</v>
       </c>
       <c r="AN162">
-        <v>1.62</v>
+        <v>2.08</v>
       </c>
       <c r="AO162">
+        <v>1.23</v>
+      </c>
+      <c r="AP162">
+        <v>1.94</v>
+      </c>
+      <c r="AQ162">
         <v>1.35</v>
       </c>
-      <c r="AP162">
-        <v>1.63</v>
-      </c>
-      <c r="AQ162">
-        <v>1.32</v>
-      </c>
       <c r="AR162">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AS162">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
       <c r="AT162">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AU162">
         <v>4</v>
@@ -34757,25 +34757,25 @@
         <v>3.75</v>
       </c>
       <c r="AN163">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="AO163">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="AP163">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ163">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AR163">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AS163">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="AT163">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="AU163">
         <v>13</v>
@@ -35581,25 +35581,25 @@
         <v>1.1</v>
       </c>
       <c r="AN167">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AO167">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="AP167">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ167">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR167">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AS167">
-        <v>1.66</v>
+        <v>1.48</v>
       </c>
       <c r="AT167">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="AU167">
         <v>7</v>
@@ -35787,25 +35787,25 @@
         <v>1.36</v>
       </c>
       <c r="AN168">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="AO168">
-        <v>1.56</v>
+        <v>1.15</v>
       </c>
       <c r="AP168">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AQ168">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR168">
-        <v>1.18</v>
+        <v>1.07</v>
       </c>
       <c r="AS168">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="AT168">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AU168">
         <v>4</v>
@@ -35993,22 +35993,22 @@
         <v>1.45</v>
       </c>
       <c r="AN169">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="AO169">
         <v>2.15</v>
       </c>
       <c r="AP169">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AQ169">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR169">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="AS169">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="AT169">
         <v>3.12</v>
@@ -36817,25 +36817,25 @@
         <v>1.62</v>
       </c>
       <c r="AN173">
-        <v>1.61</v>
+        <v>1.93</v>
       </c>
       <c r="AO173">
-        <v>1.39</v>
+        <v>1.64</v>
       </c>
       <c r="AP173">
+        <v>1.94</v>
+      </c>
+      <c r="AQ173">
         <v>1.63</v>
       </c>
-      <c r="AQ173">
-        <v>1.41</v>
-      </c>
       <c r="AR173">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="AS173">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="AT173">
-        <v>3.01</v>
+        <v>3.02</v>
       </c>
       <c r="AU173">
         <v>8</v>
@@ -37026,22 +37026,22 @@
         <v>1.36</v>
       </c>
       <c r="AO174">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="AP174">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AQ174">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AR174">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AS174">
-        <v>1.19</v>
+        <v>1.11</v>
       </c>
       <c r="AT174">
-        <v>2.37</v>
+        <v>2.19</v>
       </c>
       <c r="AU174">
         <v>8</v>
@@ -37229,25 +37229,25 @@
         <v>2.05</v>
       </c>
       <c r="AN175">
-        <v>2.14</v>
+        <v>2.29</v>
       </c>
       <c r="AO175">
-        <v>2.18</v>
+        <v>2.21</v>
       </c>
       <c r="AP175">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ175">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR175">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="AS175">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="AT175">
-        <v>3.18</v>
+        <v>3.28</v>
       </c>
       <c r="AU175">
         <v>6</v>
@@ -38056,22 +38056,22 @@
         <v>2.14</v>
       </c>
       <c r="AO179">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AP179">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ179">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AR179">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AS179">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="AT179">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="AU179">
         <v>5</v>
@@ -38259,25 +38259,25 @@
         <v>1.25</v>
       </c>
       <c r="AN180">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AO180">
-        <v>1.66</v>
+        <v>1.29</v>
       </c>
       <c r="AP180">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ180">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR180">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="AS180">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT180">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="AU180">
         <v>2</v>
@@ -38465,25 +38465,25 @@
         <v>1.25</v>
       </c>
       <c r="AN181">
-        <v>1.34</v>
+        <v>1.14</v>
       </c>
       <c r="AO181">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AP181">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AQ181">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR181">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="AS181">
-        <v>1.69</v>
+        <v>1.51</v>
       </c>
       <c r="AT181">
-        <v>3.27</v>
+        <v>3.18</v>
       </c>
       <c r="AU181">
         <v>3</v>
@@ -39289,25 +39289,25 @@
         <v>1.4</v>
       </c>
       <c r="AN185">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AO185">
-        <v>2.1</v>
+        <v>2.13</v>
       </c>
       <c r="AP185">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="AQ185">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR185">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AS185">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AT185">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="AU185">
         <v>5</v>
@@ -39495,25 +39495,25 @@
         <v>1.3</v>
       </c>
       <c r="AN186">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AO186">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="AP186">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ186">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AR186">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="AS186">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="AT186">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="AU186">
         <v>3</v>
@@ -39701,25 +39701,25 @@
         <v>1.15</v>
       </c>
       <c r="AN187">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="AO187">
-        <v>2.03</v>
+        <v>1.87</v>
       </c>
       <c r="AP187">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AQ187">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR187">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="AS187">
-        <v>1.67</v>
+        <v>1.49</v>
       </c>
       <c r="AT187">
-        <v>2.87</v>
+        <v>2.61</v>
       </c>
       <c r="AU187">
         <v>3</v>
@@ -40525,25 +40525,25 @@
         <v>2.45</v>
       </c>
       <c r="AN191">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="AO191">
-        <v>1.68</v>
+        <v>1.4</v>
       </c>
       <c r="AP191">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ191">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR191">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="AS191">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="AT191">
-        <v>3.07</v>
+        <v>3.15</v>
       </c>
       <c r="AU191">
         <v>13</v>
@@ -40731,25 +40731,25 @@
         <v>3.35</v>
       </c>
       <c r="AN192">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="AO192">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AP192">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ192">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AR192">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AS192">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="AT192">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="AU192">
         <v>6</v>
@@ -40937,25 +40937,25 @@
         <v>2.1</v>
       </c>
       <c r="AN193">
-        <v>1.45</v>
+        <v>1.27</v>
       </c>
       <c r="AO193">
+        <v>1.33</v>
+      </c>
+      <c r="AP193">
+        <v>1.19</v>
+      </c>
+      <c r="AQ193">
         <v>1.35</v>
       </c>
-      <c r="AP193">
-        <v>1.41</v>
-      </c>
-      <c r="AQ193">
-        <v>1.32</v>
-      </c>
       <c r="AR193">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AS193">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="AT193">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="AU193">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ2">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>7</v>
       </c>
       <c r="AY2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="BA2">
         <v>5</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>5</v>
       </c>
       <c r="AY3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA3">
         <v>9</v>
@@ -2009,10 +2009,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AQ4">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2036,10 +2036,10 @@
         <v>0</v>
       </c>
       <c r="AY4">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA4">
         <v>5</v>
@@ -2215,10 +2215,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ5">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>5</v>
       </c>
       <c r="AY5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ5">
         <v>15</v>
@@ -2421,10 +2421,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ6">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2448,10 +2448,10 @@
         <v>7</v>
       </c>
       <c r="AY6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ6">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="BA6">
         <v>2</v>
@@ -2627,10 +2627,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ7">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2654,10 +2654,10 @@
         <v>14</v>
       </c>
       <c r="AY7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AZ7">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BA7">
         <v>4</v>
@@ -2827,25 +2827,25 @@
         <v>2.6</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO8">
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AQ8">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>3.12</v>
       </c>
       <c r="AU8">
         <v>15</v>
@@ -2860,10 +2860,10 @@
         <v>5</v>
       </c>
       <c r="AY8">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AZ8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BA8">
         <v>12</v>
@@ -3033,25 +3033,25 @@
         <v>2.15</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AQ9">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AU9">
         <v>7</v>
@@ -3066,10 +3066,10 @@
         <v>3</v>
       </c>
       <c r="AY9">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA9">
         <v>9</v>
@@ -3239,25 +3239,25 @@
         <v>1.22</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO10">
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ10">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AU10">
         <v>7</v>
@@ -3272,10 +3272,10 @@
         <v>9</v>
       </c>
       <c r="AY10">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ10">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="BA10">
         <v>0</v>
@@ -3445,25 +3445,25 @@
         <v>4.75</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ11">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>3.09</v>
       </c>
       <c r="AU11">
         <v>9</v>
@@ -3478,7 +3478,7 @@
         <v>3</v>
       </c>
       <c r="AY11">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AZ11">
         <v>5</v>
@@ -3654,22 +3654,22 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AU12">
         <v>5</v>
@@ -3684,10 +3684,10 @@
         <v>3</v>
       </c>
       <c r="AY12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ12">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA12">
         <v>2</v>
@@ -3857,25 +3857,25 @@
         <v>1.45</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AQ13">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AU13">
         <v>4</v>
@@ -3893,7 +3893,7 @@
         <v>15</v>
       </c>
       <c r="AZ13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA13">
         <v>4</v>
@@ -4063,25 +4063,25 @@
         <v>1.87</v>
       </c>
       <c r="AN14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP14">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ14">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR14">
-        <v>1.31</v>
+        <v>1.12</v>
       </c>
       <c r="AS14">
-        <v>0.88</v>
+        <v>1.05</v>
       </c>
       <c r="AT14">
-        <v>2.19</v>
+        <v>2.17</v>
       </c>
       <c r="AU14">
         <v>6</v>
@@ -4096,10 +4096,10 @@
         <v>1</v>
       </c>
       <c r="AY14">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA14">
         <v>9</v>
@@ -4272,22 +4272,22 @@
         <v>3</v>
       </c>
       <c r="AO15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP15">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AQ15">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR15">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="AS15">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="AT15">
-        <v>3.77</v>
+        <v>3.7</v>
       </c>
       <c r="AU15">
         <v>2</v>
@@ -4302,10 +4302,10 @@
         <v>6</v>
       </c>
       <c r="AY15">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA15">
         <v>5</v>
@@ -4475,25 +4475,25 @@
         <v>2.6</v>
       </c>
       <c r="AN16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP16">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR16">
-        <v>1.19</v>
+        <v>0.95</v>
       </c>
       <c r="AS16">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AT16">
-        <v>2.24</v>
+        <v>1.96</v>
       </c>
       <c r="AU16">
         <v>6</v>
@@ -4508,10 +4508,10 @@
         <v>3</v>
       </c>
       <c r="AY16">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA16">
         <v>2</v>
@@ -4684,22 +4684,22 @@
         <v>3</v>
       </c>
       <c r="AO17">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AP17">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ17">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AR17">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="AS17">
-        <v>2.23</v>
+        <v>1.55</v>
       </c>
       <c r="AT17">
-        <v>4.37</v>
+        <v>3.57</v>
       </c>
       <c r="AU17">
         <v>7</v>
@@ -4714,10 +4714,10 @@
         <v>0</v>
       </c>
       <c r="AY17">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA17">
         <v>8</v>
@@ -4887,25 +4887,25 @@
         <v>2.3</v>
       </c>
       <c r="AN18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO18">
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AQ18">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AR18">
-        <v>2.76</v>
+        <v>2.43</v>
       </c>
       <c r="AS18">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT18">
-        <v>4.41</v>
+        <v>4.04</v>
       </c>
       <c r="AU18">
         <v>5</v>
@@ -4920,10 +4920,10 @@
         <v>3</v>
       </c>
       <c r="AY18">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ18">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA18">
         <v>6</v>
@@ -5099,19 +5099,19 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ19">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR19">
-        <v>1.02</v>
+        <v>0.8</v>
       </c>
       <c r="AS19">
-        <v>0.61</v>
+        <v>0.9</v>
       </c>
       <c r="AT19">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU19">
         <v>9</v>
@@ -5126,10 +5126,10 @@
         <v>4</v>
       </c>
       <c r="AY19">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AZ19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA19">
         <v>6</v>
@@ -5302,22 +5302,22 @@
         <v>0</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP20">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ20">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AR20">
-        <v>1.19</v>
+        <v>0.77</v>
       </c>
       <c r="AS20">
-        <v>0.71</v>
+        <v>1.14</v>
       </c>
       <c r="AT20">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5332,10 +5332,10 @@
         <v>6</v>
       </c>
       <c r="AY20">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ20">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA20">
         <v>3</v>
@@ -5505,25 +5505,25 @@
         <v>1.14</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AO21">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP21">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ21">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR21">
-        <v>1.23</v>
+        <v>0.9</v>
       </c>
       <c r="AS21">
-        <v>1.85</v>
+        <v>1.51</v>
       </c>
       <c r="AT21">
-        <v>3.08</v>
+        <v>2.41</v>
       </c>
       <c r="AU21">
         <v>2</v>
@@ -5538,10 +5538,10 @@
         <v>9</v>
       </c>
       <c r="AY21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA21">
         <v>5</v>
@@ -5711,25 +5711,25 @@
         <v>2</v>
       </c>
       <c r="AN22">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AQ22">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR22">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AS22">
-        <v>0.58</v>
+        <v>1.21</v>
       </c>
       <c r="AT22">
-        <v>2.36</v>
+        <v>2.91</v>
       </c>
       <c r="AU22">
         <v>6</v>
@@ -5744,10 +5744,10 @@
         <v>2</v>
       </c>
       <c r="AY22">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BA22">
         <v>5</v>
@@ -5917,25 +5917,25 @@
         <v>2</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO23">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP23">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AR23">
-        <v>0.86</v>
+        <v>1.1</v>
       </c>
       <c r="AS23">
-        <v>0.92</v>
+        <v>1.3</v>
       </c>
       <c r="AT23">
-        <v>1.78</v>
+        <v>2.4</v>
       </c>
       <c r="AU23">
         <v>6</v>
@@ -5950,10 +5950,10 @@
         <v>5</v>
       </c>
       <c r="AY23">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ23">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA23">
         <v>8</v>
@@ -6123,25 +6123,25 @@
         <v>1.22</v>
       </c>
       <c r="AN24">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AO24">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP24">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AR24">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
       <c r="AS24">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AT24">
-        <v>3.08</v>
+        <v>3.06</v>
       </c>
       <c r="AU24">
         <v>6</v>
@@ -6156,10 +6156,10 @@
         <v>4</v>
       </c>
       <c r="AY24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ24">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA24">
         <v>3</v>
@@ -6329,25 +6329,25 @@
         <v>1.16</v>
       </c>
       <c r="AN25">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AO25">
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AQ25">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR25">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="AS25">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AT25">
-        <v>3.47</v>
+        <v>3.37</v>
       </c>
       <c r="AU25">
         <v>4</v>
@@ -6362,10 +6362,10 @@
         <v>4</v>
       </c>
       <c r="AY25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ25">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BA25">
         <v>4</v>
@@ -6535,25 +6535,25 @@
         <v>1.14</v>
       </c>
       <c r="AN26">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO26">
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ26">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR26">
-        <v>1.48</v>
+        <v>1.17</v>
       </c>
       <c r="AS26">
-        <v>1.64</v>
+        <v>1.81</v>
       </c>
       <c r="AT26">
-        <v>3.12</v>
+        <v>2.98</v>
       </c>
       <c r="AU26">
         <v>4</v>
@@ -6568,10 +6568,10 @@
         <v>3</v>
       </c>
       <c r="AY26">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ26">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA26">
         <v>4</v>
@@ -6741,25 +6741,25 @@
         <v>3.75</v>
       </c>
       <c r="AN27">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP27">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AQ27">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR27">
-        <v>1.34</v>
+        <v>1.55</v>
       </c>
       <c r="AS27">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AT27">
-        <v>2.37</v>
+        <v>2.6</v>
       </c>
       <c r="AU27">
         <v>6</v>
@@ -6774,10 +6774,10 @@
         <v>5</v>
       </c>
       <c r="AY27">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ27">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA27">
         <v>5</v>
@@ -6947,25 +6947,25 @@
         <v>1.57</v>
       </c>
       <c r="AN28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP28">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ28">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR28">
-        <v>0.99</v>
+        <v>0.86</v>
       </c>
       <c r="AS28">
-        <v>0.67</v>
+        <v>1.1</v>
       </c>
       <c r="AT28">
-        <v>1.66</v>
+        <v>1.96</v>
       </c>
       <c r="AU28">
         <v>3</v>
@@ -6980,10 +6980,10 @@
         <v>9</v>
       </c>
       <c r="AY28">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ28">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BA28">
         <v>6</v>
@@ -7153,25 +7153,25 @@
         <v>1.87</v>
       </c>
       <c r="AN29">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AO29">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ29">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AR29">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="AS29">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AT29">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="AU29">
         <v>6</v>
@@ -7186,10 +7186,10 @@
         <v>3</v>
       </c>
       <c r="AY29">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ29">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BA29">
         <v>6</v>
@@ -7359,25 +7359,25 @@
         <v>2.15</v>
       </c>
       <c r="AN30">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP30">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AQ30">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR30">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AS30">
-        <v>0.5600000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="AT30">
-        <v>2.59</v>
+        <v>2.86</v>
       </c>
       <c r="AU30">
         <v>10</v>
@@ -7392,10 +7392,10 @@
         <v>2</v>
       </c>
       <c r="AY30">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AZ30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA30">
         <v>8</v>
@@ -7565,25 +7565,25 @@
         <v>1.55</v>
       </c>
       <c r="AN31">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO31">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AQ31">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR31">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AS31">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AT31">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="AU31">
         <v>2</v>
@@ -7598,10 +7598,10 @@
         <v>5</v>
       </c>
       <c r="AY31">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ31">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA31">
         <v>5</v>
@@ -7771,25 +7771,25 @@
         <v>1.75</v>
       </c>
       <c r="AN32">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AO32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ32">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AR32">
-        <v>1.27</v>
+        <v>1.1</v>
       </c>
       <c r="AS32">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="AT32">
-        <v>2.61</v>
+        <v>2.31</v>
       </c>
       <c r="AU32">
         <v>4</v>
@@ -7804,10 +7804,10 @@
         <v>6</v>
       </c>
       <c r="AY32">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ32">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BA32">
         <v>9</v>
@@ -7977,25 +7977,25 @@
         <v>1.55</v>
       </c>
       <c r="AN33">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AO33">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AP33">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ33">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR33">
-        <v>1.23</v>
+        <v>0.9</v>
       </c>
       <c r="AS33">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
       <c r="AT33">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="AU33">
         <v>6</v>
@@ -8010,10 +8010,10 @@
         <v>4</v>
       </c>
       <c r="AY33">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ33">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA33">
         <v>6</v>
@@ -8183,25 +8183,25 @@
         <v>1.12</v>
       </c>
       <c r="AN34">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AO34">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ34">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR34">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AS34">
-        <v>1.76</v>
+        <v>1.52</v>
       </c>
       <c r="AT34">
-        <v>3.29</v>
+        <v>2.9</v>
       </c>
       <c r="AU34">
         <v>5</v>
@@ -8216,7 +8216,7 @@
         <v>3</v>
       </c>
       <c r="AY34">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AZ34">
         <v>7</v>
@@ -8392,22 +8392,22 @@
         <v>3</v>
       </c>
       <c r="AO35">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AP35">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ35">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AR35">
-        <v>1.98</v>
+        <v>1.73</v>
       </c>
       <c r="AS35">
-        <v>1.91</v>
+        <v>2.09</v>
       </c>
       <c r="AT35">
-        <v>3.89</v>
+        <v>3.82</v>
       </c>
       <c r="AU35">
         <v>5</v>
@@ -8422,10 +8422,10 @@
         <v>5</v>
       </c>
       <c r="AY35">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AZ35">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA35">
         <v>5</v>
@@ -8595,25 +8595,25 @@
         <v>3.18</v>
       </c>
       <c r="AN36">
-        <v>2.33</v>
+        <v>1.6</v>
       </c>
       <c r="AO36">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AP36">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ36">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR36">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="AS36">
-        <v>0.74</v>
+        <v>0.9</v>
       </c>
       <c r="AT36">
-        <v>2.08</v>
+        <v>2.19</v>
       </c>
       <c r="AU36">
         <v>6</v>
@@ -8628,7 +8628,7 @@
         <v>4</v>
       </c>
       <c r="AY36">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ36">
         <v>4</v>
@@ -8801,25 +8801,25 @@
         <v>2</v>
       </c>
       <c r="AN37">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AO37">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="AP37">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ37">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR37">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="AS37">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="AT37">
-        <v>2.92</v>
+        <v>2.78</v>
       </c>
       <c r="AU37">
         <v>8</v>
@@ -8834,10 +8834,10 @@
         <v>3</v>
       </c>
       <c r="AY37">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AZ37">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA37">
         <v>7</v>
@@ -9007,25 +9007,25 @@
         <v>1.66</v>
       </c>
       <c r="AN38">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AO38">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AP38">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR38">
         <v>1.06</v>
       </c>
       <c r="AS38">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AT38">
-        <v>2.34</v>
+        <v>2.43</v>
       </c>
       <c r="AU38">
         <v>4</v>
@@ -9040,7 +9040,7 @@
         <v>5</v>
       </c>
       <c r="AY38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ38">
         <v>12</v>
@@ -9213,25 +9213,25 @@
         <v>1.3</v>
       </c>
       <c r="AN39">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AO39">
-        <v>0.5</v>
+        <v>1.83</v>
       </c>
       <c r="AP39">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AQ39">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AR39">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AS39">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="AT39">
-        <v>2.79</v>
+        <v>2.84</v>
       </c>
       <c r="AU39">
         <v>3</v>
@@ -9246,7 +9246,7 @@
         <v>2</v>
       </c>
       <c r="AY39">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ39">
         <v>8</v>
@@ -9419,25 +9419,25 @@
         <v>1.45</v>
       </c>
       <c r="AN40">
-        <v>2.33</v>
+        <v>2.67</v>
       </c>
       <c r="AO40">
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AQ40">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR40">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AS40">
-        <v>1.56</v>
+        <v>1.69</v>
       </c>
       <c r="AT40">
-        <v>2.92</v>
+        <v>3.12</v>
       </c>
       <c r="AU40">
         <v>4</v>
@@ -9452,10 +9452,10 @@
         <v>5</v>
       </c>
       <c r="AY40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ40">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BA40">
         <v>5</v>
@@ -9625,25 +9625,25 @@
         <v>1.6</v>
       </c>
       <c r="AN41">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO41">
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ41">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR41">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AS41">
-        <v>0.68</v>
+        <v>0.99</v>
       </c>
       <c r="AT41">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="AU41">
         <v>6</v>
@@ -9658,10 +9658,10 @@
         <v>6</v>
       </c>
       <c r="AY41">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ41">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA41">
         <v>4</v>
@@ -9831,25 +9831,25 @@
         <v>1.44</v>
       </c>
       <c r="AN42">
-        <v>0.33</v>
+        <v>1.33</v>
       </c>
       <c r="AO42">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AP42">
+        <v>1.32</v>
+      </c>
+      <c r="AQ42">
+        <v>1.57</v>
+      </c>
+      <c r="AR42">
         <v>1.29</v>
       </c>
-      <c r="AQ42">
-        <v>1.44</v>
-      </c>
-      <c r="AR42">
-        <v>1.12</v>
-      </c>
       <c r="AS42">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AT42">
-        <v>2.22</v>
+        <v>2.59</v>
       </c>
       <c r="AU42">
         <v>8</v>
@@ -9864,10 +9864,10 @@
         <v>6</v>
       </c>
       <c r="AY42">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ42">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA42">
         <v>4</v>
@@ -10043,19 +10043,19 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AQ43">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AR43">
-        <v>2.21</v>
+        <v>1.94</v>
       </c>
       <c r="AS43">
-        <v>0.86</v>
+        <v>1.15</v>
       </c>
       <c r="AT43">
-        <v>3.07</v>
+        <v>3.09</v>
       </c>
       <c r="AU43">
         <v>7</v>
@@ -10070,10 +10070,10 @@
         <v>7</v>
       </c>
       <c r="AY43">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ43">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BA43">
         <v>7</v>
@@ -10243,25 +10243,25 @@
         <v>4</v>
       </c>
       <c r="AN44">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AO44">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AP44">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ44">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR44">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AS44">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AT44">
-        <v>2.89</v>
+        <v>2.76</v>
       </c>
       <c r="AU44">
         <v>5</v>
@@ -10276,7 +10276,7 @@
         <v>3</v>
       </c>
       <c r="AY44">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ44">
         <v>9</v>
@@ -10449,25 +10449,25 @@
         <v>2.2</v>
       </c>
       <c r="AN45">
-        <v>0.67</v>
+        <v>1.43</v>
       </c>
       <c r="AO45">
-        <v>0.67</v>
+        <v>0.29</v>
       </c>
       <c r="AP45">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AQ45">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR45">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AS45">
-        <v>0.61</v>
+        <v>0.92</v>
       </c>
       <c r="AT45">
-        <v>2.01</v>
+        <v>2.35</v>
       </c>
       <c r="AU45">
         <v>4</v>
@@ -10482,7 +10482,7 @@
         <v>4</v>
       </c>
       <c r="AY45">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ45">
         <v>8</v>
@@ -10655,25 +10655,25 @@
         <v>1.42</v>
       </c>
       <c r="AN46">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AO46">
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ46">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AR46">
-        <v>1.29</v>
+        <v>1.1</v>
       </c>
       <c r="AS46">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT46">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AU46">
         <v>4</v>
@@ -10688,10 +10688,10 @@
         <v>7</v>
       </c>
       <c r="AY46">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ46">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="BA46">
         <v>3</v>
@@ -10861,25 +10861,25 @@
         <v>2.4</v>
       </c>
       <c r="AN47">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO47">
-        <v>2.33</v>
+        <v>1.57</v>
       </c>
       <c r="AP47">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ47">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AR47">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="AS47">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="AT47">
-        <v>2.88</v>
+        <v>2.64</v>
       </c>
       <c r="AU47">
         <v>4</v>
@@ -10894,10 +10894,10 @@
         <v>8</v>
       </c>
       <c r="AY47">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AZ47">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA47">
         <v>7</v>
@@ -11067,25 +11067,25 @@
         <v>1.3</v>
       </c>
       <c r="AN48">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AO48">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ48">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AR48">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="AS48">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="AT48">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="AU48">
         <v>3</v>
@@ -11103,7 +11103,7 @@
         <v>7</v>
       </c>
       <c r="AZ48">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA48">
         <v>6</v>
@@ -11273,25 +11273,25 @@
         <v>1.44</v>
       </c>
       <c r="AN49">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AO49">
-        <v>3</v>
+        <v>2.43</v>
       </c>
       <c r="AP49">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AQ49">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR49">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="AS49">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT49">
-        <v>3.57</v>
+        <v>3.3</v>
       </c>
       <c r="AU49">
         <v>4</v>
@@ -11306,10 +11306,10 @@
         <v>4</v>
       </c>
       <c r="AY49">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ49">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA49">
         <v>5</v>
@@ -11479,25 +11479,25 @@
         <v>1.03</v>
       </c>
       <c r="AN50">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AO50">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AP50">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ50">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR50">
-        <v>1.15</v>
+        <v>0.93</v>
       </c>
       <c r="AS50">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="AT50">
-        <v>2.81</v>
+        <v>2.67</v>
       </c>
       <c r="AU50">
         <v>0</v>
@@ -11512,10 +11512,10 @@
         <v>9</v>
       </c>
       <c r="AY50">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ50">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA50">
         <v>5</v>
@@ -11685,25 +11685,25 @@
         <v>1.47</v>
       </c>
       <c r="AN51">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO51">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="AP51">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ51">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR51">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
       <c r="AS51">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AT51">
-        <v>2.44</v>
+        <v>2.43</v>
       </c>
       <c r="AU51">
         <v>3</v>
@@ -11718,10 +11718,10 @@
         <v>3</v>
       </c>
       <c r="AY51">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ51">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BA51">
         <v>3</v>
@@ -11891,25 +11891,25 @@
         <v>1.4</v>
       </c>
       <c r="AN52">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO52">
-        <v>1.33</v>
+        <v>1.88</v>
       </c>
       <c r="AP52">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ52">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AR52">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AS52">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="AT52">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -11924,10 +11924,10 @@
         <v>5</v>
       </c>
       <c r="AY52">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ52">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA52">
         <v>6</v>
@@ -12097,25 +12097,25 @@
         <v>3.55</v>
       </c>
       <c r="AN53">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AO53">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="AP53">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AQ53">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR53">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="AS53">
-        <v>0.96</v>
+        <v>1.09</v>
       </c>
       <c r="AT53">
-        <v>2.28</v>
+        <v>2.45</v>
       </c>
       <c r="AU53">
         <v>5</v>
@@ -12130,10 +12130,10 @@
         <v>4</v>
       </c>
       <c r="AY53">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ53">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA53">
         <v>9</v>
@@ -12303,25 +12303,25 @@
         <v>1.73</v>
       </c>
       <c r="AN54">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO54">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AP54">
+        <v>1.32</v>
+      </c>
+      <c r="AQ54">
+        <v>0.97</v>
+      </c>
+      <c r="AR54">
         <v>1.29</v>
       </c>
-      <c r="AQ54">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AR54">
-        <v>1.23</v>
-      </c>
       <c r="AS54">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="AT54">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AU54">
         <v>2</v>
@@ -12336,10 +12336,10 @@
         <v>3</v>
       </c>
       <c r="AY54">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ54">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA54">
         <v>2</v>
@@ -12509,25 +12509,25 @@
         <v>1.55</v>
       </c>
       <c r="AN55">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AO55">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AP55">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ55">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AR55">
-        <v>1.51</v>
+        <v>1.34</v>
       </c>
       <c r="AS55">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT55">
-        <v>3.18</v>
+        <v>3.14</v>
       </c>
       <c r="AU55">
         <v>3</v>
@@ -12542,10 +12542,10 @@
         <v>12</v>
       </c>
       <c r="AY55">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ55">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BA55">
         <v>3</v>
@@ -12715,25 +12715,25 @@
         <v>2</v>
       </c>
       <c r="AN56">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AO56">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ56">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR56">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AS56">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AT56">
-        <v>2.47</v>
+        <v>2.36</v>
       </c>
       <c r="AU56">
         <v>8</v>
@@ -12748,10 +12748,10 @@
         <v>5</v>
       </c>
       <c r="AY56">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AZ56">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA56">
         <v>4</v>
@@ -12921,25 +12921,25 @@
         <v>1.14</v>
       </c>
       <c r="AN57">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="AO57">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AP57">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ57">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AR57">
-        <v>1.03</v>
+        <v>0.89</v>
       </c>
       <c r="AS57">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="AT57">
-        <v>2.72</v>
+        <v>2.69</v>
       </c>
       <c r="AU57">
         <v>3</v>
@@ -12954,10 +12954,10 @@
         <v>7</v>
       </c>
       <c r="AY57">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ57">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="BA57">
         <v>1</v>
@@ -13127,25 +13127,25 @@
         <v>2.15</v>
       </c>
       <c r="AN58">
-        <v>1</v>
+        <v>1.44</v>
       </c>
       <c r="AO58">
-        <v>0.8</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP58">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AQ58">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR58">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="AS58">
-        <v>0.98</v>
+        <v>1.09</v>
       </c>
       <c r="AT58">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="AU58">
         <v>7</v>
@@ -13160,10 +13160,10 @@
         <v>2</v>
       </c>
       <c r="AY58">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ58">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA58">
         <v>5</v>
@@ -13333,22 +13333,22 @@
         <v>2.65</v>
       </c>
       <c r="AN59">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="AO59">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ59">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR59">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="AS59">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="AT59">
         <v>2.61</v>
@@ -13366,10 +13366,10 @@
         <v>6</v>
       </c>
       <c r="AY59">
+        <v>18</v>
+      </c>
+      <c r="AZ59">
         <v>13</v>
-      </c>
-      <c r="AZ59">
-        <v>11</v>
       </c>
       <c r="BA59">
         <v>10</v>
@@ -13539,25 +13539,25 @@
         <v>1.22</v>
       </c>
       <c r="AN60">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AO60">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AP60">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ60">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR60">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AS60">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT60">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="AU60">
         <v>3</v>
@@ -13572,10 +13572,10 @@
         <v>6</v>
       </c>
       <c r="AY60">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ60">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA60">
         <v>6</v>
@@ -13745,25 +13745,25 @@
         <v>1.08</v>
       </c>
       <c r="AN61">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AO61">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="AP61">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AQ61">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR61">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AS61">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AT61">
-        <v>3.08</v>
+        <v>3.16</v>
       </c>
       <c r="AU61">
         <v>7</v>
@@ -13778,7 +13778,7 @@
         <v>4</v>
       </c>
       <c r="AY61">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ61">
         <v>10</v>
@@ -13951,25 +13951,25 @@
         <v>1.9</v>
       </c>
       <c r="AN62">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="AO62">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AP62">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ62">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR62">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AS62">
-        <v>0.7</v>
+        <v>0.89</v>
       </c>
       <c r="AT62">
-        <v>1.72</v>
+        <v>1.93</v>
       </c>
       <c r="AU62">
         <v>8</v>
@@ -13984,10 +13984,10 @@
         <v>1</v>
       </c>
       <c r="AY62">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA62">
         <v>1</v>
@@ -14157,25 +14157,25 @@
         <v>2.4</v>
       </c>
       <c r="AN63">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="AO63">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AP63">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ63">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AR63">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AS63">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="AT63">
-        <v>3.13</v>
+        <v>3.14</v>
       </c>
       <c r="AU63">
         <v>3</v>
@@ -14190,10 +14190,10 @@
         <v>5</v>
       </c>
       <c r="AY63">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ63">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="BA63">
         <v>4</v>
@@ -14363,25 +14363,25 @@
         <v>2.38</v>
       </c>
       <c r="AN64">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AO64">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AP64">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AQ64">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AR64">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="AS64">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="AT64">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="AU64">
         <v>7</v>
@@ -14396,10 +14396,10 @@
         <v>3</v>
       </c>
       <c r="AY64">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ64">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA64">
         <v>2</v>
@@ -14569,25 +14569,25 @@
         <v>1.51</v>
       </c>
       <c r="AN65">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AO65">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ65">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AR65">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AS65">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AT65">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="AU65">
         <v>11</v>
@@ -14602,10 +14602,10 @@
         <v>6</v>
       </c>
       <c r="AY65">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AZ65">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA65">
         <v>12</v>
@@ -14775,25 +14775,25 @@
         <v>1.26</v>
       </c>
       <c r="AN66">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AO66">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AP66">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ66">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AR66">
-        <v>1.22</v>
+        <v>1.06</v>
       </c>
       <c r="AS66">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="AT66">
-        <v>2.45</v>
+        <v>2.41</v>
       </c>
       <c r="AU66">
         <v>4</v>
@@ -14808,10 +14808,10 @@
         <v>11</v>
       </c>
       <c r="AY66">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ66">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA66">
         <v>2</v>
@@ -14981,25 +14981,25 @@
         <v>2.15</v>
       </c>
       <c r="AN67">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AO67">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AQ67">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR67">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AS67">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="AT67">
-        <v>3.29</v>
+        <v>3.24</v>
       </c>
       <c r="AU67">
         <v>6</v>
@@ -15014,7 +15014,7 @@
         <v>1</v>
       </c>
       <c r="AY67">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ67">
         <v>7</v>
@@ -15187,25 +15187,25 @@
         <v>4.2</v>
       </c>
       <c r="AN68">
-        <v>1.8</v>
+        <v>2.09</v>
       </c>
       <c r="AO68">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AP68">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ68">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR68">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="AS68">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="AT68">
-        <v>2.96</v>
+        <v>3.07</v>
       </c>
       <c r="AU68">
         <v>5</v>
@@ -15220,10 +15220,10 @@
         <v>7</v>
       </c>
       <c r="AY68">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ68">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA68">
         <v>4</v>
@@ -15393,25 +15393,25 @@
         <v>2.25</v>
       </c>
       <c r="AN69">
-        <v>1.2</v>
+        <v>1.64</v>
       </c>
       <c r="AO69">
-        <v>0.67</v>
+        <v>0.45</v>
       </c>
       <c r="AP69">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AQ69">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR69">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="AS69">
-        <v>0.96</v>
+        <v>1.08</v>
       </c>
       <c r="AT69">
-        <v>2.39</v>
+        <v>2.47</v>
       </c>
       <c r="AU69">
         <v>2</v>
@@ -15426,10 +15426,10 @@
         <v>6</v>
       </c>
       <c r="AY69">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ69">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA69">
         <v>5</v>
@@ -15599,25 +15599,25 @@
         <v>1.52</v>
       </c>
       <c r="AN70">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="AO70">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AP70">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ70">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AR70">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AS70">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="AT70">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="AU70">
         <v>8</v>
@@ -15635,7 +15635,7 @@
         <v>10</v>
       </c>
       <c r="AZ70">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BA70">
         <v>7</v>
@@ -15805,25 +15805,25 @@
         <v>1.25</v>
       </c>
       <c r="AN71">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AO71">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AP71">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ71">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AR71">
-        <v>1.01</v>
+        <v>0.86</v>
       </c>
       <c r="AS71">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT71">
-        <v>2.26</v>
+        <v>2.09</v>
       </c>
       <c r="AU71">
         <v>2</v>
@@ -15838,10 +15838,10 @@
         <v>8</v>
       </c>
       <c r="AY71">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ71">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BA71">
         <v>2</v>
@@ -16011,25 +16011,25 @@
         <v>2.25</v>
       </c>
       <c r="AN72">
-        <v>2.33</v>
+        <v>2.45</v>
       </c>
       <c r="AO72">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AP72">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AQ72">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AR72">
         <v>1.45</v>
       </c>
       <c r="AS72">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="AT72">
-        <v>2.83</v>
+        <v>2.87</v>
       </c>
       <c r="AU72">
         <v>5</v>
@@ -16044,10 +16044,10 @@
         <v>5</v>
       </c>
       <c r="AY72">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AZ72">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA72">
         <v>7</v>
@@ -16217,25 +16217,25 @@
         <v>1.72</v>
       </c>
       <c r="AN73">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AO73">
+        <v>1.91</v>
+      </c>
+      <c r="AP73">
+        <v>1.41</v>
+      </c>
+      <c r="AQ73">
+        <v>1.63</v>
+      </c>
+      <c r="AR73">
+        <v>1.78</v>
+      </c>
+      <c r="AS73">
         <v>1.4</v>
       </c>
-      <c r="AP73">
-        <v>1.19</v>
-      </c>
-      <c r="AQ73">
-        <v>1.31</v>
-      </c>
-      <c r="AR73">
-        <v>1.79</v>
-      </c>
-      <c r="AS73">
-        <v>1.34</v>
-      </c>
       <c r="AT73">
-        <v>3.13</v>
+        <v>3.18</v>
       </c>
       <c r="AU73">
         <v>9</v>
@@ -16250,10 +16250,10 @@
         <v>6</v>
       </c>
       <c r="AY73">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ73">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA73">
         <v>7</v>
@@ -16423,25 +16423,25 @@
         <v>1.01</v>
       </c>
       <c r="AN74">
-        <v>0.2</v>
+        <v>0.42</v>
       </c>
       <c r="AO74">
-        <v>2.33</v>
+        <v>2.17</v>
       </c>
       <c r="AP74">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ74">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR74">
-        <v>1.23</v>
+        <v>1.08</v>
       </c>
       <c r="AS74">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="AT74">
-        <v>2.92</v>
+        <v>2.74</v>
       </c>
       <c r="AU74">
         <v>5</v>
@@ -16456,10 +16456,10 @@
         <v>7</v>
       </c>
       <c r="AY74">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ74">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA74">
         <v>5</v>
@@ -16629,25 +16629,25 @@
         <v>2.9</v>
       </c>
       <c r="AN75">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AO75">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="AP75">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ75">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR75">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AS75">
-        <v>0.6899999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AT75">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="AU75">
         <v>3</v>
@@ -16662,10 +16662,10 @@
         <v>2</v>
       </c>
       <c r="AY75">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ75">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA75">
         <v>5</v>
@@ -16838,22 +16838,22 @@
         <v>1.17</v>
       </c>
       <c r="AO76">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AP76">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ76">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR76">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="AS76">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AT76">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="AU76">
         <v>10</v>
@@ -16868,10 +16868,10 @@
         <v>3</v>
       </c>
       <c r="AY76">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA76">
         <v>5</v>
@@ -17041,25 +17041,25 @@
         <v>1.28</v>
       </c>
       <c r="AN77">
-        <v>1.4</v>
+        <v>1.08</v>
       </c>
       <c r="AO77">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AP77">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ77">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AR77">
-        <v>1.52</v>
+        <v>1.35</v>
       </c>
       <c r="AS77">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="AT77">
-        <v>3.28</v>
+        <v>3.14</v>
       </c>
       <c r="AU77">
         <v>2</v>
@@ -17074,10 +17074,10 @@
         <v>3</v>
       </c>
       <c r="AY77">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ77">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA77">
         <v>3</v>
@@ -17247,25 +17247,25 @@
         <v>1.87</v>
       </c>
       <c r="AN78">
-        <v>1.33</v>
+        <v>1.58</v>
       </c>
       <c r="AO78">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AP78">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AQ78">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR78">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AS78">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="AT78">
-        <v>2.25</v>
+        <v>2.44</v>
       </c>
       <c r="AU78">
         <v>8</v>
@@ -17280,10 +17280,10 @@
         <v>6</v>
       </c>
       <c r="AY78">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ78">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA78">
         <v>2</v>
@@ -17453,25 +17453,25 @@
         <v>1.47</v>
       </c>
       <c r="AN79">
-        <v>2.33</v>
+        <v>1.83</v>
       </c>
       <c r="AO79">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="AP79">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ79">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR79">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="AS79">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="AT79">
-        <v>2.91</v>
+        <v>2.89</v>
       </c>
       <c r="AU79">
         <v>11</v>
@@ -17486,10 +17486,10 @@
         <v>7</v>
       </c>
       <c r="AY79">
+        <v>18</v>
+      </c>
+      <c r="AZ79">
         <v>13</v>
-      </c>
-      <c r="AZ79">
-        <v>11</v>
       </c>
       <c r="BA79">
         <v>4</v>
@@ -17659,25 +17659,25 @@
         <v>1.24</v>
       </c>
       <c r="AN80">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="AO80">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AP80">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ80">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AR80">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="AS80">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT80">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
       <c r="AU80">
         <v>4</v>
@@ -17692,10 +17692,10 @@
         <v>8</v>
       </c>
       <c r="AY80">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ80">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="BA80">
         <v>4</v>
@@ -17865,25 +17865,25 @@
         <v>1.35</v>
       </c>
       <c r="AN81">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="AO81">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="AP81">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AQ81">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AR81">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="AS81">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AT81">
-        <v>2.99</v>
+        <v>3.1</v>
       </c>
       <c r="AU81">
         <v>2</v>
@@ -17901,7 +17901,7 @@
         <v>7</v>
       </c>
       <c r="AZ81">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="BA81">
         <v>2</v>
@@ -18071,25 +18071,25 @@
         <v>1.4</v>
       </c>
       <c r="AN82">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="AO82">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AP82">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ82">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR82">
-        <v>1.23</v>
+        <v>1.1</v>
       </c>
       <c r="AS82">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="AT82">
-        <v>2.46</v>
+        <v>2.41</v>
       </c>
       <c r="AU82">
         <v>8</v>
@@ -18104,10 +18104,10 @@
         <v>3</v>
       </c>
       <c r="AY82">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ82">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA82">
         <v>3</v>
@@ -18277,25 +18277,25 @@
         <v>1.22</v>
       </c>
       <c r="AN83">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AO83">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AP83">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AQ83">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR83">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AS83">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="AT83">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="AU83">
         <v>0</v>
@@ -18310,10 +18310,10 @@
         <v>9</v>
       </c>
       <c r="AY83">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ83">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA83">
         <v>2</v>
@@ -18483,25 +18483,25 @@
         <v>1.25</v>
       </c>
       <c r="AN84">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AO84">
-        <v>1.33</v>
+        <v>1.92</v>
       </c>
       <c r="AP84">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ84">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AR84">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AS84">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="AT84">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AU84">
         <v>7</v>
@@ -18516,10 +18516,10 @@
         <v>9</v>
       </c>
       <c r="AY84">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ84">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="BA84">
         <v>5</v>
@@ -18689,25 +18689,25 @@
         <v>1.22</v>
       </c>
       <c r="AN85">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AO85">
-        <v>2.43</v>
+        <v>2.23</v>
       </c>
       <c r="AP85">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ85">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR85">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="AS85">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="AT85">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AU85">
         <v>8</v>
@@ -18722,10 +18722,10 @@
         <v>2</v>
       </c>
       <c r="AY85">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ85">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA85">
         <v>5</v>
@@ -18895,25 +18895,25 @@
         <v>3.83</v>
       </c>
       <c r="AN86">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AO86">
-        <v>0.5</v>
+        <v>0.21</v>
       </c>
       <c r="AP86">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AQ86">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR86">
         <v>1.48</v>
       </c>
       <c r="AS86">
-        <v>0.68</v>
+        <v>0.86</v>
       </c>
       <c r="AT86">
-        <v>2.16</v>
+        <v>2.34</v>
       </c>
       <c r="AU86">
         <v>9</v>
@@ -18928,10 +18928,10 @@
         <v>3</v>
       </c>
       <c r="AY86">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AZ86">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BA86">
         <v>10</v>
@@ -19101,25 +19101,25 @@
         <v>3.1</v>
       </c>
       <c r="AN87">
-        <v>2.43</v>
+        <v>1.79</v>
       </c>
       <c r="AO87">
         <v>0.57</v>
       </c>
       <c r="AP87">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ87">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR87">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AS87">
-        <v>0.98</v>
+        <v>1.13</v>
       </c>
       <c r="AT87">
-        <v>2.51</v>
+        <v>2.61</v>
       </c>
       <c r="AU87">
         <v>3</v>
@@ -19134,10 +19134,10 @@
         <v>6</v>
       </c>
       <c r="AY87">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ87">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BA87">
         <v>8</v>
@@ -19307,25 +19307,25 @@
         <v>2.95</v>
       </c>
       <c r="AN88">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AO88">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AP88">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ88">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AR88">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AS88">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="AT88">
-        <v>3.04</v>
+        <v>2.86</v>
       </c>
       <c r="AU88">
         <v>7</v>
@@ -19340,10 +19340,10 @@
         <v>5</v>
       </c>
       <c r="AY88">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ88">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA88">
         <v>4</v>
@@ -19516,22 +19516,22 @@
         <v>1.43</v>
       </c>
       <c r="AO89">
+        <v>1.36</v>
+      </c>
+      <c r="AP89">
+        <v>1.39</v>
+      </c>
+      <c r="AQ89">
+        <v>1.57</v>
+      </c>
+      <c r="AR89">
         <v>1.29</v>
       </c>
-      <c r="AP89">
-        <v>1.29</v>
-      </c>
-      <c r="AQ89">
-        <v>1.44</v>
-      </c>
-      <c r="AR89">
-        <v>1.34</v>
-      </c>
       <c r="AS89">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="AT89">
-        <v>2.69</v>
+        <v>2.7</v>
       </c>
       <c r="AU89">
         <v>5</v>
@@ -19546,10 +19546,10 @@
         <v>4</v>
       </c>
       <c r="AY89">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ89">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BA89">
         <v>5</v>
@@ -19719,25 +19719,25 @@
         <v>1.63</v>
       </c>
       <c r="AN90">
-        <v>1.17</v>
+        <v>0.93</v>
       </c>
       <c r="AO90">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AP90">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ90">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR90">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="AS90">
         <v>1.22</v>
       </c>
       <c r="AT90">
-        <v>2.63</v>
+        <v>2.53</v>
       </c>
       <c r="AU90">
         <v>4</v>
@@ -19752,10 +19752,10 @@
         <v>2</v>
       </c>
       <c r="AY90">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ90">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA90">
         <v>4</v>
@@ -19925,25 +19925,25 @@
         <v>3</v>
       </c>
       <c r="AN91">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AO91">
-        <v>0.86</v>
+        <v>1.14</v>
       </c>
       <c r="AP91">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AQ91">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR91">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="AS91">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="AT91">
-        <v>2.91</v>
+        <v>2.99</v>
       </c>
       <c r="AU91">
         <v>8</v>
@@ -19958,7 +19958,7 @@
         <v>3</v>
       </c>
       <c r="AY91">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ91">
         <v>3</v>
@@ -20131,22 +20131,22 @@
         <v>3.3</v>
       </c>
       <c r="AN92">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AO92">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AP92">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ92">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AR92">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="AS92">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AT92">
         <v>2.82</v>
@@ -20164,10 +20164,10 @@
         <v>4</v>
       </c>
       <c r="AY92">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ92">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="BA92">
         <v>3</v>
@@ -20337,25 +20337,25 @@
         <v>1.22</v>
       </c>
       <c r="AN93">
-        <v>1.43</v>
+        <v>1.07</v>
       </c>
       <c r="AO93">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AP93">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ93">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR93">
-        <v>1.24</v>
+        <v>1.12</v>
       </c>
       <c r="AS93">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AT93">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="AU93">
         <v>4</v>
@@ -20370,10 +20370,10 @@
         <v>3</v>
       </c>
       <c r="AY93">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AZ93">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA93">
         <v>3</v>
@@ -20543,25 +20543,25 @@
         <v>1.48</v>
       </c>
       <c r="AN94">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="AO94">
-        <v>1.14</v>
+        <v>1.87</v>
       </c>
       <c r="AP94">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ94">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AR94">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="AS94">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="AT94">
-        <v>2.91</v>
+        <v>2.87</v>
       </c>
       <c r="AU94">
         <v>4</v>
@@ -20576,10 +20576,10 @@
         <v>4</v>
       </c>
       <c r="AY94">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ94">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA94">
         <v>3</v>
@@ -20749,25 +20749,25 @@
         <v>1.45</v>
       </c>
       <c r="AN95">
+        <v>1.6</v>
+      </c>
+      <c r="AO95">
+        <v>1.67</v>
+      </c>
+      <c r="AP95">
+        <v>1.22</v>
+      </c>
+      <c r="AQ95">
+        <v>1.32</v>
+      </c>
+      <c r="AR95">
+        <v>1.18</v>
+      </c>
+      <c r="AS95">
         <v>1.29</v>
       </c>
-      <c r="AO95">
-        <v>1.57</v>
-      </c>
-      <c r="AP95">
-        <v>1.19</v>
-      </c>
-      <c r="AQ95">
-        <v>1.35</v>
-      </c>
-      <c r="AR95">
-        <v>1.21</v>
-      </c>
-      <c r="AS95">
-        <v>1.37</v>
-      </c>
       <c r="AT95">
-        <v>2.58</v>
+        <v>2.47</v>
       </c>
       <c r="AU95">
         <v>7</v>
@@ -20782,10 +20782,10 @@
         <v>5</v>
       </c>
       <c r="AY95">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ95">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA95">
         <v>4</v>
@@ -20955,25 +20955,25 @@
         <v>2.4</v>
       </c>
       <c r="AN96">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="AO96">
-        <v>0.43</v>
+        <v>0.2</v>
       </c>
       <c r="AP96">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ96">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR96">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="AS96">
-        <v>0.71</v>
+        <v>0.85</v>
       </c>
       <c r="AT96">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="AU96">
         <v>11</v>
@@ -20988,10 +20988,10 @@
         <v>2</v>
       </c>
       <c r="AY96">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ96">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA96">
         <v>7</v>
@@ -21161,25 +21161,25 @@
         <v>1.12</v>
       </c>
       <c r="AN97">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AO97">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="AP97">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ97">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AR97">
-        <v>1.28</v>
+        <v>1.14</v>
       </c>
       <c r="AS97">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="AT97">
-        <v>3.12</v>
+        <v>2.97</v>
       </c>
       <c r="AU97">
         <v>4</v>
@@ -21194,10 +21194,10 @@
         <v>8</v>
       </c>
       <c r="AY97">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AZ97">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BA97">
         <v>6</v>
@@ -21367,25 +21367,25 @@
         <v>1.28</v>
       </c>
       <c r="AN98">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO98">
         <v>2.25</v>
       </c>
       <c r="AP98">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AQ98">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR98">
         <v>1.83</v>
       </c>
       <c r="AS98">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AT98">
-        <v>3.34</v>
+        <v>3.39</v>
       </c>
       <c r="AU98">
         <v>6</v>
@@ -21400,10 +21400,10 @@
         <v>4</v>
       </c>
       <c r="AY98">
+        <v>14</v>
+      </c>
+      <c r="AZ98">
         <v>12</v>
-      </c>
-      <c r="AZ98">
-        <v>10</v>
       </c>
       <c r="BA98">
         <v>5</v>
@@ -21573,25 +21573,25 @@
         <v>1.09</v>
       </c>
       <c r="AN99">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="AO99">
-        <v>1.13</v>
+        <v>1.81</v>
       </c>
       <c r="AP99">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ99">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AR99">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="AS99">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AT99">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="AU99">
         <v>3</v>
@@ -21606,10 +21606,10 @@
         <v>5</v>
       </c>
       <c r="AY99">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ99">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BA99">
         <v>3</v>
@@ -21779,25 +21779,25 @@
         <v>1.36</v>
       </c>
       <c r="AN100">
+        <v>1.56</v>
+      </c>
+      <c r="AO100">
         <v>1.25</v>
       </c>
-      <c r="AO100">
-        <v>1.13</v>
-      </c>
       <c r="AP100">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AQ100">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AR100">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="AS100">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="AT100">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="AU100">
         <v>7</v>
@@ -21812,10 +21812,10 @@
         <v>3</v>
       </c>
       <c r="AY100">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AZ100">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA100">
         <v>5</v>
@@ -21985,25 +21985,25 @@
         <v>1.75</v>
       </c>
       <c r="AN101">
-        <v>1.38</v>
+        <v>1.06</v>
       </c>
       <c r="AO101">
         <v>0.5</v>
       </c>
       <c r="AP101">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ101">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR101">
-        <v>1.23</v>
+        <v>1.12</v>
       </c>
       <c r="AS101">
-        <v>1.02</v>
+        <v>1.14</v>
       </c>
       <c r="AT101">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
       <c r="AU101">
         <v>5</v>
@@ -22018,10 +22018,10 @@
         <v>7</v>
       </c>
       <c r="AY101">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ101">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA101">
         <v>9</v>
@@ -22191,25 +22191,25 @@
         <v>1.65</v>
       </c>
       <c r="AN102">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="AO102">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AP102">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AQ102">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AR102">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AS102">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AT102">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="AU102">
         <v>6</v>
@@ -22224,10 +22224,10 @@
         <v>6</v>
       </c>
       <c r="AY102">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ102">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA102">
         <v>2</v>
@@ -22400,22 +22400,22 @@
         <v>2.13</v>
       </c>
       <c r="AO103">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AP103">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AQ103">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR103">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AS103">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT103">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AU103">
         <v>9</v>
@@ -22430,10 +22430,10 @@
         <v>3</v>
       </c>
       <c r="AY103">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AZ103">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA103">
         <v>10</v>
@@ -22603,25 +22603,25 @@
         <v>1.88</v>
       </c>
       <c r="AN104">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AO104">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AP104">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ104">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR104">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AS104">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT104">
-        <v>3.11</v>
+        <v>3.13</v>
       </c>
       <c r="AU104">
         <v>5</v>
@@ -22636,10 +22636,10 @@
         <v>3</v>
       </c>
       <c r="AY104">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ104">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA104">
         <v>6</v>
@@ -22809,25 +22809,25 @@
         <v>1.83</v>
       </c>
       <c r="AN105">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="AO105">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AP105">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ105">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AR105">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="AS105">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="AT105">
-        <v>2.77</v>
+        <v>2.66</v>
       </c>
       <c r="AU105">
         <v>6</v>
@@ -22842,10 +22842,10 @@
         <v>3</v>
       </c>
       <c r="AY105">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ105">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA105">
         <v>3</v>
@@ -23015,25 +23015,25 @@
         <v>1.72</v>
       </c>
       <c r="AN106">
-        <v>1.25</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO106">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AP106">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ106">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR106">
-        <v>1.48</v>
+        <v>1.32</v>
       </c>
       <c r="AS106">
-        <v>1.02</v>
+        <v>1.15</v>
       </c>
       <c r="AT106">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AU106">
         <v>7</v>
@@ -23048,7 +23048,7 @@
         <v>1</v>
       </c>
       <c r="AY106">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AZ106">
         <v>3</v>
@@ -23221,25 +23221,25 @@
         <v>1.32</v>
       </c>
       <c r="AN107">
-        <v>1.63</v>
+        <v>1.35</v>
       </c>
       <c r="AO107">
-        <v>1.75</v>
+        <v>1.41</v>
       </c>
       <c r="AP107">
+        <v>1.39</v>
+      </c>
+      <c r="AQ107">
+        <v>1.41</v>
+      </c>
+      <c r="AR107">
         <v>1.29</v>
       </c>
-      <c r="AQ107">
-        <v>1.63</v>
-      </c>
-      <c r="AR107">
-        <v>1.31</v>
-      </c>
       <c r="AS107">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="AT107">
-        <v>3.15</v>
+        <v>3.11</v>
       </c>
       <c r="AU107">
         <v>5</v>
@@ -23254,10 +23254,10 @@
         <v>4</v>
       </c>
       <c r="AY107">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AZ107">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA107">
         <v>6</v>
@@ -23427,25 +23427,25 @@
         <v>2</v>
       </c>
       <c r="AN108">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AO108">
-        <v>0.38</v>
+        <v>0.18</v>
       </c>
       <c r="AP108">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ108">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR108">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="AS108">
-        <v>0.6899999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="AT108">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="AU108">
         <v>3</v>
@@ -23460,7 +23460,7 @@
         <v>2</v>
       </c>
       <c r="AY108">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AZ108">
         <v>7</v>
@@ -23633,25 +23633,25 @@
         <v>2.65</v>
       </c>
       <c r="AN109">
-        <v>2.5</v>
+        <v>1.88</v>
       </c>
       <c r="AO109">
-        <v>1.88</v>
+        <v>1.53</v>
       </c>
       <c r="AP109">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ109">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR109">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AS109">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AT109">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="AU109">
         <v>7</v>
@@ -23666,7 +23666,7 @@
         <v>6</v>
       </c>
       <c r="AY109">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ109">
         <v>10</v>
@@ -23839,25 +23839,25 @@
         <v>2.25</v>
       </c>
       <c r="AN110">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="AO110">
-        <v>0.78</v>
+        <v>0.61</v>
       </c>
       <c r="AP110">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ110">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR110">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AS110">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="AT110">
-        <v>2.36</v>
+        <v>2.45</v>
       </c>
       <c r="AU110">
         <v>8</v>
@@ -23872,10 +23872,10 @@
         <v>5</v>
       </c>
       <c r="AY110">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ110">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA110">
         <v>3</v>
@@ -24045,25 +24045,25 @@
         <v>1.9</v>
       </c>
       <c r="AN111">
-        <v>1.56</v>
+        <v>1.33</v>
       </c>
       <c r="AO111">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP111">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ111">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR111">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AS111">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="AT111">
-        <v>2.62</v>
+        <v>2.76</v>
       </c>
       <c r="AU111">
         <v>4</v>
@@ -24078,10 +24078,10 @@
         <v>7</v>
       </c>
       <c r="AY111">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ111">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA111">
         <v>2</v>
@@ -24251,25 +24251,25 @@
         <v>1.1</v>
       </c>
       <c r="AN112">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AO112">
-        <v>2.33</v>
+        <v>2.22</v>
       </c>
       <c r="AP112">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ112">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR112">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="AS112">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="AT112">
-        <v>2.76</v>
+        <v>2.67</v>
       </c>
       <c r="AU112">
         <v>3</v>
@@ -24284,10 +24284,10 @@
         <v>13</v>
       </c>
       <c r="AY112">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AZ112">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="BA112">
         <v>1</v>
@@ -24457,25 +24457,25 @@
         <v>1.28</v>
       </c>
       <c r="AN113">
-        <v>1.89</v>
+        <v>1.61</v>
       </c>
       <c r="AO113">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="AP113">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AQ113">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AR113">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="AS113">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="AT113">
-        <v>2.69</v>
+        <v>2.79</v>
       </c>
       <c r="AU113">
         <v>2</v>
@@ -24490,10 +24490,10 @@
         <v>5</v>
       </c>
       <c r="AY113">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ113">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA113">
         <v>5</v>
@@ -24663,25 +24663,25 @@
         <v>1.2</v>
       </c>
       <c r="AN114">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO114">
-        <v>1.78</v>
+        <v>1.5</v>
       </c>
       <c r="AP114">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ114">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR114">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
       <c r="AS114">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AT114">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="AU114">
         <v>5</v>
@@ -24696,10 +24696,10 @@
         <v>4</v>
       </c>
       <c r="AY114">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ114">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA114">
         <v>6</v>
@@ -24869,25 +24869,25 @@
         <v>1.67</v>
       </c>
       <c r="AN115">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AO115">
-        <v>1.89</v>
+        <v>1.5</v>
       </c>
       <c r="AP115">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AQ115">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AR115">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="AS115">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="AT115">
-        <v>3.45</v>
+        <v>3.34</v>
       </c>
       <c r="AU115">
         <v>7</v>
@@ -24902,10 +24902,10 @@
         <v>9</v>
       </c>
       <c r="AY115">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ115">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA115">
         <v>2</v>
@@ -25075,25 +25075,25 @@
         <v>5.45</v>
       </c>
       <c r="AN116">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AO116">
-        <v>0.67</v>
+        <v>0.32</v>
       </c>
       <c r="AP116">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ116">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR116">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AS116">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AT116">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="AU116">
         <v>12</v>
@@ -25108,7 +25108,7 @@
         <v>1</v>
       </c>
       <c r="AY116">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AZ116">
         <v>3</v>
@@ -25281,25 +25281,25 @@
         <v>2.05</v>
       </c>
       <c r="AN117">
-        <v>2.33</v>
+        <v>1.79</v>
       </c>
       <c r="AO117">
-        <v>1.11</v>
+        <v>1.37</v>
       </c>
       <c r="AP117">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ117">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AR117">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AS117">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AT117">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="AU117">
         <v>4</v>
@@ -25314,10 +25314,10 @@
         <v>6</v>
       </c>
       <c r="AY117">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ117">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA117">
         <v>5</v>
@@ -25487,25 +25487,25 @@
         <v>1.55</v>
       </c>
       <c r="AN118">
-        <v>1.22</v>
+        <v>0.89</v>
       </c>
       <c r="AO118">
-        <v>1.33</v>
+        <v>1.58</v>
       </c>
       <c r="AP118">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ118">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AR118">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
       <c r="AS118">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="AT118">
-        <v>2.89</v>
+        <v>2.61</v>
       </c>
       <c r="AU118">
         <v>4</v>
@@ -25520,10 +25520,10 @@
         <v>6</v>
       </c>
       <c r="AY118">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ118">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA118">
         <v>5</v>
@@ -25693,25 +25693,25 @@
         <v>1.66</v>
       </c>
       <c r="AN119">
+        <v>1.58</v>
+      </c>
+      <c r="AO119">
+        <v>1</v>
+      </c>
+      <c r="AP119">
         <v>1.22</v>
       </c>
-      <c r="AO119">
-        <v>0.78</v>
-      </c>
-      <c r="AP119">
-        <v>1.19</v>
-      </c>
       <c r="AQ119">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR119">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AS119">
-        <v>0.96</v>
+        <v>1.1</v>
       </c>
       <c r="AT119">
-        <v>2.26</v>
+        <v>2.35</v>
       </c>
       <c r="AU119">
         <v>5</v>
@@ -25726,10 +25726,10 @@
         <v>9</v>
       </c>
       <c r="AY119">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ119">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA119">
         <v>4</v>
@@ -25899,25 +25899,25 @@
         <v>1.12</v>
       </c>
       <c r="AN120">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AO120">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AP120">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ120">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR120">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AS120">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="AT120">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="AU120">
         <v>4</v>
@@ -25932,10 +25932,10 @@
         <v>3</v>
       </c>
       <c r="AY120">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ120">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BA120">
         <v>4</v>
@@ -26105,25 +26105,25 @@
         <v>1.9</v>
       </c>
       <c r="AN121">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AO121">
-        <v>1.11</v>
+        <v>1.42</v>
       </c>
       <c r="AP121">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AQ121">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AR121">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="AS121">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="AT121">
-        <v>3.16</v>
+        <v>3.15</v>
       </c>
       <c r="AU121">
         <v>6</v>
@@ -26138,10 +26138,10 @@
         <v>7</v>
       </c>
       <c r="AY121">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ121">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA121">
         <v>4</v>
@@ -26311,25 +26311,25 @@
         <v>1.3</v>
       </c>
       <c r="AN122">
-        <v>0.4</v>
+        <v>0.55</v>
       </c>
       <c r="AO122">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="AP122">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ122">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AR122">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="AS122">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AT122">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AU122">
         <v>6</v>
@@ -26344,7 +26344,7 @@
         <v>3</v>
       </c>
       <c r="AY122">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ122">
         <v>5</v>
@@ -26517,25 +26517,25 @@
         <v>1.3</v>
       </c>
       <c r="AN123">
-        <v>1.1</v>
+        <v>0.85</v>
       </c>
       <c r="AO123">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="AP123">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ123">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AR123">
-        <v>1.51</v>
+        <v>1.36</v>
       </c>
       <c r="AS123">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AT123">
-        <v>2.98</v>
+        <v>2.85</v>
       </c>
       <c r="AU123">
         <v>0</v>
@@ -26723,25 +26723,25 @@
         <v>1.3</v>
       </c>
       <c r="AN124">
-        <v>1.2</v>
+        <v>0.95</v>
       </c>
       <c r="AO124">
-        <v>1</v>
+        <v>1.35</v>
       </c>
       <c r="AP124">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ124">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AR124">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AS124">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AT124">
-        <v>2.57</v>
+        <v>2.48</v>
       </c>
       <c r="AU124">
         <v>5</v>
@@ -26756,10 +26756,10 @@
         <v>3</v>
       </c>
       <c r="AY124">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ124">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA124">
         <v>5</v>
@@ -26929,25 +26929,25 @@
         <v>4.33</v>
       </c>
       <c r="AN125">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="AO125">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AP125">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AQ125">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="AR125">
         <v>1.75</v>
       </c>
       <c r="AS125">
-        <v>0.6899999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AT125">
-        <v>2.44</v>
+        <v>2.59</v>
       </c>
       <c r="AU125">
         <v>5</v>
@@ -26962,10 +26962,10 @@
         <v>2</v>
       </c>
       <c r="AY125">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ125">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA125">
         <v>9</v>
@@ -27138,22 +27138,22 @@
         <v>2.1</v>
       </c>
       <c r="AO126">
+        <v>1.45</v>
+      </c>
+      <c r="AP126">
+        <v>2.09</v>
+      </c>
+      <c r="AQ126">
+        <v>1.39</v>
+      </c>
+      <c r="AR126">
+        <v>1.57</v>
+      </c>
+      <c r="AS126">
         <v>1.3</v>
       </c>
-      <c r="AP126">
-        <v>2.13</v>
-      </c>
-      <c r="AQ126">
-        <v>1.5</v>
-      </c>
-      <c r="AR126">
-        <v>1.65</v>
-      </c>
-      <c r="AS126">
-        <v>1.29</v>
-      </c>
       <c r="AT126">
-        <v>2.94</v>
+        <v>2.87</v>
       </c>
       <c r="AU126">
         <v>9</v>
@@ -27168,10 +27168,10 @@
         <v>4</v>
       </c>
       <c r="AY126">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ126">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA126">
         <v>6</v>
@@ -27344,22 +27344,22 @@
         <v>2.2</v>
       </c>
       <c r="AO127">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="AP127">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AQ127">
+        <v>1.22</v>
+      </c>
+      <c r="AR127">
+        <v>1.6</v>
+      </c>
+      <c r="AS127">
         <v>1.25</v>
       </c>
-      <c r="AR127">
-        <v>1.69</v>
-      </c>
-      <c r="AS127">
-        <v>1.2</v>
-      </c>
       <c r="AT127">
-        <v>2.89</v>
+        <v>2.85</v>
       </c>
       <c r="AU127">
         <v>5</v>
@@ -27374,10 +27374,10 @@
         <v>2</v>
       </c>
       <c r="AY127">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ127">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA127">
         <v>6</v>
@@ -27547,25 +27547,25 @@
         <v>1.21</v>
       </c>
       <c r="AN128">
-        <v>2.1</v>
+        <v>1.67</v>
       </c>
       <c r="AO128">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="AP128">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AQ128">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AR128">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="AS128">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="AT128">
-        <v>3.03</v>
+        <v>3.06</v>
       </c>
       <c r="AU128">
         <v>5</v>
@@ -27580,10 +27580,10 @@
         <v>4</v>
       </c>
       <c r="AY128">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AZ128">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA128">
         <v>4</v>
@@ -27753,25 +27753,25 @@
         <v>1.78</v>
       </c>
       <c r="AN129">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="AO129">
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="AP129">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ129">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR129">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="AS129">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
       <c r="AT129">
-        <v>2.53</v>
+        <v>2.61</v>
       </c>
       <c r="AU129">
         <v>5</v>
@@ -27786,10 +27786,10 @@
         <v>7</v>
       </c>
       <c r="AY129">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ129">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BA129">
         <v>2</v>
@@ -27959,25 +27959,25 @@
         <v>2.5</v>
       </c>
       <c r="AN130">
-        <v>1.7</v>
+        <v>1.43</v>
       </c>
       <c r="AO130">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="AP130">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ130">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR130">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AS130">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AT130">
-        <v>2.48</v>
+        <v>2.57</v>
       </c>
       <c r="AU130">
         <v>5</v>
@@ -27992,10 +27992,10 @@
         <v>5</v>
       </c>
       <c r="AY130">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ130">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA130">
         <v>4</v>
@@ -28165,25 +28165,25 @@
         <v>1.3</v>
       </c>
       <c r="AN131">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="AO131">
-        <v>1.8</v>
+        <v>1.52</v>
       </c>
       <c r="AP131">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AQ131">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AR131">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AS131">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="AT131">
-        <v>3.04</v>
+        <v>2.94</v>
       </c>
       <c r="AU131">
         <v>5</v>
@@ -28371,25 +28371,25 @@
         <v>1.25</v>
       </c>
       <c r="AN132">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO132">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AP132">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AQ132">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR132">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="AS132">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="AT132">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="AU132">
         <v>8</v>
@@ -28404,10 +28404,10 @@
         <v>6</v>
       </c>
       <c r="AY132">
+        <v>14</v>
+      </c>
+      <c r="AZ132">
         <v>12</v>
-      </c>
-      <c r="AZ132">
-        <v>11</v>
       </c>
       <c r="BA132">
         <v>5</v>
@@ -28577,25 +28577,25 @@
         <v>1.3</v>
       </c>
       <c r="AN133">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="AO133">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AP133">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AQ133">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AR133">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AS133">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="AT133">
-        <v>2.64</v>
+        <v>2.83</v>
       </c>
       <c r="AU133">
         <v>2</v>
@@ -28610,10 +28610,10 @@
         <v>5</v>
       </c>
       <c r="AY133">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ133">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA133">
         <v>6</v>
@@ -28816,10 +28816,10 @@
         <v>2</v>
       </c>
       <c r="AY134">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ134">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BA134">
         <v>4</v>
@@ -29022,10 +29022,10 @@
         <v>4</v>
       </c>
       <c r="AY135">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ135">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA135">
         <v>4</v>
@@ -29228,10 +29228,10 @@
         <v>8</v>
       </c>
       <c r="AY136">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ136">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA136">
         <v>3</v>
@@ -29434,10 +29434,10 @@
         <v>2</v>
       </c>
       <c r="AY137">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ137">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA137">
         <v>1</v>
@@ -29640,10 +29640,10 @@
         <v>3</v>
       </c>
       <c r="AY138">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ138">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA138">
         <v>4</v>
@@ -29846,10 +29846,10 @@
         <v>2</v>
       </c>
       <c r="AY139">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ139">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA139">
         <v>1</v>
@@ -30052,10 +30052,10 @@
         <v>7</v>
       </c>
       <c r="AY140">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ140">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA140">
         <v>6</v>
@@ -30258,10 +30258,10 @@
         <v>6</v>
       </c>
       <c r="AY141">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ141">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA141">
         <v>4</v>
@@ -30464,10 +30464,10 @@
         <v>8</v>
       </c>
       <c r="AY142">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ142">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BA142">
         <v>6</v>
@@ -30670,10 +30670,10 @@
         <v>1</v>
       </c>
       <c r="AY143">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ143">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA143">
         <v>5</v>
@@ -30876,10 +30876,10 @@
         <v>2</v>
       </c>
       <c r="AY144">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AZ144">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA144">
         <v>1</v>
@@ -31082,10 +31082,10 @@
         <v>5</v>
       </c>
       <c r="AY145">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ145">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA145">
         <v>6</v>
@@ -31288,10 +31288,10 @@
         <v>3</v>
       </c>
       <c r="AY146">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ146">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA146">
         <v>5</v>
@@ -31494,10 +31494,10 @@
         <v>1</v>
       </c>
       <c r="AY147">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AZ147">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA147">
         <v>12</v>
@@ -31700,10 +31700,10 @@
         <v>5</v>
       </c>
       <c r="AY148">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ148">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA148">
         <v>3</v>
@@ -31906,10 +31906,10 @@
         <v>3</v>
       </c>
       <c r="AY149">
+        <v>14</v>
+      </c>
+      <c r="AZ149">
         <v>10</v>
-      </c>
-      <c r="AZ149">
-        <v>7</v>
       </c>
       <c r="BA149">
         <v>6</v>
@@ -32112,10 +32112,10 @@
         <v>7</v>
       </c>
       <c r="AY150">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ150">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA150">
         <v>4</v>
@@ -32318,10 +32318,10 @@
         <v>4</v>
       </c>
       <c r="AY151">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ151">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA151">
         <v>8</v>
@@ -32524,10 +32524,10 @@
         <v>5</v>
       </c>
       <c r="AY152">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ152">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA152">
         <v>0</v>
@@ -32730,10 +32730,10 @@
         <v>3</v>
       </c>
       <c r="AY153">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ153">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA153">
         <v>2</v>
@@ -32936,10 +32936,10 @@
         <v>6</v>
       </c>
       <c r="AY154">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ154">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="BA154">
         <v>2</v>
@@ -33142,10 +33142,10 @@
         <v>7</v>
       </c>
       <c r="AY155">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ155">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA155">
         <v>4</v>
@@ -33348,7 +33348,7 @@
         <v>5</v>
       </c>
       <c r="AY156">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ156">
         <v>11</v>
@@ -33554,10 +33554,10 @@
         <v>2</v>
       </c>
       <c r="AY157">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ157">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA157">
         <v>7</v>
@@ -33760,10 +33760,10 @@
         <v>4</v>
       </c>
       <c r="AY158">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AZ158">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA158">
         <v>4</v>
@@ -33966,10 +33966,10 @@
         <v>5</v>
       </c>
       <c r="AY159">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ159">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA159">
         <v>2</v>
@@ -34172,7 +34172,7 @@
         <v>6</v>
       </c>
       <c r="AY160">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ160">
         <v>9</v>
@@ -34381,7 +34381,7 @@
         <v>10</v>
       </c>
       <c r="AZ161">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA161">
         <v>7</v>
@@ -34584,10 +34584,10 @@
         <v>4</v>
       </c>
       <c r="AY162">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AZ162">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA162">
         <v>9</v>
@@ -34790,10 +34790,10 @@
         <v>5</v>
       </c>
       <c r="AY163">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AZ163">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA163">
         <v>7</v>
@@ -34996,10 +34996,10 @@
         <v>4</v>
       </c>
       <c r="AY164">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ164">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA164">
         <v>7</v>
@@ -35202,10 +35202,10 @@
         <v>3</v>
       </c>
       <c r="AY165">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ165">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA165">
         <v>3</v>
@@ -35408,10 +35408,10 @@
         <v>1</v>
       </c>
       <c r="AY166">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AZ166">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA166">
         <v>2</v>
@@ -35614,10 +35614,10 @@
         <v>3</v>
       </c>
       <c r="AY167">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ167">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA167">
         <v>6</v>
@@ -35823,7 +35823,7 @@
         <v>10</v>
       </c>
       <c r="AZ168">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA168">
         <v>3</v>
@@ -36026,10 +36026,10 @@
         <v>6</v>
       </c>
       <c r="AY169">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AZ169">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA169">
         <v>5</v>
@@ -36232,10 +36232,10 @@
         <v>4</v>
       </c>
       <c r="AY170">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AZ170">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA170">
         <v>8</v>
@@ -36438,10 +36438,10 @@
         <v>8</v>
       </c>
       <c r="AY171">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ171">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="BA171">
         <v>5</v>
@@ -36644,10 +36644,10 @@
         <v>1</v>
       </c>
       <c r="AY172">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ172">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA172">
         <v>8</v>
@@ -36850,10 +36850,10 @@
         <v>2</v>
       </c>
       <c r="AY173">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ173">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA173">
         <v>4</v>
@@ -37056,10 +37056,10 @@
         <v>1</v>
       </c>
       <c r="AY174">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ174">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA174">
         <v>5</v>
@@ -37262,10 +37262,10 @@
         <v>5</v>
       </c>
       <c r="AY175">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AZ175">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA175">
         <v>8</v>
@@ -37468,10 +37468,10 @@
         <v>8</v>
       </c>
       <c r="AY176">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ176">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BA176">
         <v>3</v>
@@ -37674,10 +37674,10 @@
         <v>4</v>
       </c>
       <c r="AY177">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ177">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA177">
         <v>7</v>
@@ -37880,10 +37880,10 @@
         <v>4</v>
       </c>
       <c r="AY178">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AZ178">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA178">
         <v>6</v>
@@ -38086,10 +38086,10 @@
         <v>6</v>
       </c>
       <c r="AY179">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ179">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA179">
         <v>2</v>
@@ -38292,10 +38292,10 @@
         <v>3</v>
       </c>
       <c r="AY180">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ180">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA180">
         <v>4</v>
@@ -38498,10 +38498,10 @@
         <v>7</v>
       </c>
       <c r="AY181">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ181">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA181">
         <v>4</v>
@@ -38704,10 +38704,10 @@
         <v>3</v>
       </c>
       <c r="AY182">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ182">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA182">
         <v>3</v>
@@ -38910,10 +38910,10 @@
         <v>9</v>
       </c>
       <c r="AY183">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ183">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BA183">
         <v>6</v>
@@ -39116,10 +39116,10 @@
         <v>0</v>
       </c>
       <c r="AY184">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ184">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA184">
         <v>10</v>
@@ -39322,10 +39322,10 @@
         <v>4</v>
       </c>
       <c r="AY185">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ185">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA185">
         <v>6</v>
@@ -39528,10 +39528,10 @@
         <v>1</v>
       </c>
       <c r="AY186">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ186">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA186">
         <v>3</v>
@@ -39734,10 +39734,10 @@
         <v>8</v>
       </c>
       <c r="AY187">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AZ187">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BA187">
         <v>8</v>
@@ -39940,10 +39940,10 @@
         <v>6</v>
       </c>
       <c r="AY188">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ188">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA188">
         <v>6</v>
@@ -40146,10 +40146,10 @@
         <v>10</v>
       </c>
       <c r="AY189">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ189">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BA189">
         <v>8</v>
@@ -40352,7 +40352,7 @@
         <v>5</v>
       </c>
       <c r="AY190">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ190">
         <v>12</v>
@@ -40558,7 +40558,7 @@
         <v>1</v>
       </c>
       <c r="AY191">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ191">
         <v>5</v>
@@ -40764,10 +40764,10 @@
         <v>4</v>
       </c>
       <c r="AY192">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ192">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA192">
         <v>7</v>
@@ -40970,10 +40970,10 @@
         <v>3</v>
       </c>
       <c r="AY193">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ193">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA193">
         <v>8</v>
@@ -41176,10 +41176,10 @@
         <v>12</v>
       </c>
       <c r="AY194">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ194">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="BA194">
         <v>2</v>
@@ -41382,10 +41382,10 @@
         <v>3</v>
       </c>
       <c r="AY195">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ195">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA195">
         <v>7</v>
@@ -41588,10 +41588,10 @@
         <v>2</v>
       </c>
       <c r="AY196">
+        <v>17</v>
+      </c>
+      <c r="AZ196">
         <v>11</v>
-      </c>
-      <c r="AZ196">
-        <v>8</v>
       </c>
       <c r="BA196">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
+        <v>1.94</v>
+      </c>
+      <c r="AQ2">
         <v>1.63</v>
-      </c>
-      <c r="AQ2">
-        <v>1.41</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2009,10 +2009,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AQ4">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2215,10 +2215,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ5">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2421,10 +2421,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2627,10 +2627,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AQ7">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2827,25 +2827,25 @@
         <v>2.6</v>
       </c>
       <c r="AN8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO8">
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AQ8">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR8">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AT8">
-        <v>3.12</v>
+        <v>0</v>
       </c>
       <c r="AU8">
         <v>15</v>
@@ -3033,25 +3033,25 @@
         <v>2.15</v>
       </c>
       <c r="AN9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ9">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR9">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>3.04</v>
+        <v>0</v>
       </c>
       <c r="AU9">
         <v>7</v>
@@ -3239,25 +3239,25 @@
         <v>1.22</v>
       </c>
       <c r="AN10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO10">
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ10">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AR10">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>7</v>
@@ -3445,25 +3445,25 @@
         <v>4.75</v>
       </c>
       <c r="AN11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ11">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR11">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>3.09</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>9</v>
@@ -3654,22 +3654,22 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ12">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AR12">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>5</v>
@@ -3857,25 +3857,25 @@
         <v>1.45</v>
       </c>
       <c r="AN13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ13">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AR13">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>4</v>
@@ -4063,25 +4063,25 @@
         <v>1.87</v>
       </c>
       <c r="AN14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ14">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR14">
-        <v>1.12</v>
+        <v>1.31</v>
       </c>
       <c r="AS14">
-        <v>1.05</v>
+        <v>0.88</v>
       </c>
       <c r="AT14">
-        <v>2.17</v>
+        <v>2.19</v>
       </c>
       <c r="AU14">
         <v>6</v>
@@ -4272,22 +4272,22 @@
         <v>3</v>
       </c>
       <c r="AO15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP15">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ15">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AR15">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AS15">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="AT15">
-        <v>3.7</v>
+        <v>3.77</v>
       </c>
       <c r="AU15">
         <v>2</v>
@@ -4475,25 +4475,25 @@
         <v>2.6</v>
       </c>
       <c r="AN16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO16">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR16">
-        <v>0.95</v>
+        <v>1.19</v>
       </c>
       <c r="AS16">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AT16">
-        <v>1.96</v>
+        <v>2.24</v>
       </c>
       <c r="AU16">
         <v>6</v>
@@ -4684,22 +4684,22 @@
         <v>3</v>
       </c>
       <c r="AO17">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AP17">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ17">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AR17">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="AS17">
-        <v>1.55</v>
+        <v>2.23</v>
       </c>
       <c r="AT17">
-        <v>3.57</v>
+        <v>4.37</v>
       </c>
       <c r="AU17">
         <v>7</v>
@@ -4887,25 +4887,25 @@
         <v>2.3</v>
       </c>
       <c r="AN18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO18">
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AQ18">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AR18">
-        <v>2.43</v>
+        <v>2.76</v>
       </c>
       <c r="AS18">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="AT18">
-        <v>4.04</v>
+        <v>4.41</v>
       </c>
       <c r="AU18">
         <v>5</v>
@@ -5099,19 +5099,19 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR19">
-        <v>0.8</v>
+        <v>1.02</v>
       </c>
       <c r="AS19">
-        <v>0.9</v>
+        <v>0.61</v>
       </c>
       <c r="AT19">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="AU19">
         <v>9</v>
@@ -5302,22 +5302,22 @@
         <v>0</v>
       </c>
       <c r="AO20">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ20">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR20">
-        <v>0.77</v>
+        <v>1.19</v>
       </c>
       <c r="AS20">
-        <v>1.14</v>
+        <v>0.71</v>
       </c>
       <c r="AT20">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5505,25 +5505,25 @@
         <v>1.14</v>
       </c>
       <c r="AN21">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AO21">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ21">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR21">
-        <v>0.9</v>
+        <v>1.23</v>
       </c>
       <c r="AS21">
-        <v>1.51</v>
+        <v>1.85</v>
       </c>
       <c r="AT21">
-        <v>2.41</v>
+        <v>3.08</v>
       </c>
       <c r="AU21">
         <v>2</v>
@@ -5711,25 +5711,25 @@
         <v>2</v>
       </c>
       <c r="AN22">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AO22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ22">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR22">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="AS22">
-        <v>1.21</v>
+        <v>0.58</v>
       </c>
       <c r="AT22">
-        <v>2.91</v>
+        <v>2.36</v>
       </c>
       <c r="AU22">
         <v>6</v>
@@ -5917,25 +5917,25 @@
         <v>2</v>
       </c>
       <c r="AN23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO23">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AQ23">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AR23">
-        <v>1.1</v>
+        <v>0.86</v>
       </c>
       <c r="AS23">
-        <v>1.3</v>
+        <v>0.92</v>
       </c>
       <c r="AT23">
-        <v>2.4</v>
+        <v>1.78</v>
       </c>
       <c r="AU23">
         <v>6</v>
@@ -6123,25 +6123,25 @@
         <v>1.22</v>
       </c>
       <c r="AN24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AO24">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ24">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AR24">
-        <v>1.01</v>
+        <v>0.98</v>
       </c>
       <c r="AS24">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AT24">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
       <c r="AU24">
         <v>6</v>
@@ -6329,25 +6329,25 @@
         <v>1.16</v>
       </c>
       <c r="AN25">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AO25">
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AQ25">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR25">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="AS25">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AT25">
-        <v>3.37</v>
+        <v>3.47</v>
       </c>
       <c r="AU25">
         <v>4</v>
@@ -6535,25 +6535,25 @@
         <v>1.14</v>
       </c>
       <c r="AN26">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO26">
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ26">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR26">
-        <v>1.17</v>
+        <v>1.48</v>
       </c>
       <c r="AS26">
-        <v>1.81</v>
+        <v>1.64</v>
       </c>
       <c r="AT26">
-        <v>2.98</v>
+        <v>3.12</v>
       </c>
       <c r="AU26">
         <v>4</v>
@@ -6741,25 +6741,25 @@
         <v>3.75</v>
       </c>
       <c r="AN27">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO27">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR27">
-        <v>1.55</v>
+        <v>1.34</v>
       </c>
       <c r="AS27">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AT27">
-        <v>2.6</v>
+        <v>2.37</v>
       </c>
       <c r="AU27">
         <v>6</v>
@@ -6947,25 +6947,25 @@
         <v>1.57</v>
       </c>
       <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
         <v>0.5</v>
       </c>
-      <c r="AO28">
-        <v>1</v>
-      </c>
       <c r="AP28">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ28">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR28">
-        <v>0.86</v>
+        <v>0.99</v>
       </c>
       <c r="AS28">
-        <v>1.1</v>
+        <v>0.67</v>
       </c>
       <c r="AT28">
-        <v>1.96</v>
+        <v>1.66</v>
       </c>
       <c r="AU28">
         <v>3</v>
@@ -7153,25 +7153,25 @@
         <v>1.87</v>
       </c>
       <c r="AN29">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AO29">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="AQ29">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AR29">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AS29">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AT29">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="AU29">
         <v>6</v>
@@ -7359,25 +7359,25 @@
         <v>2.15</v>
       </c>
       <c r="AN30">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO30">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AQ30">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR30">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="AS30">
-        <v>0.89</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT30">
-        <v>2.86</v>
+        <v>2.59</v>
       </c>
       <c r="AU30">
         <v>10</v>
@@ -7565,25 +7565,25 @@
         <v>1.55</v>
       </c>
       <c r="AN31">
+        <v>0.5</v>
+      </c>
+      <c r="AO31">
+        <v>2</v>
+      </c>
+      <c r="AP31">
+        <v>1.29</v>
+      </c>
+      <c r="AQ31">
         <v>1.25</v>
       </c>
-      <c r="AO31">
-        <v>1.5</v>
-      </c>
-      <c r="AP31">
-        <v>1.32</v>
-      </c>
-      <c r="AQ31">
+      <c r="AR31">
         <v>1.22</v>
       </c>
-      <c r="AR31">
-        <v>1.28</v>
-      </c>
       <c r="AS31">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="AT31">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="AU31">
         <v>2</v>
@@ -7771,25 +7771,25 @@
         <v>1.75</v>
       </c>
       <c r="AN32">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AO32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP32">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ32">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AR32">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AS32">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="AT32">
-        <v>2.31</v>
+        <v>2.61</v>
       </c>
       <c r="AU32">
         <v>4</v>
@@ -7977,25 +7977,25 @@
         <v>1.55</v>
       </c>
       <c r="AN33">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AO33">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR33">
-        <v>0.9</v>
+        <v>1.23</v>
       </c>
       <c r="AS33">
-        <v>1.01</v>
+        <v>0.97</v>
       </c>
       <c r="AT33">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="AU33">
         <v>6</v>
@@ -8183,25 +8183,25 @@
         <v>1.12</v>
       </c>
       <c r="AN34">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AO34">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AP34">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ34">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR34">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AS34">
-        <v>1.52</v>
+        <v>1.76</v>
       </c>
       <c r="AT34">
-        <v>2.9</v>
+        <v>3.29</v>
       </c>
       <c r="AU34">
         <v>5</v>
@@ -8392,22 +8392,22 @@
         <v>3</v>
       </c>
       <c r="AO35">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AP35">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ35">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AR35">
-        <v>1.73</v>
+        <v>1.98</v>
       </c>
       <c r="AS35">
-        <v>2.09</v>
+        <v>1.91</v>
       </c>
       <c r="AT35">
-        <v>3.82</v>
+        <v>3.89</v>
       </c>
       <c r="AU35">
         <v>5</v>
@@ -8595,25 +8595,25 @@
         <v>3.18</v>
       </c>
       <c r="AN36">
-        <v>1.6</v>
+        <v>2.33</v>
       </c>
       <c r="AO36">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="AQ36">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR36">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="AS36">
-        <v>0.9</v>
+        <v>0.74</v>
       </c>
       <c r="AT36">
-        <v>2.19</v>
+        <v>2.08</v>
       </c>
       <c r="AU36">
         <v>6</v>
@@ -8801,25 +8801,25 @@
         <v>2</v>
       </c>
       <c r="AN37">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AO37">
-        <v>1.8</v>
+        <v>2.33</v>
       </c>
       <c r="AP37">
+        <v>1.71</v>
+      </c>
+      <c r="AQ37">
+        <v>1.25</v>
+      </c>
+      <c r="AR37">
+        <v>1.35</v>
+      </c>
+      <c r="AS37">
         <v>1.57</v>
       </c>
-      <c r="AQ37">
-        <v>1.22</v>
-      </c>
-      <c r="AR37">
-        <v>1.2</v>
-      </c>
-      <c r="AS37">
-        <v>1.58</v>
-      </c>
       <c r="AT37">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="AU37">
         <v>8</v>
@@ -9007,25 +9007,25 @@
         <v>1.66</v>
       </c>
       <c r="AN38">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AO38">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ38">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR38">
         <v>1.06</v>
       </c>
       <c r="AS38">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="AT38">
-        <v>2.43</v>
+        <v>2.34</v>
       </c>
       <c r="AU38">
         <v>4</v>
@@ -9213,25 +9213,25 @@
         <v>1.3</v>
       </c>
       <c r="AN39">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AO39">
-        <v>1.83</v>
+        <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ39">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR39">
-        <v>1.49</v>
+        <v>1.59</v>
       </c>
       <c r="AS39">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="AT39">
-        <v>2.84</v>
+        <v>2.79</v>
       </c>
       <c r="AU39">
         <v>3</v>
@@ -9419,25 +9419,25 @@
         <v>1.45</v>
       </c>
       <c r="AN40">
-        <v>2.67</v>
+        <v>2.33</v>
       </c>
       <c r="AO40">
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ40">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR40">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AS40">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
       <c r="AT40">
-        <v>3.12</v>
+        <v>2.92</v>
       </c>
       <c r="AU40">
         <v>4</v>
@@ -9625,25 +9625,25 @@
         <v>1.6</v>
       </c>
       <c r="AN41">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO41">
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ41">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR41">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AS41">
-        <v>0.99</v>
+        <v>0.68</v>
       </c>
       <c r="AT41">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="AU41">
         <v>6</v>
@@ -9831,25 +9831,25 @@
         <v>1.44</v>
       </c>
       <c r="AN42">
-        <v>1.33</v>
+        <v>0.33</v>
       </c>
       <c r="AO42">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AQ42">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AR42">
-        <v>1.29</v>
+        <v>1.12</v>
       </c>
       <c r="AS42">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AT42">
-        <v>2.59</v>
+        <v>2.22</v>
       </c>
       <c r="AU42">
         <v>8</v>
@@ -10043,19 +10043,19 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AQ43">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AR43">
-        <v>1.94</v>
+        <v>2.21</v>
       </c>
       <c r="AS43">
-        <v>1.15</v>
+        <v>0.86</v>
       </c>
       <c r="AT43">
-        <v>3.09</v>
+        <v>3.07</v>
       </c>
       <c r="AU43">
         <v>7</v>
@@ -10243,25 +10243,25 @@
         <v>4</v>
       </c>
       <c r="AN44">
-        <v>2.71</v>
+        <v>3</v>
       </c>
       <c r="AO44">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AP44">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR44">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AS44">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="AT44">
-        <v>2.76</v>
+        <v>2.89</v>
       </c>
       <c r="AU44">
         <v>5</v>
@@ -10449,25 +10449,25 @@
         <v>2.2</v>
       </c>
       <c r="AN45">
-        <v>1.43</v>
+        <v>0.67</v>
       </c>
       <c r="AO45">
-        <v>0.29</v>
+        <v>0.67</v>
       </c>
       <c r="AP45">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ45">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR45">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AS45">
-        <v>0.92</v>
+        <v>0.61</v>
       </c>
       <c r="AT45">
-        <v>2.35</v>
+        <v>2.01</v>
       </c>
       <c r="AU45">
         <v>4</v>
@@ -10655,25 +10655,25 @@
         <v>1.42</v>
       </c>
       <c r="AN46">
-        <v>0.71</v>
+        <v>0.33</v>
       </c>
       <c r="AO46">
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ46">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AR46">
-        <v>1.1</v>
+        <v>1.29</v>
       </c>
       <c r="AS46">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AT46">
-        <v>2.31</v>
+        <v>2.4</v>
       </c>
       <c r="AU46">
         <v>4</v>
@@ -10861,25 +10861,25 @@
         <v>2.4</v>
       </c>
       <c r="AN47">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO47">
-        <v>1.57</v>
+        <v>2.33</v>
       </c>
       <c r="AP47">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="AQ47">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AR47">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="AS47">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="AT47">
-        <v>2.64</v>
+        <v>2.88</v>
       </c>
       <c r="AU47">
         <v>4</v>
@@ -11067,25 +11067,25 @@
         <v>1.3</v>
       </c>
       <c r="AN48">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AO48">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AP48">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AR48">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="AS48">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="AT48">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="AU48">
         <v>3</v>
@@ -11273,25 +11273,25 @@
         <v>1.44</v>
       </c>
       <c r="AN49">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AO49">
-        <v>2.43</v>
+        <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AQ49">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR49">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="AS49">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT49">
-        <v>3.3</v>
+        <v>3.57</v>
       </c>
       <c r="AU49">
         <v>4</v>
@@ -11479,25 +11479,25 @@
         <v>1.03</v>
       </c>
       <c r="AN50">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AO50">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AP50">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ50">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR50">
-        <v>0.93</v>
+        <v>1.15</v>
       </c>
       <c r="AS50">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="AT50">
-        <v>2.67</v>
+        <v>2.81</v>
       </c>
       <c r="AU50">
         <v>0</v>
@@ -11685,25 +11685,25 @@
         <v>1.47</v>
       </c>
       <c r="AN51">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO51">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="AP51">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ51">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AR51">
-        <v>1.04</v>
+        <v>0.99</v>
       </c>
       <c r="AS51">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="AT51">
-        <v>2.43</v>
+        <v>2.44</v>
       </c>
       <c r="AU51">
         <v>3</v>
@@ -11891,25 +11891,25 @@
         <v>1.4</v>
       </c>
       <c r="AN52">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AO52">
-        <v>1.88</v>
+        <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ52">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR52">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AS52">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="AT52">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -12097,25 +12097,25 @@
         <v>3.55</v>
       </c>
       <c r="AN53">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AO53">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="AP53">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ53">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR53">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="AS53">
-        <v>1.09</v>
+        <v>0.96</v>
       </c>
       <c r="AT53">
-        <v>2.45</v>
+        <v>2.28</v>
       </c>
       <c r="AU53">
         <v>5</v>
@@ -12303,25 +12303,25 @@
         <v>1.73</v>
       </c>
       <c r="AN54">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO54">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AP54">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AQ54">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR54">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AS54">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="AT54">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="AU54">
         <v>2</v>
@@ -12509,25 +12509,25 @@
         <v>1.55</v>
       </c>
       <c r="AN55">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AO55">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AQ55">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AR55">
-        <v>1.34</v>
+        <v>1.51</v>
       </c>
       <c r="AS55">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT55">
-        <v>3.14</v>
+        <v>3.18</v>
       </c>
       <c r="AU55">
         <v>3</v>
@@ -12715,25 +12715,25 @@
         <v>2</v>
       </c>
       <c r="AN56">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AO56">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AP56">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR56">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="AS56">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AT56">
-        <v>2.36</v>
+        <v>2.47</v>
       </c>
       <c r="AU56">
         <v>8</v>
@@ -12921,25 +12921,25 @@
         <v>1.14</v>
       </c>
       <c r="AN57">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="AO57">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AP57">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ57">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AR57">
-        <v>0.89</v>
+        <v>1.03</v>
       </c>
       <c r="AS57">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AT57">
-        <v>2.69</v>
+        <v>2.72</v>
       </c>
       <c r="AU57">
         <v>3</v>
@@ -13127,25 +13127,25 @@
         <v>2.15</v>
       </c>
       <c r="AN58">
-        <v>1.44</v>
+        <v>1</v>
       </c>
       <c r="AO58">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AP58">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AQ58">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR58">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AS58">
-        <v>1.09</v>
+        <v>0.98</v>
       </c>
       <c r="AT58">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="AU58">
         <v>7</v>
@@ -13333,22 +13333,22 @@
         <v>2.65</v>
       </c>
       <c r="AN59">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="AO59">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AP59">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="AQ59">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR59">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="AS59">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="AT59">
         <v>2.61</v>
@@ -13539,25 +13539,25 @@
         <v>1.22</v>
       </c>
       <c r="AN60">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AO60">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AP60">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ60">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR60">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AS60">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AT60">
-        <v>2.61</v>
+        <v>2.65</v>
       </c>
       <c r="AU60">
         <v>3</v>
@@ -13745,25 +13745,25 @@
         <v>1.08</v>
       </c>
       <c r="AN61">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="AO61">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="AP61">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ61">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR61">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AS61">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AT61">
-        <v>3.16</v>
+        <v>3.08</v>
       </c>
       <c r="AU61">
         <v>7</v>
@@ -13951,25 +13951,25 @@
         <v>1.9</v>
       </c>
       <c r="AN62">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="AO62">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ62">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR62">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AS62">
-        <v>0.89</v>
+        <v>0.7</v>
       </c>
       <c r="AT62">
-        <v>1.93</v>
+        <v>1.72</v>
       </c>
       <c r="AU62">
         <v>8</v>
@@ -14157,25 +14157,25 @@
         <v>2.4</v>
       </c>
       <c r="AN63">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="AO63">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AP63">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ63">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR63">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="AS63">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT63">
-        <v>3.14</v>
+        <v>3.13</v>
       </c>
       <c r="AU63">
         <v>3</v>
@@ -14363,25 +14363,25 @@
         <v>2.38</v>
       </c>
       <c r="AN64">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="AO64">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AP64">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ64">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AR64">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="AS64">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AT64">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="AU64">
         <v>7</v>
@@ -14569,25 +14569,25 @@
         <v>1.51</v>
       </c>
       <c r="AN65">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AO65">
+        <v>1.5</v>
+      </c>
+      <c r="AP65">
+        <v>1</v>
+      </c>
+      <c r="AQ65">
+        <v>1.5</v>
+      </c>
+      <c r="AR65">
         <v>1.3</v>
       </c>
-      <c r="AP65">
-        <v>0.97</v>
-      </c>
-      <c r="AQ65">
-        <v>1.39</v>
-      </c>
-      <c r="AR65">
-        <v>1.27</v>
-      </c>
       <c r="AS65">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT65">
-        <v>2.51</v>
+        <v>2.52</v>
       </c>
       <c r="AU65">
         <v>11</v>
@@ -14775,25 +14775,25 @@
         <v>1.26</v>
       </c>
       <c r="AN66">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AO66">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AP66">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ66">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AR66">
-        <v>1.06</v>
+        <v>1.22</v>
       </c>
       <c r="AS66">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="AT66">
-        <v>2.41</v>
+        <v>2.45</v>
       </c>
       <c r="AU66">
         <v>4</v>
@@ -14981,25 +14981,25 @@
         <v>2.15</v>
       </c>
       <c r="AN67">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AO67">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AP67">
+        <v>1.19</v>
+      </c>
+      <c r="AQ67">
+        <v>1.25</v>
+      </c>
+      <c r="AR67">
+        <v>1.88</v>
+      </c>
+      <c r="AS67">
         <v>1.41</v>
       </c>
-      <c r="AQ67">
-        <v>1.22</v>
-      </c>
-      <c r="AR67">
-        <v>1.82</v>
-      </c>
-      <c r="AS67">
-        <v>1.42</v>
-      </c>
       <c r="AT67">
-        <v>3.24</v>
+        <v>3.29</v>
       </c>
       <c r="AU67">
         <v>6</v>
@@ -15187,25 +15187,25 @@
         <v>4.2</v>
       </c>
       <c r="AN68">
-        <v>2.09</v>
+        <v>1.8</v>
       </c>
       <c r="AO68">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AP68">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ68">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR68">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="AS68">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="AT68">
-        <v>3.07</v>
+        <v>2.96</v>
       </c>
       <c r="AU68">
         <v>5</v>
@@ -15393,25 +15393,25 @@
         <v>2.25</v>
       </c>
       <c r="AN69">
-        <v>1.64</v>
+        <v>1.2</v>
       </c>
       <c r="AO69">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AP69">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ69">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR69">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="AS69">
-        <v>1.08</v>
+        <v>0.96</v>
       </c>
       <c r="AT69">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AU69">
         <v>2</v>
@@ -15599,25 +15599,25 @@
         <v>1.52</v>
       </c>
       <c r="AN70">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="AO70">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="AP70">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ70">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AR70">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AS70">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="AT70">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="AU70">
         <v>8</v>
@@ -15805,25 +15805,25 @@
         <v>1.25</v>
       </c>
       <c r="AN71">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AO71">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="AP71">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ71">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AR71">
-        <v>0.86</v>
+        <v>1.01</v>
       </c>
       <c r="AS71">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AT71">
-        <v>2.09</v>
+        <v>2.26</v>
       </c>
       <c r="AU71">
         <v>2</v>
@@ -16011,25 +16011,25 @@
         <v>2.25</v>
       </c>
       <c r="AN72">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AO72">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AP72">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ72">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AR72">
         <v>1.45</v>
       </c>
       <c r="AS72">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT72">
-        <v>2.87</v>
+        <v>2.83</v>
       </c>
       <c r="AU72">
         <v>5</v>
@@ -16217,25 +16217,25 @@
         <v>1.72</v>
       </c>
       <c r="AN73">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AO73">
-        <v>1.91</v>
+        <v>1.4</v>
       </c>
       <c r="AP73">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AQ73">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR73">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="AS73">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="AT73">
-        <v>3.18</v>
+        <v>3.13</v>
       </c>
       <c r="AU73">
         <v>9</v>
@@ -16423,25 +16423,25 @@
         <v>1.01</v>
       </c>
       <c r="AN74">
-        <v>0.42</v>
+        <v>0.2</v>
       </c>
       <c r="AO74">
-        <v>2.17</v>
+        <v>2.33</v>
       </c>
       <c r="AP74">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ74">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR74">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AS74">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="AT74">
-        <v>2.74</v>
+        <v>2.92</v>
       </c>
       <c r="AU74">
         <v>5</v>
@@ -16629,25 +16629,25 @@
         <v>2.9</v>
       </c>
       <c r="AN75">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AO75">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="AP75">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AQ75">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR75">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="AS75">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT75">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="AU75">
         <v>3</v>
@@ -16838,22 +16838,22 @@
         <v>1.17</v>
       </c>
       <c r="AO76">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AP76">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ76">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AR76">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="AS76">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AT76">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="AU76">
         <v>10</v>
@@ -17041,25 +17041,25 @@
         <v>1.28</v>
       </c>
       <c r="AN77">
-        <v>1.08</v>
+        <v>1.4</v>
       </c>
       <c r="AO77">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AP77">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ77">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AR77">
-        <v>1.35</v>
+        <v>1.52</v>
       </c>
       <c r="AS77">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="AT77">
-        <v>3.14</v>
+        <v>3.28</v>
       </c>
       <c r="AU77">
         <v>2</v>
@@ -17247,25 +17247,25 @@
         <v>1.87</v>
       </c>
       <c r="AN78">
-        <v>1.58</v>
+        <v>1.33</v>
       </c>
       <c r="AO78">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR78">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="AS78">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="AT78">
-        <v>2.44</v>
+        <v>2.25</v>
       </c>
       <c r="AU78">
         <v>8</v>
@@ -17453,25 +17453,25 @@
         <v>1.47</v>
       </c>
       <c r="AN79">
-        <v>1.83</v>
+        <v>2.33</v>
       </c>
       <c r="AO79">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="AP79">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="AQ79">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR79">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="AS79">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AT79">
-        <v>2.89</v>
+        <v>2.91</v>
       </c>
       <c r="AU79">
         <v>11</v>
@@ -17659,25 +17659,25 @@
         <v>1.24</v>
       </c>
       <c r="AN80">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AO80">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="AP80">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ80">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AR80">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AS80">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="AT80">
-        <v>2.09</v>
+        <v>2.12</v>
       </c>
       <c r="AU80">
         <v>4</v>
@@ -17865,25 +17865,25 @@
         <v>1.35</v>
       </c>
       <c r="AN81">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AO81">
-        <v>1.38</v>
+        <v>1.83</v>
       </c>
       <c r="AP81">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AQ81">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AR81">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="AS81">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="AT81">
-        <v>3.1</v>
+        <v>2.99</v>
       </c>
       <c r="AU81">
         <v>2</v>
@@ -18071,25 +18071,25 @@
         <v>1.4</v>
       </c>
       <c r="AN82">
-        <v>0.38</v>
+        <v>0.17</v>
       </c>
       <c r="AO82">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AP82">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ82">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR82">
-        <v>1.1</v>
+        <v>1.23</v>
       </c>
       <c r="AS82">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="AT82">
-        <v>2.41</v>
+        <v>2.46</v>
       </c>
       <c r="AU82">
         <v>8</v>
@@ -18277,25 +18277,25 @@
         <v>1.22</v>
       </c>
       <c r="AN83">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AO83">
-        <v>2.08</v>
+        <v>2.17</v>
       </c>
       <c r="AP83">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ83">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR83">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="AS83">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="AT83">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AU83">
         <v>0</v>
@@ -18483,25 +18483,25 @@
         <v>1.25</v>
       </c>
       <c r="AN84">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO84">
-        <v>1.92</v>
+        <v>1.33</v>
       </c>
       <c r="AP84">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ84">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR84">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="AS84">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="AT84">
-        <v>2.61</v>
+        <v>2.59</v>
       </c>
       <c r="AU84">
         <v>7</v>
@@ -18689,25 +18689,25 @@
         <v>1.22</v>
       </c>
       <c r="AN85">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AO85">
-        <v>2.23</v>
+        <v>2.43</v>
       </c>
       <c r="AP85">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AQ85">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR85">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="AS85">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="AT85">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AU85">
         <v>8</v>
@@ -18895,25 +18895,25 @@
         <v>3.83</v>
       </c>
       <c r="AN86">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AO86">
-        <v>0.21</v>
+        <v>0.5</v>
       </c>
       <c r="AP86">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ86">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR86">
         <v>1.48</v>
       </c>
       <c r="AS86">
-        <v>0.86</v>
+        <v>0.68</v>
       </c>
       <c r="AT86">
-        <v>2.34</v>
+        <v>2.16</v>
       </c>
       <c r="AU86">
         <v>9</v>
@@ -19101,25 +19101,25 @@
         <v>3.1</v>
       </c>
       <c r="AN87">
-        <v>1.79</v>
+        <v>2.43</v>
       </c>
       <c r="AO87">
         <v>0.57</v>
       </c>
       <c r="AP87">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="AQ87">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR87">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AS87">
-        <v>1.13</v>
+        <v>0.98</v>
       </c>
       <c r="AT87">
-        <v>2.61</v>
+        <v>2.51</v>
       </c>
       <c r="AU87">
         <v>3</v>
@@ -19307,25 +19307,25 @@
         <v>2.95</v>
       </c>
       <c r="AN88">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AO88">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="AP88">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ88">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AR88">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AS88">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="AT88">
-        <v>2.86</v>
+        <v>3.04</v>
       </c>
       <c r="AU88">
         <v>7</v>
@@ -19516,22 +19516,22 @@
         <v>1.43</v>
       </c>
       <c r="AO89">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AP89">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ89">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AR89">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="AS89">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="AT89">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="AU89">
         <v>5</v>
@@ -19719,25 +19719,25 @@
         <v>1.63</v>
       </c>
       <c r="AN90">
-        <v>0.93</v>
+        <v>1.17</v>
       </c>
       <c r="AO90">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AP90">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ90">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AR90">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AS90">
         <v>1.22</v>
       </c>
       <c r="AT90">
-        <v>2.53</v>
+        <v>2.63</v>
       </c>
       <c r="AU90">
         <v>4</v>
@@ -19925,25 +19925,25 @@
         <v>3</v>
       </c>
       <c r="AN91">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AO91">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="AP91">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AQ91">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR91">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="AS91">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="AT91">
-        <v>2.99</v>
+        <v>2.91</v>
       </c>
       <c r="AU91">
         <v>8</v>
@@ -20131,22 +20131,22 @@
         <v>3.3</v>
       </c>
       <c r="AN92">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="AO92">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="AP92">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ92">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AR92">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="AS92">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="AT92">
         <v>2.82</v>
@@ -20337,25 +20337,25 @@
         <v>1.22</v>
       </c>
       <c r="AN93">
-        <v>1.07</v>
+        <v>1.43</v>
       </c>
       <c r="AO93">
-        <v>2.2</v>
+        <v>2.29</v>
       </c>
       <c r="AP93">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ93">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR93">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
       <c r="AS93">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AT93">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="AU93">
         <v>4</v>
@@ -20543,25 +20543,25 @@
         <v>1.48</v>
       </c>
       <c r="AN94">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="AO94">
-        <v>1.87</v>
+        <v>1.14</v>
       </c>
       <c r="AP94">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AQ94">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR94">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="AS94">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AT94">
-        <v>2.87</v>
+        <v>2.91</v>
       </c>
       <c r="AU94">
         <v>4</v>
@@ -20749,25 +20749,25 @@
         <v>1.45</v>
       </c>
       <c r="AN95">
-        <v>1.6</v>
+        <v>1.29</v>
       </c>
       <c r="AO95">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AP95">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ95">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AR95">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="AS95">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="AT95">
-        <v>2.47</v>
+        <v>2.58</v>
       </c>
       <c r="AU95">
         <v>7</v>
@@ -20955,25 +20955,25 @@
         <v>2.4</v>
       </c>
       <c r="AN96">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AO96">
-        <v>0.2</v>
+        <v>0.43</v>
       </c>
       <c r="AP96">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ96">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR96">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AS96">
-        <v>0.85</v>
+        <v>0.71</v>
       </c>
       <c r="AT96">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="AU96">
         <v>11</v>
@@ -21161,25 +21161,25 @@
         <v>1.12</v>
       </c>
       <c r="AN97">
-        <v>0.53</v>
+        <v>0.57</v>
       </c>
       <c r="AO97">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="AP97">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ97">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AR97">
-        <v>1.14</v>
+        <v>1.28</v>
       </c>
       <c r="AS97">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="AT97">
-        <v>2.97</v>
+        <v>3.12</v>
       </c>
       <c r="AU97">
         <v>4</v>
@@ -21367,25 +21367,25 @@
         <v>1.28</v>
       </c>
       <c r="AN98">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO98">
         <v>2.25</v>
       </c>
       <c r="AP98">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AQ98">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR98">
         <v>1.83</v>
       </c>
       <c r="AS98">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AT98">
-        <v>3.39</v>
+        <v>3.34</v>
       </c>
       <c r="AU98">
         <v>6</v>
@@ -21573,25 +21573,25 @@
         <v>1.09</v>
       </c>
       <c r="AN99">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AO99">
-        <v>1.81</v>
+        <v>1.13</v>
       </c>
       <c r="AP99">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ99">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR99">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="AS99">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT99">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="AU99">
         <v>3</v>
@@ -21779,25 +21779,25 @@
         <v>1.36</v>
       </c>
       <c r="AN100">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="AO100">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AP100">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ100">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AR100">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="AS100">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AT100">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="AU100">
         <v>7</v>
@@ -21985,25 +21985,25 @@
         <v>1.75</v>
       </c>
       <c r="AN101">
-        <v>1.06</v>
+        <v>1.38</v>
       </c>
       <c r="AO101">
         <v>0.5</v>
       </c>
       <c r="AP101">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ101">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR101">
-        <v>1.12</v>
+        <v>1.23</v>
       </c>
       <c r="AS101">
-        <v>1.14</v>
+        <v>1.02</v>
       </c>
       <c r="AT101">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="AU101">
         <v>5</v>
@@ -22191,25 +22191,25 @@
         <v>1.65</v>
       </c>
       <c r="AN102">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AO102">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AP102">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AQ102">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AR102">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="AS102">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AT102">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AU102">
         <v>6</v>
@@ -22400,22 +22400,22 @@
         <v>2.13</v>
       </c>
       <c r="AO103">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AP103">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ103">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR103">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AS103">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="AT103">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AU103">
         <v>9</v>
@@ -22603,25 +22603,25 @@
         <v>1.88</v>
       </c>
       <c r="AN104">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="AO104">
-        <v>2.18</v>
+        <v>2.13</v>
       </c>
       <c r="AP104">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ104">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR104">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="AS104">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT104">
-        <v>3.13</v>
+        <v>3.11</v>
       </c>
       <c r="AU104">
         <v>5</v>
@@ -22809,25 +22809,25 @@
         <v>1.83</v>
       </c>
       <c r="AN105">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="AO105">
+        <v>1.5</v>
+      </c>
+      <c r="AP105">
         <v>1.71</v>
       </c>
-      <c r="AP105">
-        <v>1.57</v>
-      </c>
       <c r="AQ105">
+        <v>1.35</v>
+      </c>
+      <c r="AR105">
+        <v>1.45</v>
+      </c>
+      <c r="AS105">
         <v>1.32</v>
       </c>
-      <c r="AR105">
-        <v>1.4</v>
-      </c>
-      <c r="AS105">
-        <v>1.26</v>
-      </c>
       <c r="AT105">
-        <v>2.66</v>
+        <v>2.77</v>
       </c>
       <c r="AU105">
         <v>6</v>
@@ -23015,25 +23015,25 @@
         <v>1.72</v>
       </c>
       <c r="AN106">
-        <v>0.9399999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="AO106">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AP106">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ106">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR106">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="AS106">
-        <v>1.15</v>
+        <v>1.02</v>
       </c>
       <c r="AT106">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AU106">
         <v>7</v>
@@ -23221,25 +23221,25 @@
         <v>1.32</v>
       </c>
       <c r="AN107">
-        <v>1.35</v>
+        <v>1.63</v>
       </c>
       <c r="AO107">
-        <v>1.41</v>
+        <v>1.75</v>
       </c>
       <c r="AP107">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ107">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AR107">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AS107">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="AT107">
-        <v>3.11</v>
+        <v>3.15</v>
       </c>
       <c r="AU107">
         <v>5</v>
@@ -23427,25 +23427,25 @@
         <v>2</v>
       </c>
       <c r="AN108">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="AO108">
-        <v>0.18</v>
+        <v>0.38</v>
       </c>
       <c r="AP108">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ108">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR108">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
       <c r="AS108">
-        <v>0.83</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT108">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="AU108">
         <v>3</v>
@@ -23633,25 +23633,25 @@
         <v>2.65</v>
       </c>
       <c r="AN109">
+        <v>2.5</v>
+      </c>
+      <c r="AO109">
         <v>1.88</v>
       </c>
-      <c r="AO109">
-        <v>1.53</v>
-      </c>
       <c r="AP109">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="AQ109">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AR109">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="AS109">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="AT109">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="AU109">
         <v>7</v>
@@ -23839,25 +23839,25 @@
         <v>2.25</v>
       </c>
       <c r="AN110">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="AO110">
-        <v>0.61</v>
+        <v>0.78</v>
       </c>
       <c r="AP110">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ110">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR110">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AS110">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
       <c r="AT110">
-        <v>2.45</v>
+        <v>2.36</v>
       </c>
       <c r="AU110">
         <v>8</v>
@@ -24045,25 +24045,25 @@
         <v>1.9</v>
       </c>
       <c r="AN111">
-        <v>1.33</v>
+        <v>1.56</v>
       </c>
       <c r="AO111">
+        <v>0.67</v>
+      </c>
+      <c r="AP111">
+        <v>1.71</v>
+      </c>
+      <c r="AQ111">
         <v>0.9399999999999999</v>
       </c>
-      <c r="AP111">
-        <v>1.57</v>
-      </c>
-      <c r="AQ111">
-        <v>0.97</v>
-      </c>
       <c r="AR111">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AS111">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="AT111">
-        <v>2.76</v>
+        <v>2.62</v>
       </c>
       <c r="AU111">
         <v>4</v>
@@ -24251,25 +24251,25 @@
         <v>1.1</v>
       </c>
       <c r="AN112">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AO112">
-        <v>2.22</v>
+        <v>2.33</v>
       </c>
       <c r="AP112">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ112">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR112">
-        <v>1.12</v>
+        <v>1.27</v>
       </c>
       <c r="AS112">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="AT112">
-        <v>2.67</v>
+        <v>2.76</v>
       </c>
       <c r="AU112">
         <v>3</v>
@@ -24457,25 +24457,25 @@
         <v>1.28</v>
       </c>
       <c r="AN113">
-        <v>1.61</v>
+        <v>1.89</v>
       </c>
       <c r="AO113">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="AP113">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AQ113">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR113">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AS113">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="AT113">
-        <v>2.79</v>
+        <v>2.69</v>
       </c>
       <c r="AU113">
         <v>2</v>
@@ -24663,25 +24663,25 @@
         <v>1.2</v>
       </c>
       <c r="AN114">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO114">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="AP114">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ114">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AR114">
-        <v>0.84</v>
+        <v>0.96</v>
       </c>
       <c r="AS114">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="AT114">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="AU114">
         <v>5</v>
@@ -24869,25 +24869,25 @@
         <v>1.67</v>
       </c>
       <c r="AN115">
-        <v>2.11</v>
+        <v>2.22</v>
       </c>
       <c r="AO115">
-        <v>1.5</v>
+        <v>1.89</v>
       </c>
       <c r="AP115">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ115">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AR115">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AS115">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="AT115">
-        <v>3.34</v>
+        <v>3.45</v>
       </c>
       <c r="AU115">
         <v>7</v>
@@ -25075,25 +25075,25 @@
         <v>5.45</v>
       </c>
       <c r="AN116">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="AO116">
-        <v>0.32</v>
+        <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ116">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR116">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="AS116">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AT116">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="AU116">
         <v>12</v>
@@ -25281,25 +25281,25 @@
         <v>2.05</v>
       </c>
       <c r="AN117">
-        <v>1.79</v>
+        <v>2.33</v>
       </c>
       <c r="AO117">
-        <v>1.37</v>
+        <v>1.11</v>
       </c>
       <c r="AP117">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="AQ117">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AR117">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AS117">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT117">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="AU117">
         <v>4</v>
@@ -25487,25 +25487,25 @@
         <v>1.55</v>
       </c>
       <c r="AN118">
-        <v>0.89</v>
+        <v>1.22</v>
       </c>
       <c r="AO118">
-        <v>1.58</v>
+        <v>1.33</v>
       </c>
       <c r="AP118">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ118">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AR118">
-        <v>1.37</v>
+        <v>1.55</v>
       </c>
       <c r="AS118">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="AT118">
-        <v>2.61</v>
+        <v>2.89</v>
       </c>
       <c r="AU118">
         <v>4</v>
@@ -25693,25 +25693,25 @@
         <v>1.66</v>
       </c>
       <c r="AN119">
-        <v>1.58</v>
+        <v>1.22</v>
       </c>
       <c r="AO119">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AP119">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ119">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR119">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AS119">
-        <v>1.1</v>
+        <v>0.96</v>
       </c>
       <c r="AT119">
-        <v>2.35</v>
+        <v>2.26</v>
       </c>
       <c r="AU119">
         <v>5</v>
@@ -25899,25 +25899,25 @@
         <v>1.12</v>
       </c>
       <c r="AN120">
-        <v>0.58</v>
+        <v>0.44</v>
       </c>
       <c r="AO120">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AP120">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ120">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR120">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AS120">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="AT120">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="AU120">
         <v>4</v>
@@ -26105,25 +26105,25 @@
         <v>1.9</v>
       </c>
       <c r="AN121">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AO121">
-        <v>1.42</v>
+        <v>1.11</v>
       </c>
       <c r="AP121">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AQ121">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AR121">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="AS121">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="AT121">
-        <v>3.15</v>
+        <v>3.16</v>
       </c>
       <c r="AU121">
         <v>6</v>
@@ -26311,25 +26311,25 @@
         <v>1.3</v>
       </c>
       <c r="AN122">
-        <v>0.55</v>
+        <v>0.4</v>
       </c>
       <c r="AO122">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="AP122">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ122">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AR122">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AS122">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT122">
-        <v>2.46</v>
+        <v>2.67</v>
       </c>
       <c r="AU122">
         <v>6</v>
@@ -26517,25 +26517,25 @@
         <v>1.3</v>
       </c>
       <c r="AN123">
-        <v>0.85</v>
+        <v>1.1</v>
       </c>
       <c r="AO123">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="AP123">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ123">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AR123">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="AS123">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AT123">
-        <v>2.85</v>
+        <v>2.98</v>
       </c>
       <c r="AU123">
         <v>0</v>
@@ -26723,25 +26723,25 @@
         <v>1.3</v>
       </c>
       <c r="AN124">
-        <v>0.95</v>
+        <v>1.2</v>
       </c>
       <c r="AO124">
+        <v>1</v>
+      </c>
+      <c r="AP124">
+        <v>1.25</v>
+      </c>
+      <c r="AQ124">
+        <v>1.44</v>
+      </c>
+      <c r="AR124">
+        <v>1.22</v>
+      </c>
+      <c r="AS124">
         <v>1.35</v>
       </c>
-      <c r="AP124">
-        <v>1</v>
-      </c>
-      <c r="AQ124">
-        <v>1.57</v>
-      </c>
-      <c r="AR124">
-        <v>1.11</v>
-      </c>
-      <c r="AS124">
-        <v>1.37</v>
-      </c>
       <c r="AT124">
-        <v>2.48</v>
+        <v>2.57</v>
       </c>
       <c r="AU124">
         <v>5</v>
@@ -26929,25 +26929,25 @@
         <v>4.33</v>
       </c>
       <c r="AN125">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="AO125">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AP125">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AQ125">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="AR125">
         <v>1.75</v>
       </c>
       <c r="AS125">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT125">
-        <v>2.59</v>
+        <v>2.44</v>
       </c>
       <c r="AU125">
         <v>5</v>
@@ -27138,22 +27138,22 @@
         <v>2.1</v>
       </c>
       <c r="AO126">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AP126">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ126">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AR126">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="AS126">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AT126">
-        <v>2.87</v>
+        <v>2.94</v>
       </c>
       <c r="AU126">
         <v>9</v>
@@ -27344,22 +27344,22 @@
         <v>2.2</v>
       </c>
       <c r="AO127">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="AP127">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AQ127">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AR127">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AS127">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT127">
-        <v>2.85</v>
+        <v>2.89</v>
       </c>
       <c r="AU127">
         <v>5</v>
@@ -27547,25 +27547,25 @@
         <v>1.21</v>
       </c>
       <c r="AN128">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="AO128">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="AP128">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="AQ128">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AR128">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="AS128">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="AT128">
-        <v>3.06</v>
+        <v>3.03</v>
       </c>
       <c r="AU128">
         <v>5</v>
@@ -27753,25 +27753,25 @@
         <v>1.78</v>
       </c>
       <c r="AN129">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="AO129">
-        <v>0.86</v>
+        <v>0.6</v>
       </c>
       <c r="AP129">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AQ129">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR129">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="AS129">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="AT129">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="AU129">
         <v>5</v>
@@ -27959,25 +27959,25 @@
         <v>2.5</v>
       </c>
       <c r="AN130">
-        <v>1.43</v>
+        <v>1.7</v>
       </c>
       <c r="AO130">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AP130">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AQ130">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR130">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AS130">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="AT130">
-        <v>2.57</v>
+        <v>2.48</v>
       </c>
       <c r="AU130">
         <v>5</v>
@@ -28165,25 +28165,25 @@
         <v>1.3</v>
       </c>
       <c r="AN131">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="AO131">
-        <v>1.52</v>
+        <v>1.8</v>
       </c>
       <c r="AP131">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AQ131">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AR131">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AS131">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="AT131">
-        <v>2.94</v>
+        <v>3.04</v>
       </c>
       <c r="AU131">
         <v>5</v>
@@ -28371,25 +28371,25 @@
         <v>1.25</v>
       </c>
       <c r="AN132">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO132">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="AP132">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ132">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR132">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="AS132">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="AT132">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="AU132">
         <v>8</v>
@@ -28577,25 +28577,25 @@
         <v>1.3</v>
       </c>
       <c r="AN133">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="AO133">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="AP133">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AQ133">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AR133">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="AS133">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="AT133">
-        <v>2.83</v>
+        <v>2.64</v>
       </c>
       <c r="AU133">
         <v>2</v>
